--- a/기사데이터/토스/엑셀파일/news(토스, 2022.07.16~2022.07.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.07.16~2022.07.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>토스 기업 가치 8조5천억…기업은행 넘어섰다</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002263037?sid=105</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>"내년 흑자 전환 예상"…3천억 신규 투자 유치모바일 금융서비스 '토스'를 운영하는 비바리퍼블리카가 신규 투자를 진행하면서 기업 가치가 8조5천억원이라는 평가를 받았다.21일 토스 측은 이 같이 밝히며, 2021년 6월 마지막 투자 유치 당시에 받았던 가치 평가 8조2천억원에 비해 3천억원 늘었다고 부연했다.아직 토스가 국내 유가증권 시장에 상장하지 않았기 때문에, 무조건적으로 기업 가치액을 비교하긴 어렵지만 ▲엔씨소프트 8조1천668억원(20일 종가 기준) ▲아모레퍼시픽(8조720억원) ▲LG이노텍(7조9천758억원) ▲기업은행(6조9천517억원)보다 높은 수준이다.2021년 토스의 연결 기준으로 2천160억원 당기순손실을 기록했다. 2020년 909억5천만원 대비 137%가량 당기순손실 폭이 확대됐다. 하지만 매출의 90% 이상이 금융사로부터 받는 중개·모집·광고 등에서 발생하는 기업 대 기업 간(B2B)모델로 수익구조를 갖추고 있어 내년 흑자 전환을 예상한다는 게 토스 측 설명이다.토스 측은 "결제, 대출 중개 등의 매출이 확대되고 있어 빠르면 내년 초 흑자 전환이 가능할 것으로 예상하고 있다"고 말했다.신규 투자는 7월과 8월 두 차례로 나눠 진행되며 3천억원 규모의 투자를 확정했다. 이번 투자의 리드 투자자는 토스의 초기 성장부터 함께한 알토스벤처스로 1천억원을 신규 투자했다. 굿워터와 그레이하운드 등 해외 주주들의 투자도 이어졌다.국내 기관투자자 중에는 KDB산업은행이 1천억원, 광주은행이 200억원의 투자를 단행했다. 다올인베스트먼트(옛 이름 KTB네트워크)와 미래에셋증권도 소규모로 투자에 참여했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>[ET라씨로] 이월드 · 한국전자인증, 토스 3천억원 신규 투자 유치에 오름세</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003031947?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>ET라씨로는 인공지능(AI) 기반으로 선별·분석한 주식 정보와 종목 매매 신호를 제공하는 전자신문 증권 정보 애플리케이션입니다. 플레이스토어에서 'ET라씨로'(-&gt;바로가기)를 다운로드하면 IT기업 뉴스와 시장 현황, AI 매매 타이밍을 받아볼 수 있습니다.토스 운영사 비바리퍼블리카가 3000억 원 규 모 투자를 확정했다고 밝히자 토스 관련주로 분류되는 이월드, 한국전자인증 등 주가가 상승했다.21일 오전 9시 22분 기준 이월드(084680)는 전 거래일 대비 9.65% 오른 2045원에 거래되고 있고, 한국전자인증(041460)은 2.36% 오른 6080원에 거래되고 있다.이월드는 계열사 이랜드가 토스뱅크 지분 7.5%를 보유하고 있어 토스 관련주로 검색된다. 한국전자인증은 지난 3월 비바리퍼블리카와 본인확인서비스 총판 계약을 체결하고 사업 협력을 강화한다고 공시한 바 있다.토스 관련주가 오름세를 보인 이유는 전날 토스가 3000억원 규모 신규 투자를 유치했다고 공시했기 때문이다.벤처캐피탈(VC) 알토스벤처스가 리드 투자자로 참여해 1000억원을, 국내 기관투자자 중에는 KDB산업은행이 1000억원, 광주은행이 200억원을 투자했다. 토스의 초기 투자자인 다올인베스트먼트(옛 KTB네트워크)와 미래에셋증권도 소규모로 투자했고, 굿워터와 그레이하운드 등 해외 주주들도 참여했다고 회사는 밝혔다.이번 투자에서 토스는 기업가치를 8조5000억원으로 평가받았다고 밝혔다. 이는 지난해 6월 직전 투자에서 평가받은 8조2000억원을 소폭 상회하는 것이다.#이월드 #AI 매매신호 #실시간 매매타이밍 #알림 신청이 기사는 전자신문과 금융 AI 전문기업 씽크풀이 공동으로 작성한 것입니다. AI를 기반으로 생성된 데이터에 기자의 취재 내용을 추가한 'AI 휴머노이드 기사'입니다.※ ET라씨로에서 실시간 속보 확인하기</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>슈퍼 앱 가는 토스, 알뜰폰 업체 인수…은행은 안되나?</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005273721?sid=105</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>월 1,400만명 쓰는 토스 앱..뱅크와 증권이어 통신까지KB국민은행, 신한은행 알뜰폰은 논란..유통협회, 노조 반대고물가에 통신비 절감 필요성 커..무조건 반대 어려워방통위 "상생위한 행정지도" 언급[이데일리 김현아 기자] [이데일리 이미나 기자]월간 활성 이용자 수(MAU) 1,400만 명에 달하는 토스가 알뜰폰 업체를 인수했다. 뱅크와 증권 업무뿐 아니라 통신 가입까지 ‘토스’ 앱 하나로 가능해진다. 그야말로 슈퍼앱이 될 조짐이다.그런데 같은 날 (사)전국이동통신유통협회와 금융노조 KB국민은행지부(노조)는 김주현 신임 금융위원장에게 국민은행의 알뜰폰 사업에 대해 혁신금융서비스 승인을 취소하라는 기자회견을 열었다. 여기에 소비자주권시민회의는 신한은행이 ‘신한 쏠(SOL)’ 앱에서 KT망 사용 알뜰폰 사업자 요금제를 파는 일을 중단해야 한다고 촉구했다. 알뜰폰 사업, 핀테크 회사는 되고 은행들은 하면 안 되는 걸까.토스, 금융이어 통신 시장 진출토스를 운영하는 비바리퍼블리카는 이동통신 3사(SKT·KT·LG유플러스) 통신망을 모두 빌려 쓰는 알뜰폰 사업자(MVNO) 머천드코리아의 지분 100%를 인수하는 주식매매계약을 체결했다. 장민영 토스 사업전략리드(Business Strategy Lead)는 “토스가 금융 서비스를 통해 고객의 시간과 비용을 아끼고 사회적 효용을 만들어낸 것처럼, 알뜰폰 가입 고객의 불편함 해소와 토스 고객의 통신비 절감에 기여하려 한다“고 강조했다. 토스는 토스 앱을 통해 알뜰폰 요금제 탐색부터 편리한 개통까지 가입의 전 과정을 혁신할 방침이다. 본인확인기관과 전자서명인증 사업자 지위를 모두 갖고 있어 알뜰폰 가입 과정에서 토스인증서를  활용할 계획이다.이승건 비바리퍼블리카 사장. 사진=토스국민·신한 은행도 서비스 중KB국민은행은 2019년 12월부터 알뜰폰 리브엠(Liiv M)을 서비스 중이다. 금융 혁신금융서비스로 지정받아 진출한 것인데, 저렴한 LTE 요금제로 인기를 끌고 있다. ‘KB국민 LTE 든든무제한 11GB+’의 경우 월 3만 3,000원인데, KB든든할인(KB국민은행 거래 실적에 따라 최대 월 3300원 할인) 적용 시 월2만 4,800원이다.신한은행도 최근 알뜰폰 제휴 마케팅을 시작했다. 모바일뱅킹 앱 신한 쏠(SOL)에 알뜰폰 가입 이벤트 페이지를 열고, KT망을 사용하는 KT M모바일, 스카이라이프, 스테이지파이브, 세종텔레콤 알뜰폰 사업자의 12가지 제휴 요금제를 판매한다. 앞서 신한과 KT는 총 4375억 규모의 ‘디지털 금융’ 혈맹을 맺었다. KT가 신한금융지주 지분 2.08%를 확보하는 대신, 신한은행은 NTT도코모가 보유했던 KT지분 5.46%를 취득했다.[이데일리 이미나 기자]살인적 물가에 반대만 하기 어려워은행권 알뜰폰 사업을 반대하는 쪽은 이동통신 대리점·판매점과 KB국민은행 노조다. 도매대가(알뜰폰이 통신망을 빌리면서 통신사에 내는 돈)보다 낮은 요금제로 중소업체 가입자를 빼앗고, 은행 고유의 업무를 훼손한다는 주장이다. 염규호 (사)전국이동통신유통협회 회장은 “국민은행 손실액은 (가입자당) 24개월 기준 20~30만원 수준에 달할 것으로 추정되는데, 이는 금융대기업이 서민 대출이자 수익을 통신시장에 전이해 통신산업의 시장질서를 왜곡하는 것”이라고 목소리를 높였다. 류제강 KT국민은행 노조위원장은 “사측이 대면서비스를 일방적으로 강행해 알뜰폰 사업과 은행 고유의 업무가 공존하는 게 불가능해졌다”고 비판했다.그러나, 6월 소비자물가지수가 지난해 같은 기간보다 6%나 급등한 상황에서 통신비를 아낄 수 있는 알뜰폰 시장에서 규모의 경쟁이 이뤄지는 걸 반대하는 데 대한 명분이 크지 않다.방통위 관계자는 “금융권이나 통신 자회사처럼 자본력이 큰 기업들이 경품 가이드라인을 위반하는지, 공정경쟁을 해치는지 살펴야 한다”면서도 “기재부가 고물가 통신분야 대응에 알뜰폰 활성화를 언급한 상황이어서 (철수보다는)상생을 위한 행정지도가 필요하지 않겠나”라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.07.20.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>위버스, 네이버 브이라이브 장착하고 '슈퍼앱'으로 진화</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002262888?sid=105</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>소통·콘텐츠·상품 구매 한 플랫폼서 가능…"팬 경험 집약한 슈퍼앱 발돋움"플랫폼 업계 안팎에선 최근 ‘슈퍼앱’ 바람이 불고 있다. 슈퍼앱이란 여러 서비스를 하나의 앱에서 함께 제공한다는 의미다. 가령 커머스의 경우, 별도 앱을 설치하지 않아도 쇼핑부터 구매, 검색 등을 한곳에서 이용할 수 있도록 한 게 슈퍼앱이다. 쏘카, 토스, 배달의민족 등 여러 플랫폼 기업이 슈퍼앱 전략을 펴고 있다.18일 네이버 브이(V)라이브를 품고, 새 단장한 ‘위버스’에서도 이런 특징이 엿보인다. 위버스컴퍼니는 V라이브 사업부 인수 후 서비스의 점진적인 통합을 시작, 정보기술(IT)을 곁들여 이용 편의성 제고에 나섰다. 개선된 위버스에선 아티스트와의 소통, 콘텐츠 시청, 상품 구매를 한 번에 즐길 수 있다.소통·콘텐츠에 위버스샵까지 '하나로'위버스에선 커뮤니티를 활용해 개인과 팬덤 간 쌍방향 소통이 가능하게끔 했다. 과거 포털 사이트 팬 카페에서 이뤄진 무리 활동과 유사한 형태다. 위버스 커뮤니티는 팬들이 작성한 글을 모은 ‘피드’, 아티스트가 팬을 위해 직접 남긴 게시물을 보여주는 ‘아티스트’, 아티스트와 실시간 영상으로 소통할 수 있는 ‘라이브(Live)’ 등 탭으로 구성됐다.(사진=위버스)또 아티스트 공식 콘텐츠를 한데 모았다. 아티스트 커뮤니티 내 미디어 탭을 통해 앨범 활동 관련 콘텐츠부터 자체 예능까지 각기 다른 채널에 흩어진 내용물을 접할 수 있다. 유료 콘텐츠의 경우, 위버스에서 바로 결제할 수 있어 편리하다.커머스 플랫폼 위버스샵과 연계도 주목할 만하다. 이용자는 위버스 안에서 원하는 가수의 공식 앨범과 상품, 공연티켓 등을 한 번에 구매할 수 있다. 아티스트가 새로운 앨범을 발매할 때 예약판매 기간 위버스샵에서 구입하면 샵 전용 특전을 제공받을 수도 있다.위버스 커뮤니티.온오프라인 연결…현장 감동 온라인으로 이식 온오프라인을 하나로 연결한 점 역시 위버스의 슈퍼앱 특징 중 하나다. 위버스는 오프라인 공연 참석이 어려운 전 세계 팬들이 현장을 즐길 수 있도록 온라인 콘서트 스트리밍 서비스를 지원한다. 온라인 콘서트 티켓 구매와 시청, 팬덤 간 대화가 위버스에서 모두 가능하게끔 한 것.위버스 내에서는 위와 같이 영상부터 사진까지 다양한 미디어 콘텐츠를 즐길 수 있다.정해진 시간에 한 번 더 온라인 콘서트를 관람할 수 있는 ‘딜레이 스트리밍’, 공연 전 아티스트 리허설 현장을 미리 볼 수 있는 ‘리허설 관람’ 등 옵션과 공연 관람자를 대상으로 한 특별 혜택도 제공한다.‘맵 앤 웨이트 타임즈(MAP &amp; WAIT TIMES)’ 서비스도 있다. 콘서트, 라이브 공연장 지도와 좌석 배치도는 물론, 주요 판매 시설 대기 정보, 프로그램 리스트와 온라인 채널 링크 등 정보를 받아볼 수 있는 시스템이다. 지난 4월 미국 라스베이거스에서 열린 그룹 방탄소년단(BTS) 콘서트 현장에서 이 기능이 활용됐다.앱을 통해 제공되는 ‘MAP &amp; WAIT TIMES(맵 앤 웨이트 타임즈)’ 서비스.위버스는 글로벌 246개 국가에서 서비스되며, 가입자수는 이달 기준 4천만명을 웃돈다. BTS와 그룹 세븐틴 등 국내외 56개 아티스트가 입점했다.위버스 관계자는 “금번 V라이브와 시너지를 본격화하면서, 더욱 고도화된 팬친화적 기술로 관련 서비스를 전개해 나갈 것”이라며 “팬 경험의 모든 것을 집약한 슈퍼앱으로 진화할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>진격의 '토스' 알뜰폰 진출···7000억 조달에 포트폴리오 강화</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004773550?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>[(상보)중소 알뜰폰 '머천드코리아' 지분 100% 인수]/사진제공=비바리퍼블리카모바일 금융 서비스 플랫폼 '토스' 운영사 비바리퍼블리카(이하 토스)가 알뜰폰(MVNO) 시장에 진출한다. 중소 알뜰폰 사업자를 인수하는 방식으로 발을 들인다. 프리IPO(상장 전 지분투자) 성격의 7~8월 대규모 투자와 함께 사업 포트폴리오 확대에 나섰다는 분석이다. 토스는 알뜰폰 사업으로 가계 통신비 절감에 기여하고 기존 토스 서비스들과의 시너지로 사업 볼륨을 더욱 키운다는 방침이다. ━토스, 알뜰폰 사업자 '머천드코리아' 지분 인수…"통신비 절감 기여"━토스는 21일 알뜰폰 사업자 '머천드코리아' 지분 100%를 인수하는 주식매매계약을 체결했다고 밝혔다. 매매대금은 100억원 남짓인 것으로 알려졌다. 알뜰폰은 기존 이동통신사의 망을 도매가로 빌려 자체 브랜드로 저렴한 통신 서비스를 제공한다. 이통사 망을 그대로 임대하는 것이어서 기존 통신 서비스와 품질 차이가 거의 없다. 머천드코리아는 가입자 약 10만여 명을 보유한 중소 알뜰폰 업체로 이동통신 3사(SK텔레콤·KT·LG유플러스) 망을 모두 쓸 수 있다. 토스는 조만간 토스앱(애플리케이션)에서 알뜰폰에 가입할 수 있는 서비스를 선보일 방침이다. 알뜰폰 요금제 탐색부터 개통까지 가입 전 과정을 토스 내에서 해결할 수 있다. 저렴한 요금제로 통신비 절감 기회도 제공한다는 방침이다.가입은 온라인으로만 받는다. △편리한 가입절차 △사용 유형에 맞는 최적 요금제 △운영 사업자의 브랜드 인지도 등 세 가지 요소로 사장 공략에 나선다. 아울러 가입 과정에서의 개인확인 절차는 토스인증서를 적극 활용한다. 토스는 본인확인기관과 전자서명인증 사업자 지위를 모두 갖고 있다.토스는 50여명의 머천드코리아 직원 고용도 그대로 승계할 예정이다. 기업명은 토스 브랜드 아이덴티티에 맞게 변경한다.인수 작업을 주도한 장민영 토스 사업전략리드는 "토스가 금융 서비스를 통해 고객의 시간과 비용을 아끼고 사회적 효용을 만들어낸 것처럼, 알뜰폰 가입 고객의 불편함 해소와 토스 고객의 통신비 절감에 기여하고자 한다"고 말했다. ━대규모 투자에 이은 포트폴리오 강화…'슈퍼앱' 전략도 업그레이드━토스는 전날 제3자 배정증자 방식으로 2957억원의 유상증자를 결정했다고 공시했다. 다음 달에는 최대 4000억원 규모의 추가 투자 유치계획도 공개한다. 모두 7000억원 규모의 자금 조달을 준비 중인 상황에서 알뜰폰 시장 진출 계획까지 공개한 것이다. 토스의 투자 유치는 사실상 프리IPO 성격이 강하다. 이르면 2년 내 상장을 목표로 하고 있다는 점에서 추가 투자 유치 추진 과정에서 포트폴리오 강화는 토스에 긍정적인 영향을 줄 가능성이 크다.  토스의 '수퍼앱' 전략도 한층 업그레이드 될 것으로 보인다. 경쟁 빅테크(IT대기업)들과 달리 토스는 송금, 증권, 보험, 은행 서비스를 하나의 토스 앱에서만 구현한다. 토스뱅크 서비스도 별도 앱 없이 토스 앱에서 구현했다. 고객이 분산되지 않는 집적 효과로 토스앱은 지난 6월 기준 MAU(월간 활성화 이용자수)가 1427만명을 기록해 금융플랫폼 부분 1위를 유지 중이다. 알뜰폰 가입·상담까지 가능해질 경우 MAU 경쟁력이 한층 더 업그레이드 될 것으로 관측된다. 토스 관계자는 "최근에 있었던 투자유치나 상장을 위한 포트폴리오 강화 차원으로 추진된 행보는 아니다"라며 "토스 브랜드와 함께 편리한 사용자 경험을 제시해 규모를 키워나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.07.31.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>‘역사 속에 위기 극복 해법이’...금융 수장들의 휴가철 추천 도서는?</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005280819?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>휴가철 독서 삼매경…추천 키워드 ‘인류ㆍ경제’"인류 삶 통해 미래 통찰력 키워야"[이데일리 전선형 기자] 올해 금융지주회장과 시중은행장 등이 꼽은 휴가철 도서 추천 키워드는 ‘인류’ 그리고 ‘경제’다. 과거의 인류 삶을 통해 미래 경제ㆍ사회와 관련한 통찰력을 얻는 내용의 도서를 주로 추천했다. ‘고물가ㆍ고금리ㆍ고환율’의 3고(高) 위기가 고조되고 있는 만큼, 금융 시장 내 위기 극복을 위한 답을 얻고자 함이다.먼저 윤종규 KB금융지주 회장은 이희수 한양대학교 교수가 지은 ‘인류본사(오리엔트-중동의 눈으로 본 1만2000년 인류사)’와 제프리 D.삭스의 ‘제프리 삭스 지리 기술 제도(7번의 세계화로 본 인류의 미래)’ 총 2권의 책을 추천했다. 모두 인류 역사에 대한 내용이다. 그 중 ‘제프리 삭스 지리 기술 제도’는 지리와 기술, 제도라는 3가지 요인의 상호 작용에 따라 인류가 원시 수렵·농경·기마·고전·해양·산업·디지털 시대라는 7번의 세계화 과정을 경험해 왔다고 진단하고, 역사의 교훈을 통해 새로운 협력 시대의 구축을 강조하는 내용이다.손태승 우리금융지주 회장은 김광석 한양대 교수의 ‘긴축의 시대’를 꼽았다. 이 책은 실물경제와 경제정책 분야 전문가인 저자가 최고 수준으로 치솟은 인플레이션 대응 전략과 금리에 대한 인사이트를 담아낸 일종의 ‘경제 전망서’다. 손 회장은 “불과 작년까지도 3저 현상을 걱정해 왔던 금융권이 역으로 3고 현상에 비상 대응을 해야 할 만큼 시장이 급변하고 있다”며 “하반기 금융권에도 닥쳐올 다양한 리스크에 대한 경각심을 일깨울 인사이트가 절실한 시점에서 도움이 되는 책”이라고 추천 이유를 설명했다.조용병 신한금융지주 회장은 이어령 초대 문화부 장관의 ‘한국인 이야기’를 추천했다. 이 책은 인공지능(AI)에 대한 막연한 공포와 거부감 대신 그것이 몰고 올 세기적 전환점에 슬기롭게 대처하자고 말하고 있다. 조 회장은 “AI의 등장이라는 시대 변화를 한국인 고유의 생활 방식을 통해 해법을 제시하고 있다”며 “대전환의 시대를 사는 우리에게 필요한 인사이트가 녹아 있는 지적 대장정의 종착지 도서로서 추천한다”고 말했다.손병환 NH농협금융지주 회장은 조영태 서울대 교수의 ‘인구미래공존’을 추천했다. 이 책은 인구 절벽을 해소하기 위한 다양한 해법을 제시하고 있다. 손 회장은 “대한민국의 인구 대전환의 시작점에서 인구학적 관점으로 기술된 우리나라 인구 문제의 근본적인 이유와 이를 해결하기 위한 방안을 통해 현재를 인식하고 미래를 대비할 통찰력을 얻는다”고 추천 이유를 밝혔다.은행장들은 비즈니스 성공과 관련된 도서를 주로 추천했다. 이재근 국민은행장은 앤절라 더크워스 펜실베니아대 심리학과 교수가 쓴 ‘그릿(Grit)’을 권했다. 이 책은 실패와 슬럼프 등을 극복하고 뛰어난 성취를 이룬 사람들에게서 공통적으로 발견되는 ‘성공의 결정적 요인’에 대한 통찰을 제시하는 책이다.진옥동 신한은행장은 사이먼 사이넥의 ‘인피니트게임’을 추천했다. 이 책은 추상적이고 모호한 형태의 비전이 아니라, 다양한 비즈니스의 생생한 사례를 바탕으로 사람들의 마음을 움직이는 무한 게임 사고 방식이란 무엇인지 구체적으로 제시한다. 이 외에 이원덕 우리은행장은 월터 아이작슨의 ‘코드브레이커’, 권준학 농협은행장은 김창훈 시장분석가의 ‘넥스트팡’을 추천했다.인터넷은행 수장들은 인문학에 관심이 많았다. 윤호영 카카오뱅크 대표는 이후범 작가의 ‘나는 희망의 증거이고 싶다’를 추천했다. 이 책은 ‘루게릭병’ 판정을 받은 작가가 다른 환자들과 소통하며 느꼈던 위로를 기록해 가며, 웃음과 행복이라는 보편적 가치로 모든 세대를 아우르고 아픔을 겪는 청년들에게 새로운 희망의 증거를 제시하는 내용이다. 홍민택 토스뱅크 대표는 에드워드 윌슨의 ‘통섭’을 권했다. 이 책은 ‘인간 인식ㆍ지식의 대통합’에 대해 논하고 있다. 홍 대표는 “기술이 인간 행동 양식의 변화를 주도하고 있는 가운데 과학과 인문학을 연결해 보려는 노력에서 금융 혁신에 대한 힌트도 얻을 수 있기를 기대한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.07.19.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>머니투데이 오프라인 헤드라인-19일</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004772325?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>[종합]식지않는 '强弗'···불붙은 역환율 전쟁대우조선해양 '파업' 보고받은 尹대통령 "산업현장 불법 종식돼야"민간 주도 주택공급 확대···인허가 1년 단축[종합]변동 &gt; 고정···'빅스텝'이 만든 금리역전, 영끌족 '발동동'"내 월급 빼고 다 올랐다"···'무지출 챌린지' 머리띠 두른 MZ세대[종합]한국만 좋은 '韓美 통화스와프' 재개?···칼자루는 미국에조선·반도체·차···고환율 수혜주, 코스피 구세주 될까짐싸는 서학개미···외화증권 보관액 17%↓[종합]원전포함 'K택소노미' 9월 확정···"금융권, 녹색투자 유인"고용부 '주52시간 근무·임금 호봉제' 개편 킥오프韓銀총재·금융위원장 첫 회동 "시장 안정화 정책공조 강화"[종합]"기세 꺾인 유가, 대러제재 실패 때문···가을 재급등 우려"정제마진 '3분의 1' 토막···정유사 '횡재논란' 끝?휘발윳값, 이달말 2000원 아래로 간다[the300]당정, 소득·법인세 부담 완화 공감대與, 광주서 첫 예산정책협의회 "호남과 약속 반드시 지키겠다"여야, 민생특위 합의···21일까지 원구성통일부, 어민북송 당시 판문점 영상 추가 공개 우상호 "진실과 무관하게 국민감정 자극"[오피니언]자율주행 배송로봇과 규제자원부국 콩고와 협력 증진자기부상열차, UAM 그리고 입석버스[오피니언]'작은 정부'를 위한 큰 가이드라인연례 행사된 車 노사 갈등, '다년 합의' 고민할 때위기대응과 은행이익[국제]갈길 바쁜 中···계속 발목 잡는 코로나영~힘드네···스타벅스, 英사업 매각 검토"울트라스텝은 과하다"[산업]"엄중 대응" 정부도 압박···대우조선 불법점거 이번주 분수령택배노조·CJ대한통운 대리점연합, 4개월만에 부속합의서 타결정재계 간담회·해외 네트워크 전경련 '맏형' 위상회복 잰걸음美 청록수소 '모놀리스' SK E&amp;S, 330억 투자[산업]기준 모호하지만···'아무튼 최저가' 경쟁CJ제일제당 '식물성 식품' 키운다"10대 세금 개편을" 중견련, 정부에 건의중기중앙회-김동연 지사 산단 규제 현안 첫 간담회[산업]러發 에너지 쇼크, 한여름에 벌벌 떠는 유럽대륙 사로잡은 LG디스플레이金추 된 상추···식물 가전으로 '내키내먹' 해보세요UAM시장 노리는 현대차···콘셉트 모델 최초 공개[금융]토스 '슈퍼앱' 통했다···MAU 압도적 1위'파킹 통장' 금리도 오른다 인뱅·저축銀 고객 확보전"빚투족 원금 탕감은 오해"···김주현 '도덕적 해이' 진화[바이오]더블링 바람타고···바이오 주가 '훨훨'성사땐 K바이오 힘얻는데···세계 최대 제약 M&amp;A 연기?日 코로나 확진 역대 최대···일동·시오노기 '먹는치료제' 허가 눈앞[유니콘팩토리]주행습관 바로잡고 사고땐 '응급콜'···라이더 안전 지킨다'열공'하는 베트남···에듀테크 핵심투자처 부상현대차도 반한 과학 유튜브 '긱블'···50억 뭉칫돈 몰려[ICT·과학]남의 목숨 장난치는 '가짜뉴스' 왜 놔둬···거세진 구글 책임론국제시장 윤제균 감독, CJ ENM 스튜디오스 대표로갤폴드4·플립4 출시 한달 앞으로 "가볍고 얇아졌다" 기대감 최고조[건설 부동산]거래 줄고 금리 뛰자···1년내 되파는 '초단타매매' 늘었다"민간사업도 도시건축 특례·세제혜택" 국토부, 업무보고[사회]"오늘도 고수익" 바람잡고···"손해 봤다" 항의는 바로 삭제검찰총장 눈과 귀 '범정' 부활 조짐올해 마약사범 10명 중 7명 '30대 이하' 젊은층[정책사회·문화]"파리·런던 넘볼 '서울관광특별시' 만든다"서울투자청 '서울세일즈' 속도 42조 운용 글로벌 투자사 맞손경쟁률 '92대1' 한여름 밤의 청와대 관광···관심 뜨겁네늘어난 불법 사교육, 합동점검[스타뉴스]꾸준한 연기 호평 비결은 욕심···"촬영 전날 잠도 잘 안 와요"드라마 '이상한 변호사 우영우' 유인식 감독 "소박한 이야기, 큰 공감받아 기뻐"[증권]'우영우 신드롬'에 힘 얻은 KT···미디어계열사 합병 나선다CJ CGV '영구 CB 청약' 흥행할까피 말리는 ETF전쟁···동학개미들 미래에셋 몰렸다[증권]돌아온 外人···'성장주' 네이버 폭풍매수인플레이션 변곡점 맞을까···"필수소비재 눈돌려야"철강ETF '우지끈'</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.07.20.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>토스증권, 신임대표에 오창훈 CTO…오는 22일 이사회</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005272512?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>네이버·GS홈쇼핑에서 다양한 서비스 개발 이끌어[이데일리 유준하 기자] 오창훈 토스증권 최고기술책임자(CTO)가 차기 토스증권 대표로 내정됐다.오창훈 토스증권 CTO.(사진=토스증권)20일 투자은행(IB)업계에 따르면 토스증권 박재민 대표는 일신상의 사유로 오는 22일 대표이사 임기를 끝으로 물러난다. 새 대표이사에는 오창훈 최고기술책임자(CTO)가 내정됐다. 같은 날 이사회에서 선임될 예정이다.박 대표는 보스턴컨설팅그룹(BCG)과 쿠팡 마켓플레이스 등을 거쳤다. 토스증권 관계자는 “9년간 일하며 다양한 회사를 이끈 만큼 본인의 뜻이 있었다”고 말했다.신임 대표 선임은 오는 22일 이사회를 통해 결정된다. 오창훈 내정자는 1977년생으로, 네이버, GS홈쇼핑 등에서 인프라 구축과 다양한 서비스 개발을 이끌었다. 이후 2017년 토스(비바리퍼블리카)에 합류해 신용조회, 대출 연계 서비스를 개발했고, 2020년부터 토스증권 CTO를 맡아 증권 매매 서비스 개발을 이끌었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.07.20.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>토스, 3000억 투자 유치…기업가치 8조5000억</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002599376?sid=105</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>알토스벤처스·굿워터·그레이하운드 등 참여 “글로벌 핀테크 앱들보다 매출 총이익률 높고 B2B 중심 수익모델 안정적” 투자 이유 설명비바리퍼블리카 제공  핀테크 서비스 ‘토스’를 운영하는 비바리퍼블리카가 8조5000억원의 기업가치를 인정받아 3000억원 규모의 투자를 유치했다. 비바리퍼블리카는 이달 중 3000억원 규모의 투자를 유치하기로 했다고 20일 밝혔다. 비바리퍼블리카에 초기부터 투자한 알토스벤처스가 1000억원을 추가로 투입하며 이번 투자를 주도했고, 굿워터·그레이하운드 등 해외 벤처캐피털과 케이디비(KDB)산업은행·광주은행·다올인베스트먼트·미래에셋증권 등 국내 기관투자자들도 참여했다. 이번 투자에서 토스는 8조5000억원의 기업가치를 인정받았다. 지난 6월 투자 유치 때 기업가치를 8조2000억원으로 인정받은 것에 견줘 평가액이 상승했다. 비바리퍼블리카 관계자는 “토스의 지난해 매출 총이익률은 70% 수준으로, 글로벌 핀테크 앱들의 매출 총이익률이 40∼50%에 그친 것에 비해 높은 편이며, 매출의 90% 이상이 은행·보험사 등과의 기업간 거래(B2B)에서 나오는 등 수익 구조가 비교적 탄탄하다고 평가받았다”고 말했다. 투자은행(IB) 업계에 따르면 비바리퍼블리카는 오는 8월 4000억원 가량의 투자를 추가로 유치할 것으로 보인다. 이에 따라 비바리퍼블리카 기업 가치는 최대 9조2000억원까지 뛰어오를 전망이다. 비바리퍼블리카 관계자는 “국내외 기관투자자 수요가 많아 두 차례에 걸쳐 진행하게 됐다”며 “현재 투자 논의 중인 기관의 참여 여부가 최종 확정되면 8월 중 유치를 마무리할 것”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.07.19.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>“대환대출 플랫폼 구축 재논의 필요”…핀테크업계 건의사항 보니</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005271626?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>[금융규제혁신회의 출범]③핀테크업계 건의“암호화폐 규율체계 확립…망분리·클라우드 규제 개선 필요”결제서비스 확대 등 신기술 활용 인프라 구축도 제시[이데일리 정두리 기자] 정부가 금산분리 규제 등 금융규제 원칙을 근본적으로 재검토하는 작업에 착수한 가운데, 핀테크 업계는 금융당국에 대환대출 플랫폼 구축 재논의 등 영업행위 규제 완화를 건의했다. 가상자산(암호화폐) 등 디지털 신산업 규율 체계도 필요하다는 입장이다.김주현 금융위원회 위원장(가운데)이 19일 오전 서울 중구 은행회관에서 열린 금융규제혁신회의 출범식에서 발언하고 있다. (사진=연합뉴스)금융위원회는 19일 서울 중구 은행연합회에서 열린 ‘제1차 금융규제혁신회의’에서 ‘디지털화, 빅블러 시대에 대응한 금융규제혁신 추진방향’을 공개했다. 앞서 금융위는 지난 6월부터 8개 금융권협회를 상대로 수요조사를 해 건의사항을 접수했고, 이를 토대로 세부과제를 추려 금융규제혁신을 추진해 나간다는 방침이다.핀테크업계는 이번 금융규제혁신 회의에 가장 많은 건의사항을 제출했다. 금융권협회 수요조사 등을 통해 접수된 234개 건의사항 중 핀테크산업협회는 총 79개 개선을 요구했다.우선 핀산협은 영업행위 규제 완화 측면에서 대환대출 플랫폼 구축 재논의를 요구했다. 최근 뜨거운 감자로 떠오른 대환대출 플랫폼 사업의 조율은 금융위 입장에서는 주요 과제 중 하나다. 정치권에서는 지난해 논의가 중단됐던 금융권 대환대출 플랫폼 사업을 다시 추진해야 한다는 목소리가 제기되고 있다. 성일종 국민의힘 정책위의장은 지난 5일 국회에서 열린 원내대책회의에서 “금융당국이 금융소비자, 즉 국민들의 편익을 위해 기존 대출 기관 방문 없이 신규 대출 기관에서 원스톱으로 대환대출을 실행하는 대환대출플랫폼 사업을 신속하게 추진해 줄 것을 요청한다”고 밝힌 바 있다. 대환대출플랫폼 사업은 은행, 저축은행, 캐피탈, 카드사 등 여러 금융 기관 대출 상품을 비교하고 더 낮은 금리를 제공하는 대출 상품으로 쉽게 갈아탈 수 있도록 하는 비대면 원스톱 서비스다. 금융결제원이 구축하는 플랫폼에 토스나 카카오페이 등 핀테크 업체가 운영 중인 대출 금리 비교 서비스를 연계하는 방식이다. 이 사업은 지난해 하반기 추진됐다가 금융사들이 이견을 보이면서 보류됐다.또한 핀산협은 가상자산 사업자 신고요건인 실명확인 입출금계정 발급기준 완화하고, 이들에 대한 법인·기관투자자들의 투자를 허용해달라고 요청했다. 가상자산사업자의 해외진출 확대를 장려하고, 가상자산사업자와 금융회사간 협업 확대 필요성도 제시했다. 또 가상자산 과세에 대한 상세기준 마련 및 가상자산사업자 본인거래소 이용제한 예외사유 확대 등 가상자산 규율체계도 필요하다고 봤다. 아울러 핀산협은 △소액후불결제서비스 확대 △지역사랑상품권(선불)과 신용카드간 연계서비스 제공 △추심이체 등 출금동의 방식 다양화 △기명식 선불전자지급수단 권면한도 상향 △선불 이용자예탁금 보관시 지급보증보험 허용 등을 요청했다. 핀테크 업체들이 가지고 있는 신기술을 활용할 수 있는 인프라를 만들어달라는 취지다. 또 마이데이터 제공 정보 확대를 비롯해 마이데이터 사업자의 겸영업무 개선, 유사 마이데이터 영업 행위 규제 등 마이데이터 관련 요구사항 들을 금융당국에 전달했다. 기존에는 마이데이터 사업자에게 퇴직연금과 ISA 등 일부 금융상품 정보가 제공되지 않는다는 한계가 있었다는 지적에서다.이밖에도 핀산협은 자본시장 활성화를 위해 유연한 규제샌드박스 심사의 필요성과 신기술 도입 촉진을 위한 망분리·클라우드 규제 개선도 필요하다고 제시했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>[미리보는 이데일리 신문]민주성 내건 尹정부 법인·소득·종부세↓</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005274062?sid=102</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>[이데일리 박미애 기자]다음은 22일자 이데일리 신문 주요 기사다.△1면-민주성 내건 尹정부 법인·소득·종부세↓-美 반도체 25% 세액공제 추진하는데 韓 고작 12%-현대차 고급화 전략 통했다-하반기에도 싸늘한 IPO 시장…현대오일뱅크 또 상장 철회-[사설]법인세 인하를 부자감세로 호도하는 민주당의 억지-[사설]14년째 묶인 납품단가 연동제법, 이번엔 처리해야△종합-[HOT이슈]진격의 토스, 금융 이어 알뜰폰 진출 “지출 큰 통신비, 미친 만족감 드릴 것”-ADB, 올해 韓성장률 2.6%로 낮춰 물가 전망치는 3.2→4.5%로 상향△말뿐인 반도체 초강대국 전략-세액공제율 올려야 투자 늘텐데, 겨우 2%p↑…기재부 전향적 접근 필요-“선진국과 보조 맞출 것”…산업부, 추가 대책 시사-“나눠먹기 지양…독보적 기술 갖춘 소부장 中企 ‘집중지원’ 해야”△尹정부 첫 세제개편안-소득세 하위구간만 찔끔 조정…중산층 세부담 경감 취지 달성 “글쎄”-다주택자 징벌세 없앴다…종부세율, 합산가액 기준으로 일원화-가업상속공제 대상 ‘매출 0.4조→1조 미만’ 확대-法 18개 뜯어고쳐야 하는데…巨野 반대 어쩌나-5000만원 이상 주식 양도차익 과세, 2025년까지 유예-4년간 13兆 세수 감소, 늘어나는 복지비 감당 못할 수도△종합-상장 앞둔 쏘카·컬리·케이뱅크…몸값 제대로 받을지 ‘미지수’-사후통지 없는 통신자료 수집 안돼…수사기관 관행에 제동-노사, 손배소 범위놓고 막판 줄다리기…4.5% 임금인상 수용할까-尹 “한·미중심 4강 외교추진” 한일 현안 해결도 적극 주문△정치-與 권성동, 文정부 때리자…野 이재명 “남 탓”-“대놓고 무시당해…난 꼭두각시”-“스타 돼라” 대통령 주문에…장관·수석들 연일 언론 접촉-‘김장 연대설’에 놀랐나…안철수 “권성동 대행체제 흔들림 없어야”-김동연, 당정에 경제위기 극복 비대위 제안△경제-가구당 순자산 5.4억…집값 상승에 1년새 8% 쑥-가계동향 왜곡하는 가계동향조사-‘조사 거부기업 처벌 완화’ 논의에…공정위 부글부글-산재사망 2명에도…디엘이앤씨 현장 42곳 중 40곳 안전관리 미흡△금융-금산분리 완화 속도전…자회사 허용 범위부터 넓힌다-KB금융 상반기 순이익 2.7조…전년比 11.4%↑-상호금융 다중채무자 대손충당금 130%→150%-서울보증보험 내년 IPO 추진…정부, 지분 단계적 매각△Global-매물 쌓이고 담보대출 신청 뚝…“美 집값도 곧 꺾일 것”-드라기 이탈리아 총리 결국 사임…“10월 조기 총선 가능성”-‘소수인종 vs 여성’…英 차기 총리 후보 2명 압축-日은행, 금융완화 유지 “경제 불확실성 여전”-테슬라, 2분기 호실적…비트코인은 75% 손절△산업-아이오닉6로 전기차 선두 굳히기…美에 5.6조 추가 투자 ‘미래차’ 박차-삼성SDI ‘원통형 배터리’ 승부수 1.7조 투자…말레이 2공장 증설-기아 ‘더 뉴 셀토스’ 출시…하이테크 감성 더했다-철강·친환경 사업 선전…포스코홀딩스 ‘분기 최대’ 매출△소비자생활-잘 팔릴수록 ‘나쁜 후기’ 늘어…PB상품 딜레마-맘스터치, 매각주관사로 메릴린치 선정-‘대형마트 의무휴업 폐지’ 13년 만에 수면위로-남양유업 창사 58년 만에 첫 희망퇴직△이수연의 아트버스-미완성이거나…무의식이거나…추상하는 습관△증권-실적 먹구름속 거래 절벽…한달 만의 2400, 버틸 수 있을까-모빌리티 인적분할 코오롱글로벌 훨훨-안전자산 金, 주식처럼 쉽고 안전하게 거래하세요△증권-정치권 한마디에…은행株 울고 대형마트株 웃고-연기금·공제회 ‘안정 우선’ 성과 좋은 운용사만 베팅-증권사 “시장조성자제도 반갑지 않네”-우주산업에 뭉칫돈 몰린다△부동산-은마·마래푸 2주택자 보유세 내년 9580만원 줄어든다-보라매공원 인근 봉천1-1 807가구 대단지 들어선다-펜트하우스까지…둔촌주공 ‘손절매물’ 속출-지옥철 사라질까…국토부, 전국 교통난 대책 점검△여행-나무 위 집에서 우두커니…나는 숲이 된다-한글 ‘ㅇ’처럼 둥글둥글…1446m 이응다리 걸어볼까△골프-‘장타 비결은 지면반력’ 윤이나 “7번 아이언으로 150m 날린다”-‘골프판 우영우’ 이승민 장애인 US오픈 초대 챔피언-전인지 “어게인 2016”…박인비 “슈퍼 커리어 그랜드슬램 도전”-헨리크 스텐손 등 3명 LIV 골프 3차 대회 합류△이데일리가 만났습니다-MLB같은 세대공감 콘텐츠로…프로야구 인기 부활포 쏴야-“아프면 바셀린 바르고 핫팩 찜질, 근력운동 금지하기도”△오피니언-[양승득 칼럼]평양의 아베, 나라의 아베-[기고]태안 사고 두번은 없다…닻 오른 ‘엔담호’-[기자수첩]‘백신·치료제 개발’ 정부의 통 큰 결단 필요해△피플-박해일 캐스팅?…담대함·현명함 지닌 이순신 느낌나-금호석유화학, 박준경 부사장 사내이사 선임-서울대 연구진, 빛으로 작동하는 초방사 양자 엔진 구현-중기중앙회, 베트남에 중소기업교류센터 오픈-대한변협, 대구 방화테러 피해자에 추가 성금 전달△사회-‘민생범죄’에 날세운 檢…존재 증명 총력전-‘한동훈 독직폭행 혐의’ 정진웅 2심 무죄-선거기간 집회·광고물 가능해진다-‘4시간 호소’ 나선 윤희근…‘거리 홍보전’ 맞선 직협-CJ대한통운, 택배노조에 손배소 제기-TBS노조 “폐지조례안 철회하고 이강택은 사퇴하라”</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.07.17.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>서비스 장애 일으키는 디도스 공격, 어떻게 대비할까?</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002128776?sid=105</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이종현기자] 분산 서비스거부(디도스, DDoS) 공격은 일반인에게도 익숙한 사이버위협 유형 중 하나다. 즉각적으로 서비스에 장애를 유발할 수 있는 만큼 대규모 서비스를 제공하는 기업·기관으로서는 필수적으로 방어 대비해야 할 공격이기도 하다.   대표적인 사례는 2009년 7월 국내 정부기관·포털·은행 등이 전방위적인 디도스 공격을 받은 건이다. 이는 국내에서 사이버보안의 중요성을 인지하게 된 계기가 됐는데, 2012년 매년 7월 둘째주를 국가기념일인 정보보호의 날로 삼은 단초가 된 바 있다.   공격 원리는 간단하다. 웹서버에 다량의 트래픽을 발생시키는 것이다. 동시접속자가 많아서 서비스가 마비되는 것과 같다. 특이점은 트래픽을 발생시키기 위해 다른 정보기술(IT) 기기를 트래픽 공격을 위한 ‘봇(Bot)’으로 만들고, 이 봇으로 비정상적인 트래픽을 발생시킨다는 것이다.    디도스 공격은 최근처럼 사물인터텟(IoT) 기기의 쓰임이 많아진 환경에서 특히 위력을 발휘한다. 과거에는 개인용컴퓨터(PC)를 감염시켜 봇으로 사용하는 것이 대부분이었으나 요즘은 IP카메라나 공유기, 인공지능(AI) 스피커에 더해 로봇청소기, 스마트TV·냉장고 등도 디도스 공격을 위한 봇으로 활용될 수 있다. 자신의 집 로봇청소기가 디도스 공격에 악용되고 있을 수 있다는 의미다.   업계에 따르면 디도스 공격은 수시로 발생하고 있지만 서비스에 차질이 되지 않도록 잘 막아내고 있기 때문에 크게 부각되지 않는다고 말한다. 지난 6월 금융 애플리케이션(앱) ‘토스’도 30기가비트퍼세컨드(Gigabit per second, Gbps)의 디도스 공격을 받았으나 무사히 막아냈다.   서비스 장애를 일으키기 위한 디도스 공격은 얼마나 되는 데이터를 한 번에 수신하느냐에 따라 그 위험도를 측정한다. 자연히 많은 데이터를 받아낼 만큼 인터넷 대역폭을 늘리거나, 다량의 비정상적인 트래픽이 발생할 때 이를 감지해 차단하는 것으로 막아낼 수 있다.   다만 중소기업의 경우 대규모 디도스 공격을 막아낼 만큼 IT 인프라에 투자하는 것이 쉽지 않다. 이에 정부는 중소기업을 위해 ‘사이버대피소’를 운영 중이다. 일정 규모 이상의 디도스 공격이 이뤄질 경우 일부 트래픽을 대피소로 우회시키는 방식이다.   사이버대피소를 운영하는 한국인터넷진흥원(KISA)의 김은성 탐지대응팀장은 “디도스 공격은 수시로 이뤄지고 있다. 공격 규모도 점차 커지고 있는데, 2016년에는 최초로 테라비트퍼세컨드(Tbps) 규모의 공격도 발생했다. 작년에는 마이크로소프트(MS) 애저(Azure)가 3.47Tbps의 공격을 받았다”고 전했다.   디도스 공격이 늘어나는 만큼 사이버대피소의 이용률도 증가하는 중이다. 2021년 기준 7271개 기업이 사이버대피소의 서비스를 이용 신청해둔 상태다. 2017년부터 2021년까지 723건의 디도스 공격을 방어했다. 160Gbps의 트래픽 수용량을 갖춘 상태다.   김 팀장은 “디도스 공격은 과거 큰 사고로 인해 대중에게도 알려졌지만 사이버위협은 지속해서 다변화되고 있다. 이에 대한 대응이 절실한 상황이다. 현재 디도스 공격 방어를 위해 운영 중인 사이버대피소도 다른 유형의 위협에 대응할 수 있도록 고도화하려는 중”이라며 “자체적으로 방어 수단을 갖추기 어려운 기업들이라면 꼭 KISA 사이버대피소에 입주해 보호를 받을 수 있었으면 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>티몬 매각 추진…e커머스 M&amp;A 큰 장 섰다</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000076239?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>이커머스 플랫폼 ‘티몬’이 매각설에 휩싸였다. 한때 국내 대표 소셜커머스 기업으로 분류되던 기업이다. 성장 과정에서 대주주 손바뀜이 일어난 뒤 치열한 경쟁 속에 자본잠식 상황까지 걱정해야 하는 상황이 되다 보니 매각설이 불거졌다. 한때 2000억원대 매각설까지 불거지며 유통가 관심이 집중됐다. 실제 어떤 상황까지 왔을까. 장윤석 티몬 대표는 넥스트커머스 2022 강연 후 기자들과 만난 자리에서 “매각 협상은 진행 중”이라고 인정했다. (넥스트커머스 제공)  ▶매각 진짜 하나? ▷장윤석 대표 “매각 추진 중” 티몬은 신현성 현 이사회 의장이 2010년 창업한 회사다. 한정된 시간 안에 목표 인원이 모이면 할인해주는 소셜커머스 사업 모델로 시작했다. 싼 가격, 편리한 이용 방식 등으로 창업 초기 환영받으며 성장세를 유지했다. 창업한 지 1년 만인 2011년 당시 신 대표는 미국의 2위 소셜커머스 기업 리빙소셜에 티몬을 3000억원에 매각했다. 이후 KKR, 앵커PE 등 사모펀드가 2015년 약 8600억원 밸류(기업가치)에 인수하면서 대주주(몬스터홀딩스)가 바뀌었다. 최대주주인 몬스터홀딩스 지분율은 81.74%에 달한다. 신 의장은 지분 매각 후 티몬 지분 일부를 되사오는 과정에서 이사회 의장이 됐다. 문제는 이후 실적이다. 티몬은 쿠팡, 네이버쇼핑 등 이커머스 선발 주자 대비 뚜렷한 성장세를 보여주지 못했다. 게다가 신세계그룹 계열 SSG닷컴이 지마켓글로벌을 인수하면서 ‘빅3’ 축에도 끼지 못하는 신세가 됐다. 최저가 전략은 사실상 실패했고 물류 거점 확보 경쟁에서도 별 재미를 보지 못했다. 유통업계 관계자는 “한때 라이브 쇼핑으로 두각을 보이는 듯했지만 뚜렷한 차별점을 바탕으로 계속 우위를 유지하지 못하다 보니 자연스레 순위가 뒤로 밀렸다”고 총평했다. 이는 숫자로도 증명된다. 당장 매출액, 영업이익 모두 뒷걸음질 치고 있다.지난해 티몬 매출액은 1290억원, 영업손실은 760억원에 달했다. 매출액은 전년 대비 14.7% 감소, 영업손실도 전년 대비 20.4% 늘어났다. 4년간 누적 적자(지난해 기준)는 2991억원 정도다. 지난해 말 기준 결손금(잠깐용어 참조) 1조981억원, 자본총계는 마이너스 4727억원에 달했다. 상황이 이렇다 보니 매각설이 불거지게 됐다.세간에서는 티몬이 큐텐에 2000억원선에 매각 협상을 진행 중이라는 소문까지 돌았다. 이에 장윤석 티몬 대표가 ‘매각 협상은 진행 중’이라고 사실 확인을 하면서 티몬 매각이 수면 위로 올라왔다.    ▶어디에 얼마에 팔릴까  ▷큐텐 매각 협상설 솔솔~ “큐텐뿐 아니라 많은 전략적 투자자(SI)들과 지분 투자부터 매각까지 다 논의하고 있다. 다만 2000억원 매각설은 사실과 다르다. 현재 주주 말고 기존 채권자 등 모든 걸 고려할 때 구조가 생각보다 복잡하다. 2000억원대로는 매각할 수 있는 구조가 아니다.”‘넥스트커머스 2022’에서 강연 후 기자들과 만난 장윤석 대표의 공식 입장이다. 이와 관련, IB(투자금융)업계에서는 ‘누구에게 얼마에 팔릴지’를 두고 관심이 뜨겁다. 이전에도 티몬은 매각 논의가 있었다. 한때 롯데그룹에 팔린다는 소문도 파다했다. 당시 몸값은 1조원을 넘겼다는 얘기도 있다. 물론 협상은 진행됐다가 결렬됐다. 다만 그때와 지금 상황은 천양지차다. 2년여 전 당시 거론됐던 매각가에 비해 지금 거론되는 가격은 5분의 1 수준이라는 말도 돈다. 올해 7월 기준 매각가를 4000억원대 내외로 가정하더라도 종전 대주주인 KKR과 앵커PE가 2015년 티몬 지분 59%를 약 3800억원에 사들였다는 점을 감안하면 손해 보는 장사인 것만은 분명하다.최근에도 매각 대상 기업으로 큐텐 외에 토스페이먼츠가 거론되기도 했지만 실사 과정에서 ‘두 회사 간 시너지 효과가 떨어진다’며 사실상 추가 논의는 없다는 소문도 돌았다. 게다가 자본 시장 분위기도 좋지 않다. 당장 금융지주 계열 벤처캐피털, PE(사모펀드)들은 사실상 투자를 보류하며 성장성이 뚜렷한 혹은 이익을 내고 있는 스타트업에만 관심을 쏟는 분위기다. 상위권 투자 회사들이 이런 입장이다 보니 다른 투자 회사도 공격적인 투자를 꺼리는 상황이 벌어지고 있다.한 PE 대표는 “티몬이 물류 투자에서도 밀리고, 전반적으로 캐시카우가 될 수 있는 PB(자사 브랜드) 상품도 적고, 무엇보다 최저가 경쟁을 사실상 포기하며 차별화 전략을 찾기 힘든 상황”이라고 말했다. 그렇다고 종전 대주주 PE들이 추가 출자를 할 수 있을지도 불투명하다. PE가 추가 투자를 하려면 관련 산업이 성장하거나 잠재력이 확실할 때인데, KKR이나 앵커PE의 경우 티몬에 투자해놓은 종전 펀드에서는 추가 투자 여력이 없다는 것이 업계 시각이다. 그렇다고 신규 출자를 하려면 새 펀드를 조성해야 하는데 지금 같은 상황에서 티몬만을 위한 펀딩이 쉽지 않을 수 있다. IB업계에서는 종전 결제 분야에서 두각을 나타내고 있는 KG그룹이나 이미 투자한 NHN 등이 잠재 인수 후보군으로 거론된다. ‘롯데온’을 강화하고 있는 롯데그룹이나 e커머스를 강화하는 GS그룹에서 가격만 맞는다면 협상 테이블에 나설 수 있다는 관측도 제기되고 있다.   ▶변수는 ▷결국 실적 개선 보여야  결국 새로운 주인을 찾아야 한다는 결론인데 변수가 적잖다. 일단 실적 개선을 얼마나 뚜렷하게 하느냐다. 이를 타개하기 위해 티몬은 ‘레벨제’ 등 신선한 인사 실험을 통해 위기 타개를 도모한다. 7월부터 도입한 새 근무 제도는 ‘게임처럼 열심히 하면 월급이 오르는’ 구조가 핵심이다. 게임처럼 개인 성과, 이니셔티브(initiative·주도적인 기여), 조직 목표 기여도 등을 평가해 구간별 경험치를 충족하면 레벨이 오르게 했다. 여기에 연동된 급여 역시 즉각 반영되는 시스템이다. 더불어 장 대표가 주창한 ‘이커머스 3.0’ 시대 ‘콘텐츠커머스’도 안착할 수 있을지가 관건이다. 티몬은 라이브 방송 ‘티비온’을 주축으로 한 콘텐츠커머스를 밀고 있다. 예능 프로그램처럼 제품구매 단계부터 흥미를 유발하는 콘텐츠로 고객에게 다가가는 개념이다. 최근 신작 오리지널 웹 예능 콘텐츠 ‘찐최종.pptx’에서는 배우 김수미, 개그맨 윤정수가 티몬의 인턴 MD가 돼 실제 업무를 체험하는 웹예능으로 호평받기도 했다. 지난해 4분기 시작한 콘텐츠커머스는 올해 1분기 매출이 지난해 대비 19% 성장하는 등 의미 있는 성장세를 보였다. 업계 관계자는 “업계 최초 라이브 쇼핑 등 새로운 시도에 일가견이 있는 회사인 만큼, 얼마나 지속 가능하게 턴어라운드하는지 보여주는 것이 매각 성공의 열쇠”라고 평가했다. 잠깐용어 *결손금   기업의 경영 활동 결과 순자산(純資産)이 오히려 감소하는 경우에 그 감소분을 누적해 기록한 금액. 소유주 입장에서는 자본의 감소액을 뜻함.[본 기사는 매경이코노미 제2168호 (2022.07.20~2022.07.26일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>걷기만 해도, 게임만 해도…소소하게 돈 모으는 맛에 푹 빠진 MZ세대</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004870708?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스]   #. 직장인 이모(32)씨는 요즘 가게를 방문하고 난 후엔 네이버 영수증 리뷰를 꼭 작성한다. 네이버 영수증 리뷰는 가게 방문 후 리뷰를 남기면 포인트로 보상을 해주기 때문이다. 첫 방문 시에는 50원이 적립되고 재방문 시에는 10원씩 적립되는데 하루 최대 5개까지 가능하다. 이론적으로는 한달 최대 7500원까지 모을 수 있다는 얘기다. 이씨는 "물론 영수증을 일일이 찍어 올리는게 좀 귀찮긴 하지만 월급빼고 다 오르는 고물가시대이다 보니 계속 하게 된다"고 말했다.  앱테크 사례 그래픽=정기현 기자 이처럼 고물가 시대에 '포인트'도 귀한 몸이 됐다. 치솟는 물가에 푼돈이라도 모을 수 있는 이른바 앱테크(애플리케이션+재테크) 열풍이 불고 있는 것. 1인 1스마트폰 시대인 만큼 앱 사용을 하지 않는 사람은 거의 없다. 대부분 이용하고 있는 앱을 전략적으로 활용해 푼돈이라도 모으려는 '디지털 폐지 줍기', 앱테크가 디지털 시대 또하나의 재테크 수단으로 자리잡았다.      고물가시대 '앱테크 열풍'…"푼돈이라도 모은다"  가장 손쉽게 할 수 있는 푼돈 모으기는 바로 '걷기'다.   토스는 앱을 켜고 걸으면 걸음 수에 따라 포인트를 받을 수 있는 만보기를 운영 중이다. 특히 토스에서 지정해주는 장소에 가면 하루 최대 140원까지 모을 수 있다. 재미 요소도 더해 걸음수에 따라 소모한 열량, 또래 평균 걸음수도 확인이 가능하다. 쌓인 금액은 토스 앱을 이용해 출금하거나 기프티콘을 구매해 사용할 수도 있다. 토스페이의 7000여 개 가맹점에서도 사용할 수 있다.   웰컴저축은행도 헬스케어 서비스 '웰뱅워킹'을 선보였다. 누적 걸음수가 5만보 이상일 경우 리워드를 수수료 없이 고객의 계좌로 바로 현금 지급하는 방식인데 리워드는 5만보씩 총 20만보까지 4개의 구간에 나뉘어 지급된다. 각 구간을 달성할 때마다 500원이 지급되며 10만보가 초과되면 구간마다 500원이 추가로 지급된다. 한 달 동안 20만보 이상을 걸으면 최대 3000원까지 받을 수 있다.   삼성금융네트웍스의 통합 앱 '모니모'에도 걸음 수에 따라 포인트를 받을 수 있는 기능이 추가됐다. 모니모 이용자는 걸음수에 따라 리워드 '젤리'를 받아 '모니머니'로 교환할 수 있는데 '모니머니'는 보험가입, 송금, 펀드투자 등에 현금처럼 사용할 수 있어 인기다.   만보기 혜택은 보험사에도 있다. 교보라이프플래닛의 '헬스 스위치'는 걸음 수에 따라 현금처럼 쓸 수 있는 씨드 포인트 혜택을 제공하고, 현대해상도 '하이헬스 챌린지'를 통해 걸음 수 등을 목표 달성하면 포인트를 제공한다.      리뷰 남기면 포인트·안전운전 하면 보험료 할인  걷는 수고가 번거롭다면 '오락'을 통해 포인트를 받을 수 있는 앱도 있다. 신한카드는 자사 통합결제 플랫폼인 '신한플레이(pLay)' 앱 내 'pLay오락실'을 운영 중이다. 매월 제공되는 네 가지 미니게임을 매일 각각 10회씩 플레이하면 2020명에게 랭킹별로 마이신한포인트를 제공한다. 최근에는 '랭킹 포인트 2배 부스터 이벤트'를 진행해 지급 규모도 커졌다.   하나은행은 '하나머니' 앱에서 '머니사다리' 이벤트를 진행하고 있다. 머니사다리 서비스 내 광고 영상을 시청하고, 사다리게임에 참여하면 랜덤으로 1머니부터 최대 5만 머니까지 제공한다. 5만 머니는 5만원으로 바꿀 수 있다.   최근 주목받고 있는 운전습관연계보험(UBI) 상품을 활용하면 스마트폰 네비게이션과 연동해 운전자의 운전습관을 점수화하고 안전운전 기준을 넘길 경우 보험료 할인도 받을 수 있다. DB손해보험은 1000km 이상을 주행하고 안전운전 점수가 61∼70점이면 5%, 71점 이상일 경우 보험료를 11% 할인해준다. KB손해보험은 1000km 이상 주행 시 안전점수가 65점 이상이면 10%를 깎아준다. 삼성화재 다이렉트는 '착!한걷기'와 '착!한드라이브'를 선보여 보험 가입 여부에 상관없이 로그인만 하면 누구나 이용할 수 있는 무료 서비스를 제공한다.      매주 적금 하면 3% 금리… 소액 짠테크 상품 봇물  '푼돈 모아 태산' 열풍에 은행들은 소액 짠테크 상품을 잇달아 내놓고 있다.   NH농협은행은 국립공원공단과 제휴해 디지털 환경·사회·지배구조(ESG) 상품인 'NH 걷고 싶은 대한민국 적금'을 출시했다. 이 상품은 설악산, 지리산, 한라산 등 전국 17개 산악형 국립공원과 제주 올레길(1·8번 코스), 독도버스(농협은행 메타버스 플랫폼)까지 총 20개의 구역을 실제 방문해 인증하면 인증 구역 수에 따라 우대금리를 차등 제공한다. 직접 걸은 누적 걸음 수에 따라서도 추가 금리가 달라져 최고 연 5.85%(세전)를 제공한다.   NH농협은행의 '샀다 치고 적금'은 소비를 참고 그 돈을 입금해 저축하면 매월 30만원까지 연 3.35% 금리를 제공한다. 토스뱅크의 '키워봐요 적금'은 6개월 동안 매주 적금하기만 하면 연 3% 금리를 제공한다. 한 번에 1000원부터 100만원까지 저금할 수 있는데 3일 만에 10만계좌나 개설될 정도로 인기다. 우리은행의 '우리 200일 적금'은 200일 동안 하루도 빠짐없이 3만원 이하를 저축하고 오픈뱅킹 가입 조건을 유지하면 최대 연 2.3% 금리를 제공한다. 카카오뱅크의 '저금통'이나 케이뱅크의 '챌린지 박스'도 소액을 꾸준히 저축하면 높은 우대금리를 준다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.07.29.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>몰려오는 은행…고요하던 알뜰폰 `지각변동`</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001045890?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;대형은행에 이어 인터넷은행까지 알뜰폰 사업에 나서면서, 고요하던 알뜰폰 시장에 지각변동이 예상되고 있습니다.은행들은 저렴한 요금과 금융상품을 연계한 마케팅으로 가입자 수를 빠르게 늘리고 있는데, 이를 바라보는 통신사의 속내는 복잡합니다.양현주 기자가 보도합니다.&lt;기자&gt;직장인 황수정씨는 최근 국민은행을 통해 휴대폰을 개통했습니다.통신요금을 아끼기 위해 알아보던 중 은행의 알뜰폰 요금제가 비교적 저렴하다는 사실을 알게 된 겁니다.[황수정 / 인천광역시 계양구 : 기존 SKT, KT, LGU+ 3사 요금제는 가장 저렴한 요금제가 3만 3천 원 정도 되는데 그것도 통화 100분, 문자 100건, 데이터 100메가 정도 이런 식이었는데…(리브엠은) 무제한을 사용하는데도 2만 원에서 3만 원 안쪽으로 사용을 하기 때문에…]합리적인 소비를 원하는 이용자들이 알뜰폰을 찾기 시작하면서, 국민은행의 알뜰폰 가입자 수는 어느새 30만 명을 돌파했습니다.국민은행의 성공을 지켜본 신한은행과 하나은행 등 다른 대형은행은 물론 최근엔 핀테크 기업인 토스까지 알뜰폰 사업에 뛰어들었습니다.대형 금융회사들이 알뜰폰 사업에 나서는 것은 단지 수익 때문만은 아닙니다. 알뜰폰 사업을 통해 고객들의 데이터를 확보하려는 이유가 더 큽니다.데이터를 확보해 신용평가모델을 만들거나 새로운 금융상품도 출시하고, 알뜰폰 사용자가 많은 10대~30대 고객도 확보할 수 있습니다.전국적인 영업망과 마케팅 능력을 갖춘 은행들이 들어오면서 통신 3사가 주도했던 알뜰폰 시장에 지각변동이 예상됩니다.통신사 입장에선 망을 빌려주는 대가로 은행으로부터 돈을 받긴 하지만 마냥 웃을 수만은 없는 상황입니다. 장기적으로 봤을 때 비싼 요금제를 쓰는 고객들이 알뜰폰으로 이동할 가능성이 있기 때문입니다.기존 중소 알뜰폰 업체들은 은행들이 내놓는 덤핑 수준의 요금제 때문에 알뜰폰 생태계가 망가질 수 있다고 우려합니다.[염규호 전국이동통신유통협회 회장 : 이통사에 지급해야 하는 도매대가보다 낮은 요금제를 작년에 이어 올해도 지속적으로 덤핑 수준으로 판매하면서까지 통신 시장을 혼탁하게 만들며 가입자 빼앗기에 열을 올리고 있다]은행이라는 메기가 뛰어든 알뜰폰 시장을 둘러싸고 각자의 셈법이 복잡해지고 있습니다.한국경제TV 양현주입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.07.20.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>토스, 3천억원 규모 신규 투자 유치…"기업가치 8.5조"</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013323973?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>알토스벤처스·KDB산업은행 1천억씩, 광주은행 200억원 투자토스[비바리퍼블리카 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 임성호 기자 = 모바일 금융 서비스 '토스'를 운영하는 비바리퍼블리카는 2천958억원 규모의 신규 투자를 유치했다고 20일 공시했다.    벤처캐피탈(VC) 알토스벤처스가 리드 투자자로 참여해 1천억원을 투자했다.     국내 기관투자자 중에는 KDB산업은행이 1천억원, 광주은행이 200억원을 투자했다.    토스의 초기 투자자인 다올인베스트먼트(구 KTB네트워크)와 미래에셋증권도 소규모로 투자했고, 굿워터와 그레이하운드 등 해외 주주들도 참여했다고 회사는 밝혔다.    투자 유치 자금은 토스뱅크, 토스증권 등 주요 계열사의 성장 가속을 위한 추가 투자 및 신규 사업 등에 활용될 예정이다.    이번 투자는 이번 달과 다음 달에 두 차례로 나눠 진행된다.    토스 관계자는 "국내외 기관투자자들의 수요가 많아 투자를 2회에 나눠 진행하게 됐다"면서 "현재 투자 논의 중인 기관의 참여 여부가 최종 확정되면 8월 중 투자를 클로징(마감)할 예정"이라고 설명했다.    이번 투자에서 토스는 기업가치를 8조5천억원으로 평가받았다고 밝혔다. 이는 지난해 6월 직전 투자에서 평가받은 8조2천억원을 소폭 상회하는 것이다.    토스 측은 "전 세계적인 경기 침체, 증시 부진 등으로 투자심리가 극도로 위축된 상황에서 다른 핀테크 기업들이 기업가치를 낮춰 투자받는 점을 고려하면 이번 투자는 매우 이례적"이라고 강조했다.이승건 비바리퍼블리카 대표[비바리퍼블리카 제공. 재판매 및 DB 금지]    토스는 작년 연결기준 매출이 7천808억원으로 재작년(3천898억원) 대비 100% 증가했다.     다만 작년 영업손실은 1천796억원으로 재작년 대비 약 1천70억원 증가했다. 토스증권 손실 780억, 토스뱅크 손실 358억원가량이 실적에 반영됐다.    토스 관계자는 "결제, 대출 중개 등의 매출이 확대되고 있어 이르면 내년 초 흑자전환이 가능할 것으로 예상한다"라며 "기관투자자들은 독보적인 금융 플랫폼으로서 토스의 성장을 높게 평가했다"라고 덧붙였다.    이어 "지난해 매출 총이익률은 70% 수준으로, 글로벌 핀테크 앱의 40∼50% 대비 매우 높다"면서 "매출의 90% 이상이 금융회사로부터 받는 중개, 모집, 광고 등에서 발생하는 기업간거래(B2B) 모델로, 수익구조가 탄탄하다"라고 강조했다.    한 VC 업계 관계자는 "경기 침체기에 투자 유치에 성공한 회사는 과거 구글과 메타플랫폼(페이스북 모회사)이 'IT 버블 붕괴' 이후 침체기에 살아남아 급성장한 것처럼 오히려 성장의 기회를 얻은 것으로 볼 수 있다"고 말했다.    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.07.27.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>[업앤다운] 시총 추락 카카오페이 vs 투자 날개 단 토스</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003222352?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>[일간스포츠 권지예]   토스뱅크는 원앱 전략으로 서비스를 운영하고 있다. 사진은 토스 앱을 이용 중인 모습      카카오페이.     금융 플랫폼 토스와 카카오페이의 표정이 상반된다. 멀찍이 앞서가던 카카오페이 뒤를 토스가 바짝 뒤쫓고 있기 때문이다. 불안한 투자 시장 속에서도 토스는 성장 가능성을 인정받았지만, 카카오페이는 점점 투자자들의 신뢰를 잃으며 시가총액이 28계단이나 추락했다.     기업가치 8.5조 토스         최근 토스 운영사 비바리퍼블리카가 3000억원 규모 투자 유치에 성공하며 '불황 속 선방했다'는 평가를 받았다.  26일 금융권에 따르면 최근 토스는 시리즈G브릿지로 진행한 투자에서 기업가치 8조5000억원을 인정받았다. 지난해 6월 시리즈G 투자를 유치할 당시 평가받았던 8조2000억원을 소폭 상회하는 규모다.     이번 투자는 7월과 8월 두 차례로 나눠 진행될 예정이다.     한 투자업계 관계자는 "좋지 않은 상황에서 토스가 기업가치를 높여 투자를 받은 데는 잠재력이 있다고 판단한 것"이라고 말했다.     이번 투자의 리드 투자자는 토스의 초기 성장부터 함께한 알토스벤처스로, 1000억원을 신규 투자했다. 굿워터, 그레이하운드 등 해외 주주들도 투자에 나섰고, 국내 기관투자가 중에서는 KDB산업은행과 광주은행이 각각 1000억원, 200억원의 투자를 단행했다.       토스 관계자는 "투자금은 토스뱅크, 토스증권 등 주요 계열사의 성장 가속을 위한 추가 투자 및 신규 사업 등에 활용될 예정"이라고 말했다.     당초 토스가 목표했던 투자 규모는 1조원가량이었으나, 투자 심리가 위축된 상황 속 3000억원의 투자를 받은 것도 선방했다는 목소리가 나온다.     토스 관계자는 "전 세계적으로 투자 심리가 극도로 위축된 상황에서 타 핀테크 기업들이 기업가치를 낮춰 투자받고 있는 점을 고려하면 이번 투자는 매우 이례적"이라고 설명했다.       토스는 내년 초 흑자전환이 가능할 것으로 예상한다. 결제, 대출 중개 등의 매출이 확대되고 있기 때문이다. 매출의 90% 이상이 금융회사로부터 받는 중개, 모집, 광고 등에서 발생하는 B2B 모델로 수익구조도 탄탄하다.     토스의 지난해 매출 총이익률은 70% 수준이다. 글로벌 핀테크 앱의 매출 총이익률이 40~50%와 비교해 높다.       지난해 토스뱅크, 토스증권의 출범으로 토스 앱의 MAU(월간 활성 유저)는 올해 들어 매월 35만명씩 증가하고 있다. 모바일인덱스 6월 기준 토스의 MAU는 1427만명으로 은행·뱅킹 서비스 앱 순위 1위에 토스가 오르기도 했다.       뱅킹 앱 상위권 순위는 토스가 1위를 지키던 카카오뱅크를 지난해 4월 처음으로 넘어선 이후 9개월 연속 1위를 유지한 바 있다. 올해 상반기도 순위 변동은 없었다.       다만, 토스는 송금·결제 서비스뿐만 아니라 토스뱅크, 토스증권까지 아우르는 원앱 서비스를 제공하고 있어 모든 사용자가 한 앱을 이용해야 한다는 점에서 차이가 있다. 카카오의 금융사는 카카오뱅크와 카카오페이를 나누어 앱 서비스를 하고 있다.        -     시장 눈높이 낮아진 카카오페이   모바일인덱스에 따르면 카카오페이의 6월 MAU는 357만명이었다. 토스와 비교하면 1070만명 차이다.       토스는 '원앱 전략'이라는 이름 아래 송금·결제에서 시작한 서비스를 뱅킹과 증권까지 확대했다. 이와 비교해 카카오페이는 뱅킹을 제공하는 카카오뱅크의 서비스 외의 증권·자산관리 서비스를 카카오페이 앱 안에 넣고 있다.     2017년 설립 아래 금융 영역을 확장하면서 마이데이터부터 대출모집업, 보험대리점(GA), 증권, 디지털손해보험 등 라이선스를 획득하며 종합금융 서비스로 몸집을 키워왔다.     이에 카카오페이의 월간 거래액은 설립 이듬해인 2018년 3월 처음으로 1조원을 돌파한 후 4년 만인 지난 5월 10배로 성장했다. 작년 연간 거래액은 100조원에 육박한 99조원을 달성하며 이용자는 꾸준히 증가 추세다.     지난 1분기 말 기준 카카오페이 누적 가입자는 3788만명으로, 우리나라 15세 이상 인구의 80% 이상을 차지한다. 카카오페이에서 실제 거래하는 월간 활성 이용자 수도 2156만명이 넘는다.     카카오페이의 이런 사세 확장에 시장의 기대감이 커지며 지난해 12월 주가가 24만8500원까지 올라갔지만, 현재 고가 대비 4분의 1 수준으로 쪼그라들었다.       한국거래소에 따르면 올해 유가증권시장 시가총액 상위 50위권에서 지난 22일 종가 기준으로 순위 하락이 가장 두드러진 종목이 카카오페이였다.     이에 카카오페이는 시가총액에서 올해 초 15위에서 43위로 28계단이나 떨어졌고, 개미투자자들 사이에 "빠져도 너무 빠졌다"는 안타까움마저 나오고 있다.       26일 기준 카카오페이의 시총은 8조5084억원으로, 토스가 투자자에 평가받은 기업가치보다 떨어진 수준이다.     카카오페이는 자신을 우리나라 최대 생활 금융 플랫폼이라고 한다. 결제, 송금, 멤버십, 영수증, 청구서, 내 문서함 등 생활 금융 서비스부터 대출중개, 투자, 보험, 자산관리 등 전문 금융 서비스까지 다 한다는 것이다.        한국뿐 아니라 일본, 마카오, 싱가포르의 오프라인 매장에서도 카카오페이로 결제할 수 있으며, 금융사의 신용대출 상품뿐 아니라, 전·월세 대출 상품, 카드 대출 상품을 한눈에 비교할 수 있다. 카카오페이증권이 제공하는 MTS로 국내 주식과 미국 주식을 쉽고 편리하게 거래할 수 있으며, 카카오톡 친구에게 실시간 수준으로 미국 주식을 1000원부터 선물할 수도 있다. 하반기에는 보험 서비스도 시작한다.     하지만 시장의 눈높이는 이미 낮아질 대로 낮아졌다.       최근 한국투자증권은 카카오페이의 목표 주가를 기존 16만원에서 9만5000원으로 하향했다. 40.6%가량 하향 조정한 셈이다. 교보증권도 종전 16만원에서 11만원으로 카카오페이의 목표 주가를 조정했다.     정호윤 한국투자증권 연구원은 “경제 위축, 대출 시장 위축 가능성을 반영해 올해 (카카오페이의) 거래액 추정치를 기존 124조원에서 120조원으로 3.5% 하향한다”며 “전체 매출액 추정치도 기존 대비 9.7% 낮춘다”고 했다.       안도영 한국투자증권 연구원은 "카카오페이는 적자 지속으로 컨센서스(추정치)를 하회할 것"이라고 내다봤다. 그러면서 "하반기 중 대출 등 기존 서비스의 성장률 회복과 보험 등 신규 서비스의 매출 기여에 따른 금융 서비스 회복 여부에 주목해야 할 것"이라고 말했다.    권지예 기자 kwonjiye@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.07.31.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>걷고 용돈받고...高물가 시대, 티끌 모으는 짠테크족</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002625975?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>걷기·게임 미션 시 보상이용자 유치 전략 '치열'토스 '만보기' 서비스 ⓒ토스[데일리안 = 김효숙 기자] #서울 마포구에 사는 직장인 이모(30)씨는 금융사 애플리케이션을 통해 푼돈을 모으는 취미가 생겼다. 핀테크 앱에서 걸음 수 만보를 채우면 주는 40원을 챙긴 다음, 은행 앱을 켜서 '지금 이자받기' 기능을 통해 1046원을 받는다. 이어 다른 핀테크 앱을 열어 한 달에 한 번 접속 시 주는 리워드로 750원을 받았다. 이씨는 10분 만에 1800원 정도를 벌었다.최근 금리와 물가가 치솟으면서 스마트폰 앱을 활용해 '티끌'이라도 모으려는 짠테크족들의 움직임이 활발해지고 있다. 걸음 수를 채우거나 앱을 접속하는 등 간단한 미션을 행하면 주는 리워드는 대개 10~100원 단위 소액이지만, 꾸준히 모으면 식사나 커피값은 벌 수 있어서다.31일 토스에 따르면 2019년부터 시작된 만보기 서비스는 사용자 휴대폰에서 측정된 걸음 수에 따라 보상 혜택을 제공한다. 1만 보 이상을 걸으면 최대 40원을 받을 수 있다. 또 특정한 장소에 방문하는 미션을 수행하면, 한곳 당 20원씩 최대 100원까지 추가로 받을 수 있다.계열사인 토스뱅크는 자사 통장 넣어둔 돈의 이자를 매일 원할 때 받을 수 있는 '지금 이자받기' 서비스를 운영한다. 매일 전날 잔액 기준 연 2% 이자를 받을 수 있는 일복리 서비스로, 매일 이자받기를 이용하면 전체 원금이 조금이지만 늘어나는 효과가 있다.삼성금융네트워크의 금융통합앱 모니모는 출석체크와 만보기 등을 통해 미션을 마치면 현금처럼 사용할 수 있는 '젤리'를 준다. 일반 젤리는 10원 이상, 스페셜 젤리는 1000원 이상의 값어치다. 삼성 금융계열사 상품을 얼마나 구독했느냐에 따라 적립률이 다르게 적용된다.웰컴저축은행 이용자는 헬스케어 서비스 '웰뱅워킹'을 통해 통해 누적 걸음수가 5만보 이상일 경우 리워드를 계좌로 현금 지급받을 수 있다. 한 달 동안 20만보 이상을 걸으면 최대 3000원까지 받을 수 있다.뱅크샐러드 '뱅샐 용돈' 서비스 관련 포스터. ⓒ뱅크샐러드뱅크샐러드는 단순히 앱에 접속해 '받기' 버튼만 누르면 매달 용돈을 주는 '뱅샐용돈' 서비스를 운영하고 있다. 뱅샐용돈은 1년 간 한 달에 한 번씩 총 12차례만 받을 수 있으며, 한번 받을 때마다 수백원에서 최대 만원 단위까지 랜덤으로 지급된다. 용돈으로 받은 뱅샐머니는 연결된 입출금계좌로 송금할 수 있다.게임을 통해 포인트를 주는 금융앱들도 있다. 신한카드는 자사 앱 신한 플레이의 pLay 오락실에서 매일 4가지의 미니게임을 마친 이용자에게 최대 1000마이신한포인트를 제공한다. 대출비교 플랫폼 핀크도 매일 국내 주식시장을 예측, 적중하면 최대 200만원 상금을 제공하는 챌린지를 운영하고 있다.금융사들이 비용을 감수하고 고객 혜택과 보상 서비스를 늘리는 이유는 신규 고객을 유치하고 기존 고객의 자사 앱 이용 시간을 늘리려는 '락인 효과' 때문이다. 이용자의 재미·흥미를 겨냥한 서비스를 고민하는 것도 그 이유다.최대한 앱에 자주 들어오게 하고 한번 들어오면 앱에서 최대한 많은 시간을 보내게 하면서 다양한 상품과 서비스로 연결되는 효과를 노리는 것이다.토스의 월간 이용자 수(MAU)는 지난달 기준 1400명 이상으로, 매월 35만명씩 늘고 있다는 설명이다. 모니모의 MAU는 5월 기준 156만 6568명으로 삼성화재와 삼성생명앱을 크게 웃돈다.업계 관계자는 "고 물가 시대 MZ세대 사이에서는 아예 돈을 안쓰는 '무지출 챌린지'가 유행하는 만큼 소액이라도 모을 수 있는 앱테크에 대한 관심도 높아지고 있다"며 "고객에게 돌아가는 보상서비스는 시작하면서 앱 이용자 수도 확실히 늘었다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.07.22.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>지앤넷 '닥터구디', 날짜 선택 시 의료비·약제비 한 번에 청구</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004774290?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>["진료받은 날 선택하면 의료비·약제비 한 번에 실손보험금 청구"]의료정보전송 플랫폼 전문기업 지앤넷(대표 김동헌)이 자사 PHR(개인건강기록) 앱(애플리케이션) '닥터구디'에서 날짜 검색만으로 보험금을 청구할 수 있는 서비스를 시작했다고 22일 밝혔다.지앤넷에 따르면 자주가는 병원과 약국을 등록할 수 있기 때문에 날짜만 검색해도 보험금을 청구할 수 있게 됐다. 병원과 약국의 결제금액을 확인하고 해당 의료비 및 약제비 내역을 출력물 없이 보험사로 바로 전송할 수 있는 것이다. 김동헌 지앤넷 대표는 "날짜만으로 의료비뿐 아니라 약제비까지 모든 보험사에 전송할 수 있는 서비스는 유일하다"며 "지앤넷은 의료정보전송 분야에서 병원, 약국, 보험사 등 국내 가장 많은 참여자를 확보하고 있다"고 말했다.한편 지앤넷은 병원의 의료정보를 보험사로 전송하는 '실손보험빠른청구'와 개인의 건강을 관리하고 의료정보를 전송하는 '닥터구디'를 서비스하고 있다. '실손보험빠른청구'의 경우 4대 시중은행 및 지방은행과 토스, 보맵, 주요카드사를 비롯해 40여개가 넘는 기업과 제휴해왔다. 2022년 현재까지 구디플랫폼을 통한 누적 청구 건수는 100만건을 넘어섰다. 사진제공=지앤넷</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>토스, '머천드코리아' 인수…금융사 알뜰폰 사업 진출 가속화</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004994444?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>[사진 출처 = 토스] 모바일 금융 서비스 토스의 운영사 비바리퍼블리카(이하 토스)가 알뜰폰 업체 '머천드코리아'를 인수했다.토스는 머천드코리아의 지분 100%를 인수하는 주식매매계약을 체결했고, 조만간 토스앱을 통한 알뜰폰 가입 서비스를 선보일 예정이라고 21일 밝혔다.토스인증서를 활용해 알뜰폰 요금제 탐색부터 개통까지 가입의 전 과정을 혁신하고, 가계 통신비 절감 기회를 제공한다는 계획이다.  국내 알뜰폰 가입자 수는 2021년 기준 1000만명을 돌파했지만, 여전히 전체 이동통신 가입자 수의 14% 정도에 불과하다. 이 때문에 알뜰폰 시장은 성장 잠재력이 큰 것으로 평가된다. 토스는 온라인 채널을 통해 주로 가입되는 알뜰폰의 특성 상 편리한 가입절차, 사용 유형에 맞는 최적의 요금제, 운영 사업자의 브랜드 인지도 등 세가지 요소를 시장 확대의 관건으로 보고 있다. 장민영 토스 사업전략리드는 "토스가 금융 서비스를 통해 고객의 시간과 비용을 아끼고 사회적 효용을 만들어낸 것처럼 알뜰폰 가입 고객의 불편함 해소와 토스 고객의 통신비 절감에 기여하고자 한다"고 밝혔다. 한편 토스에 앞서 KB국민은행이 지난 2019년 12월 금융사 최초로 알뜰폰 사업에 진출했고, 최근 신한은행도 동참했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.07.20.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>토스 “신규 투자 3000억원 유치”</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003161097?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>토스 제공토스를 운영하는 비바리퍼블리카가 대규모 투자를 새로 유치했다고 20일 밝혔다.토스는 “이번 투자는 7월과 8월 두 차례로 나누어 진행될 예정”이라며 “우선 3000억원 규모의 투자 유치를 확정해 공시했다”고 밝혔다.토스는 “이번 투자에서 토스 기업가치는 8조5000억원으로 평가받았다”며 “이는 지난해 6월의 8조2000억원을 소폭 웃도는 것”이라고 말했다.이번 투자의 주요 투자자는 토스의 초기 성장부터 함께한 알토스벤처스로, 1000억원을 신규 투자했다. 굿워터와 그레이하운드 등 해외 주주들도 투자했다.국내 기관투자자 중에는 KDB산업은행이 1000억원, 광주은행이 200억원의 투자를 단행했다. 또 토스의 초기 투자자인 다올인베스트먼트와 미래에셋증권도 소규모로 투자에 참여했다.토스는 “투자 유치 자금은 토스뱅크, 토스증권 등 주요 계열사의 성장을 가속화하기 위한 추가 투자 및 신규 사업 등에 활용될 예정”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.07.23.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>“에너지 많은 90년대생, 투자 가점 요소…시장 목소리에 귀 열라”</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000829466?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>[이코노미조선][Interview] 성종헌 소프트뱅크벤처스 책임심사역 또래가 대기업 입사를 염원할 때, 취업 대신 창업을 택한 90년대생이 늘고 있다. 이들의 나이는 현재 23세에서 32세. 20·30대 초반에 이미 CEO가 된 것이다. 지금, 90년대생은 전 세계 스타트업 생태계 주역이 되고 있다. 90년대생 창업자와 이들을 바라보는 투자업계는 90년대생에게 창업은 이미 익숙한 일이라고 입을 모은다. 국내외에서 모바일 1세대로 성공한 창업자들을 보며 자란 이들은 스마트폰 발전과 맞물리는 아이템을 찾아 창업하면 어린 나이에 큰 부를 쌓을 수 있다는 것을 자연스럽게 습득했다. 또 MZ 세대(밀레니얼+Z 세대·1981~2010년생)의 ‘낀 세대’인 이들은 트렌드를 재빨리 포착할 수 있는 능력과 환경을 갖추고 있다. 무엇보다 부모 세대보다 해외 진출에 거부감이 없으며 영어가 익숙한 점도 이들의 강점이다. 이에 ‘이코노미조선’은 90년대생 창업자를 다각도로 분석하는 ‘창업 신(新)주류 90년대생’을 기획했다. [편집자주]성종헌 소프트뱅크벤처스 책임심사역. /소프트뱅크벤처스 제공        “패기 있고 공격적이며 꿈의 크기가 훨씬 크다. 화법은 직설적이며 수평적인 문화와 평등한 보상을 중시한다.”소프트뱅크그룹 소속 글로벌 벤처캐피털(VC) 소프트뱅크벤처스의 성종헌 책임심사역(이하 책임)은 90년대생 창업자의 특징을 이렇게 설명했다. 성 책임은 “국내에서도 창업자 연령이 낮아지고 있다”며 “앞으로 그 속도는 더 빨라질 것”이라고 말했다.성 책임은 1997년생 장지호 대표가 설립한 ‘닥터나우’, 1990년생 이수완 대표의 ‘타인에이아이’ 투자를 이끈 경험이 있다. 닥터나우는 국내 최초 비대면 진료와 처방약 배달 서비스를 제공하는 플랫폼을 선보인 기업이다. 타인에이아이는 투자자의 주식 포트폴리오를 비롯해 투자 자산 수익률, 예상 배당금, 보유 주식 뉴스 등 정보를 제공하는 주식 소셜 플랫폼 ‘오르락’을 서비스한다. ‘이코노미조선’은 7월 5일 성 책임과 인터뷰를 통해 90년대생 창업자를 주목한 이유와 예비 청년 창업자를 위한 조언을 들어봤다.90년대생이 창업한 스타트업에 투자를 결정한 이유는.”닥터나우에 30억원, 타인에이아이에 9억원 정도를 투자했다. 스타트업에 투자할 때 크게 세 가지를 고려한다. 시장 크기, 비즈니스 모델과 제품·서비스의 마켓핏(시장 적합도), 창업팀의 역량이다. 닥터나우의 장 대표를 지난해 1월 처음 만났는데, 사실 당시에는 학생 같다는 느낌이 강해서 투자를 진행하지 않았다. 그런데 5개월 후 다시 만난 장 대표는 달라져 있었다. 짧은 시간에 팀의 전문성을 크게 높였고, 규제에 대한 대응력도 좋아졌다. 이 정도 용병술과 빠른 성장 곡선을 보여주는 사람이면 투자할 만하다고 판단했다. 타인에이아이의 경우 정량적 관점에서 ‘오르락’ 서비스의 지표가 괜찮았다. 업계 평균적인 수준보다 고객 충성도가 높았다. 사용자 수가 잘 유지되고, 사용자 이탈률이 낮았다. 또 금융 업계, 기술 스타트업 최고기술책임자(CTO) 출신 등 팀원이 적절하게 구성된 점도 주목했다. 고루한 금융이라는 영역을 혁신해나갈 역량이 충분하다고 봤다.”90년대생은 스타트업 생태계에서 어떤 포지션에 있나.”스타트업 생태계에서 90년대생 창업자는 ‘라이징 스타’다. 아직 시장을 리드하는 건 아니지만 미래 성장 가능성에서 크게 평가받는다. 또 투자자 입장에서 90년대생을 비롯한 젊은 창업자는 플러스 요소다. 창업자의 에너지가 굉장히 중요한데, 이들은 보통 에너지 레벨이 높다. "왜 청년들이 창업을 선택할까.”왜 대기업에 충성하지 않냐는 질문으로도 들린다. 창업을 선택하는 건 취업하지 않기로 했기 때문인 경우가 많다. 젊은 사람들이 점점 더 똑똑해지면서 나타난 당연한 결과라고 생각한다. 대기업의 이름만 좇는 게 아니라 조직의 구조적인 문제나 보상의 적절성 등을 어릴 때부터 파악하게 된 거다. 누군가는 서울 아파트 평균값이 10억원대를 넘어서면서 창업이 당연한 선택이 됐다고 얘기하더라. 직장 생활만으로 지속 가능한 경제 활동이 어렵다는 걸 일찍이 알게 된 거다.”90년대생 예비 창업자가 시행착오를 줄일 수 있는 ‘팁’이 있다면.”객관적으로 젊은 창업자들은 경험이 적다. 냉정하게 말해 어떤 선택이나 판단에서 틀릴 가능성이 크다. 시행착오가 적은 사람은 의사 결정 과정에서 경험 많은 사람의 충고를 최대한 반영한다. 창업은 내가 원하는 걸 하는 것보다 시장이 원하는 걸 하는 게 중요하다. 경험자와 시장의 목소리에 귀를 열라. 성공 가능성을 키울 수 있을 것이다.”-더 많은 기사는 이코노미조선에서 볼 수 있습니다.&lt;관련기사&gt;Part 1. 스타트업 생태계 흔드는 90년대생①90년대생 부하 직원?…이제는 ‘창업자’다②[Infographic] 90년대생 창업자가 뜬다Part 2. 국내외서 두각을 나타내는 90년대생 CEO③[Interview] ‘포브스 30세 이하 제조 기업인 2022′레비 콘로 레트릭 이바이크 공동창업자④[Interview] 이모티콘 플랫폼 스티팝조준용·박기람 공동창업자 겸 대표⑤[Interview] ‘토스 스타트업 서바이벌 우승’김민준 어웨이크코퍼레이션 대표⑥[Interview] 코딩 교육 팀스파르타 이범규 대표·IP 보호 소프트웨어 기업 마크비전 이인섭 대표Part 3. 전문가 제언⑦[Interview] 성종헌 소프트뱅크벤처스 책임심사역⑧[Interview] 마이크 김 구글 스타트업 캠퍼스아시아·태평양 및 한국 총괄</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.07.19.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>父 노후 망칠 뻔한 아들, 매출 1110억원대 전기자전거社 대표로</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000828334?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>[이코노미조선][Interview] ‘포브스 30세 이하 제조 기업인 2022′ 레비 콘로 레트릭 이바이크 공동창업자 또래가 대기업 입사를 염원할 때, 취업 대신 창업을 택한 90년대생이 늘고 있다. 이들의 나이는 현재 23세에서 32세. 20·30대 초반에 이미 CEO가 된 것이다. 지금, 90년대생은 전 세계 스타트업 생태계 주역이 되고 있다. 90년대생 창업자와 이들을 바라보는 투자업계는 90년대생에게 창업은 이미 익숙한 일이라고 입을 모은다. 국내외에서 모바일 1세대로 성공한 창업자들을 보며 자란 이들은 스마트폰 발전과 맞물리는 아이템을 찾아 창업하면 어린 나이에 큰 부를 쌓을 수 있다는 것을 자연스럽게 습득했다. 또 MZ 세대(밀레니얼+Z 세대·1981~2010년생)의 ‘낀 세대’인 이들은 트렌드를 재빨리 포착할 수 있는 능력과 환경을 갖추고 있다. 무엇보다 부모 세대보다 해외 진출에 거부감이 없으며 영어가 익숙한 점도 이들의 강점이다. 이에 ‘이코노미조선’은 90년대생 창업자를 다각도로 분석하는 ‘창업 신(新)주류 90년대생’을 기획했다. [편집자주]어린시절부터 친구였던 1995년생 동갑내기 레비 콘로(Levi Conlow)와 로비 데지엘(Robby Deziel)은 미국 전기자전거 시장에 ‘가격 혁명’을 불러일으켰다. 둘이 공동 설립한 미 전기자전거 업체 레트릭 이바이크(Lectric eBikes)는 기존에 3000달러(약 392만원) 하던 전기자전거 가격을 1000달러(약 130만원) 수준까지 내렸기 때문이다. 이는 트렉(Trek), 자이언트(Giant), 야마하(Yamaha) 같은 업계의 거물급 모델과 비교하면 훨씬 저렴하다.레비 콘로 레트릭 이바이크 공동창업자 겸 CEO 미국 그랜드캐니언대 리더십학 석사 사진 레트릭 이바이크        가격이 저렴하지만 품질까지 좋으니 손님은 따라왔다. 2019년 회사를 차리고 지금까지 총 10만 대가 넘는 전기자전거를 팔았다. 올해만 매출이 8500만달러(약 1110억원)에 이를 것으로 추정된다. 레트릭 이바이크가 합리적인 가격을 내세울 수 있던 이유는 콘로와 데지엘이 아직 20대 중반의 젊은 나이임에도 불구하고 전기자전거 제품과 시장만큼은 누구보다 전문가이기 때문이었다. 그리고 실행력이었다. 콘로는 “사업 아이템이 생각나면 당장 시작하는 것이 최선”이라고 말했다. 그들은 3000달러가 넘는 전기자전거 가격이 비합리적이라고 생각하고, 비합리를 손보기 위해 곧장 저렴한 전기자전거 개발에 매진했다.콘로 아버지의 은퇴 후 노후 자금 5만달러(약 6500만원)을 인질 삼아 첫 전기자전거 모델을 만든 이들은 일단 아버지의 은퇴를 망치지 않은 것에 감사해한다. 그러나 처음부터 ‘대박’은 아니었다. 첫 전기자전거 모델은 완전히 실패했기 때문에 둘은 “아버지의 은퇴를 망쳐놨구나” 했다. 훗날 콘로 아버지이자 레트릭 이바이크의 공동 소유자인 브렌트 콘로(Brent Conlow)는 첫 전기자전거가 망했다는 소식을 들었을 때 “그건 완전한 재앙”이라 생각했다고 회상했다. 현재 아들 콘로는 최고경영자(CEO)를, 데지엘은 최고혁신책임자(CINO)를 맡고 있다. ‘이코노미조선’은 7월 1일 콘로 CEO와 서면 인터뷰를 진행했다. 다음은 일문일답.전기자전거 만드는 회사를 운영하고 있다. 간단히 소개해달라.”2019년에 설립한 전기자전거 제조·판매 업체다. 미국 전역에서 판매하고 있고, ‘일렉트릭 XP(Electric XP)’ 모델이 우리 회사에서 가장 인기 있는 전기자전거 상품이자 미국에서 세 번째로 인기 있는 전기자전거이기도 하다. 설립 이후 매년 성장해온 회사이기도 하다. 2019년 말 애리조나주 피닉스에 첫 사무실을 마련하기 전에 차고에서 작업할 때도 있었다. 그러나 2021년 여름에는 직원이 늘어나면서 사무실을 넓혔다. 첫 사무실보다 지금 사무실이 네 배 더 크다. 올해는 직원 100명을 추가로 채용했고, 20만 명이 넘는 사람이 우리 자전거를 타고 도로를 누비고 있다.”22세부터 창업을 준비했다. 취업이 아닌 창업을 택한 이유는.”내게는 자연스러운 일이었다. 난 이전에 (어리니까) ‘직업’이라는 것을 가져본 적이 없었다. 직업이 어떤 모습을 하고 있는지조차 몰랐다. 성장 환경도 한몫했는데, 자라면서 형제들은 일자리를 얻는 게 허락됐지만 나는 그렇지 않았다. 우리 아버지는 항상 내게 ‘너만의 사업을 시작하라’고 하면서 돈을 벌도록 격려해줬다. 아버지는 내게 돈을 물려주지 않으려고 했기 때문이다. 따라서 나는 창업을 생각할 수밖에 없었다. 특히 전기자전거 분야에서 우리(나와 데지엘)가 원하는 제품이나 판매 방식을 취한 회사가 없었다. 그래서 우리는 전기자전거 시장을 고쳐야 한다고 느꼈고 합리적인 가격의 전기자전거 선택지가 크게 필요하겠다고 생각해, 이를 실현하게 됐다. 결정적으로 난 물건들에 모터를 다는 일을 즐기는 사람이다. 대학 때부터 전기스케이트보드를 판매했으니까 말이다.”전기자전거 창업 아이템을 어떻게 포착했는지 구체적으로 알려달라.”기회를 잡아야 한다는 강박증이 있다. 나는 마땅히 우리가 원하거나 누려야 할 것들이 시장에서 비효율성을 보일 때면 참지 못한다. 사람들은 당연하게도 전기자전거를 사기 위해 수천달러를 쓰고 있었다. 그 와중에도 저렴한 전기자전거를 찾고 있던 우리 아버지 같은 사람이 있었다. 이게 바로 우리의 창업 동기가 됐다. 우리는 그 가능성을 보고 사람들이 실제로 살 수 있는 저렴하면서도 질 좋은 전기자전거를 디자인하기 시작했다. 나와 데지엘은 우리 아버지를 위해 저렴한 전기자전거를 만들었을 때, 전기자전거를 3000달러보다 훨씬 낮은 가격으로 만들 수 있다는 것을 깨달았다. 그리고 이내 그것이 얼마나 훌륭한 사업 기회가 될 수 있는지를 알게 됐다.”창업 자금은 어떻게 마련했나.”아버지의 퇴직금을 총 5만달러를 끌어다가 썼다. 먼저 아버지 퇴직금 중 4만달러는 우리의 첫 XP 전기자전거 두 대를 만드는 데 썼다. 이후 세 번째 전기자전거를 만들었을 때, 고객들이 4개월 전에 전기자전거를 선불로 구매하도록 해 자금을 수혈받았다. 선불 결제는 우리가 초기 투자자들에게 의존할 필요가 없도록 해줬다.”사진 레트릭 이바이크 창업 초기에 큰 어려움은 없었나. 가장 기억에 남는 에피소드는.”가장 기억에 남는 에피소드는 우리의 첫 전기자전거와 아버지의 투자금 뒷이야기다. 아버지는 은퇴 노후 자금 중 4만달러를 초기 전기자전거 제작을 위해 투자하는 데 동의했다. 그런데 솔직히 말하면, 첫 번째 전기자전거는 완전히 망했다. 우리는 아버지의 노후를 망친 것이다. 일단 첫 전기자전거가 왜 망했는지 고객 피드백을 모은 다음, 우리는 다시 전기자전거를 만들기 위해 아버지에게 1만달러만 더 투자해달라고 설득했다. ‘1만달러만 더 잃어달라’고 꾀어냈다. 아버지는 우리가 그의 은퇴를 망쳤음에도 불구하고 1만달러를 더 줬는데, 그 이유로 ‘이왕 망친 거…’ 하셨다더라. 다행히도 1만달러를 다시 받아 만든 새 전기자전거는 시장에 내놓기도 전에 엄청난 성공을 거뒀다. 3주 만에 예약 판매 금액만 100만달러(약 13억600만원)에 달했다. 그러나 빠른 성공은 다시 또 다른 도전이 됐다. 차고에서 매달 100만 대의 전기자전거를 출고하기가 어려웠기 때문이다. 우리가 한 번도 겪지 못했던 일이었고, 어떻게 하면 좋을지 그 방법도 몰랐다. 우리는 다시 그 과정에서 배워나가야만 했다.”90년대생 창업자로서 기업을 운영하는 데 강점은 무엇인가.”내가 잘 모른다는 것을 아는 것이다. 그래서 똑똑하고 재능 있는 직원을 고용한다. 매출이 잘 나오더라도 현실은 이건 내 첫 번째 회사일 뿐이라는 것이다. 그래서 나는 어떻게 일을 하는 게 옳은지 그른지 잘 모른다. 만약 내가 나이가 더 많았다면 고집만 세졌겠다고 생각한다. 또 나는 젊은 기업가로서 나와 회사가 함께 발전하고 성장할 수 있다는 점도 마음에 든다.”창업을 고려하고 있는 90년대생 또래에게 해주고 싶은 말이 있는가.”기꺼이 어느 한 분야의 전문가가 돼야 한다는 말을 전하고 싶다. 나는 전기자전거 분야에서 데이터를 축적하고, 경쟁사를 알고, 내가 할 수 있는 모든 정보를 아울렀다. 전기자전거는 이전부터 존재해왔으며 우리가 개발한 일렉트릭 XP조차 혁신적인 운송 수단은 아니다. 그러나 나와 데지엘은 전기자전거 전문가가 되면서, 이 정도 전기자전거 수준의 성능과 등급이라면 저렴한 가격대로 승부 볼 수 있다는 사실을 알아냈다. 이렇게 되면 이건 ‘혁신’이 된다. 모든 것은 아이디어를 가지고 연구하고 한 가지에 몰두하고 도전할 만큼 충분히 미쳐야 가능하다.”향후 목표는.”우리의 전기자전거가 ‘역대 최고의 도시 교통 솔루션’이 되는 것이다. 우리는 우리가 알고 있는 교통수단에 관한 생각을 바꾸고 싶다. 우리가 처음 저렴한 전기자전거를 만들어 팔자 업계에서 가격을 올리라는 많은 압박을 받았다. 우리도 마음만 먹으면 가격을 1000달러에서 2000달러까지 쉽게 올릴 수 있었지만, 우리는 여전히 다른 경쟁사보다 저렴한 가격을 고수하고 있다. 나와 데지엘은 가격을 올리려는 유혹이 있을 때마다 ‘우리가 더 부유해진다고 우리 자전거가 역사상 가장 위대한 도시 교통수단이 될까’라는 질문을 스스로 던졌다. 이 질문에서 우리의 대답은 ‘노(NO)’였고, 이에 따라 우리는 저렴한 가격을 유지하고 있다.”-더 많은 기사는 이코노미조선에서 볼 수 있습니다.&lt;관련기사&gt;Part 1. 스타트업 생태계 흔드는 90년대생①90년대생 부하 직원?…이제는 ‘창업자’다②[Infographic] 90년대생 창업자가 뜬다Part 2. 국내외서 두각을 나타내는 90년대생 CEO③[Interview] ‘포브스 30세 이하 제조 기업인 2022′레비 콘로 레트릭 이바이크 공동창업자④[Interview] 이모티콘 플랫폼 스티팝조준용·박기람 공동창업자 겸 대표⑤[Interview] ‘토스 스타트업 서바이벌 우승’김민준 어웨이크코퍼레이션 대표⑥[Interview] 코딩 교육 팀스파르타 이범규 대표·IP 보호 소프트웨어 기업 마크비전 이인섭 대표Part 3. 전문가 제언⑦[Interview] 성종현 소프트뱅크벤처스 책임심사역⑧[Interview] 마이크 김 구글 스타트업 캠퍼스아시아·태평양 및 한국 총괄</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.07.25.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>세리카 에너지, 키스토스 14억 달러 합병 제안 거부</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001044835?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>세리카에너지는 키스토스가 제시한 합병안을 거부했다.25일(현지시간) 로이터에 따르면 세리카에너지는 에너지 투자회사인 키스토스가 제시한 14억 달러 규모의 합병안을 거부했다.토니 크레이븐 워커 세리카 회장이 합병 회사에서 같은 역할을 맡도록 하고 앤드루 오스틴 키스토스 회장이 CEO 역할을 맡도록 제안하기도 했다.영국 가스 공급의 약 5%를 생산하는 세리카는 "세리카 주주들이 프리미엄의 상당 부분을 조달하게 된다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.07.26.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>"4개 대형사 중 금리 최고" 삼성카드, 대출 이용액 급감한 이유는</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000836077?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>올 상반기 삼성카드의 카드대출 이용금액이 급격히 줄어든 것으로 나타났다. 토스뱅크의 대환대출 시범 운영과 DSR 규제 영향으로 분석된다. 여기에 4대 카드사 중 삼성카드의 카드론이 가장 높다. 사진은 김대환 삼성카드 사장./사진=뉴스1, 삼성카드 올 상반기 삼성카드의 카드대출과 할부·리스 이용금액이 줄었다. 대신 올 4월부터 사회적 거리두기가 전면해제되면서 소비가 회복되면서 신용판매 이용금액은 급증했다.한국은행의 지속적인 기준금리 인상과 고물가 상황이 지속될 경우 소비는 언제든 위축될 가능성이 있어 카드사의 핵심 수익원인 카드대출과 할부·리스 이용액 감소는 삼성카드에 실적 악화로 돌아올 수 있다는 지적이 나온다.26일 카드업계에 따르면 올 상반기 삼성카드의 카드대출 이용금액은 9조3783억원으로 전년동기대비 0.5%(4480억원) 감소했다.올 2분기만 놓고 보면 회사의 카드대출 이용금액은 전년동기대비 2.1%(980억원) 줄어든 4조6740억원으로 집계됐다.특히 장기카드대출인 카드론의 이용금액이 크게 떨어졌다. 2분기 삼성카드의 카드론 이용금액은 2조2740억원으로 전년동기대비 2.9%(675억원) 감소했다. 같은 기간 단기카드대출인 현금서비스는 1.3%(585억원) 줄어든 2조4000억원으로 집계됐다.카드사들은 가맹점 수수료율 인하에 따른 카드사업 신용판매 부진을 카드론과 현금서비스로 만회하려 하지만 삼성카드의 경우 카드대출 이용금액이 줄면서 마냥 안심할수만은 없는 상황에 놓였다.수익 다각화의 하나로 확대하고 있는 할부·리스사업에서도 삼성카드는 고전을 면치 못하고 있다. 올 상반기 삼성카드의 할부·리스 사업 이용금액은 4384억원으로 전년동기대비 무려 17.3%(919억원) 급감했다. 올 2분기에는 23.7%(697억원) 감소한 2244억원에 머물렀다.이에 따라 삼성카드의 할부·리스 사업의 영업수익은 올 상반기 1276억원으로 전년동기대비 16.3%(248억원) 줄었다.일각에선 삼성카드의 카드대출 이용금액 감소가 토스뱅크의 대환대출이 적지 않은 영향을 미쳤을 것으로 보고 있다.앞서 토스뱅크는 삼성카드 카드론에 대해서만 지난 6월초부터 이달 초까지 약 한달동안 대환대출 시범 서비스를 제공했다. 실제로 중소기업재직자인 만39세 A씨는 삼성카드에서 카드론 1500만원을 19.9%에 이용했지만 토스뱅크 대환대출을 통해 대출 한도 2600만원, 연 4.43% 금리로 대출을 갈아탔다. 대출 한도가 1100만원 늘어난 동시에 금리가 무려 14.47%포인트나 인하된 것이다.중소기업재직자인 만41세 B씨는 삼성카드 카드론 1500만원을 17.5%의 금리로 받았지만 토스뱅크로 갈아탔다. 대출 한도는 3400만원으로 늘어났으며 금리는 5.4%로 떨어졌다.삼성카드의 카드론 금리는 카드사 상위 업체들과 비교해 높은 수준이어서 소비자들의 외면을 받은 것 아니냐는 분석도 나온다. 지난달 30일 기준 삼성카드의 카드론 평균 운영가격은 13.45%로 신한카드(12.06%), KB국민카드(12.70%), 현대카드(12.75%)에 비해 많게는 1.39%포인트 높다.여기에 올 1월부터 카드론이 DSR(총부채원리금상환비율) 규제에 포함된 영향도 있는 것으로 분석된다. 금융권 관계자는 "토스뱅크가 카드론 대환대출을 재개하면 카드사들은 카드론 고객을 빼앗길 우려도 있다"며 "카드론 이용액이 줄고 소비 둔화에 신용판매도 줄어들면 실적 부진을 면치 못할 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.07.20.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>포브스가 주목한 동갑내기 창업자 “불도저 같은 실행력 강점”</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000828599?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>[이코노미조선][Interview] 이모티콘 플랫폼 스티팝 조준용·박기람 공동창업자 겸 대표 또래가 대기업 입사를 염원할 때, 취업 대신 창업을 택한 90년대생이 늘고 있다. 이들의 나이는 현재 23세에서 32세. 20·30대 초반에 이미 CEO가 된 것이다. 지금, 90년대생은 전 세계 스타트업 생태계 주역이 되고 있다. 90년대생 창업자와 이들을 바라보는 투자업계는 90년대생에게 창업은 이미 익숙한 일이라고 입을 모은다. 국내외에서 모바일 1세대로 성공한 창업자들을 보며 자란 이들은 스마트폰 발전과 맞물리는 아이템을 찾아 창업하면 어린 나이에 큰 부를 쌓을 수 있다는 것을 자연스럽게 습득했다. 또 MZ 세대(밀레니얼+Z 세대·1981~2010년생)의 ‘낀 세대’인 이들은 트렌드를 재빨리 포착할 수 있는 능력과 환경을 갖추고 있다. 무엇보다 부모 세대보다 해외 진출에 거부감이 없으며 영어가 익숙한 점도 이들의 강점이다. 이에 ‘이코노미조선’은 90년대생 창업자를 다각도로 분석하는 ‘창업 신(新)주류 90년대생’을 기획했다. [편집자주] (왼쪽부터) 조준용·박기람 스티팝 공동창업자 겸 대표. /스티팝 제공        미국 ‘포브스’가 선정한 ‘아시아의 30세 이하 리더(소비자 기술 부문) 2022′에 이름을 올린 1992년생 청년들이 있다. 이모티콘 솔루션 플랫폼 ‘스티팝’의 조준용, 박기람 공동대표다. 포브스는 매년 아시아·태평양 지역 22개 국가를 대상으로 예술, 금융, 벤처캐피털, 기술, 유통 등 10개 분야의 주목받는 30세 이하 리더를 뽑아 발표한다.스티팝은 온라인 서비스 내 댓글, 메신저, 프로필 등 커뮤니티 기능에 활용할 수 있는 이모티콘을 제공한다. 아울러 이모티콘 작가와 기업을 연결해주는 소싱 플랫폼도 운영하고 있다. 가령 이모티콘 작가나 캐릭터 제작사가 스티팝 플랫폼에 이모티콘을 등록하면 이를 필요로 하는 기업에 연결해주고 수익을 배분하는 식이다.이 회사는 특히 해외에서 주목받고 있다. 국내보다 해외에서 이모티콘 사용이 덜 활성화한 것을 주목, 적극적으로 겨냥한 결과다. 현재 스티팝 서비스 이용자 2000만 명 중 90%가 해외에서 나온다. 35개국 5000여 명의 이모티콘 작가가 스티팝에서 활동하고 있으며, 15만여 개의 이모티콘을 5개 언어로 서비스하고 있다. 또 500여 개 고객사 중에는 구글, 마이크로소프트(MS), 캔바 등 굵직한 글로벌 기업이 있다. 스티팝은 이런 가치를 인정받아 실리콘밸리 액셀러레이터 와이콤비네이터, 롯데벤처스, 스트롱벤처스 등으로부터 약 40억원의 투자를 받았고, 글로벌 소셜미디어(SNS) ‘스냅챗’ 개발사 ‘스냅’이 투자한 첫 한국 스타트업이라는 타이틀도 거머쥐었다.스티팝은 고등학교 동창인 두 대표가 대학생이던 2017년 의기투합해 세운 회사다. 조 대표는 “당시 국내에서 카카오톡 이모티콘이 활성화하는 것을 보면서 이 시장의 성장 가능성을 봤다”며 “스마트폰을 비롯해 사람 사이 소통의 창구가 디지털화하는 세상에서 이모티콘은 텍스트만으로는 담을 수 없는 감정 등을 표현할 수 있는 주요 수단”이라고 말했다. 박 대표는 “전 세계에 있는 모든 온라인 커뮤니티에서 스티팝 콘텐츠를 활용하는 게 목표”라고 포부를 밝혔다. ‘이코노미조선’은 6월 27일 두 대표를 만나 창업 스토리를 들어봤다. 다음은 일문일답.스티팝 서비스 이미지. /스티팝 제공 함께 창업한 계기는. 취업보다 창업을 선택한 이유는.조준용 “고등학교 기숙사 룸메이트였다. 그때부터 친하게 지내면서 창업 얘기를 많이 했다. 뭔가 긍정적인 영향, 변화를 주는 일을 하고 싶다는 생각을 많이 했다. 이모티콘을 창업 아이템으로 먼저 생각한 건 박기람 대표다. 박 대표가 2018년 대학교 창업 동아리에 가입하면서 아이디어 사업화를 구체적으로 준비했고, 내게도 합류를 권유해 함께하게 됐다. "박기람 “서로 다른 대학에 가서도 창업 얘기를 계속했었다. 사실 창업할까, 취업할까, 고민도 안 했던 것 같다. 그냥 자연스럽게 창업을 할 거라고 생각했고, 어떤 창업을 할지에 대해 주로 얘기했다.”왜 ‘이모티콘’이었나.박기람 “국내외를 막론하고 어떤 커뮤니티 사용자든지 자신을 쉽게, 더 잘 표현할 수 있는 수단이 이모티콘이라고 생각했다. 여기에 더해서 이모티콘 작가의 수익, 창작 활동을 지속해서 지원할 수 있는 플랫폼을 만들고 싶었다. 우리는 한국 시장에서 이모티콘 작가들이 억대 수익을 내는 등 성공 사례를 이미 봤다. 이를 통해서 작가는 계속 도전할 수 있는 새로운 기회를 얻었고, 사용자는 더 좋은 콘텐츠를 즐길 수 있는 선순환 구조가 만들어졌다. 우리도 그런 걸 하고 싶었다.”창업 자금은 어떻게 마련했나.박기람 “당시 스타트업들이 대학이나 기업에서 주관하는 스타트업 피칭 대회에 참가하는 식으로 창업 자금을 마련하는 경우가 많았다. 우리도 마찬가지였다. 성신여자대학에서 주관한 창업 피칭 대회에서 1등을 해 받은 상금 300만원을 법인 설립 자금으로 활용했다. 이후 한국콘텐츠진흥원 지원사업에 선정됐고, 고려대학교 투자도 받았다.”‘스냅’과는 어떻게 인연이 닿았나. 조준용 “2019년 말 정부 사업 관련해서 미국 출장을 가게 됐는데, 우연히 스냅 본사를 방문할 기회가 생겼다. 그 자리에서 우리 서비스를 소개했는데 그쪽에서 먼저 ‘좋은 것 같다. 한 번 더 미팅하자’고 반응이 왔다. 사실 2~3년 전부터 ‘우리가 스냅이랑 일할 수 있을까’ 그런 얘기를 했었다. 그래서 그 기회가 왔을 때 목표한 걸 하나 이뤘다는 성취감을 느꼈다.”박기람 “2020년 초 다시 미팅을 했고, 결과적으로 스냅에서 주관하는 ‘옐로(Yellow)’라는 액셀러레이팅 프로그램에 최종 선정됐다. 1년에 10개 회사 정도만 선정하는 프로그램으로, 당시 2월부터 5월까지 진행했다. 이후에 스냅에서 직접 투자도 받았다. 이게 해외 진출의 실질적인 기반이 되기도 했다.”친구와 회사를 운영하는 것의 장단점과 주의할 점이 있다면.조준용 “오랜 친구 사이이기 때문에 서로에 대한 신뢰를 이미 구축한 상태에서 회사를 운영할 수 있다. 회사를 운영하다 보면 빠르게 의사 결정을 해야 하거나, 운영이 어려운 순간이 오는데 신뢰 덕분에 잘 극복했던 것 같다.사실 창업 초반에는 정말 누구의 논리가 더 맞는지 계속 논쟁했다. 그러다가 내 주장이 틀린 경우도 있었고, 박 대표 의견이 틀린 때도 있었다. 무조건 내 의견이 맞는 것이 아니란 걸 깨달으면서 서로의 의견을 더 존중하기 시작했다. 지금은 의견이 어느 정도 조율되면 아이디어를 빠르게 시장에 테스트해보고, 부족하거나 틀린 부분을 신속히 개선하는 방식으로 일한다. 다만, 친구 사이라서, 혹은 친구 사이가 멀어질까 봐 서로에게 줘야 할 피드백을 주지 않거나 약속을 지키지 않는 등의 행동은 주의해야 한다. 회사는 학교 동아리나 소모임이 아니다.”스티팝의 인기 이모티콘들. /스티팝 제공 창업 과정에서 어려움은 없었나.조준용 “초창기에 돈이 너무 없다 보니 1억원 정도 돈을 빌리게 됐는데, 갑자기 빚쟁이가 된 기분이었다. 불확실성의 연속인 상황에서 대출이 생기니까 멘털 관리가 힘들었다. 또 둘 다 휴학하고 창업을 한 거였는데, 친구들은 졸업해서 대기업에 취업하기도 하고 그러는데 우리는 당장 어떤 결과가 안 보이는 상황이 계속되는 게 견디기 좀 힘들었다.”90년대생 창업자만의 특징, 강점이 있을까.조준용 “실행력이다. 결국 본인이 하고 싶어서 회사를 차리지 않나. 그걸 이루기 위해 불도저 같은 실행력이 나온다. 그렇다고 너무 시끄럽지는 않지만, 계속 꾸준히 밀고 나가는 특성이 있는 것 같다.”박기람 “90년대생은 소위 MZ 세대(밀레니얼+Z 세대·1981~2010년생)에 낀 세대다. 다양한 특성의 세대층과 기술 변화를 직접 경험했다. 그래서 폭넓은 소비자층, 새로운 기술에 대한 이해력, 습득력이 빠른 게 강점인 것 같다.”후배 창업자들에게 조언해줄 말이 있나.조준용 “‘젊음’이라는 강점이 있는 그 시간을 충실하게 활용했으면 좋겠다. 어느 정도 논리나 근거가 뒷받침된다면 자신이 추구하는 목표를 이루기 위해서는 일단 무조건 실행에 옮기는 걸 권한다. 다만 체계적으로 단계를 잘 설정해서 밀고 나가는 게 중요하다.”박기람 “주변에 창업을 준비하는 사람이 많은데, ‘좀 더 준비되면 시작해야지’ 하는 사람들이 있다. 그런데 완벽히 준비되는 건 없다고 생각한다. 일단 시작하는 게 중요하다. 그 과정에서 분명 비판도 받고 실패도 있을 수 있다. 중심을 잘 잡고 무시할 건 과감히 버리되 기억하고 들어야 할 건 귀담아듣고 새겨야 한다. 그게 다 자양분이 된다.”-더 많은 기사는 이코노미조선에서 볼 수 있습니다.&lt;관련기사&gt;Part 1. 스타트업 생태계 흔드는 90년대생①90년대생 부하 직원?…이제는 ‘창업자’다②[Infographic] 90년대생 창업자가 뜬다Part 2. 국내외서 두각을 나타내는 90년대생 CEO③[Interview] ‘포브스 30세 이하 제조 기업인 2022′레비 콘로 레트릭 이바이크 공동창업자④[Interview] 이모티콘 플랫폼 스티팝조준용·박기람 공동창업자 겸 대표⑤[Interview] ‘토스 스타트업 서바이벌 우승’김민준 어웨이크코퍼레이션 대표⑥[Interview] 코딩 교육 팀스파르타 이범규 대표·IP 보호 소프트웨어 기업 마크비전 이인섭 대표Part 3. 전문가 제언⑦[Interview] 성종현 소프트뱅크벤처스 책임심사역⑧[Interview] 마이크 김 구글 스타트업 캠퍼스아시아·태평양 및 한국 총괄</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.07.20.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>[ET뉴스 픽!]플랫폼 업계, 빅테크 인재 모시기 불꽃경쟁</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003031865?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>게티이미지뱅크플랫폼 업계가 빅테크 인재 유치에 사활을 걸고 있다. 스타트업으로 시작한 다수의 플랫폼 기업들이 외형을 확장하며 서비스 품질 제고 노하우와 빅테크 문화를 수혈하기 위해서다.야놀자는 구글 최초의 한국인 개발자인 이준영 엔지니어를 수석 부대표로 영입했다. 이 수석 부대표는 야놀자에서 연구개발(R&amp;D)을 총괄한다. 이 수석 부대표가 구글에서 한국 사용자를 위한 커스텀 서치를 개발했다는 점, 구글 최초로 사용자가 입력한 문장의 의미를 제공하는 시멘틱 검색을 개발했다는 점 등은 야놀자의 사업 방향성과도 결이 맞다. 야놀자의 주력 서비스인 여가·여행 상품 판매 전략에 지역이나 테마 검색을 정교화해서 사용자별 맞춤형 검색이 가능하도록 애플리케이션(앱)을 고도화할 수 있기 때문이다. 글로벌 기술 개발 노하우도 얻을 수 있다.야놀자 글로벌 시장 진출 시 트래픽 처리, 보안성 강화, 결제체계 다양화 등에서 시행착오를 줄일 수 있다.여기어때는 사용자경험(UX)센터와 데이터 인사이트팀에 빅테크 출신 개발자를 영입했다. 노유경 UX센터 리드는 구글에서 인공지능(AI) 음성 서비스인 구글 어시스턴드 UX를 디자인했다. 노명헌 데이터인사이트팀 리드는 애플에서 고객 데이터 및 소셜 데이터 분석, 추천 시스템 검증 알고리즘을 개발했다. 여기어때는 올해 연달아 △공간대여 △실시간 해외 항공권 △해외 숙소 등을 출시하며 서비스 영역을 넓혔다. 대형 정보기술(IT) 기업 경험이 여기어때 서비스를 발전시킬 수 있을 것으로 기대를 모으고 있다.직방에는 현재 두 자릿수 규모의 국내 IT기업 출신 개발자가 근무하고 있다. 네이버, 카카오, 쿠팡, 토스 등에서 앱과 웹을 개발한 이력이 있다. 직방에서도 앱 서비스 고도화 작업을 담당하고 있다. 특히 직방의 가상오피스 소마(Soma) 글로벌 비즈니스를 총괄하는 김재은 리드는 아마존, 구글, 위워크 등 글로벌 빅테크 기업에서 비즈니스를 담당한 바 있다.요기요는 최근 전준희 전 쿠팡 부사장을 최고기술책임자(CTO)로 영입했다. 전 CTO는 구글의 TV 광고 플랫폼 팀 창립 멤버이자 수석 엔지니어로 활동했다. 유튜브의 엔지니어링 디렉터를 거쳐 우버로 이직, 1인용 이동수단인 마이크로 모빌리티 프로젝트를 설계했다. 요기요에서는 전 CTO의 글로벌 개발 노하우를 통해 새로운 사업 전략을 구성, 시장 확대에 본격적으로 나설 계획이다.플랫폼 업계가 빅테크에서 인재를 영입하는 이유는 서비스 품질 향상 및 신뢰도 제고를 위해서다. 빅테크에서 신기술 선제 도입이나 대용량 트래픽 경험이 있어 기술력 확대에 도움을 받을 수 있다. 스타트업에서 빅테크 기업으로 도약한다는 이미지 쇄신도 가능하다.조직 확장에 따라 빅테크 문화를 수혈하려는 의미도 있다. 스타트업의 애자일 문화 속에서는 소규모 팀단위 기동력이 있지만 사업 확장을 위해선 대규모 인력이 일괄적으로 움직여야 한다. 이때 개별 팀 단위 공통 분모를 뽑아 전체적인 사업을 진두지휘할 리더가 필요하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.07.27.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>핀크 '비대면 대환대출' 첫 출격…핀테크 경쟁 막 오른다</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003033240?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>핀테크 플랫폼의 '비대면 대환대출' 경쟁이 시작됐다. 저축은행은 물론 시중은행까지 대열에 합류했다.핀크는 핀테크 업계 처음으로 대환대출 상품만 모아 비교할 수 있는 '대환대출 서비스'를 선보인다고 27일 밝혔다. 현재 토스, 카카오페이, 네이버파이낸셜, 핀다 등 주요 빅테크·핀테크가 대환대출 서비스를 준비하는 가운데 핀크가 가장 먼저 출사표를 던졌다.현재 다수 핀테크 플랫폼에서는 대출비교 서비스를 제공하고 있다. 하지만 금융사와의 비대면 대환대출 프로세스 지원 문제 등으로 비대면 대환은 아직 지원하지 않고 있다.핀크 대환대출 서비스는 마이데이터를 이용해 사용자의 대출보유 내역 조회부터 대환 신청까지 일련의 대출 과정을 비대면으로 할 수 있다. 더 나은 대출 조건을 찾아 여러 영업점을 방문하지 않아도 된다.핀크는 275개 금융기관을 연결해주는 마이데이터를 기반으로 기존 대출내역을 조회해준다. 이후 간단한 개인정보를 입력하면 최적화된 대환 조건을 찾아준다. 상품을 선택하면 제휴 금융사로 연결돼 본심사, 상환 등의 프로세스를 거칠 수 있다.이번 서비스에는 하나은행, 스마트저축은행, JT친애저축은행, 고려저축은행 등 1·2금융기관 4곳의 대환대출 상품을 비교할 수 있다. 핀크는 앞으로 시중은행과 저축은행 상품을 지속 추가할 계획이어서 추후 참여 금융사와 업권이 확대될 것으로 보인다.권영탁 핀크 대표는 “급격한 금리 인상에 인플레이션 위협까지 더해진 어려운 경제환경에서 소비자 이자 부담을 줄일 수 있도록 대환대출 서비스를 개발해 선제적으로 선보였다”며 “이번 서비스를 계기로 금융소비자의 대출 정보 불균형을 해소하고 관련 제도 활성화를 앞당기는 계기가 됐으면 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.07.26.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>[김장현의 테크와 사람]&lt;8&gt;습관을 점령하라</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003033149?sid=110</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>정보기술(IT)을 사용하게 만드는 동인은 무엇일까. 정보탐색 욕구일까, 오락의 욕구일까. 많은 연구가 나와 있지만 가장 강력한 동인 가운데 하나는 바로 습관이다. 눈만 뜨면 스마트폰을 들여다봐야 직성이 풀리는 현대인에게 스마트폰은 신체의 일부가 됐다. 오늘 일정이나 가족 생일을 담아 두는 보조 기억장치일 뿐만 아니라 날씨나 해외 증권시장 종가를 체크할 수 있는 정보 공급원이기도 하며, 지난 주말에 친구가 추천한 맛집 정보를 찾아보는 데이터베이스이기도 하다. 그런데 이 모든 이유가 없는 날에도 우리는 여전히 눈만 뜨면 스마트폰을 연다. 이게 바로 습관의 힘이다.'토스'와 같은 새로운 형태의 금융앱이 꿈꾸는 것도 바로 '습관'을 점령하는 것이라고 필자는 생각한다. 송금하고 저축하며 대출받는 용도로 쓰이는 금융앱이 왜 만보계 기능을 장착했을까. 왜 이용자가 원하는 브랜드의 할인쿠폰 같은 걸 제공하는 걸까. '토스'를 일상의 일부로 자연스럽게 받아들이도록 해서 일종의 일상생활 플랫폼으로 만들기 위함은 아닐까? 재밌는 현상은 상당히 보수적인 기성 금융권에서도 자신들의 앱을 일상생활 플랫폼으로 변신시키기 위해 적극적으로 나섰다는 점이다.다른 금융사의 계정까지 한꺼번에 관리할 수 있는 마이데이터 플랫폼을 홍보하면서 동시에 건강이나 취미활동 같은 일상에 관한 정보와 할인쿠폰을 제공하고 관련 커뮤니티까지 연결하기도 한다. 부동산 정보나 중고차 정보까지 제공하고, 직접 거래를 중개하기도 한다. 이렇게 적극적인 움직임은 아마도 소비자 일상에 침투하지 않으면 언제 도태될지 모른다는 위기감 때문일 것이다.습관을 정복하려는 힘은 소셜커머스에서도 강하게 나타난다. 쿠팡은 수백만명의 유료 회원에게 무료로 제공하는 OTT, 즉 언제 어디서나 방송·영화 등 미디어 콘텐츠를 시청할 수 있는 서비스를 개시했다. 이제는 막대한 투자를 통해 전용 콘텐츠도 제공하고, 국가대표 축구팀의 국가 간 경기를 독점 중계하는 등 미디어 시장에서 만만치 않은 존재로 떠올랐다. 쿠팡이라는 소셜커머스로 경제생활을 장악했다면 쿠팡플레이라는 OTT를 통해 엔터테인먼트 생활에까지 손을 뻗치고 있다. 바로 일상의 플랫폼이 되려는 것이다.한 개의 아이디로 다양한 서비스를 즐길 수 있다는 점에서 플랫폼을 넘나드는 스마트한 소비자들은 즐거운 비명을 지른다. 여러 OTT 이용료를 지급하느라 텅 비어 가는 지갑을 보면 가끔 허탈감과 공허함이 들기도 한다. 하지만 우리말로 된 '오징어게임'과 '이상한 변호사 우영우'를 전 세계 플랫폼 이용자들과 함께 감상하는 묘한 쾌감은 이제 우리도 주변이 아닌 중심국가라는 자부심과 묘하게 연결되기도 한다.습관적 미디어 사용에 문제는 없는 걸까. 물론 있다. 유료 플랫폼은 여러 서비스를 제공하면서 살금살금 사용료(구독료)를 올리고 있다. 매월 지불하는 금액도 부담이지만 한 번 가입하면 최소 수년 동안 사용하는 플랫폼은 우리 가계에 큰 영향을 미치고 있다. 둘째 특정 미디어에 많이 의존할수록 그 미디어에서 이뤄지는 사기나 스팸에 속아 넘어갈 확률적 취약성은 오히려 높아진다고 한다. 아룬 비슈와나스 미국 뉴욕주립대 교수가 특정 소셜미디어를 습관적으로 자주 이용하는 사람들을 분석했더니 거기서 횡행하는 스팸이나 사기성 메시지에 속아 넘어갈 확률이 오히려 높았다. 깨어 있는 소비자만이 습관의 마술에 홀리지 않고 현명한 IT 소비를 할 수 있다.김장현 성균관대 교수 alohakim@skku.edu</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>쏘카, 오리지널 다큐멘터리 '씨티 딜레마' 공개</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000686904?sid=105</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>제주도에서 시작한 창업과 스케일업 과정 담아쏘카가 자동차 소유의 문제를 풀어나가는 구성원들의 도전 이야기를 담은 자체 제작 다큐멘터리를 공개했다.쏘카가 자동차 소유의 문제를 풀어나가는 구성원들의 도전 이야기를 담은 자체 제작 다큐멘터리를 공개했다. 사진은 다큐멘터리 씨티 딜레마 포스터.   [사진=쏘카]21일 쏘카는 주차 전쟁 등 자가용 중심의 이동 문화로 발생하는 도시의 딜레마 상황과 이에 도전하는 쏘카 구성원들의 여정을 담은 오리지널 다큐멘터리 'CITY DILEMMA(씨티 딜레마)'가 전용 웹페이지와 공식 유튜브를 통해 공개됐다고 발표했다.다큐멘터리는 10여 년 전 제주도의 작은 사무실에서 5명으로 시작한 쏘카가 전국 4천200여개 쏘카존을 확보하고 2만여 대의 카셰어링 서비스를 운영하는 국내 최초의 모빌리티 유니콘 기업으로 성장해온 과정을 조명했다.성장 단계의 스타트업이 비대면 무인 서비스로 수많은 주차장과 차량을 관리하는 과정에서 어떤 문제에 부딪히고, 어떤 기술을 개발해 문제를 풀어왔는지도 그려진다. 코로나19 유행이라는 세계적인 팬데믹이 이동 서비스를 제공하는 쏘카 구성원들에게 얼마나 큰 충격으로 다가왔는지, 이를 극복하기 위해 구성원들에게 어떤 노력이 필요했는지도 엿볼 수 있다.특히 다큐멘터리에는 김한준 알토스벤처스 대표, 이준표 소프트뱅크벤처스 대표, 마크 무어 ThornTree Capital Partners 최고투자책임자(CIO)와 이승건 토스 대표 등도 참여해 모빌리티 산업의 변화에 대한 인사이트와 쏘카의 도전기에 대한 평가를 더했다. 이진우 삼프로TV 대표, 조현용 MBC 소비더머니 MC도 다큐 제작에 함께했다.박재욱 쏘카 대표는 "쏘카의 과거, 현재, 그리고 미래를 엿볼 수 있는 다큐멘터리를 모두에게 선보일 수 있게 되어 기쁘다"며 "매해가 도전이었고 힘든 과정이었지만 꿋꿋이 이겨냈고, 앞으로의 도전도 언제나 그래왔듯 이겨내고 더 멋진 회사를 만들어 나갈 것이다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.07.25.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>[주간투자동향] 비바리퍼블리카, 3,000억 원 규모의 투자 확보</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003441954?sid=105</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>바야흐로 스타트업 시대입니다. 2010년부터 시작한 국내 스타트업 열풍은 지난 10년 동안 급속도로 성장했습니다. 대한민국은 어느새 유니콘 기업 11개를 배출한 세계 5위 스타트업 강국으로 자리매김했는데요. 쿠팡, 우아한형제들, 야놀자, 블루홀 등 경쟁력을 갖춘 스타트업이 우리 실생활 속으로 파고들었고, 지금 이 순간에도 성공을 꿈꾸는 수많은 스타트업이 치열한 경쟁 속에서 도전하고 있습니다. 이에 IT동아는 이러한 국내 스타트업의 현장을 [주간투자동향]으로 정리해 제공합니다.비바리퍼블리카, 3,000억 원 규모의 투자 확보토스 운영사 비바리퍼블리카가 3,000억 원 규모의 투자를 확보했다. 이번 투자는 7월과 8월 두 차례로 진행할 예정이다. 이번 투자의 리드 투자자는 초기부터 함께한 알토스벤처스로, 1,000억 원을 신규 투자했다. 굿워터와 그레이하운드 등 해외 주주들도 참여했다. 국내 기관투자자 중에는 KDB산업은행이 1,000억 원, 광주은행이 200억 원을 투자했다. 또한, 초기 투자자인 다올인베스트먼트(구 KTB네트워크)와 미래에셋증권도 소규모로 참여했다.출처: 비바리퍼블리카이번 투자를 통해 인정받은 비바리퍼블리카의 기업가치는 8.5조 원 규모다. 지난 2021년 6월 투자를 통해 평가받은 8.2조 원 규모에서 소폭 상회했다. 토스는 “국내외 기관투자자의 수요가 많아 2회에 나눠 진행한다. 현재 투자 논의 중인 기관 참여 여부를 최종 확정하면 8월 중 마무리할 예정”이라고 설명했다.비바리퍼블리카가 지난 2021년 선보인 토스뱅크, 토스증권를 통해 토스 앱의 MAU(월간 활성 유저)는 올해 매월 35만 명씩 증가하고 있다. 2022년 6월 토스 앱의 MAU는 1,400만 명 이상을 기록했다. 비바리퍼블리카의 지난 2021년 매출 총이익률은 70% 수준이다. 매출의 90% 이상은 금융사로부터 받는 중개, 모집, 광고 등에서 발생하는 B2B 모델이다.비바리퍼블리카는 투자 유치 자금을 토스뱅크, 토스증권 등 주요 계열사의 성장 가속을 위한 추가 투자 및 신규 사업 등에 활용할 예정이다.야나두, 300억 원 규모의 투자 유치야나두가 큐캐피탈파트너스로부터 300억 원 규모의 투자를 유치했다. 또한, 현재 새로운 투자사들과 추가 진행 중인 200억 원 규모의 투자 유치를 끝으로 프리IPO(상장 전 지분투자)를 마무리, 내년 하반기 상장을 추진할 예정이다.출처: 야나두야나두는 교육 시장에서 쌓은 동기부여 노하우를 바탕으로 '야핏 사이클'을 선보이며 홈트레이닝 시장에 진출했다. 이를 통해 에듀테크 중심이던 기존 사업구조를 메타버스 기반의 스포츠테크 사업으로 확장하는 데 성공했다. 야핏 사이클은 가상 세계에서 게임하듯 운동하며 돈도 모을 수 있는 홈트레이닝 서비스다. 올해 1분기 150억 원의 매출을 기록했다. 하반기에는 가민의 고사양 인도어 사이클 트레이너인 탁스(Tacx)와 야나두의 홈트레이닝 서비스 야핏 앱을 연동한 서비스를 출시하고, 가민의 글로벌 네트워크를 활용해 야핏 앱의 해외 진출도 추진한다.야나두 김정수 공동대표는 “투자 시장이 냉각기에 접어들었음에도 불구하고, 기업가치를 인정받아 상장 준비 자금을 마련했다"라며, "이번에 투자받은 자금과 야나두 자체 자금을 합쳐 운동과 교육 중심의 메타버스 플랫폼으로 자리잡겠다"라고 전했다.이어서 그는 “유캔두, 야핏 사이클, 야핏 라이더, 야나두 잉글리시, 야나두 클래스, 야나두 스쿨, 야나두 키즈 등 그동안 투자한 야나두의 전 사업 영역에서 성과를 내기 시작했다. 올해 상반기 지난해 전체 매출을 상회하는 600억 원의 매출을 거뒀다”라고 덧붙였다.글로랑, 120억 원 규모의 시리즈A 투자 유치키즈 탤런트테크(Talent Tech) 플랫폼 ‘꾸그’를 운영하는 글로랑이 120억 원 규모의 시리즈A 투자를 유치했다. 이번 투자는 한국투자파트너스와 뮤렉스파트너스가 공동 주도했으며, 기존 투자사인 일본계 PKSHA 캐피탈이 후속 투자했다. 또한, DSC인베스트먼트, 코오롱인베스트먼트가 신규 투자했다. 누적 투자 유치 금액은 160억 원 규모다.출처: 글로랑유학 플랫폼 ‘유스'를 운영하던 글로랑은 지난 2020년 11월 코로나19 이후 전면 피봇팅을 통해 꾸그를 출시했다. 실시간 수업 스케쥴 운영 최적화 등을 통해 월 매출 평균 40% 성장, 비대면 키즈 플랫폼 점유율 1위 등을 달성했다. 현재 꾸그에서 활동하는 선생님은 1,000여 명이며, 누적 오픈 클래스 수는 2,600여 개다.글로랑은 이번 투자 유치를 통해 아이들의 성장/발달 피드백 역량을 고도화하고, 꾸그 플랫폼 대중화에 집중할 예정이다. 어린이 교육에 필요한 부모님 설득을 기술로 자동화해 구매전환율 및 락인(Lock-In) 리텐션을 높인다는 전략이다.글로랑 황태일 대표는 “한 아이가 지니고 있는 재능을 바탕으로 자존을 형성할 수 있는 기술을 연구해 아이 스스로 학습할 수 있는 플랫폼으로 성장할 것”이라며, “이를 위한 개발과 데이터, 제품 직군 인재를 채용하고 있다"라고 말했다.엑스엘에이트, 36억 원 규모의 프리-시리즈A 브릿지 투자 유치엑스엘에이트(XL8)가 36억 원 규모의 프리-시리즈A 브릿지 투자를 유치했다. 엑스엘에이트는 다양한 영상 콘텐츠와 번역 자막을 컴퓨터에 학습시켜 인공지능 기계 번역 엔진을 고도화하고 있는 실리콘밸리 소재 스타트업이다. 이번 투자는 에이티넘인베스트먼트(Atinum Investment)가 리드하고, 기존 투자사인 퓨처플레이가 추가 참여했다.엑스엘에이트 정영훈 대표, 출처: 엑스엘에이트인공지능을 활용한 엑스엘에이트는 구어체 번역 기술을 보유하고 있으며, 이를 인정받아 지난 2022년 4월 중소벤처기업부 팁스(TIPS)에 이어 경기도 WINGS 프로그램에 선정된 바 있다.엑스엘에이트는 넷플릭스, 디즈니와 같은 OTT플랫폼에 제공되는 영상 콘텐츠의 현지화를 위해 번역 서비스 제공업체(LSP) 아이유노-에스디아이와 협업하고 있다. 넷플릭스가 고객에게 제공하는 콘텐츠의 초벌 번역에 참여하고 있으며, 기계 번역 후 번역사의 편집을 통해 자막을 공급하는 프로세스다.엑스엘에이트가 창업 후 번역한 영상 콘텐츠 분량은 총 50만 시간 이상이다. 번역 단어는 24억 개, 현재 지원하는 번역 언어 종류는 총 66개다. 영상 내 대사 맥락에 따른 번역뿐만 아니라 한국어의 ‘하세요’, ‘합쇼’, ‘해라’ 등의 존중어, 높임말 등 인물 관계를 고려해 번역할 수 있다.엑스엘에이트는 구글 소프트웨어 및 리서치 엔지니어팀을 리드하며 구글 인공신경망 기반 자연어처리 서비스 출시를 이끌었던 정영훈 대표와 애플 엔지니어 출신 박진형이 지난 2019년 설립한 스타트업이다. 본사는 미국 산호세에, 한국 지사는 양재 AI 허브에 위치하고 있다.엑스엘에이트는 올해 하반기 영상 번역툴 ‘미디어캣(MediaCAT; Media Computer Assisted Translation)’을 선보일 예정이다. 미디어캣은 영상을 업로드하면 자동으로 대사를 추출해 타임코드를 맞추고, 대사를 원하는 언어로 번역한 뒤 원하는 음성으로 더빙까지 지원한다. 기존 엑스엘에이트의 기계번역 솔루션에 편집 기능도 추가했다.엑스엘에이트 정영훈 대표는 “인공지능 기계 번역은 번역가의 업무를 효율적으로 돕는 기술일 것”이라며, “전 세계의 다양한 콘텐츠를 고객에게 더욱 빠르고 정확하게 전달해 모두가 즐겁고 에너지 넘치는 삶을 살아갈 수 있기를 바란다”라고 전했다.노틸러스, 34억 5,000만 원 규모의 프리-시리즈A 투자 유치지식교양 웹툰 플랫폼사 노틸러스가 34억 5,000만 원 규모의 프리-시리즈A 투자를 유치했다. 이번 투자는 카카오벤처스와 본엔젤스, 퓨처플레이, 스마일게이트인베스트먼트가 참여했다.노틸러스가 운영하는 지식교양 웹툰 서비스 ‘이만배(이걸? 만화로 배워!?)’는 역사, 과학, 인문학 등을 웹툰으로 전달하는 서비스다. 이만배 서비스는 올해 8월 15일 선보일 예정이다.출처: 노틸러스노틸러스는 에듀테크 기업으로 이용자 간 지식교류 확대를 위한 다양한 프로그램도 운영할 계획이다. 웹툰을 통해 공부하는 이용자에게 비용을 저렴하게 부과하는 비즈니스모델의 특허도 출원했다. 콘텐츠와 관계 있는 댓글을 활용해 이용자끼리 서로 질문하고 답하는 문화를 만들기 위한 프로그램도 준비 중이다.노틸러스는 웹툰 유료화 시장을 개척한 레진엔터테인먼트 구성원들과 콘텐츠 시장의 베테랑들이 초기 멤버로 참여했다. 노틸러스 이성업 대표는 지난 2021년 2월, 레진엔터테인먼트 대표로 키다리스튜디오와의 합병을 이끌었으며, 박종훈 콘텐츠 리더는 한빛비즈에서 ‘교양툰’ 컨셉의 콘텐츠를 주도한 바 있다. 박 리더가 담당한 갈로아 작가의 ‘공룡의 생태’와 ‘곤충의 진화’는 지난 2020년 일본 아마존 학습만화 랭킹 1, 2위에 올랐었다.노틸러스 이성업 대표는 “출판 시장에서 성공하고 있는 지식교양 만화를 웹툰으로 전환해 규모의 성장을 이루는 것이 목표다. 웹툰에 에듀테크를 접목해 지겨운 공부에서 해방되는 세상을 만드는 것이 꿈"이라고 말했다.비브리지, 25억 원 규모의 프리-시리즈 A 투자 유치비브리지가 25억 원 규모의 프리-시리즈 A 투자를 유치했다. 이번 투자는 마그나인베스트먼트, 블루포인트, 디티앤인베스트먼트 등이 참여했다.비브리지는 유튜브 영상 요약정리 및 공유 서비스 ‘슬리드’를 개발하고 운영한다. 슬리드는 영상 캡처와 필기를 동시에 할 수 있는 동영상 필기 학습 툴이다. 학습자가 슬리드를 통해 유튜브 영상을 시청하면서 화면을 캡처하거나 필기하며 영상 요약 노트를 작성할 수 있다.슬리드 서비스 사진, 출처: 비브리지슬리드는 구간 북마크 기능도 제공한다. 구간 북마크는 학습자가 캡처한 영상 화면부터 재생할 수 있는 기능으로, 영상의 핵심 구간만 선택해 볼 수 있다. 슬리드를 통해 작성한 요약 노트는 링크, PDF, 워드, 이미지, 노션 등 다양한 포맷으로 공유할 수 있다. 요약 노트를 링크로 공유할 경우, 캡처 이미지와 동영상을 같이 전달할 수 있다.지난 2020년 3월 출시한 슬리드는 현재 누적 7만 7,000건 이상의 다운로드 수를 돌파했다. 이 중 3만 2,000여 건은 해외에서 내려받았으며, 인도와 미국의 이용률이 가장 많다. 사용자가 슬리드를 통해 학습한 온라인 강의 영상은 35만 개 이상, 생성한 노트는 26만 개 이상을 기록했다. 최근 학습자가 링크로 공유한 요약 노트는 1개 당 최대 6,000여 명이 방문했으며, 방문자당 4분 이상의 체류기간을 기록했다.비브리지 박정현 대표는 “비브리지의 최종 목표는 슬리드를 배움에 최적화한 소셜 미디어로 만들어 학습자가 일상에서 생산적인 시간을 보내기 위해 클릭하는 앱으로 자리잡는 것”이라며, “이번 투자 유치를 통해 슬리드를 유튜브 영상 요약 노트를 공유하는 글로벌 지식 콘텐츠 플랫폼으로 발전시키고자 한다”라고 말했다.어크로스비, 24억 원 규모의 프리-시리즈A 투자 유치크로스보더 물류 플랫폼 서비스 어크로스비가 24억 원 규모의 프리-시리즈A 투자를 유치했다. 이번 투자는 실리콘밸리 소재의 K2G(Korea to Global) 투자펀드, 오티엄캐피탈(Otium Capital) 싱가폴펀드 등이 참여했다. 국내에서도 중소벤처기업진흥공단이 투융자 복합금융 사업인 ‘성장공유형자금’을 통해 참여했으며, 기존 투자사인 네이버 계열 벤처캐피탈 스프링캠프가 후속 투자했다.어크로스비는 이번 투자를 통해 자사 크로스보더 물류 플랫폼의 해외 시장 진출에 착수할 계획이다.어크로스비 물류 플랫폼, 출처: 어크로스비어크로스비의 물류 플랫폼은 클라우드와 머신러닝 기술을 바탕으로 국경을 넘어 거래하는 크로스보더 이커머스 물류를 지원한다. 글로벌 시장 진출 시 겪을 수 있는 복잡한 절차와 높은 물류 비용의 한계를 지원한다. 현재 코니바이에린(육아), 클리오(뷰티), 피피비스튜디오스(뷰티), 제이케이앤디(패션), KREAM(패션), 에이치엠인터내셔날(K-Pop) 등이 이용하고 있다.어크로스비 이성우 대표는 “원스톱 물류 서비스를 활용하면 프로세스 효율화와 비용 절감 효과를 얻을 수 있고, 데이터 분석과 예측을 통해 프로세스 최적화와 합리적 의사결정을 할 수 있다”라며, “이번 투자 유치를 통해 국내 이커머스 기업의 해외 진출을 지원하고, 크로스보더 물류 플랫폼의 해외 진출에 나설 것”이라고 밝혔다.테사, 20억 원 규모의 추가 투자 유치블루칩 아트테크 플랫폼 테사(TESSA)가 국내 주요 증권사로부터 20억 원 규모의 추가 투자를 유치했다. 이번 투자는 국내 주요 신탁사 및 증권사가 참여한 가운데, 시리즈A와 시리즈B를 잇는 브릿지 라운드(A2)다. 지난해 총 52억 원 규모의 시리즈A 투자를 유치한 데 이어 7개월 만이다.출처: 테사지난 2020년 4월 설립한 테사는 국내 최초로 미술품 조각투자 모바일 앱을 출시했다. 누구나 쉽게 글로벌 블루칩 아티스트 작품을 최소 1,000원부터 조각투자할 수 있는 아트테크 플랫폼으로, 출시 2년 만에 회원 수 12만 명 이상을 기록했다. 또한, 올해 상반기 기준(2022년 6월 30일), 누적 공동 구매 미술품가액은 298억 원을 기록했으며, 이달 말 혁신금융서비스 신청을 앞두고 있다.또한, 테사는 2022년 5월, 중소벤처기업부와 구글가 지원하는 ‘창구 프로그램’ 4기에 선정됐다. 창구 프로그램은 국내 앱과 게임 개발사의 콘텐츠 고도화와 해외 진출을 지원하는 프로젝트다테사는 이번 투자 유치 자금을 통해 ‘혁신금융서비스 신청’, ‘신규 비즈니스모델 확장’, ‘해외 글로벌 서비스 런칭’ 등에 나설 방침이다. 또한, 후속 투자 유치를 통해 조각투자 상품을 다각화하고, 더 많은 투자 기회를 마련해 시장 활성화에 나설 계획이다.테사는 “전략적 투자 유치를 통해 희소성 높은 미술 금융상품을 개발하는데 주력할 예정”이라며, “신탁사, 증권사 등 다양한 파트너사로부터 후속 투자를 유치해 건강한 비즈니스모델을 제시하고, 안전한 조각투자 생태계를 만들기 위해 노력겠다”라고 말했다.넷스파, 15억 원 규모의 시리즈A 브릿지 투자 유치폐어망 리사이클 소셜벤처 기업 넷스파가 15억 원 규모의 시리즈A 브릿지 투자를 유치했다. 이번 투자는 ‘케이디비 대성-HGI 그린임팩트투자조합’을 공동운용하는 에이치지이니셔티브(이하 HGI)와 대성창업투자가 참여했다. 넷스파는 이번 투자를 바탕으로 재생 나일론의 펠릿화 시설 설비를 구축하고, 소재 범용성을 확대할 계획이다.출처: 넷스파 홈페이지넷스파는 폐어망과 같은 해양쓰레기를 재활용해 의류용 장섬유, 자동차 부품, 전자기 부품 등으로 생산하는 부산시 소재 기업이다. 올해 하반기 부산시 강서구 소재 자원순환단지에서 폐어망 양산 플랜트를 가동해 섬유, 엔지니어링 플라스틱 용도의 재생 나일론 원료 공급을 시작할 예정이다.넷스파는 재생 나일론 양산과 함께 SK에코플랜트 등 협력기업과 함께 국내 해양폐기물 순환경제 밸류체인을 구축하고 있다. 안정적인 공급망을 마련하고, 소재 고도화를 통해 고객을 확장할 방침이다.넷스파 정택수 대표는 “이번 투자 유치 자금을 통해 플랜트 완공 시점에 맞춰 펠릿화 설비를 구축해 고객사 요구사항에 대응할 계획이다”라며, “해양폐기물 베이스의 재생 소재 고도화를 이루는 것이 목표”라고 전했다.볼드나인, 10억 원 규모의 추가 투자 유치풀필먼트 IT 스타트업 볼드나인이 용마로지스로부터 10억 원 규모의 추가 투자를 유치하며, 총 60억 원 규모의 시리즈A 투자를 마무리했다. 볼드나인은 지난 2022년 1월 50억 원 규모의 투자를 유치한 바 있다.용마로지스는 동아쏘시오홀딩스의 물류 전문 계열사이다. 기업물류를 전문으로 하는 3PL(Third Party Logistics, 3자 물류) 물류서비스를 주축으로 성장해 현재 전국에 총 30개의 물류 센터, 36개의 배송 센터, 5개의 운송 영업소를 보유하고 있다. 이를 바탕으로 의약품, 화장품, 생활용품 산업분야에서 수송, 택배, 보관, 국제물류(포워딩), 물류진단 등의 종합물류서비스를 제공하고 있다.출처: 볼드나인볼드나인은 이번 투자를 바탕으로 기술 개발과 인프라 확장에 나설 계획이다. 물류 효율을 높여 셀러가 합리적인 비용으로 풀필먼트 서비스를 이용할 수 있도록 자동화설비(WCS) 적용 센터를 확장하고, 풀필먼트 서비스 범위를 넓혀 보다 많은 셀러가 접할 수 있도록 신규 서비스를 선보일 계획이다.볼드나인 박용석 대표는 “이번 투자를 바탕으로 기술을 고도화하고 서비스를 확장해 셀러의 성장과 함께하겠다는 미션에 더욱 집중하겠다”라고 밝혔다.칼렛바이오, 10억 원 규모의 프리-시리즈A 투자 유치칼렛바이오가 타임와이즈인베스트먼트로부터 10억 원 규모의 프리-시리즈A 투자를 유치했다. 또한, 지난 2022년 4월 신용보증기금 NEST기업에 선정되어 15억 원 규모의 보증을 3년간 지원받는다.칼렛스토어는 지난 2021년 1월 친환경 포장재 맞춤제작 플랫폼, 칼렛스토어를 출시한 그린테크 스타트업이다. 칼렛스토어 출시 후 18개월만에 고객사 1,500개 이상을 돌파하며, 친환경 포장재 시장 점유율 1위에 도전 중이다.칼렛스토어, 출처: 칼렛바이오칼렛바이오는 이번 투자 유치를 통해 탈-플라스틱 포장뿐만 아니라 바이오 플라스틱, 다회성 포장, 생분해 밀봉재, 기능성 완충재, 단열재/보냉재 등 친환경 포장 소재를 강화할 예정이다. 또한, 친환경 포장재 맞춤제작 컨설팅 사업을 확대해 친환경 포장재 A to Z 종합 플랫폼 기업으로 성장할 계획이다.칼렛바이오 권영삼 대표는 “소비자의 다양한 수요에 따라 상품의 종류 및 형태는 다양해지고 있는 만큼 포장재도 함께 개선되어야 한다. 또한, ESG경영, 지속가능성, 친환경 등 트렌드에 따라 친환경 포장을 찾는 고객사는 빠르게 늘고 있다”라며, “이번 투자 유치 자금을 통해 고객사의 요구사항을 충족시킬 수 있도록 서비스를 개편하고, 소재를 확대할 계획이다. 제조 파트너를 위한 실시간 배차서비스, 스마트 재고관리, 원격 발주관리 시스템 등 신규 솔루션도 출시할 계획”이라고 전했다.디엘피스튜디오, 매쉬업엔젤스로부터 초기 투자 유치웹소설 구독 플랫폼 ‘텍스트소다’를 운영하는 디엘피스튜디오가 매쉬업엔젤스로부터 초기 투자를 유치했다.디엘피스튜디오는 지난 2021년 3월 설립했다. 레진코믹스에서 콘텐츠 사업을 총괄했던 서현철 대표를 중심으로 CTO, 개발자, UI/UX 디자이너 등 업무별 15년 이상의 경력자로 구성됐다. 디엘피스튜디오는 중장년층을 위한 콘텐츠 서비스 부재를 해결하고자 텍스트소다를 개발했다.텍스트소다 서비스 사진, 출처: 디엘피스튜디오텍스트소다는 4060세대를 위한 구독형 웹소설 플랫폼이다. 무협, 판타지, 추리, 스릴러 장르의 완결 작품을 제공하며, 현재 110여 개의 웹소설 콘텐츠를 제공하고 있다. 구독 기간 동안 완결 콘텐츠를 한 번에 몰아서 볼 수 있는 것이 특징이다.텍스트소다는 중장년층의 콘텐츠 이용 편의성을 높이기 위해 큰 글씨를 지원한다. 이용자는 테마, 글꼴, 글자 크기, 줄 간격 등 화면에 맞춰 뷰어를 설정할 수 있으며, 무협/정통, 판타지/현대, 모험, 성장물 등 추천 태그를 통해 취향에 맞는 작품을 골라볼 수 있다.디엘피스튜디오 서현철 대표는 “이번 투자 유치를 통해 4060세대가 다양한 웹소설을 즐길 수 있도록 더 많은 콘텐츠를 확보해 공개 작품 수를 늘려갈 계획”이라며, “다양한 형식과 장르의 콘텐츠를 시도할 수 있는 구독제의 장점을 살려 특색 있는 웹소설을 선보이는 웹소설계의 넷플릭스로 성장할 것”이라고 말했다.테라핀 스튜디오, 웹툰 플랫폼 기업 투믹스 2,020억 원에 인수테라핀 스튜디오(Terapin Studios)가 글로벌 웹툰 플랫폼 투믹스(Toomics)를 1억 6,000만 달러(한화 약 2,020억 원)에 인수했다. 테라핀 스튜디오는 글로벌 미디어 회사를 지향하며, 지적 재산(IP)을 활용해 엔터테인먼트 콘텐츠 서비스를 제공하고 있다.출처: 테라핀 스튜디오지난 2015년 설립한 투믹스는 한국에 기반을 둔 웹툰 플랫폼으로 현재 9개 언어로 서비스를 제공 중이다. 2018년부터 2021년까지 연간 매출 성장률(CAGR) 42%를 기록했다. 투믹스는 원소스 멀티유즈(OSMU) 전략을 통해 기존 웹툰을 드라마, 게임, 메타버스 등 다양한 매체를 통해 선보힌다. 투믹스의 웹툰 ‘택배기사’는 현재 넷플릭스 오리지널 드라마로 제작되고 있으며, 올해 공개 예정이다. 또한, 액션 스릴러 웹툰 ’스펙트럼’을 음성더빙, 음악, 음향 효과 등을 더해 무빙 웹툰으로 선보일 예정이다.테라핀 스튜디오 가종현 COO는 “투믹스 인수는 글로벌 시장에서 인기를 얻고 있는 한국의 지적 재산권이 테라핀 스튜디오라는 글로벌 엔터테인먼트가 인프라, 자금 및 지원을 통해 세계 시장에서 경쟁력을 갖춘다는 점에서 뜻깊다”고 전했다.투믹스 및 투믹스글로벌의 강경훈 신임 공동대표는 “투믹스는 잠재력을 갖춘 오리지널 콘텐츠를 보유한 플랫폼이다. 테라핀의 글로벌 인프라, 재원 및 오퍼레이션 노하우 등을 활용해 다양한 콘텐츠를 제공하고 전 세계를 대상으로 한국 콘텐츠의 저력을 입증하겠다”라고 전했다.딜라이트룸, 하루 루틴 관리 앱 ‘마이루틴’ 개발사 마인딩 인수딜라이트룸이 하루 루틴 관리 앱 ‘마이루틴’를 개발한 마인딩을 인수했다.마이루틴은 사용자가 생활 습관을 계획하고 실천할 수 있도록 일일 루틴 설정, 회고 등의 기능을 제공하는 서비스다. MZ세대 사이에서 ‘갓생 살게 해주는 앱’으로 인기를 끌며, 2022년 5월 기준 국내 누적 앱 사용자 50만 명을 돌파했다. 최근 일본 시장에 진출했으며, 올해 8월부터 미국 등으로 서비스를 확장할 계획이다.딜라이트룸 사무실 전경, 출처: 딜라이트룸딜라이트룸이 운영하는 모닝 웰니스앱 ‘알라미’는 수면 유도 음악, 미션 알람 등 사용자가 잠자고 일어나는 과정을 지원하는 서비스다. 2021년까지 누적 97개국 앱스토어에서 1위를 차지한 바 있으며, 누적 6,000만 다운로드를 바탕으로 매출 약 130억 원과 영업 이익 약 60억 원을 달성했다.마인딩 옥민송 대표는 “투자나 대기업 인수 제의도 있었지만, 사용자와 제품에 집중하는 개발 문화를 갖추고 글로벌 시장 및 수익화 역량을 갖춘 딜라이트룸과 함께할 때 성장할 것이라 확신했다”라며, “딜라이트룸과 함께 전세계 사용자들의 성공적인 아침, 알찬 하루를 만들겠다”라고 전했다.딜라이트룸 신재명 대표는 "자고 일어나는 시간뿐만 아니라 깨어 있는 시간의 생활 습관까지 커버하는 웰니스 솔루션으로 거듭나기 위해 마인딩 인수를 결정했다"라며, “딜라이트룸이 그리는 하루를 위해서는 매일 자신의 생활 습관을 관리하는 것은 필수라고 생각한다. 이를 잘 풀어나갈 수 있을 것으로 믿는다”라고 말했다.마인딩은 인수 후에도 현재 경영진이 자회사 형태로 독립 운영한다. 딜라이트룸은 마인딩에 글로벌 시장 진출, 수익화 노하우 등을 제공할 예정이다. 한편, 딜라이트룸은 지난해 인공지능(AI) 기반 매트리스 스타트업 '삼분의일’ 투자에 이어 이번 인수를 기획했으며, 앞으로도 전략적 투자와 M&amp;A를 이어 나갈 예정이다.카카오페이, 더치트에 지분 투자카카오페이가 금융소비자를 보호하기 위해 금융사기 방지 소셜벤처 더치트에 지분 투자했다. 카카오페이는 금융사기 방지 및 대안 신용평가 솔루션을 강화하고, 카카오페이와 더치트 간 협업을 공고히 하고자 투자를 결정했다.출처: 카카오페이양사는 더치트의 금융사기 방지 솔루션을 카카오페이 서비스에 적용하기 위해 준비 중이다. 카카오페이로 계좌・친구・코드송금 등을 진행할 경우, 더치트를 통해 사전에 거래 상대방에 대한 사기 이력 보유 여부를 체크하는 방식 등을 검토 중이다.카카오페이는 사용자 보호를 위해 지난 2015년부터 인공지능(AI) 기술 기반의 이상거래감지시스템(FDS)을 구축해 의심거래를 방지했다. 최근 코로나19 상황에서 비대면 활동과 서비스 등의 증가로 송금이나 결제 패턴도 다양해져 새로운 유형의 이상거래를 탐지하고 실시간으로 대응하기 위해 머신러닝 기술도 적용 중이다. 이러한 노력을 인정받아 금융보안원의 정보보호·개인 정보 관리체계(ISMS-P) 통합 인증을 획득한 바 있다.카카오페이는 “카카오페이 사용자들이 마음 놓고 금융 서비스를 이용할 수 있도록 더치트에 투자했다“라며, “앞으로도 카카오페이의 기술력과 사업 역량을 강화해 사용자에게 좋은 서비스를 제공할 수 있도록 다양한 투자를 검토하겠다”라고 말했다.스파크랩, 19기 액셀러레이팅 프로그램 스타트업 선정글로벌 액셀러레이터 스파크랩이 19기 스타트업 육성 프로그램에 참여할 9개 기업을 선정하고, 지원 프로그램을 운영한다. 스파크랩은 이번 스파크랩 19기에 ESG, 헬스케어, SaaS, 푸드테크 등 다양한 분야의 기업을 선정했다.스파크랩 19기 액셀러레이팅 프로그램 참가 기업 소개 자료, 출처: 스파크랩스파크랩은 선발한 9개 스타트업에 경험과 네트워크를 바탕으로 육성 프로그램을 제공할 계획이다. 국내외 창업가, 투자자, 전문가로 이뤄진 스파크랩 글로벌 멘토단의 멘토링과 스파크랩 알럼나이 커뮤니티, 스파크랩이 회원사로 활동 중인 글로벌 액셀러레이터 네트워크(GAN) 등 통해 지원한다.또한, 최대 1억 원의 초기 투자금과 법률, 소프트웨어 서비스 등을 지원하며, 향후 4개월 동안 프로그램을 마친 후 국내외 투자자 및 기업 관계자가 참석한 데모데이를 통해 사업 발표 기회를 제공한다.스파크랩 19기 스타트업 대표자 단체사진, 출처: 스파크랩스파크랩 김유진 공동대표는 “시장과 산업을 변화시킬 기술과 열정을 지닌 초기 창업자의 면모를 확인할 수 있었다”라며, “이번 19기 참여 기업들이 글로벌 시장에서 성장할 수 있도록 지난 10년 간 스파크랩이 축적한 경험과 네트워크를 바탕으로 액셀러레이터 본연의 역할과 책임을 다할 예정”이라고 밝혔다.동아닷컴 IT 전문 권명관 기자 tornadosn@itdonga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.07.26.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>낚시하던 70대 美 여성, 물속서 '펄쩍' 뛴 45㎏ 돛새치 뿔에 찔려</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011326224?sid=104</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>기사내용 요약바다서 돛새치 뛰어올라 배 위의 70대 여성 공격사타구니에 부상입고 병원행…생명엔 지장 없어세계에서 가장 빠른 물고기…3m·100㎏까지 자라[서울=뉴시스] 돛새치 사진. (사진=월페이퍼업 자료 사진) 2022.07.26. *재판매 및 DB 금지[서울=뉴시스]문채현 인턴 기자 = 미국 플로리다에서 낚시를 즐기던 70대 여성이 물속에서 뛰어오른 돛새치의 뿔에 찔리는 사고를 당했다.25일(현지시간) 가디언 등 외신에 따르면 지난 19일 미국 플로리다 해안에서 낚시를 하던 캐서린 퍼킨스(73)는 물속에서 갑자기 뛰어오른 45㎏ 크기의 돛새치 뿔에 찔려 사타구니 부상을 입고 병원으로 이송됐다. 메릴랜드주 출신의 캐서린은 사고 당일 두 명의 남성 루이스 토스, 도미닉 벨레자와 같은 배를 타고 낚시를 즐기고 있었다.이날 가디언이 입수한 마틴 카운티 보안관 보고서에 따르면 사고 당시 루이스는 낚싯줄에 잡힌 물고기 한 마리를 배로 끌어 올리려 하고 있었다.이들이 줄을 끌어 올릴 때 돛새치 한 마리가 갑자기 배로 돌진하기 시작했다. 루이스와 도미닉은 돛새치가 물 밖으로 뛰어오른 것을 확인했을 때 돛새치는 금세 중앙 제어반 옆에 서 있던 캐서린을 공격했다.캐서린은 "물고기의 움직임이 너무 빨라서 미처 대응하지 못했다"고 전했다.두 사람은 캐서린의 사타구니에 생긴 상처를 즉시 압박했다. 그리고 샌드스프리트 공원 해안가에 도착하자마자 구급대원들을 만났다. 캐서린은 곧바로 플로리다 론우드 병원에 실려 갔다. 다행히 생명에는 지장이 없는 것으로 전해졌다.캐서린을 찌른 돛새치는 플로리다 마틴 카운티 스튜어트에서 약 3㎞ 떨어진 바다에서 붙잡혔다.시속 109㎞까지 헤엄칠 수 있는 돛새치는 바다에서 가장 빠른 물고기 중 하나로 알려져 있다. 이들은 몸 크기는 최대 3.3m, 몸무게는 최대 100㎏까지 자란다.내셔널 지오그래픽은 돛새치를 "파란색과 회색 사이 몸 색깔을 가졌고 아랫배 쪽은 흰색"이며 "위턱이 아래턱보다 훨씬 튀어나와 독특한 창 모양을 보인다"고 묘사했다.또한 "몸보다 훨씬 크고 화려한 등지느러미를 보고 돛새치라는 이름이 붙었다"라고 설명했다.2014년 영국 왕립학회 회보에 실린 연구에 따르면 돛새치는 보통 육지에서 멀리 떨어진 해수면에서 발견되며 사냥을 할 때 그들의 뿔을 사용한다.또한 "이들의 개체수를 보장하기 위해 대부분의 낚시꾼들은 이 물고기를 잡아도 놓아준다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.07.19.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>올해 유니콘은 어디?…WCP·쏘카·라이온하트 등 주목</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000686456?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>2차전지, 게임, 메타버스 등 유니콘 아이템 주목글로벌 경기 침체에 대한 우려가 커지고 있는 가운데, 국내 기업의 유니콘(기업가치 1조원 이상 비상장사) 도전은 지속되고 있다. 대표적인 기업이 WCP와 쏘카다. 앞서 무신사, 토스 등 다수 기업들이 국내 유니콘으로 등극한 이후, 증시 상장을 준비 중이다.19일 금융투자업계에 따르면 2차전지 분리막 기업인 WCP는 최근 증권신고서를 제출하고 공모절차에 나선다고 밝혔다. 모집 주식수는 총 900만주다. 희망 공모가는 8만~10만원이다. 목표 시가총액이 2조7천207억~3조4천억원인 셈이다.WCP는 삼성SDI와 LG에너지솔루션의 분리막 납품사다. 분리막은 양극재와 음극재, 전해액 등과 함께 전지의 4대 핵심 소재이며, 배터리 원가의 20% 가량을 차지하는 주요 소재다. 2차전지용 분리막은 습식 분리막과 건식 분리막으로 나뉘며 WCP는 습식 분리막을 생산한다.국내 유니콘 기업으로 평가받는 쏘카가 올해 상장을 준비하고 있다. [사진=쏘카]차량공유 플랫폼 기업 쏘카는 희망 공모가는 3만4천~4만5천원이며, 희망 공모가 기준 시가총액은 1조2천60억~1조5천943억원이다. 모빌리티 업체 중 최초로 기업공개(IPO)를 도전하고 있으며, 차량공유 부문에서 전체 매출의 97.4%(올해 1분기 기준) 가량을 일으키고 있다.WCP는 4조원 이상, 쏘카는 2조원 이상의 예상 몸값을 기대했으나 글로벌 경제와 IPO 시장의 침체로 몸값을 낮춘 것으로 알려졌다.최근 대표적인 흥행게임으로 꼽히는 ‘오딘: 발할라라이징’을 개발한 카카오게임즈의 자회사 라이온하트스튜디오도 올해 하반기 상장을 목표로 하고 있는 유니콘 후보다. 라이온하트는 연초 앞으로 성장 가능성을 감안해 6조∼7조원까지 상장 기업 가치로 거론됐으나 현재는 2조∼3조원 정도로 언급되고 있다. 연말까지 시장 평가가 들쭉날쭉하겠지만 유니콘 상장 가능성은 유력하다.시장 경색으로 공모를 자진 철회한 유니콘 후보 SK쉴더스, 현대엔지니어링, 원스토어, 태림페이퍼 등도 재차 IPO 시장 노크를 할 수 있어 여전히 공모주 투자자들의 관심군에 속한다.잠재적 유니콘 기업 후보로 꼽히는 원유니버스가 KB증권과 상장 주관사 계약을 체결했다. [사진=원유니버스]메타버스 분야에서도 유니콘 기업의 등장 가능성이 커지고 있다. 대표적인 기업이 원유니버스다. 원유니버스는 국내 최대 VR 개발사 원이멀스와 차세대 메타휴먼 메이커 MSM 스튜디오, 웹3 전문 개발사 유니플로우, 국내 1위 비주얼 테크 컴퍼니 봄버스가 합쳐진 종합 메타버스 기업이다. 상장 계획도 구체화되고 있다. 지난 13일 상장 대표 주관사로 KB증권을 선정하고 상장 절차에 돌입했다. 상장 예정 시기는 아직 미정이다.유니콘으로 꼽히는 이유는 성장성과 확장성이다. 현재까지 전세계 10개국 200여개 스테이션에 자체 개발한 메타버스 콘텐츠 10종의 서비스 경험과 업계 최고 수준의 전문 개발 인력을 보유하고 있다. 메타버스 게임 뿐만 아니라 버추얼 휴먼 ‘프로젝트 MSM’을 시작으로 메타버스 진로교육, 메타버스 제작 원솔루션 비즈니스, 의료 메타버스 등 다양한 메타버스 플랫폼 사업을 진행 중이다.또한 종합콘텐츠기업 초록뱀미디어, 메디컬 테크기업 리팅랩스 등은 올해 들어 원유니버스의 성장 잠재력을 높이 평가, 전략적 투자와 사업 제휴를 맺었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.07.25.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>산업은행 '年 2.25%' 파킹통장…빅테크에 반격</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003032883?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>금액·기간 조건 없이 개설1금융권서 가장 높은 금리인터넷銀 인상 카드 검토KDB산업은행이 '파킹통장' 시장에서 인터넷전문은행과 한판 승부를 예고했다. 자유입출금 통장 상품에 금액과 기간 조건 없이 연 금리 2.25%를 적용, 1금융권에서 가장 높은 금리를 앞세웠다. 예상치 못한 전통 은행권의 반격에 인터넷전문은행 역시 금리 인상 카드를 신중하게 만지기 시작했다.KDB산업은행은 'HI 비대면 입출금통장' 금리를 기존 연 1.85%에서 2.25%로 이달 인상했다. 영업점 방문 없이 스마트폰을 통한 계좌 개설이 가능, 재테크 커뮤니티 등에서 입소문을 타고 빠르게 신규 계좌가 늘기 시작했다. KDB산업은행 관계자는 “기준금리 인상 영향에 따라 입출금통장 금리를 인상했다”고 말했다.파킹통장은 자동차를 잠시 주차하듯 목돈을 잠깐 보관하는 용도로 활용할 수 있는 수시입출금 통장을 일컫는다. 증권사 CMA 상품처럼 하루만 맡겨도 상당한 이자를 주기 때문이다. 통상 시중은행의 경우 자유입출금 예금에 0.1% 수준의 이자만 지급해 왔다. 이 때문에 토스뱅크를 비롯한 인터넷전문은행은 이 시장을 노리고 기존 대비 약 20배 높은 이자를 주는 파킹통장으로 승부수를 던졌다. 지난해 출범한 토스뱅크가 단기간에 330만 계좌를 확보한 배경에도 연 2% 최고 수준 금리의 토스뱅크통장이 큰 역할을 했다.다만 고액 자산가가 안정적인 이자수익을 얻기 위해 거금을 맡기는 사례가 늘면서 토스뱅크의 부담도 늘어났다. 결국 올해 3월부터 무제한이던 2% 금리 적용 금액을 1억원으로 대폭 축소했다. 케이뱅크는 이를 노려 토스뱅크 대비 상위호환 상품을 내놨다. 자사 파킹통장 '플러스박스'의 금리를 기존 대비 0.8%포인트(P) 인상하며 2.1%까지 끌어올렸고, 한도 금액 역시 3배 더 높은 3억원으로 설정했다. 케이뱅크에 따르면 금리 인상 이후 계좌 개설은 기존 대비 약 10배 늘었다.이는 적금처럼 돈을 묶어 둘 수 없는 파킹통장 특성상 유리한 계좌로 갈아타는 '금리 노마드' 움직임도 즉각 나타나기 때문이다. 최근 케이뱅크로 유입된 고객 상당수 역시 토스뱅크에서 갈아탄 것으로 해석된다. 간혹 저축은행이 3%대 금리 상품을 내놓는 경우도 있지만 해당 금리를 적용하는 예치금 상한이 500만~1000만원에 불과해 1금융권 상품 대비 매력이 약했다.KDB산업은행이 가장 유리한 금리를 제공하는 만큼 계좌 이동 역시 연쇄적으로 일어나는 추세다. 주로 인터넷전문은행 3사가 경쟁하던 파킹통장 시장에 전통은행이 새롭게 진입하면서 경쟁심화를 유발, 금리 인상 시점도 앞당겨질 것으로 예상된다. 토스뱅크 관계자는 “토스뱅크통장의 금리 인상을 현재 긍정적으로 검토하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.07.28.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>"고객님껜 다른 회사 카드가 좋아요"…카드사 '1사 전속주의' 완화</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004081105?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>금융위 혁신금융서비스로 지정 가닥이르면 올 하반기부터 적용 가능카드사·빅테크 경쟁 더 치열해질 듯[서울경제] 카드사가 자신의 신용·체크카드만 추천하고 판매할 수 있는 ‘1사 전속주의’ 규제가 올해 하반기 완화된다. 규제가 완화되면 금융소비자의 선택권이 넓어지고 마이데이터 산업을 둘러싼 금융 업계 간 경쟁도 치열해질 것으로 보인다. 이미 일부 카드사들은 규제 완화를 대비해 다양한 서비스를 준비하고 있는 것으로 알려졌다. 28일 금융권에 따르면 금융위원회는 이르면 다음 달 마이데이터 사업 시 카드사가 다른 회사의 카드도 추천할 수 있도록 하는 서비스를 혁신금융서비스로 지정할 계획이다. 예컨대 신한카드 마이데이터 서비스 가입자가 새로 카드를 만들려고 할 때 신한카드에서 자사의 카드 뿐만 아니라 KB국민·우리·하나 등 이용자의 소비 패턴에 맞는 다른 회사의 카드도 추천해주는 식이다.현행 여신전문금융업법상 카드회사는 다른 카드사의 상품을 추천하거나 판매할 수 없도록 돼 있다. 카드업계에서 마이데이터 사업자 허가를 받아도 경쟁력을 갖추기 어렵다는 불만이 나온 이유 중 하나다. 토스나 카카오페이 등 빅테크는 이용자에게 다양한 맞춤형 카드를 추천해 주면서 플랫폼 회원을 늘리고 사업 확장을 꾀하고 있지만 카드사는 제도적으로 소외될 수밖에 없다. 이 때문에 카드업계에서는 대표적인 ‘기울어진 운동장’ 식의 규제로 이를 꼽고 있다. 이에 신한·KB국민·롯데·우리·하나·BC카드 등 6개 카드사는 올해 1월 금융위에 이 같은 내용의 혁신금융서비스 지정을 신청했다. 마이데이터 사업자가 아닌 삼성카드와 상업자 표시 카드(PLCC) 사업에 주력하고 있는 현대카드를 제외하고는 주요 카드사가 모두 규제 완화 필요성을 주장한 셈이다. 금융위 관계자는 “큰 법적 이슈는 없다고 봐 이르면 8~9월 정도에 지정이 가능할 것으로 보인다”며 “다만 핀테크와 비교했을 때 부각되는 것이 이해상충 문제다 보니 이를 방지하기 위한 방안을 혁신금융서비스 지정 전에 미리 준비해두고자 한다”고 설명했다. 이용자가 핀테크 플랫폼을 사용하든지 카드사 애플리케이션을 이용하든지 동일한 조건을 기입하면 동일한 결과가 보여줘야 한다는 것이다.일부 카드사는 혁신금융서비스 지정 움직임에 발맞춰 지정 후 단기간 내 관련 서비스를 내놓을 수 있도록 준비한다는 계획이다. KB국민카드 관계자는 “카드업권의 지속적인 요청사항이었던 1사 전속주의 규제가 해제되면 관련 서비스를 실시할 계획”이라며 “타사와 계약 및 운영 방식에 대한 협의는 필요하지만 규제 해제에 따른 마이데이터 사업 효율화를 위해 최선을 다할 것”이라고 밀했다.신한카드 관계자도 “신한카드 모바일 애플리케이션인 ‘신한플레이’에 들어와서 신한카드가 아닌 타사 카드로 결제할 수 있도록 하는 작업도 진행 중”이라며 “이를 통해 신한플레이 활성화를 도모할 수 있는 것처럼 마이데이터 부문에서도 타사 상품을 쓰더라도 일정 부분 중개 수수료 등을 얻을 수 있을 것”이라고 말했다.한편 규제 완화 시 마이데이터 사업을 둘러싼 카드사와 빅테크사 간 경쟁도 본격화될 것으로 보인다. 지난 1분기 기준 3800만 명에 달하는 이용자를 보유한 카카오페이 역시 연내 마이데이터를 활용한 맞춤형 카드 비교·추천 서비스 출시를 준비하고 있기 때문이다. 금융위 관계자는 “카드사들도 지정 후 가급적 긴 시간을 소요하지 않고도 서비스를 개시할 수 있게끔 관련해 논의를 진행할 것”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.07.26.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>혜택이 나빠졌는데 좋아졌다니…'고래퀴즈' 같은 핀테크 서비스 개편</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000039953?sid=105</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>차이카드 이용 화면."지난달까지만 해도 번개 3개에 최대 1000원을 스타벅스에서 캐시백해줬는데, 이제는 번개 6개를 써야돼요. 개당 200원 효율도 안 나옵니다. 다이소에선 번개 5개에 2500원 할인했었는데 이번달부터 7개에 1200원밖에 할인해주지 않습니다. 갈수록 혜택이 나빠지네요."핀테크 스타트업 차이코퍼레이션의 선불형 체크카드 '차이카드'를 이용하는 한 고객의 후기다. 혜택 변경의 주기가 빠른 핀테크업계의 금융서비스에 불만을 느끼는 고객들이 늘어나고 있다. 초기에는 파격적인 혜택을 내걸다가 회사가 일방적으로 개악하는 패턴이 이어지고 있다는 지적이다.26일 업계에 따르면 차이코퍼레이션 고객들의 선불충전금 규모는 5월 31일 기준 90억원, 6월 12일 기준 84억원, 6월 30일 기준 81억원으로 빠르게 줄어드는 추세다.차이카드는 인기 브랜드를 매일 최대 50% 할인받을 수 있는 '부스트' 혜택으로 인기를 끌었다. 결제나 미션을 달성할 때마다 번개를 획득하고, 모은 번개를 사용해 원하는 가맹점에서 할인 혜택을 받는 구조다. 차이코퍼레이션 측은 이 같은 파격적인 할인이 가능한 이유로 블록체인을 기반으로 지불체계를 간소화했고, 결제 수수료 등 운영비를 대폭 줄인 덕분이라고 주장해왔다.바로 차이카드에 적용된 블록체인 기술이 루나·테라 사태로 파문을 일으킨 테라폼랩스의 것이었다. 차이코퍼레이션 고객이 충전한 금액으로 테라 코인을 사고, 고객 결제 시에는 테라 코인을 원화로 바꿔서 상점에 지급하는 메커니즘을 운영했다. 루나·테라 사태가 불거진 후에는 테라폼랩스와의 파트너십이 이미 종료됐다면서 선을 그었다.테라폼랩스와 분리된 차이카드의 상품구조는 여타 선불형 카드와 큰 차별점이 없다. 현재는 브랜드 광고 수익으로 부스트 할인 혜택을 제공하고 있다. 테라폼랩스 이슈로 충전금 환급에 문제가 생길 것을 우려한 소비자들이 이탈하면서, 광고 수익의 증익 또한 어려워지고 있다는 분석이다. 이런 상황이 차이카드의 혜택 개악으로 이어지고 있는 것으로 풀이된다.이 같이 특수한 리스크가 없는 핀테크 기업에서도 혜택 개악은 이어지고 있다. 네이버파이낸셜은 주요 외부 사이트에서 네이버페이 결제 시 결제액의 최대 1%를 적립해준다고 홍보해왔으나, 최근 야놀자 등에선 0.2%까지 적립률을 낮추고 배달의민족, 교보문고, 예스24, 마켓컬리 등에선 적립 혜택을 아예 없앴다.네이버파이낸셜의 선불충전금은 지난 3월 말 948억원에서 6월 말 975억원으로 늘고 있는 반면 소비자 혜택은 되레 줄어드는 모습이다. 네이버파이낸셜은 신한은행에 이 충전금을 신탁 형태로 맡기고 있다. 신탁 규모가 커지는 만큼 이에 따른 이자수익도 자연스럽게 커질 것으로 분석된다.토스뱅크의 경우 체크카드인 '토스뱅크카드' 혜택을 6개월 주기의 '에피소드' 형태로 개편하고 있다. 에피소드2에서는 3000원 이상 결제 시 300원 혜택이 제공된 반면 이달부터 시행되고 있는 에피소드3에서는 1만원 이상 결제건에 대해 500원 혜택이 제공된다. 토스뱅크 측은 이를 두고 캐시백 금액이 더욱 강화됐다고 하지만, 자세히 들여다보면 고객에게 꼭 유리한 방향은 아니다.'고래 퀴즈'처럼 특정 수치에만 집중하면 답을 풀 수 없다. 3000원 이상 결제 시 300원 혜택은 피킹률로 따지면 10%다. 1만원 이상 결제 시 500원 혜택은 5% 피킹률이다. 결국 소액 결제 고객에게는 에피소드2가 더 유리하다는 결론이 나온다.에피소드3에선 캐시백 영역이 5대(커피, 편의점, 택시, 패스트푸드, 대중교통)에서 영화(CGV, 롯데시네마, 메가박스) 디저트(던킨도너츠, 베스킨라빈스) 2개 영역을 추가한 7대가 됐기 때문에, 모든 영역에서 1만원 이상씩을 모두 쓴다면 이전 에피소드보다 혜택이 더 높을 수 있다. 그러나 이전보다 순수 대중교통 혜택이 줄어드는 등의 개편으로 고객 반응은 엇갈리고 있다.토스뱅크 '토스뱅크카드' 에피소드3 개편을 알리는 이미지.금융위원회가 '금융소비자 보호에 관한 법률(금소법) 시행령 및 감독규정' 개정안을 마련한 이유다. 핀테크 사업자의 유불리에 따라 임의로 서비스를 축소하는 상황을 막겠다는 취지다. 개정안은 선불·직불지급수단(전자지급수단 포함)을 금소법상 연계·제휴서비스 관련 규제 대상에 포함한다. 연계서비스 규제란 서비스에 대한 설명 및 서비스 축소·변경 시 6개월 전 고지 의무화가 핵심이다.이는 핀테크사가 금융사와 똑같은 금융서비스를 하면서도 규제는 느슨하게 받는 '동일기능-동일규제'에 어긋난다는 비판을 수용한 것이다. 체크카드 등 지급수단에도 금소법 상 연계서비스 규제를 적용하기 위해 금융당국은 금융소비자 보호에 관한 감독규정의 개정도 추진하고 있다.핀테크사로선 소비자로의 비용 전가가 어려워지는 만큼 자체적인 수익성을 강화해야 할 필요성이 커지고 있다. 인플레이션 관련 비용과 강달러 영향으로 해외 빅테크들도 실적 기대치가 하향하는 추세다. 플랫폼 전반적인 밸류에이션 하락세가 지속하고 있다. "경기악화에 따른 추가적인 이익 하향에 대한 리스크도 있다"는 전문가 지적이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.07.18.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>금리 3.8%p '뚝', 한도 1360만원 '쑥'…대출, 많이 갈아탈수록 '돈' 된다</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004992917?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>본격적인 금리 인상기 맞아금리 비교플랫폼 필수코스로[사진 제공 = 연합뉴스] #30대 직장인 김모 씨는 올해 대출금리 비교 핀테크 플랫폼을 이용해 기존 대출을 갈아탔다. 그 결과, 금리 인상기에도 종전 대비 대출금리는 3.8%포인트 낮췄고 한도는 1360만원 높일 수 있었다. 금리가 낮아지면서 시차를 두고 신용점수도 소폭 개선됐다.금리 인상기 토스, 핀다, 카카오페이, 핀셋N, 알다 등 대출금리를 비교할 수 있는 다양한 핀테크 플랫폼 활용이 늘고 있다. 특히, 금리측면에서 더 나은 조건으로 신규로 대출을 받거나 갈아타려는 수요가 꾸준한 것. 보다 나은 조건으로 대환을 자주하는 차주(돈을 빌린 사람)에게서는 신용점수가 상승하는 모습도 보였다.신용점수를 올려 조금이라도 대출금리를 낮추기 위해 국민건강보험료 납부 등 비금융정보를 등록해 활용하는 움직임도 계속 이어지고 있다.18일 금융권에 따르면 핀다가 올해 1월부터 6월까지 자사 대환대출 서비스를 통해 대출을 갈아탄 차주(돈을 빌린 사람)를 분석한 결과, 대환을 많이 할수록 그렇지 않은 경우보다 신용점수가 상승률이 높은 것으로 나타났다. 대환대출이 통상 기존 대출보다 금리가 낮은 상품으로 갈아타기 위한 것이 목적인만큼 대출을 적극 관리하는 차주에게서 신용점수가 상승한 셈이다.특히, 여러 차례 대출을 갈아탈수록 신용점수가 상승했다. 핀다 대환대출 1회 이용 차주와 3회 이상 이용 차주의 신용점수를 비교한 결과, 대환대출 1회 이용 차주보다 2회 이용 차주의 신용점수 상승률이 7%포인트 더 높았다. 2회에서 3회 이상으로 대환 횟수가 늘어날 때는 3%포인트 더 높아졌다. 금리 인상기 대출금리 비교 서비스 이용도 꾸준하다. 관련 서비스를 제공하는 한 핀테크 플랫폼의 서비스 이용을 보면, 4월 1만4042건, 5월 1만4619건, 6월 1만3168건으로 꾸준했다. 올해 들어 한국은행 기준금리가 두 번째로 인상된 4월 이후 시점인 5월에는 대출금리 비교 조회가 더 늘어나는 모습도 확인할 수 있다.  비금융정보 등록에 따른 신용점수 가점 누적 현황.[자료 제공 = KCB]비금융정보 등록을 통해 신용점수 관리에 적극적인 모습도 나타나고 있다. 개인신용평가회사 KCB(코리아크레딧뷰로)에 따르면 올해 1월부터 6월까지 비금융정보 등록을 통해 부여된 신용점수 가점(누적)은 1266만4100점이다. 이 기간 국민건강보험료, 국민연금보험료, 통신료 납부 등 비금융정보를 KCB에 등급해 신용점수에 가점을 받은 사람은 8만3244명으로 1인당 평균 152점을 챙겼다. 신용점수는 개인의 금융거래 정보를 바탕으로 향후 연체가 발생할 가능성 등을 통계적인 방법으로 분석해 산출하는 평가체계이다. 1000점 만점의 점수제이며 대출심사 등에 활용된다. 통상 신용점수가 높을수록 은행 등 제도권 금융회사에서 대출을 받는 데 제약을 덜 받으며 금리도 낮다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>빅테크 3사, 보험 시장 공략 박차 등 [한강로 경제브리핑]</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003717415?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>빅테크 3사가 보험통합조회시스템 등 관련 서비스를 출시한 데 이어 보험업에 진출하며 보험시장 공략에 박차를 가하고 있다. 마이데이터 분석 등 정보통신기술(ICT) 기반의 장점을 극대화해 기존 보험사와 차별화하면서 대면 서비스도 확충해 약점인 고객편의 향상에 힘쓰고 있다.   카카오페이는 ‘내 보험 리포트’ 서비스를 통해 마이데이터 정보를 기반으로 개인화된 맞춤형 보험 분석 정보를 제공한다고 20일 밝혔다.   카카오페이가 이번 서비스에서 내세우는 강점은 보험 보장 정보의 폭넓은 제공과 함께 또래·동일 조건군 등에 대해 비교 서비스를 제공하는 부분이다. 비슷한 연령대나 동일 보험·보장 가입자 등에 대해 비교 분석 리포트를 제공하는 한편, 발생 빈도가 높은 질병이나 치료비 정보를 제공하는 방식이다.   보험료나 보장 내용에 대한 단편적인 정보를 제공하는 것에서 한층 진화한 정보를 제공하는 셈이다. 카카오페이 관계자는 “보험상품을 추천하고 가입을 유도하기보다 보험 분석 정보 제공이 주요 목적인 맞춤형 보험정보 큐레이션 서비스로 구성됐다”고 설명했다. 카카오페이는 마이데이터 서비스와 연결된 36개 보험사와 협의를 진행해 해당 보험사들의 정보를 끌어올 수 있도록 했다. 앞서 카카오페이는 디지털 손해보험사인 카카오페이손해보험의 출범을 마무리한 데 이어 올해 3분기 중 첫 보험상품 출시를 준비 중이다.   네이버파이낸셜은 지난달 말 ‘보험통합조회’ 서비스를 출시했다. 네이버파이낸셜은 업계 최다인 41개 보험사의 마이데이터 정보 연계를 바탕으로 다양한 정보를 직관적으로 보여 주는 것에 초점을 맞췄다. 가입상품 정보는 물론, 지방자치단체 등을 통해 제공되는 무료 보험 등 사용자가 잘 몰랐던 보험 정보도 통합 제공한다. 자동차보험의 경우 주행 거리에 따른 마일리지 할인도 예측해 주고, 통합 차량 관리 서비스인 ‘네이버 마이카’와 연결해 편의성을 높였다.   네이버의 경우 아직 보험사 설립 및 보험업 진출 계획을 밝히지 않은 상태다. 이 때문에 업계에서는 보험통합조회 서비스를 통해 보험 고객 및 업계에 대한 데이터 등 경험을 충분히 쌓으며 다음 행보를 결정할 것으로 보고 있다.   빅테크들의 이 같은 서비스는 사용자의 편의성을 높인다는 측면에서 강점으로 작용하지만 대면 위주 보험시장에서는 일정 부분 한계도 있다. 이러한 시스템은 사실 보험업계 차원에서 일찌감치 출시됐다. 금융위원회와 보험업계가 2017년 개설한 ‘내보험 찾아줌(Zoom)’을 통해 보험 가입 내역과 함께 숨은 보험금 금액을 통합 조회할 수 있다. 2016년 1월 도입된 ‘보험다모아’에서는 비대면(온라인) 보험상품을 통합 조회하고 비교도 가능하다. 관련 법에 근거해 협회가 운영하는 만큼 신뢰도 측면에서 우위에 있다. 보험업계의 한 관계자는 “보험상품 플랫폼을 고도화하는 빅테크들의 노력이 한창이지만, 아직까지 보험 가입이 설계사를 통해 대면으로 이뤄지는 데에는 다 이유가 있다”며 “연령별, 가입군별 분석이라고 해도 설계사들의 개인화 서비스와 비교하기엔 아직 무리가 있다”고 말했다.   토스의 경우 이러한 한계를 극복하기 위해 대대적으로 보험설계사를 모집하며 불완전판매 문제를 해결하는 한편, 맞춤형 서비스에 공을 들이고 있다. 토스는 보험업 관련 법인인 토스인슈어런스를 설립한 데 이어 보험설계사 전용 플랫폼인 ‘보험파트너’ 애플리케이션(앱)을 운영 중이다. 빅테크답게 41개 보험사의 마이데이터를 연계한 ‘내 보험 조회’를 통해 통합 조회 서비스를 제공하는 한편, 대면 채널에도 집중하는 투트랙 전략을 구사하는 셈이다. 이를 위해 지난 5월 기준 약 150명 수준인 설계사도 지속 확충해 대형 법인보험대리점(GA)으로 규모를 확장해 나갈 것으로 보인다.      이승한 기획재정부 경제분석과장이 20일 세종시 정부세종청사에서 최근 경제동향을 발표하고 있다. 연합뉴스    ◆두 달 연속 경기둔화 우려한 ‘그린북’   정부가 최근 우리 경제에 대해 대외 여건 악화로 물가상승세가 확대되는 가운데 수출 회복세도 속도를 내지 못하고 있다며 경기둔화 우려가 있다고 진단했다. 지난달 취업자 수 증가세가 지속되고, 5월 서비스업 생산도 늘어나는 등 내수가 완만한 개선 흐름을 보이고 있지만 미국 금리인상 가속화, 중국 성장 둔화 등 대외 악재가 이어져 경기 회복에 불확실성이 커지고 있다는 것이다.   기획재정부는 20일 ‘최근 경제동향(그린북) 7월호’에서 “대외 여건 악화 지속 등으로 물가 상승세가 확대되고 향후 수출 회복세 제약 등 경기둔화가 우려된다”고 밝혔다. 지난달 그린북에서 코로나19 이후 처음으로 ‘경기둔화’ 문구를 넣은 데 이어 이번 달에도 경계감을 유지한 셈이다.   이승한 기재부 경제분석과장은 “국내 실물지표의 경우 동행지수 순환변동치가 플러스로 상승 전환하고, 설비투자와 같은 투자지표들도 반등하는 모습을 보이는 등 지난달보다는 플러스 요인이 있었다”면서도 “해외적인 측면에서 보면 오히려 상대적으로 안 좋은 모습들이 나타났다”고 설명했다.   정부 분석대로 대외 악재는 전방위적으로 진행 중이다. 우선 중국의 2분기 경제 성장률이 0.4%로 나타나 시장 예상치를 밑돈 데다 유럽의 경우 러시아의 가스 공급 중단 등의 영향으로 경기 침체에 대한 우려가 고개를 들고 있다. 이 과장은 “미국 역시 다음 주에 2분기 성장률이 나오겠지만 일각에서는 마이너스 성장률 이야기도 나오고 있는 등 전반적으로 경기에 대한 시각 자체가 점점 나빠지고 있는 분위기”라고 말했다.   대외 악재는 국내 물가와 수출, 금융시장 전반에 파장을 미치고 있다. 실제 지난달 소비자물가는 우크라이나 사태 등에 따른 석유류 가격 상승세 등이 지속되면서 전년 대비 6.0% 올랐다. 이는 1998년 11월 이후 최대 상승 폭이었다. 소비 동향을 보여주는 5월 소매판매는 전월보다 0.1% 쪼그라들었다. 이 수치가 3개월 연속 감소한 것은 2020년 3월 이후 처음이다.    우리 경제의 버팀목인 수출도 둔화하는 모습을 보였다. 지난달 수출액은 1년 전보다 5.2% 증가하는 데 그쳐 16개월 만에 증가율이 한 자릿수로 내려왔다. 반면 수입은 같은 기간 19.4% 증가해 무역적자 폭이 커졌다. 수출이 축소되고 수입이 늘어나는 추세가 계속되면서 올해 상반기 무역수지 적자는 103억달러에 달했다. 미국 달러화지수 상승, 외국인 주식자금 유출, 원자재 가격 상승에 따른 수입업체 달러화 수요 증가 등의 영향을 받아 지난달 원달러 환율이 5월 말 대비 상승하고, 주가가 하락하는 등 금융시장도 불안한 모습을 보이고 있다.     ◆지난해 직계 존비속 재산 증여 사상최대   자녀나 부모 등 직계존비속에 대한 재산증여가 지난해 15만건을 넘기면서 역대 최대를 기록한 것으로 나타났다.   20일 국세청 국세통계연보에 따르면, 지난해 직계존비속 간 재산 증여 건수(신고 현황 기준)는 15만5638건으로 통계 집계를 시작한 2010년 이후 최대치를 기록했다. 2010∼2013년 4만건대였던 직계존비속 간 증여 건수는 점차 늘어 2018년 8만5773건, 2019년 8만6413건을 기록한 뒤 2020년 12만8363건으로 뛰어올랐고 지난해 15만건을 돌파했다.   증여 건수 증가 및 공시가격 상승 등에 따라 증여재산가액도 크게 늘었다.   2013년까지 10조원을 넘지 않았던 직계존비속 간 증여재산가액은 2014∼2016년 10조원대를 기록하다가 2017년 20조원대로 뛰어올랐다. 이후 2019년 30조원대, 2020년 40조원대로 빠르게 늘어난 뒤 지난해에는 52조7716억원을 기록했다. 연도별 직계존비속 간 증여재산가액에는 해당 시점으로부터 앞선 10년 안에 증여한 재산에 대한 증여재산 가산액이 포함돼 있긴 하지만, 이를 고려하더라도 증여재산 가액 증가세는 가팔랐던 것으로 보인다.   배우자 간 증여도 2020년과 지난해 크게 증가했다. 2010년부터 2016년까지 1000건대에 머물던 배우자 간 증여 건수는 2017년 2000건대, 2018∼2019년 3000건대로 증가한 뒤 2020∼2021년 6000건대로 뛰어올랐다. 배우자 간 증여는 2020년 6790건, 지난해 6125건이었다.    직계존비속이나 배우자 간 증여가 대폭 늘어난 건 종합부동산세 등 보유세 부담이 커지면서 아파트 등 주택을 증여하는 사례가 증가했기 때문으로 분석된다. 지난해 전체 증여재산을 종류별로 보면 건물(19조9000억원)이 가장 많았고 금융자산(10조3000억원), 토지(8조9000억원) 등의 순이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>“선미가 추천, 700억원 몰렸는데” 한순간에 ‘폭삭’, 무슨 일이</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002018967?sid=105</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>한때 월거래액 700억원을 돌파했던 음악저작권 조각투자 플랫폼 ‘뮤직카우’의 이용자 수가 크게 쪼그라든 것으로 나타났다. 사진은 뮤직카우 광고 모델이었던 가수 선미. [뮤직카우 광고 영상 갈무리][헤럴드경제=김민지 기자] “6개월 유예기간에 투자자 다 떠난다… 윤종신·선미가 추천하던 ‘이곳’, 어쩌나.”지난 4월 금융 당국으로부터 경고를 받은 음악저작권 조각투자 플랫폼 ‘뮤직카우’ 이용자 수가 크게 쪼그라든 것으로 나타났다. 투자자 보호를 위한 각종 노력을 하고 있지만 이미 상당수가 이탈했다. 신규 상품 판매가 불가능한 올 10월 유예기간까지 거래액 규모는 더욱 축소될 전망이다.업계에 따르면, ‘뮤직카우’는 최근 사옥을 서울시청 근처로 이전하고 사업 재편에 나섰다. 제도권 안착을 위한 투자자 보호 강화 조치가 한창이다. 지난 18일 키움증권과 업무협약을 체결, 실명 계좌 거래 방식을 도입했다. 카카오페이, 토스 등 주요 핀테크기업 출신 전문가들도 대거 영입했다. 당장 3개월밖에 남지 않은 유예기간 내에 위법성 문제를 해결하기 위해서다.최근 이전한 뮤직카우 사옥 내부. [뮤직카우 제공]그러나 이미 상당수 투자자가 뮤직카우를 이탈한 것으로 나타났다. 빅데이터 분석 플랫폼 모바일인덱스에 따르면, 지난 6월 ‘뮤직카우’ 월간활성이용자수(MAU)는 11만명으로, 올 1월(26만6000여명)과 비교하면 60%가량 감소했다.브레이브걸스 ‘롤린’이 역주행하며 투자자들이 몰렸던 때와 비교하면 반 토막이다. 지난해 9월 뮤직카우 월거래액은 700억원을 돌파했다. ‘롤린’ 저작권료 거래액만 25억원 이상이었다. 누적 회원 수도 70만명을 넘어섰다.뮤직카우는 전 세계 최초로 음악저작권(저작권료 참여청구권) 투자 서비스를 시작했다. 플랫폼이 원저작권자로부터 저작권의 지분 일부를 매입해 투자자에게 판매하는 ‘조각 투자’인 셈이다. 투자자는 매달 저작권료를 받거나 해당 저작권을 주식처럼 거래해 시세차익을 얻을 수도 있다.[뮤직카우 광고 갈무리]그러나 지난 4월 금융위원회로부터 제재 조치를 받으며 난관에 부딪혔다. 저작권료 참여청구권이 증권의 일종에 해당된다는 판단에서다. 금융위는 오는 10월 19일까지 유예기간을 주고 구체적인 투자자 보호장치 등 시스템을 갖추라고 요구했다. 투자자들은 법적 문제가 전혀 없는 것처럼 홍보해놓고 제재 대상에 포함됐다는 것에 실망감을 감추지 못했다. 뮤직카우는 지난 1년간 윤종신, 선미 등 유명 연예인을 광고모델로 채택하며 대대적 홍보에 나선 바 있다.뮤직카우는 유예기간까지 신규 상품 판매와 광고 집행을 할 수 없다. 투자자 이탈 규모는 더욱 늘어날 전망이다. 지난해 발생한 102억원 영업 적자도 해결해야 한다. 새로운 청구권 발행이 늦어질수록 경영위기 가능성도 배제할 수 없다. 유예기간 후 합법적으로 제도권 내에 안착하고, 다시 투자자를 대거 모을 수 있을지 주목된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.07.28.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>벤처투자 8분기만에 감소…"지금은 몸 사려야 할 때"</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004997686?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>2분기 벤처투자 4.2% 줄어주가 부진에 바이오분야 위축상반기투자 전년보다 17% 급감◆ 레이더M ◆벤처기업 투자가 감소세로 전환했다. 지난 2년여간 전례 없는 호황을 누리며 많은 유니콘 기업(기업가치 1조원 이상 비상장 스타트업)을 탄생시켰던 유동성 잔치가 인플레이션, 금리 인상 등 글로벌 악재에 막을 내리는 모습이다. 28일 중소벤처기업부가 발표한 2022년 상반기 벤처 투자 동향 자료에 따르면 올해 2분기 벤처 투자는 1조8259억원을 기록해 지난해 같은 기간 대비 794억원(4.2%) 감소했다. 분기별 투자액이 전년 대비 감소한 것은 코로나19 사태 직격탄을 맞았던 2020년 2분기 이후 2년(8분기) 만이다. 최근 벤처 투자가 급격히 위축된 것은 지난 2년간 공격적인 투자에 나섰던 벤처캐피털(VC)들이 미국 연방준비제도(Fed·연준)의 금리 인상, 우크라이나 전쟁 장기화 등 대외 불확실성으로 인해 관망세로 돌아서고 있기 때문이다. 특히 최근 상장한 바이오 기업들의 잇단 주가 부진으로 바이오벤처에 대한 투자가 가장 먼저 줄고 있다. 중기부에 따르면 올 상반기 바이오·의료 업종에 대한 벤처 투자는 2758억원으로 지난해 같은 기간에 비해 1387억원(17%) 감소했다.올 하반기에는 벤처 투자가 위축될 가능성이 높다는 전망이 지배적이다. 토스, 무신사, 야놀자 등 상장을 추진하던 국내 대표 유니콘들도 기업공개(IPO) 일정을 잇달아 연기하는 분위기다. 한 벤처캐피털 업계 관계자는 "세계 불황에 바이오주 상장 부진까지 겪으면서 올해는 투자 적기가 아닌 것으로 판단하고 일단 관망하려는 VC가 많다"며 "심사역들이 투자하자고 기업을 추천해도 투자심의위원회에서 다 잘라버리는 상황"이라고 말했다. 또 다른 관계자는 "벤처투자 업계는 지금 사실상 '개점휴업' 상태다. 투자를 검토할 기업이 없다고 아예 휴가를 가버리는 심사역도 많다"고 분위기를 전했다.업계에선 지금처럼 어려운 시기가 스타트업 생태계의 옥석을 가리는 기회가 될 것이라고 보는 시각도 있다. 최인혁 보스턴컨설팅그룹(BCG) 대표파트너는 올해 6월 스타트업 생태계 콘퍼런스에서 "좋을 때는 모두가 투자하려고 하고 모두가 꺼릴 때는 더 좋은 투자를 할 수 있다"고 말했다. 한 스타트업 관계자는 "지난해까지는 기술력만 있으면 수백억~수천억 원씩 쉽게 투자를 받았지만 올해는 매출 등 실제 실적이 뒷받침돼야 투자를 받을 수 있는 분위기"라며 "정말 좋은 스타트업만 살아남을 수 있는 환경으로 바뀌고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.07.19.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>[단독][fn마켓워치] 토스증권 신임 대표에 오창훈 CTO 내정</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004869660?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>'증권가 최연소 CEO' 박재민 대표 임기만료…CTO가 바통 이어 오창훈 토스증권 신임 대표 [파이낸셜뉴스] 토스증권의 수장이 교체된다.   19일 투자은행(IB)업계에 따르면, 토스증권 박재민 대표는 오는 22일 대표이사 임기를 끝으로 대표이사 자리에서 물러난다. 박재민 대표의 뒤를 잇는 새로운 대표이사로 토스증권 개발을 총괄하고 있는 오창훈 CTO(최고기술책임자)가 내정됐다.   토스증권 측은 “증권 인가부터 지금까지 회사 성장을 이끌어 온 박재민 대표의 뜻에 따라 이번 임기를 끝으로 대표이사 계약을 종료하기로 했다"고 밝혔다.   1981년생인 박 대표는 컨설팅·IT전문가로 증권업계 최연소 CEO 타이틀을 지닌 최고경영자이기도 하다. 실제 그는보스턴컨설팅그룹(BCG), 쿠팡 마켓플레이스 등 다양한 분야를 거쳤다. 증권사 경력은 없지만 오히려 그 점이 새로운 시각으로 증권업계의 문제를 바라보고 접근하며 토스증권을 키우는데 도움이 된 것으로 알려졌다.   실제 토스증권은 기존의 틀을 깨는 혁신적인 UI/UX를 앞세워 출범 1년만에 420만 계좌 달성이라는 대기록을 달성했다. 이는 국내 전체 주식투자 인구의 3분의 1에 달한다. 특히, 같은 기간 모바일 서비스의 주요 지표로 손꼽히는 토스증권의 월활성이용자(MAU)는 230만명을 돌파하며 단숨에 업계 상위권에 진입했다. 지난 달에는 토스증권의 해외주식 서비스가 출시 6개월만에 시장점유율 12%를 돌파하며 침체된 시장 상황 속에서 독보적인 성장세를 이어가고 있다.   박 대표 후임엔 오창훈 토스증권 CTO가 신임 대표로 내정돼 바통을 이어 받을 전망이다. 신임 대표 선임은 오는 22일 이사회를 통해 결정된다. 신임 오창훈 대표는 1977년생으로, 네이버, GS홈쇼핑 등에서 인프라 구축 및 다양한 서비스 개발 경험을 바탕으로 2017년 토스(비바리퍼블리카)에 합류했다. 토스에서 신용조회 및 대출 연계 서비스 개발을 이끌었으며, 2020년 토스증권의 초기멤버로 합류해 토스증권의 CTO를 맡아 초기 증권 매매 서비스 개발을 이끌었다.   토스증권 측은 "토스증권의 사용자 경험은 압도적인 기술에서 구현돼 온 만큼, CTO 출신의 오창훈 대표를 중심으로 더 안정적인 IT역량 기반의 투자 서비스를 제공할 수 있을 것으로 기대한다”고 전했다. #비바리퍼블리카 # #토스증권 #박재민대표 #오창훈대표 #토스증권대표교체</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.07.28.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>모바일운전면허증 오늘부터 발급</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002263822?sid=105</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>은행·이통사·렌터카 등 사용…온라인서도 효력 인정행정안전부와 경찰청은 28일부터 전국 모든 운전면허시험장과 경찰서에서 모바일 운전면허증을 발급한다고 밝혔다.모바일 운전면허증은 도로교통법령에 따라 개인 스마트폰에 발급하는 운전면허증으로서 현행 플라스틱 운전면허증과 동일한 법적 효력을 가진다. 공공기관, 은행, 렌터카 업체, 공항, 병원, 편의점, 여객터미널, 통신사, 선거 등 현행 운전면허증이 사용되는 모든 곳에서 모바일 운전면허증을 사용할 수 있다.■은행 계좌 개설·휴대폰 개통·성인인증 등에 '모바일 신분증' 사용 가능모바일 운전면허증은 편의점, 렌터카, 공공기관 등 현장에서는 물론 비대면 계좌 개설, 온라인 민원 신청 등 온라인으로도 사용 가능하다.모바일 운전면허증시스템 연계를 완료해 모바일 운전면허증을 사용할 수 있는 13개 은행에서는 창구 방문 시 은행 직원이 제시한 정보무늬(QR) 코드를 모바일 신분증 앱으로 촬영해 금융거래를 할 수 있으며, 4개 은행에서는 비대면 계좌 개설 시에도 모바일 운전면허증을 이용할 수 있다.대면으로는 국민, 신한, 우리, 하나, 농협은행, 수협은행, 기업, 경남, 광주, 대구, 부산, 전북, 제주은행에서 사용 가능하다. 산업, SC제일은행 등은 올해 하반기 중 도입 예정이다.비대면으로는 신한, 우리, 농협은행, 카카오뱅크가 지원한다. 국민, 하나, 수협은행, 기업, 경남, 광주, 대구, 부산, 전북, 제주, 케이뱅크, 토스뱅크, 산업, SC제일은행 등 14개 은행은 올해 하반기 중 도입 예정이다.휴대폰 개통과, 편의점 성인인증, 정부24 회원 로그인, 토스 본인확인 서비스 가입, 야놀자 숙박시설 무인 체크인, 네이버페이 송금 등 사용처별로 특화된 다양한 온라인 및 현장 편의 서비스가 제공된다.다만 신분증 사본 보관이 필요한 경우에는 별도의 시스템 준비가 갖춰진 곳에서 사용 가능하다. 은행 금융거래의 경우 13개 은행에서 관련 시스템 구축을 마쳤다. 이동통신 가입 시에는 이통 3사 직영점에서만 가능하다. 공공기관 민원 업무 일부에서는 내년에 사용할 수 있게 될 전망이다.모바일 운전면허증은 상대방이 필요한 정보만 제공할 수 있어 과도한 개인정보 노출을 방지할 수 있다. 안전성 확보를 위해 블록체인, 암호화 등 다양한 보안기술이 적용됐으며, 본인 명의 1개 단말기에만 발급받을 수 있다. 분실 신고 시에는 모바일 운전면허증이 잠김 처리돼 화면 상에 표시되지 않는다.모바일 운전면허증 활용 서비스 내용■IC·QR코드로 발급…진위 확인용 '검증 앱' 제공모바일 운전면허증은 가장 높은 수준의 신뢰성을 확보하기 위해 가까운 운전면허시험장 또는 경찰서 민원실을 방문해 대면 신원확인을 거친 후 발급받을 수 있다.'모바일 신분증(운전면허증)’ 앱을 내려받고, 집적회로(IC) 운전면허증으로 발급받는 방법과 운전면허시험장을 방문해 정보무늬(QR)로 발급받는 방법 중 선택할 수 있다.IC 운전면허증으로 모바일 운전면허증을 발급받기 위해서는 현행 운전면허증을 IC 운전면허증으로 교체해야 한다. 도로교통공단의 ‘안전운전통합민원’ 누리집에서 신청해 지정한 운전면허시험장 또는 경찰서 민원실에서 수령하거나, 운전면허시험장 또는 경찰서를 방문해 신청하면 된다. IC 운전면허증 발급비용은 1만3천원이다.수령한 IC 운전면허증을 스마트폰 뒷면에 접촉한 후, 본인인증을 거치면 모바일 운전면허증을 발급받을 수 있다. 스마트폰의 교체나 분실 시 기관 재방문 없이 IC 운전면허증으로 모바일 운전면허증을 다시 발급받으면 된다.운전면허시험장 창구에 설치된 정보무늬(QR)코드를 모바일 신분증 앱으로 촬영해 발급받는 경우 비용은 1천원이다. 다만 스마트폰 교체나 분실 등으로 모바일 운전면허증을 다시 발급받아야 할 경우, 운전면허시험장을 재방문해야 한다.모바일 운전면허증 발급법신원을 확인하고자 하는 사람은 제시된 모바일 운전면허증을 육안으로 확인하거나, 신원정보에 대한 진위 확인이 필요한 경우 ‘모바일 신분증 검증 앱’을 통해 확인하면 된다. 검증 앱은 앱 마켓에서 내려받을 수 있으며, 검증앱으로 모바일 운전면허증의 QR 코드를 촬영하면 진위가 검증된 정보를 확인할 수 있다.행정안전부는 민간 기업과 협력해 모바일 운전면허증을 활용한 서비스를 지속 발굴‧확산해 나갈 계획이다. 내년에는 국민이 자주 사용하는 민간 앱에서도 모바일 운전면허증을 발급받아 이용할 수 있도록 모바일 신분증을 민간에 개방하고, 국가유공자증에 이어 주민등록증 등으로 모바일 신분증을 확대할 계획이다.이상민 행정안전부 장관은 “모바일 운전면허증 정식 발급은 본격적인 모바일 신분증 시대의 개막과 디지털플랫폼정부로의 전환을 알리는 계기”라며 “앞으로 플라스틱 신분증을 휴대해야 하는 국민 불편 해소를 넘어 민간과 함께 다양한 혁신 서비스를 창출하고, 비대면 디지털 경제 활성화를 위한 기반을 조성해 나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.07.27.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>금융위·한은, '전금법 개정안' 갈등 매듭?…실무진 논의</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011330209?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>기사내용 요약전금법 개정안 수정 위한 실무 논의종지업→이체업으로 계좌 서비스카드사, 결제 계좌 보유 가능해지나업계 "최종안이 나와야 유불리 판단"[서울=뉴시스] 박은비 기자 = 금융위원회가 전자금융거래법(전금법) 개정안 통과에 속도를 내기 위해 종합지급결제업(종지업) 도입을 재검토하는 등 한국은행과 조율에 나섰다. 관련 업계에서는 꼭 종지업이 아니더라도 유사한 효과를 낼 수 있다면 다른 대안도 마다할 이유가 없다는 입장이다.27일 금융권에 따르면 금융위원회는 이날 한국은행 실무진과 함께 전금법 개정안 수정 방향을 논의했다. 종지업 도입을 재검토하고 대신 기존 법체계에서 가능한 전자자금이체업을 활성화하는 게 골자다.금융위와 한은은 전금법 개정안 쟁점 중 종지업 도입을 두고 첨예한 입장차가 존재했다. 종지업을 도입하면 전자금융업자도 시중은행 고유 업무인 예금·대출 업무를 제외한 계좌 서비스가 가능해진다. 이때 한은과 시중은행이 만든 금융결제원 금융결제망을 이용하게 되는데, 금융위의 사업 허가만으로도 가능해진다는 점이 한은과의 갈등 요소였다. 이를 해결하기 위해 금융위가 내놓은 대안이 이체업이다. 금융결제망에 들어와 직접 계좌를 만들 수는 없지만 은행들과 협의를 거쳐 전용 계좌를 만드는 방식이다. 현재도 이체업이 가능하지만 해당 사업자로 등록된 곳은 아직 한 곳도 없다.업계에서는 어떻게든 전금법 개정 방향이 갈무리가 돼야 유불리를 따질 수 있다고 보고 있다. 다만 종지업을 이체업으로 대체하는 부분에 있어서는 구체적으로 이렇다 할 입장이 없는 분위기다. 전자금융업자의 큰 축인 빅테크(대형기술기업)도 마찬가지다. 빅테크 특혜법으로 여겨졌지만, 네이버파이낸셜, 카카오페이, 토스(비바리퍼블리카)의 경우 이미 유사 기능을 소화하고 있고 서비스 측면에서 어떤 차별점을 줄 수 있을지 검토가 필요하다고 보고 있다. 은행, 카드사 등 기존 금융사와 협업해야 하고 있어 다른 업권과 경쟁 구도가 되는 것도 꺼리는 모양새다.종지업 진출을 염두에 뒀던 카드사들은 전금법 최종 단계가 종지업이었는데 이와 유사한 이체업 허용도 업권간 차별이 없다면 마다할 이유가 없다는 시각이다. 더불어 개정 과정에서 오픈뱅킹 법적 근거가 마련되기를 기대하고 있다.카드업계 관계자는 "이체업으로 (종지업과) 동일한 효과를 볼 수 있고 (금융위도) 한은과 원만하게 풀어가고자 내놓은 방안이니까 그런 차원에서 보면 빅테크만 혜택을 받는 게 아니기 때문에 별문제가 없을 것 같다"고 평가했다.금융권 관계자는 "은행을 통해 카드결제대금 처리를 하고 있는 카드사 입장에서는 (이체업 도입으로) 결제 계좌를 보유할 수 있게 되고, 비용을 아낄 수 있다는 점에서 도입을 바라는 걸로 알고 있다"고 언급했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.07.24.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>생활밀착형 금융서비스 테크핀 시장...SKT-하나 vs KT-신한 '맞불'</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004872011?sid=105</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>마이데이터 사업자 SKT, 금융 분야로 빅데이터 역량 확대AI로 투자정보 제공.. SKT 메타버스에 가상 은행지점 구축  [파이낸셜뉴스] SK텔레콤(SKT)과 하나금융그룹(하나금융)이 ‘테크핀(기술+금융) 융합’에 속도를 내면서 금융 소비자 생활 밀착형 서비스가 더욱 확대될 전망이다. 앞서 KT와 신한금융이 지난 1월 지분맞교환 및 전략적 제휴를 맺은 데 이어 SKT도 테크핀 파트너사로 하나금융과 손을 잡으면서 치열한 경쟁을 예고했다.   네이버파이낸셜, 카카오뱅크, 토스뱅크 운영사인 비바리퍼블리카 등이 금융 플랫폼으로 진격하고 있는 가운데 이동통신사 중 처음으로 본인신용정보관리업(마이데이터) 본허가를 받은 SKT가 하나금융과 협력을 강화하면서 경쟁이 본격화 될 전망이다. 당장 올 하반기 ‘인공지능(AI) 기반 재무건강진단 서비스’ 등이 시작될 예정이다.    ■시너지協 구성...6대 핵심과제 추진 24일 SKT와 하나금융에 따르면 양사는 4000억 규모 지분을 맞교환하고 정보통신기술(ICT)과 금융 전반에 걸쳐 6대 핵심과제를 실행하기 위해 ‘시너지 협의체’를 구성했다. 양사는 우선 금융 디지털 전환 차원에서 AI 기반 금융 서비스 구축을 검토키로 했다. AICC(AI 콘택트 센터)와 AI 챗봇을 도입해 고객 응대에 활용하거나 AI를 활용한 투자 정보 제공 등을 논의할 예정이다.   양사는 메타버스(3차원 가상세계)와 금융을 융합한 신사업 추진에 대해서도 논의한다. SKT 메타버스 플랫폼에 하나금융 가상 지점을 구축해 아바타를 통해 고객 상담을 진행하거나 하나금융이 메타버스 생태계 내 결제 서비스 구축에 도움을 줄 수 있다. 양사는 가상자산 사업에 대해서도 시너지 협의체를 통해 지속적으로 논의할 예정이다.   양사는 비식별 처리된 SKT 비금융 신용정보와 하나금융 금융정보 데이터를 결합해 새로운 BM 발굴도 추진한다. 또 이종 산업 간 풍부한 데이터를 결합해 보다 정교한 신용평가 모델을 개발하거나 마이데이터 사업 영역에서도 협력할 수 있다. '내 손 안의 금융비서'라 불리는 마이데이터는 소비자가 금융회사와 공공기관 등 여러 곳에 흩어진 금융상품 가입 및 자산내역 등 자신의 신용정보를 한 눈에 파악해 쉽게 관리하도록 돕는 서비스다.    ■인프라 공동활용으로 시너지 창출 양사는 각사가 보유한 결제 시스템과 다양한 온라인 채널, VIP프로그램 등 인프라를 공동으로 활용해 시너지를 창출하는 방안도 검토한다.   아울러 양사 고객에게 혜택을 제공하는 공동 프로모션 추진 및 데이터 기반 광고 집행 등 마케팅 영역에서 협력 방안을 모색할 계획이다. ICT와 금융 융합의 시너지 창출 효과를 극대화하기 위해 SK스퀘어도 협력에 동참한다. 3사는 통신, 구독, 금융, 전자상거래(커머스), 미디어 등 다양한 서비스 간 융합을 통해 고객 가치를 높일 수 있는 서비스 출시도 추진한다.   SKT와 하나금융은 양사 고객에게 할인 혜택을 제공할 수 있는 신규 카드를 개발하고, SKT 고객에게 우대금리 혜택을 제공하는 방안도 검토한다. SKT 구독 플랫폼과 연계한 금융 상품 출시도 모색키로 했다.   SK스퀘어도 하나금융과 협력해 커머스, 미디어, 보안 영역에서 새로운 금융융합 상품을 선보일 예정이다. SK스퀘어 자회사인 11번가, 콘텐츠웨이브, 드림어스컴퍼니, SK쉴더스, 원스토어 등이 하나금융 제휴 파트너로 꼽힌다. ESG 생태계 구축을 위한 협력도 추진한다. 양사는 ESG 협력을 통해 소상공인 대상 금융 상품을 공동 개발하거나, 메타버스를 통해 청소년 대상 금융 교육을 진행하는 등 다양한 ESG 활동을 위해 협력할 예정이다. #금융소비자 #테크핀 #마이데이터</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.07.27.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>세대별로 다른 금융 앱 취향…젊을수록 ‘토스’ 썼다</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004080683?sid=105</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>전 세대 사용 1위는 삼성페이1020은 토스,30대부터 삼성사진제공=와이즈앱[서울경제] 한국인이 가장 많이 사용하는 금융 앱이 삼성페이인 것으로 나타났다. 다만 1020 세대에서는 토스에 대한 선호도가 높았다.앱·리테일 분석서비스 와이즈앱·리테일·굿즈는 27일 한국인이 가장 많이 사용하는 금융 앱을 세대별로 조사해 발표했다. 이번 조사는 만 10세 이상 스마트폰 사용자(Android + iOS)를 대상으로 진행됐다. 조사에 따르면 지난 6월 모든 세대를 합쳐 한국인이 가장 많이 사용한 금융 앱은 삼성페이로 지난 한 달간 1575만 명이 사용한 것으로 나타났다. 토스 (1361만 명), 카카오뱅크(323410)(1201만 명), KB스타뱅킹(1043만 명), 신한 쏠(816만 명), NH스마트뱅킹(715만 명), 페이북·ISP(638만 명), 신한플레이(603만 명 )이 뒤를 이었다.세대별로 가장 많이 사용한 금융 앱은 달랐다. 1020세대는 토스를 가장 많이 사용했으며, 페이북·ISP, 카카오페이, 페이코와 같은 간편결제 앱 이용이 활발한 것으로 나타났다. 반면 30대 이상은 삼성페이를 가장 많이 사용했으며 KB스타뱅킹, 신한 쏠과 같은 은행 앱과 삼성카드, 현대카드와 같은 카드 앱 이용이 활발한 것으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.07.23.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>“‘평생 무료’래서 가입비 냈는데”…식스샵 유료화에 소상공인 집단소송 움직임</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002523326?sid=102</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>식스샵, 돌연 “일주일 뒤 유료화” 선언소상공인들, 집단소송·분쟁조정신청 검토하루 만에 피해자 단체 대화방 200여 명 모여　 식스샵 로고. 식스샵 제공  ‘가입비만 내면 평생 무료’를 내걸고 이용자를 유치해온 쇼핑몰 제작·관리 업체 식스샵이 돌연 일주일 뒤 유료화를 선언해 도마에 올랐다. 평생 무료 정책을 믿고 가입비를 냈던 이용자들은 집단 소송, 집단 분쟁조정신청 등 단체 대응을 모색 중이다. 식스샵은 카페24, 아임웹 등과 함께 국내에서 세번째 규모의 쇼핑몰 제작·관리 솔루션 업체로, 많은 소상공인을 이용자로 보유하고 있다.23일 관계자에 따르면, 지난 20일 이상민 식스샵 대표는 이용자들에게 보낸 메일에서 “오는 27일부터 쇼핑몰 이용료가 월 2만7200원으로 유료화된다”며 “앞으로 신규 사용자는 물론, 현재 사용하고 계시는 분들께도 동일 적용되는 내용”이라고 밝혔다. 이어 “어려운 결정의 배경에는 최근 급격하게 얼어붙은 스타트업 투자 시장이 있다”고 설명했다.앞서 식스샵은 지난 2019년 3월부터 3년 4개월간 쇼핑몰 요금제를 ‘평생 무료’로 홍보하며 이용자를 유치했다. 2019년 3월 평생 무료 요금제 행사를 시작한 식스샵은 2020년 1월 “요금제를 전면 무료화한다”, “식스샵 사용료 0원”이라고 공지했다. 쇼핑몰 1개당 가입비 22만~28만8000원을 내면 카카오페이, 토스페이, KG이니시스 등 전자지급결제대행(PG)사와 연동돼 계약이 체결됐다. 그간 식스샵 고객센터는 이용자들에게 “가격 변동은 발생할 일 없으니 안전하게 사용하셔도 된다”, “추가적으로 정기 결제가 일어나지 않으며, 무료가 맞다”고 안내해 왔다.‘가입비만 내면 평생 무료’라고 홍보한 식스샵을 통해 쇼핑몰을 운영해온 소상공인들은 돌연 일주일 뒤 유료화 통보를 받고 혼란에 빠졌다. 1인 브랜드를 운영 중인 A 씨는 “올려둔 상품과 회원 데이터, 고객 후기가 다른 솔루션 업체로 제대로 이전될 수 있을지 의문”이라며 “여기에 PG사까지 다시 계약해야 하는 걸 아니까 식스샵에서도 무리수를 두는 것”이라고 전했다. 이어 A 씨는 “상품 이용 중단은 가능하지만 그에 따른 불이익은 모두 고객이 받아야 하는 상황”이라고 토로했다. 문구용품 판매자 B 씨는 “월 요금을 평생 내지 않아도 된다고 해서, 지난 5월 다이어리 꾸미기 쇼핑몰 2개와 캘리그라피 쇼핑몰 1개, 총 86만4000원 가입비를 내고 계약했다”고 말했다. 소상공인 C 씨도 “1주일 뒤에 갑자기 유료화한다고 이렇게 마음대로 말을 바꿔도 되냐”면서도 “어느 날 폐업할 것 같아 걱정”이라고 전했다.이용자들은 집단소송, 한국소비자원 집단분쟁조정 신청 등 단체 대응을 모색하고 있다. 지난 21일 만들어진 단체 대화방에는 하루 만에 200여 명의 피해자가 모였다. 김경환 법무법인 민후 대표변호사는 “형사고소나 분쟁조정신청이 가능하다”며 “기망의 고의가 있었다면 사기에 해당한다”고 밝혔다. 김 변호사는 “능력이 부족했음에도 유료화로 바꿀 의도로 거짓말을 해 사람들을 모았다면 사기죄가 성립한다”고 말했다.업계에 따르면 식스샵은 지난 2018년부터 영업이익 적자를 기록했으며, 2020년 적자폭은 7억5846만 원에 달했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.07.27.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>변희재 "尹 대통령, 이준석 못 죽이면 국민의힘 공중분해 될 것"</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/087/0000914391?sid=100</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>◇사진=연합뉴스보수논객 변희재 미디어워치 대표 고문은 27일 국민의힘 이준석 대표가 최근 우크라이나 방문 당시 사용한 비용이 공개된 것과 관련해 "이제 윤석열은, 이준석을 못 죽이면 당이 공중분해 될 것"이라고 말했다.변 고문은 "벌써, 이준석 목에 힘이 들어가기 시작"이란 글과 관련 기사를 공유하며 이같이 밝혔다.이어 "반대로 이준석 죽이다가, 자신이 먼저 무덤가로 갈 수도 있는 상황"이라며 "경찰이 이준석 수사, 구속하면 누가 봐도 경찰을 장악해온 윤석열의 정치공작이라 보지 않겠나"라고 덧붙였다.변 고문은 다른 글에서 "이제, 이준석 죽이기가 딜레마에 빠졌다"라며 "죽이기엔, 윤석열이 팔 하나가 아니라, ​다리 하나는 더 잘릴 각오를 해야 하는 판이 되어버렸다"라고 주장했다.이 대표는 지난 26일 페이스북을 통해 "법인카드 '한도' 2000만원 기사로 장난치더니 이제는 우크라이나 방문 비용을 가지고 장난을 친다"며 "누군가 정치적으로 공격하려고 한다"고 비판했다.앞서 한 인터넷 언론은 국민의힘 특별대표단이 지난달 6박 7일 우크라이나 일정에 당비 1억 4천458만여 원을 사용했다고 보도했다.그는 "회계내용은 엄격하게 관리되는데, 언론사가 해킹이라도 한 것이 아니라면 지난 달 회계보고를 받은 최고위원이 이 내용을 언론사에 토스했을 수밖에 없다"며 "이런 공격을 시도하는 것 자체가 추잡하다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.07.22.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>통신시장 진출하는 토스…시름 깊어진 중소 알뜰폰업계</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002263277?sid=105</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>"거대 자본·높은 인지도 가진 토스와 공정경쟁 불가능"비바리퍼블리카(토스)가 알뜰폰사업자를 인수하며 통신시장 진출을 선언한 가운데 중소알뜰폰업계의 시름이 깊어지고 있다.토스는 지난 21일 알뜰폰사업자 '머천드코리아'의 지분 100%를 인수하는 주식매매계약을 체결했다고 밝혔다. 인수절차는 다음달 중으로 완료될 예정이다.인수 절차가 완료되면 토스 앱 내에 알뜰폰 판매채널을 만든다는 계획도 세웠다. 토스 앱을 통해 알뜰폰 요금제 검색과 개통 서비스도 개시한다는 계획이다. 알뜰폰 가입 과정에서는 토스인증서를 활용한다.금융권에선 KB국민은행에 이어 두 번째 진출로, 토스가 가져올 파장에 중소알뜰폰사업자들도 긴장하는 모양새다. 이들은 막대한 자본력과 높은 인지도를 지닌 토스의 진출이 시장 불균형을 심화시킬 것이라는 우려를 나타내고 있다.■ "마케팅·자본 모두 토스가 우위…공정경쟁 아니다"중소알뜰폰사업자들 사이에서는 토스의 시장 진출에 당황한 분위기가 감지된다. KB국민은행의 알뜰폰 'KB리브엠'의 성공으로 신한은행이나 하나은행 등 기성 은행권의 알뜰폰시장 진출은 각오하고 있었지만 토스와 같은 전자금융사업자의 진출은 예상하지 못했기 때문이다.알뜰폰업계에서는 토스의 진출이 도매대가 이하의 요금제 경쟁을 촉발할 것이라고 비판했다.알뜰폰업계 한 관계자는 "이미 중소알뜰폰들도 일정 기간 0원 요금제 등 도매대가 이하의 요금경쟁을 하며 간신히 버티고 있다"며 "메기라고 나타난 KB국민은행이 시장을 교란하고 있는 상황에서 새로운 경쟁자인 토스가 나타났는데 어떻게 대처하면 좋을지 모르겠다"고 말했다.금융대기업들은 기존 중소알뜰폰사업자들에 비해 마케팅 능력이나 자본이 있기 떄문에 공정한 경쟁이 불가능하다는 의견도 있다. 신민수 한양대 경영학과 교수는 "일반 알뜰폰사업자들이 당해낼 수 없을 것"이라고 평가했다.일선 판매점 연합체인 전국이동통신유통협회(KMDA) 측도 토스의 알뜰폰 진출이 통신시장을 잠식할 것이라며 표했다. KMDA 관계자는 "토스의 진출 이후 금융권 전체에서 통신시장 진입이 유행처럼 돼버리면 기존 통신매장들의 매출 감소 현상이 알뜰폰업계에서도 발생하게 될 것"이라고 말했다.이어 "결국 중소알뜰폰사업자들의 시장 경쟁 상대는 더 늘어날 것으로 보인다"며 "이는 네이버 광고에도 벌벌 떠는 중소알뜰폰사업자들의 퇴출로 이어질 것"이라고 전망했다.■ 2030 금융 앱 '토스', 젊은층 수요 독식할까2030에서 높은 인지도를 가진 토스가 해당 이용층의 알뜰폰 수요를 독식할 수 있다는 분석도 있다. 최근 2030세대에서 알뜰폰 가입자 비중이 늘어나고 있는데 업계에서는 2030 이용층이 많은 토스 앱 내에서 알뜰폰 서비스 제공 시 파급력이 클 것으로 보고 있다.업계 관계자는 "토스의 경우 2030 이용자들이 많기 때문에 토스 앱을 통한 판매채널 독점은 사실상 2030 알뜰폰 수요를 독식하겠다는 것"이라고 비판하며 "인지도·자본 면에서 중소사업자들과는 다른 선상에서 사업을 시작하는 만큼 공정한 경쟁 자체가 불가능하게 될 것"이라고 평가했다.토스는 앞서 알뜰폰 시장에 진출한 KB국민은행과 같이 통신과 금융을 연계한 요금상품을 대거 출시할 것으로 예상된다.KB국민은행은 금융혁신지원 특별법 시행 이후 지정된 1호 혁신금융서비스로 선정되면서 알뜰폰 시장에 진출했다. KB국민은행은 급여이체 실적이 존재하거나 청약 상품을 보유한 이용자들에게 KB리브엠 요금은 월 2천200원씩 할인해주고 있다. KB리브엠이 금융과 통신을 연계한 요금상품이 긍정적인 반응을 얻으면서 출시 2년여만에 30만 가입자를 확보했다.신민수 교수는 "금융기업들에게 알뜰폰은 주력 비즈니스모델이 아닌 일종의 연결 서비스에 불과하다"며 "기존에 KB국민은행이 제공하는 알뜰폰 서비스가 상당히 성공한 만큼 토스에서도 해당 비즈니스모델을 통해 사업 확장을 도모하려고 할 것"이라고 설명했다.김용희 숭실대 경영학부 교수는 "토스의 경우 현재 가입자당평균매출(ARPU)이 악화되고 있기 때문에 이를 개선하려는 방법 중 하나로 통신을 선택한 것으로 보인다"라며 "알뜰폰은 여러 부가서비스를 통해 일종의 락인 효과도 기대하는 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.07.20.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>헥토이노베이션, 더쎈카드 ‘카드 혜택률 진단받기’ 이벤트 연장</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002128982?sid=105</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 헥토이노베이션(옛 민앤지, 대표 이현철)이 더쎈카드 론칭 한 달 간의 고객 데이터 분석 결과를 공개하고 ‘카드 혜택률 진단받기’ 이벤트 기간을 추가 연장한다.헥토이노베이션이 6월 선보인 ‘더쎈카드’는 마이데이터 사업자 중 최초로 국내 모든 카드의 3만5000여 가지 혜택 정보를 기반으로 카드 실적을 자동계산 및 관리해주는 서비스다.론칭을 기념해 헥토이노베이션은 약 한 달여 간 고객들이 받은 포인트와 각종 할인 혜택들을 진단해 등급별 성적표와 지원금을 지급하는 프로모션을 진행했으며, 이 기간 약 1만5000여 명의 고객들이 참여했다.헥토이노베이션이 참여 고객의 연동 카드 상품들을 살펴본 결과 ▲1위 신한은행 The More 카드 ▲2위 카카오뱅크 프렌즈 체크카드 ▲3위 토스뱅크 카드 순으로 많이 연동되었으며, 혜택이 좋은 카드는 세대 구분 없이 전 연령대에서 동일하게 보유하고 있는 것으로 나타났다.또한 평균적으로 고객들이 돌려 받는 카드 혜택은 카드 사용 금액의 약 1% 수준이었으나, 사용처 별로 결제 카드를 달리하고 각종 프로모션을 적극적으로 활용하는 고객의 경우 최대 12%까지도 카드 혜택을 돌려 받고 있었다.헥토이노베이션은 고객 성원에 보답하기 위해 지원금 이벤트를 연장 결정했다. 이번 ‘앵콜! 카드 혜택률 진단받기’ 이벤트는 3개월 간 평균 카드 혜택금(포인트 적립, 할인 등 각종 카드 혜택을 원화로 환산)의 2배에 달하는 지원금(최대 3만원)을 증정하며 예산 소진 시까지 진행된다.이현철 헥토이노베이션 대표는 “더쎈카드 이용자가 자신의 카드 혜택을 점검하고 보유한 카드들을 보다 잘 활용할 수 있도록 이벤트 기간을 연장하게 되었다”며, “놓치고 있는 혜택은 없는지 더쎈카드를 통해 간편하게 확인하고 알뜰한 ‘짠테크’ 생활을 즐기시기 바란다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.07.19.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>광고보다 다큐… 스타트업이 직접 영상 찍는 이유는</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000828382?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>배민, 토스, 타다, 오늘의집까지 잇따라 다큐 제작 “위기·성장스토리로 ‘진정성’ 담아, 채용효과는 덤”        벽지를 가득 채운 곰팡이, 여기저기서 주워온 가전·집기들로 발 디딜 틈 없던 반지하에 살던 이 모씨. 수시로 들어오는 벌레를 피하기 위해 1년 내내 모기장 속에서 살면서 무기력하고 우울했다는 그는 “외형적이고, 밖에 나가야만 에너지를 얻는 사람이라고 생각했지만, 집이 바뀌고 나서는 집을 엄청 좋아한다는 걸 알게 됐다”며 환하게 웃었다.이 내용은 인테리어 플랫폼 ‘오늘의집’을 운영하는 버킷플레이스가 직접 제작해 자사 유튜브 채널 ‘오늘의집 인테리어’에 올린 에피소드다. 버킷플레이스가 ‘오늘의집의 재발견’이란 제목으로 올린 16분 분량의 영상은 ‘공간이 바뀌면 삶이 바뀐다’는 회사 철학이 실제 고객에게 고스란히 적용된 사례를 소개하고 있다.인테리어 플랫폼 '오늘의집'의 운영사 버킷플레이스가 직접 제작한 다큐 '오늘의집의 재발견'의 한 장면. /유튜브 오늘의집 인테리어 캡처        집도 없이 평생 컨테이너에서 생활하며 추운 겨울, 더운 여름을 보낸 독립유공자 후손 조 모씨에게 처음으로 집을 지어주고, 좁은 집에 여섯 가족이 다닥다닥 살던 아이들의 주거환경 개선을 지원해준 내용도 담겼다. 굿네이버스 관계자는 “핸드폰을 보며 침대에서 자는 게 로망이었던 아이들이 (오늘의집 지원을 통해) 자신감이 생기고 표정도 밝아졌다”고 했다.버킷플레이스처럼 기업가치를 1조원 이상으로 평가 받은 ‘유니콘’ 사이에서 최근 다큐멘터리 제작 바람이 불고 있다. 핀테크(금융+IT) 기업 토스(비바리퍼블리카)는 지난해 2월 ‘핀테크, 간편함을 넘어’라는 다큐멘터리를 유튜브 채널에 공개해 120만회가 넘는 조회수를 기록했다. 영상은 토스 출범부터 지금까지의 과정을 담아 내부 기업문화를 자연스럽게 보여줬다는 평가를 받았다. 토스는 최근 스타트업 서바이벌 프로그램 ‘파운드(FOUND)’, 챌린지 다큐멘터리 ‘돈트(DON’T)’ 등도 꾸준히 제작해 선보이고 있다.'타다: 대한민국 스타트업의 초상'의 한 장면. /영상 캡처        배달의민족은 2018년 ‘치킨인류’라는 다큐멘터리를 제작했고, 지난해 8월 옴니버스식 단편 영화 ‘맛있는 영화’를 제작해 공개했다. 스타트업이 직접 제작한 다큐멘터리는 아니지만, 지난해 10월엔 스타트업 ‘타다’를 조명한 ‘타다: 대한민국 스타트업의 초상’(권명국 감독)을 개봉해 화제가 되기도 했다.액셀러레이터(스타트업 투자·육성 업체) ‘퓨처플레이’도 지난해 5월 1년간 제작한 ‘퓨처플레이 더 다큐멘터리’를 공개했다. 액셀러레이터라는 업의 본질과 퓨쳐플레이만의 기업 발굴 철학 등을 담아내면서 52만회에 달하는 조회수를 기록했다.다큐멘터리 제작에 스타트업이 직·간접적으로 나서는 이유는 기업이 추구하는 가치나 성장 스토리를 사용자들에게 진정성 있게 전달할 수 있기 때문이다. 내부 구성원의 결속력을 다지는 동시에 우수한 인재를 유입하는데도 광고보다 효과가 있다는 게 이들의 설명이다.업계 관계자는 “스타트업은 각종 규제와 역경을 이겨내고 성장해 가는 경우가 많고, 무에서 유를 창조해 내거나 실패를 딛고 일어서는 창업자 이야기가 있어 매력적”이라며 “콘텐츠 제작 능력과 이를 이야기로 풀어내는 능력을 갖춘 스타트업이 스스로 콘텐츠를 제작해 가는 사례가 앞으로도 많아질 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.07.19.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>토스증권, 차기 대표이사에 오창훈 CTO 내정</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005120129?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>토스증권이 개발을 총괄하는 오창훈 최고기술책임자(CTO)를 차기 대표이사로 내정했다.19일 토스증권은 "박재민 현 대표의 뜻에 따라 이번 임기를 마지막으로 대표이사 계약을 종료하기로 했다"며 이같이 밝혔다. 박 대표는 오는 22일 임기 만료를 끝으로 자리를 내려놓는다.1981년생인 박 대표는 보스턴컨설팅그룹(BCG) 팀장과 쿠팡 마켓플레이스 사업부장을 거쳐 2017년부터 토스를 운영하는 비바리퍼블리카의 사업총괄 이사를 맡았다. 2019년부터는 토스증권의 대표로 자리를 옮겼다.새 대표로 내정된 오창훈 CTO는 네이버와 GS홈쇼핑 등을 거쳐 2017년 비바리퍼블리카에 합류했다. 그는 토스증권 초기 멤버로 증권 거래 서비스 개발 등을 이끌었다.차기 대표 선임은 오는 22일 이사회를 거쳐 결정될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.07.18.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>'MZ세대' 총학생회장들…왜 스타트업 창업에 뛰어들었나 [긱스]</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004725417?sid=105</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.앳된 얼굴에 어색한 정장 차림, 단정하게 빗은 머리. 밝은 미소로 "학우님"을 외치다가도 학교 깃발을 짊어지고 서서 강한 어조로 시위에 나서기도 합니다. 대학생들에게 멀고도 익숙한 존재인 총학생회장은 과거 '투사(鬪士)' 이미지의 상징체로 시대와 함께 해왔습니다. 주로 군사정권 시절 활약을 펼치던 이들은 어느덧 주요 정당의 중진 자리를 차지해 목소리를 내고 있습니다. "정치를 하려면 학생회를 해라"는 말도 있었죠.시간은 흐릅니다. MZ세대(밀레니얼+Z세대) 총학생회장들은 진로가 다변화한 상태입니다. 특히나 능동적인 움직임이 강조되는 스타트업 생태계는 이들이 역량을 발휘하기에 적합하다는 평가입니다. 학교를 떠난 지 아직 10년이 되지 않은 이들, 총학생회장 출신 MZ세대 스타트업 대표들은 "학생회와 스타트업 운영이 비슷하게 맞아떨어진다"고 입을 모읍니다. 최근 대학가에서 학생회 출신 창업가들이 많아지는 이유가 바로 여기에 있습니다. 소개팅 주선만 3000명…"공부보다 이성이 남는다"'Satisfy the desires of love(사랑의 욕망을 충족시킨다)'안재원 큐피스트 대표의 왼팔에는 문신이 있습니다. 회사 비전을 직접 새긴 것입니다. 오른팔에는 지금까지 론칭한 서비스들 이름을 넣었습니다. 밝은색으로 염색한 머리, 편한 차림은 편견처럼 굳어진 총학생회장 출신 인물들 모습과 다소 괴리가 있습니다. 하지만 특유의 '에너지'만큼은 다르지 않습니다. "학교 졸업하고 나면 공부가 남을까요, 만났던 여자친구나 남자친구가 기억에 남을까요?" 웃음을 머금고 되묻는 안 대표는 데이팅 앱으로 유명한 '글램' 운영사 큐피스트를 이끌고 있습니다. 글램은 그가 대학생 때부터 구상했던 창업 아이템입니다.안재원 큐피스트 대표안 대표는 건국대 제45대 총학생회장 출신입니다. 부산외고에서 미대 입시를 치렀을 만큼 '괴짜'로 분류됐던 그는 대학 생활 전반을 '낭만'을 좇는 데 썼습니다. 소속 단과대(예술문화대학)에서 3년간 커뮤니케이션디자인학과 대표를 하고, 총학생회가 되기 전까진 단과대 학생회장을 역임했습니다. 그는 "취업이 어렵고 대학생들이 전부 미래만 바라보고 살다 보니, 낭만에 대한 의지가 있어도 실천이 쉽지 않다"며 "과거를 돌아보면 결국 남는 것은 그 당시 만났던 이성과의 추억이고, 사람은 관계를 통해 배움을 얻게 된다"고 했습니다. 2013년부터 임기 1년을 보낸 그의 총학생회 선본 명은 '낭만 건대'였습니다. '캠퍼스커플(CC)'만 4번을 한 안 대표가 직접 지은 이름입니다.임기 마지막까지 소개팅을 해 준 이들은 3000명에 달한다고 했습니다. 학생회 내부에 담당자까지 배치하며 학생들 '소개팅 사업'에 골몰한 결과입니다. 총학생회 임기 중 가장 인상 깊은 이벤트는 '500대 500' 미팅 사업을 꼽았습니다. 축제 기간 100명 이상이 술을 마실 수 있는 장소를 빌려 회차를 나누고, 커플을 맺어준 것입니다. 기존에 없던 이색 사업에 학생들은 열광했습니다. 안 대표는 "우리 선본은 대학가에서 말하는 '비권(운동권이 아닌 선본)'이었다"며 "통상 총학생회의 성과는 뒤를 잇는 선본의 지지율로 파악할 수 있는데, 낭만 건대 다음을 이은 비권 선본이 90% 지지율을 획득해 자리를 넘겼다"고 했습니다.안재원 큐피스트 대표가 개최한 캠퍼스 단위 체육대회. 통상 단과대학 단위로 이뤄지는 체육대회를 통합했다. 만화 '피구왕 통키'에 등장하는 '불꽃슛' 기술을 패러디한 장면. 큐피스트 제공'커플 맺기'만 했던 것은 아닙니다. '건국학원 정상화를 위한 범 건국인 비상대책위원회'를 이끄는 등 정무적 활동에도 골몰했습니다. 당시 법인카드 유용 논란에 휘말린 김경희 전 건국대 이사장을 상대로 퇴진 운동을 벌인 것입니다. 보통은 단과대 규모에서 그치는 체육대회를 캠퍼스 단위로 확대하기도 하고, 학교 전체를 관통하는 중고거래 장터를 만드는 등 활동 반경을 넓히기도 했습니다. 건국대 온라인 커뮤니티인 'KUNG'도 낭만 건대의 작품입니다.안재원 큐피스트 대표와 총학생회 집행부. 선본명은 낭만건대로, '500대 500' 미팅 사업 등 이색 이벤트를 벌였다. 안 대표는 "다음 선거때 선본 지지율은 90%를 넘겼다"고 했다. 큐피스트 제공.안 대표는 일련의 활동들을 "가설과 실험 결과를 체득하는 과정"이라고 표현했습니다. 그는 "사업은 기본적으로 가설을 세우고, 내 예상이 맞아떨어지는지 실험을 통해 확인하는 일"이라며 "총학생회에서 불특정 다수에게 호응을 끌어낼 수 있는 기획력과 '감'을 얻었다"고 했습니다. 인적 자산도 사업 기반이 됐습니다. 글램을 처음 론칭시킬 때 안 대표는 학생회 활동을 하며 알게 된 선후배 500명에게 직접 연락을 돌려 가입을 유도했습니다. 그는 "예쁘고 잘생긴 후배들이 있다면 빠짐없이 직접 전화를 돌렸다"며 "마케팅에 의존하는 것보다, 자체적인 영업력을 갖추는 것이 중요했다"고 했습니다. 현재 큐피스트는 매출액 100억원, 누적 투자금액 40억원을 넘기며 시장에 자리 잡은 상태입니다.안 대표 주변에는 총학생회 출신 스타트업 인사들이 많습니다. 독서 모임에서 만난 고려대 총학생회 출신의 황순영 팀스파르타 공동창업자, 전국대학총학생회연합에서 연을 맺은 한양대 총학생회장 출신 장지호 닥터나우 이사 등입니다. 그런데도 안 대표는 "아직은 적은 수준"이라 평가합니다. "실제 창업과 괴리가 크지만, 학생회에는 특유의 에너지가 있는 사람이 많다"며 "초심을 잃지 않고 사업에 도전하면 많은 성과를 낼 수 있을 것"이라고 강조했습니다. 세상 바꾸는 것은 이제 '정치보다 기업'"임기 끝날 때 양 당에서 입당 제의가 왔어요. 노무현 전 대통령 추모제 사건이 어느 정도 정리되어 갈 무렵이었어요. 정치의 힘을 무시하는 것은 아니에요. 하지만 세상을 바꾸는 것은 이제 기업가가 하는 일 아닐까요?"대학 진학을 앞둔 19세 무렵, 박준홍 핸드허그 대표에게 위인은 세종대왕이나 링컨 전 대통령이 아니었습니다. "이병철, 정주영 명예회장이 떠오릅니다. 특히 글로벌 시장에 도전하는 정신이 멋있어서 대우그룹의 김우중 회장 관련 도서를 좋아했습니다. 제 돈 주고 사서 봤어요." 연세대 경영학과 05학번, 46대 총학생회장 출신인 그는 지금도 정치를 하지 않은 것을 후회하지 않습니다. "기업가들이 경제 기틀을 닦은 역사는 기적 같은 일"이란 것이 박 대표 얘기입니다.박준홍 핸드허그 대표. 핸드허그 제공.기업의 기틀이 법과 경영학에 있다고 생각해 재수를 택했습니다. 대학 문을 두드린 것이 21살, 2005년도입니다. 그는 1학년 때부터 24시간을 분 단위로 쪼개 살았습니다. 홀로서기가 1차 목표였습니다. 꾸준히 성적 우수 장학금을 받으면서도, 일주일에 5번을 과외와 서빙 아르바이트로 보냈습니다. 이 와중에 응원단과 비슷한 조직인 '기수단'과 밴드 보컬 활동도 병행했습니다. "암투병하시던 아버지를 고등학교 때 떠나보내고, 형과 어머니에게 어른스러운 모습을 보이고 싶은 마음이 컸다"는 것이 그의 회고입니다.총학생회 활동은 우연히 시작하게 됐습니다. 3학년 때 기수단에서 알고 지낸 선배의 권유로 총학생회의 안살림을 맡는 집행위원장직을 맡았습니다. 그는 총학생회 활동을 기업 운영과 비슷하게 정의했습니다. "강력한 조직력과 실행력"을 강조한 박 대표는 학생회 집행부 인력만 80명을 모았습니다. 학내 셔틀버스 도입, 공원 조성, 중앙도서관 카페 도입 등 사업을 펼칠 때마다 지지율은 올랐습니다. 연세대의 대표 커뮤니티인 '새연넷'도 그가 현재 토스 개발자로 재직 중인 친형과 학생회 시절 만든 것입니다.이듬해인 2009년 출마한 학생회장 선거에서 그의 득표율은 75% 상당을 기록했습니다. 박 대표는 "역대 경선으로 이뤄진 총학생회 선거 중 가장 높은 득표율이었다"고 했습니다. 임기 1년간 펼친 사업을 마무리하며 "언젠가 내 사업을 하겠다"는 진로를 굳혔습니다. "결국 좋은 사람을 데려와 잔류시키고, 여러 이해당사자 사이에서 중재자 역할을 해야 하는 것이 기업의 시스템과 같았다"는 것이 그의 깨달음이었습니다. 대외 활동에도 적극이었습니다. 서거한 노무현 전 대통령 추모 콘서트를 열려다 학교 측 반대에 휘말린 '연대 산성' 사태는 그의 이름을 정치권에 알리는 계기가 되기도 했습니다.고려대와 연세대의 스포츠 정기 교류전 '연고전'에 입장하고 있는 박준홍 핸드허그 대표. 당시 총학생회장으로서 스포츠 행사를 포함해 다양한 외부 활동을 소화했다. 핸드허그 제공2009년 박준홍 핸드허그 대표가 기획했던 노무현 전 대통령 추모 콘서트 '다시 바람이 분다'는 세간의 집중적 관심을 받았다. 당시 연세대 측이 행사 설비 반입을 막으려 학생회와 갈등을 벌이던 장면. 해당 행사는 대학에 이른바 '차벽'이 설치되며 '연대산성'이란 표현까지 나왔다. 당시 행사는 최종적으로 성공회대에서 열렸다. 연세대 제46대 총학생회 제공.그는 임기를 마치고 2013년 삼성전자에 입사했습니다. 창업 이전 기업의 시스템을 배우려 했습니다. 동기 200여 명이 모인 신입사원 연수에서 성적 평가 1위를 따내고, 반도체 전략을 세우는 기획팀에 배정됐습니다. 박 대표는 "글로벌 경쟁사 실적이 나오면 새벽같이 실적 발표회를 듣고, 하루 만에 대응 보고서를 올리는 선배들 모습에 감탄했다"고 했습니다."내 사업을 위해" 2015년 퇴사하고 설립한 핸드허그는 지난 5월 100억원 규모의 시리즈A 투자 유치를 받을 정도로 커졌습니다. 핸드허그가 운영 중인 서비스 '젤리크루'는 크리에이터 커머스 플랫폼입니다. 캐릭터 작가나 일러스트레이터들이 굿즈 등으로 수입을 낼 수 있도록 돕고 있습니다. 박 대표는 "하이브도 처음엔 연예 기획사로 시작했지만, 상품 판매와 콘텐츠가 붙으며 플랫폼 기업이 됐다"며 "우수 인재들과 함께 올해 매출액 200억원을 목표로 커머스 인프라를 강화해갈 것"이라고 전했습니다. "스타트업도 생태계 없으면 쓰러진다"전창열 밍글링 대표는 두 가지 명함을 가지고 있습니다. 에듀테크 스타트업의 창업자이면서, 3년 미만 초기 창업자들의 연합 단체 '청년창업네트워크 프리즘'을 이끄는 대표이기도 합니다. 제51대 서울대 총학생회장 출신인 전 대표는 "거창한 사회 정의보다는, 내가 속한 공동체가 더 좋은 곳이 되길 바란다"며 "창업도, 연합 단체 활동도 내 주변 사람들이 행복했으면 해서 하는 활동들"이라고 강조했습니다.전창열 밍글링 대표전 대표는 총학생회장 출마 이전부터 교내에 알려진 인물이었습니다. 그는 "이름은 몰라도, 했던 사업들을 학생들이 기억했다"고 했습니다. 행정 서비스 질을 감시하려고 출범한 학교 행정실 모니터링 위원회, 교내 학생처와 연계해 만든 서울대 공식 봉사단 '프로네시스 나눔 실천단' 등은 모두 그가 직접 만든 단체들입니다. 서울대 생활협동조합 학생위원회에서도 장기간 활동했습니다. 2008년도 총학생회장에 출마한 것은 자연스러운 흐름이었습니다. 당시 전 대표가 만든 '실천 가능' 선본에는 100여 명의 학생이 모였습니다. 그는 운동권 4팀, 비권 1팀을 제치고 당선됐습니다.미 쇠고기 수입반대 시위가 한창이던 2008년 6월, 서울대학교 학생회관에서 열린 기자회견에서 당시 총학생회장이던 전창열 밍글링 대표(사진 오른쪽)이 '미국산 쇠고기 수입 재협상 및 장관고시 철회를 요구하는 동맹휴업'이 성사됐음을 발표하고 있다. 사진=연합뉴스임기 1년간 78개 공약을 모두 처리했다고 했습니다. 대부분이 학생 복지와 수업권에 관련된 내용이었습니다. 그는 "서울대의 재학생과 교직원, 교수 등을 포함하면 5만 명이고 이는 웬만한 군 단위에 육박한다"며 "공부보다 수많은 사람들과 얽히고설키는 것이 더 의미 있었다"고 했습니다. 이명박 정부 시절 미국 쇠고기 재협상을 위해 시위에 나선 이유도 "총투표 결과 학생들이 원했기 때문"이라고 했습니다. 학창 시절 활동을 위해 그는 한 학기에 2학점, 3학점만 수업을 듣는 경우가 많았습니다. 그는 "학교만 10년을 다녔다"며 "다시 돌아가도 똑같이 행동할 것"이라고 했습니다.스타트업 생태계를 만난 것은 임기 이후입니다. 1년간의 활동을 마치고, 그는 대외 활동에 골몰했습니다. 현재 서울시 비영리단체가 된 서울대 '드림 컨설턴트' 등을 설립하고, 미국으로 어학연수도 다녀왔습니다. 전 대표는 특히 2012년 미국 샌프란시스코에서의 경험이 현재 창업의 토대가 됐다고 말했습니다. 그는 "현지에서 어학 연수생 최초로 실리콘밸리 한인 단체인 'K그룹'에 가입할 수 있었다"며 "게임빌 창업 멤버인 조성문 차트메트릭 대표, 엔컴퓨팅 창업자인 송영길 대표 등을 만나 꿈을 키웠다"고 했습니다.전창열 밍글링 대표가 청년창업네트워크 프리즘 대표 직함으로 참여한 스타벅스커피 코리아 '자상한 기업 협약식'. 청년 창업을 지원하고자 기업들을 매칭시켜 주는 프로그램이었다. 전 대표가 박영선 당시 중소벤처기업부 장관(오른쪽 두 번째)와 함께 기념 촬영을 하고 있다. /허문찬 기자그에게 스타트업은 공동체를 바꿔낼 또 다른 도구였습니다. 귀국 후 컨설팅사 네모파트너즈SCG를 거쳐 2016년 창업에 뛰어들었습니다. 그가 이끄는 밍글링은 영유아와 초등학생을 대상으로 언어 교육과 문화 체험을 제공하는 서비스를 운영합니다. 교육 시장의 정보 비대칭성을 파고든 아이템입니다. 연내 80억원 규모 시리즈A 투자 유치를 예정하고 있습니다. 또 하나 집중하는 활동은 청년창업네트워크 프리즘입니다. 2016년 초기 창업자 신분이었던 그가 직접 5000명의 동료 창업가들을 모아 만든 단체입니다. 창업 3년 미만, 40세 이하 창업가를 지원하는 목적입니다.현재 인원은 2만 명까지 불어나 국내 최대 청년 창업가 단체가 됐습니다. 사실상 수익이 없음에도, 대학 생활을 통해 경험한 "사람이 주는 기쁨"에 이어가는 활동입니다. 전 대표는 "갖춰진 사람만 정부 지원을 받는 구조를 타파하고 싶었다"며 "아래로부터 시작되는, 생태계의 실질적 변화를 이끌고 싶다"고 전했습니다. 참 한 가지 더'내가 제일 잘나가'…대학가 대표하는 '8090' 학번들출처=한경비즈니스국내 정보기술(IT) 업계 '창업 1세대'에는 1980년대 후반부터 1990년대 초반 학번들이 다수 포진하고 있습니다. 이른바 '벤처붐' 시대에 재직하던 기업을 박차고 나와 일가를 이룬 인물들입니다. 컴퓨터가 보급되던 시기와 맞물려, 주로 게임과 인터넷 업계에서 조단위 기업을 일궈냈습니다.서울대 86학번들이 가장 이목을 끕니다. 고 김정주 넥슨 창업자, 송재경 엑스엘게임즈 대표, 이해진 네이버 창업자 등은 모두 서울대 컴퓨터공학과 동기동창입니다. 이들은 KAIST 대학원에서도 전산학 석사과정을 밟으며 인연을 이어가기도 했습니다. 김상범 전 넥슨 최고창조책임자(CCO)도 이 시기 함께 연을 맺게 됩니다.김범수 카카오 창업자는 서울대 산업공학과 86학번, 김택진 엔씨소프트 대표는 전자공학과 85학번 출신입니다. 컴퓨터공학과는 아니지만, 같은 세대로 분류됩니다. 이재웅 다음커뮤니케이션 창업자는 연세대 전산학과 86학번입니다. 이해진 네이버 창업자와는 어린 시절 같은 동네에 살던 친구 사이입니다. 지난 2017년 공정거래위원회가 이 전 의장을 총수로 지정한 것에 대해 소셜네트워크서비스(SNS)에서 비판 의견을 게재하기도 했습니다.1990년대 초반 학번에도 창업 흐름은 이어졌습니다. 특히 게임업계에서 강세를 보이는 세대입니다. 서울대 전자공학과 94학번 송병준 게임빌 창업자, 고려대 컴퓨터학과 93학번 박지영 컴투스 창업자는 모바일 게임 시장에서 성공을 거뒀습니다. 서강대 전자공학과 92학번 출신 권혁빈 스마일게이트그룹 창업자는 게임산업 최초로 '보관문화훈장'을 수훈하기도 했습니다. 장병규 크래프톤 의장은 KAIST 전산학부 91학번입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.07.22.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>“해킹 피해 줄이는 버그바운티 제도… 보안 강화 위해 적극 도입을”</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003441501?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>전문가 토론회 자체점검보다 예방 효과 뛰어나제도적 인센티브, 처벌 감면 등활성화 위한 지원 뒷받침돼야15일 서울 서초구 더케이호텔서울에서 열린 ‘WACON 2022’ 보안성 강화 토론회에 참석한 임채운 서강대 교수, 신대규  한국인터넷진흥원 사이버침해대응본부장, 박세준 티오리 대표, 김건우 안랩 시큐리티대응센터장, 전승재 토스뱅크 법률팀 변호사, 김승현  해치랩스 정보보안담당, 김지환 KAIST 대학원생, 정준영 안양대 학생(왼쪽부터). WACON 운영사무국 제공모의 해킹대회 ‘WACON 2022’와 함께 ‘보안성 강화! 버그바운티 제도에서 해법을 찾다’라는 주제로 토론회가 열렸다. 이 토론회를 통해 버그바운티(bugbounty·보안 취약점 신고 포상제) 도입의 필요성과 문제점 및 해결 방안에 대해 분야별 전문가들과 함께 논의해 봤다. 발제를 맡은 신대규 한국인터넷진흥원(KISA) 사이버침해대응본부장은 보안 취약점을 악용한 해킹으로 막대한 재산적 손실이 발생한 사례를 들며 피해를 최소화하기 위한 방안으로 버그바운티 도입을 적극 권장했다. 또 자체 점검과 버그바운티 시행 상황을 비교하며 “버그바운티 프로그램 운영 시 7배 이상의 효과가 있는 만큼 제도 도입을 통한 보안성 강화에 힘써 줄 것”을 당부했다.  패널토론에 참여한 박세준 티오리한국 대표는 “해외 버그바운티 현황과 비교해 차이를 극복하고 국내 버그바운티를 활성화하기 위해서는 제도적 지원, 문화적 변화, 그리고 경제적 투자가 적극 이루어져야 한다”고 말했다. 박 대표는 미국 카네기멜런대 컴퓨터과학 학·석사를 졸업한 최고의 정보보안전문가이다.  두 번째 패널토론자인 전승재 토스뱅크 법률팀 변호사는 “기업의 버그바운티 활용을 독려하려면 제도적 인센티브가 주어져야 하며, 버그바운티를 평소 충실하게 운영하는 상태에서 해킹 사고가 발생했다면 처벌을 감면해 주는 등의 인센티브를 시행해야 한다”고 강조했다.  김건우 안랩 시큐리티대응센터장은 현재 KISA와 공동운영 중인 버그바운티 현황과 취약점을 악용하는 악성코드에 대응한 사례와 버그바운티의 긍정적인 기대효과를 발표했다.  대한민국 최고의 화이트해커인 김승현 해치랩스 정보보안담당은 버그바운티에 직접 참여하고 있는 입장에서 한국의 버그바운티 플랫폼과 해외 버그바운티 플랫폼의 장단점을 비교 분석해 한국의 버그바운티 활성화를 위한 최상의 방안을 제시했다.  KAIST 대학원생인 김지환 씨는 “해외 사례들처럼 한국에서도 해커들이 버그바운티를 하나의 문화로 즐기는 시대가 올 때 기업의 보안성은 강화된다”고 강조했다.  마지막으로 안양대 재학생 정준영 씨는 국내의 버그바운티 플랫폼에 대한 자세한 설명과 함께 보안성 강화를 위해서는 무엇보다 중소·개인 기업의 보안성 향상이 먼저 실행되어야 한다고 주장했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.07.26.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>"회사별 공시=원가공개"... 빅테크 수수료율 공시체계 '평행선'</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004775147?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>금감원 사옥네이버파이낸셜, 카카오페이 등 전자금융업자의 간편결제 수수료율 공시체계 마련을 두고 금융당국과 업계의 입장이 평행선을 달리고 있다. 금융당국은 각 사별 공시를 원칙으로 삼은 반면, 전금업계에서는 개별 회사의 결제수수료율 공시는 영업기밀 공개와 다름없다는 주장을 굽히지 않는다.  25일 금융업계에 따르면 금감원은 지난달 전금업자 수수료율 공시를 위한 태스크포스(TF) 2차 회의에서 산정체계 예시안을 업계에 전달하고 의견을 수렴 중이다. 예시안은 수수료율을 크게 결제수수료율과 비결제수수료율로 나누고 수수료율별 세부항목까지 담긴 것으로 알려졌다.앞서 금감원은 지난 5월 전금업자의 수수료율 공시체계 마련을 논의하는 TF 첫 회의를 개최했다. 수수료율 산정체계의 투명성을 높여 소상공인의 부담을 줄이겠다는 목적이다. 전금업자 수수료율 공시는 '윤석열 정부 110대 국정과제'에도 포함돼 있다.금감원은 수수료율 공시 대상 전금업자를 크게 3개 업권으로 나눠 의견을 청취하고 있다. 간편결제사(네이버파이낸셜, 카카오페이, 토스 등), 전업 전자지급결제대행(PG)사(KG이니시스, 제이티넷 등), 이커머스(11번가, 우아한형제들 등) 등이다. 공시 대상 업체에 일률적인 잣대를 적용하기 어렵다고 판단했기 때문이다. 전금업자는 핀테크부터 전업결제대행, 숙박, 유통 등 업종에 따라 업무가 다양하다. 업무가 제각각인 만큼 각사들이 수수료율을 산정하는 항목과 근거도 모두 다를 수밖에 없다. 전금업자들은 공통적으로 결제수수료율 세부 구성항목을 공개하기는 어렵다는 의견을 금감원에 제출한 것으로 알려졌다. 특히 전업 PG사의 경우 결제수수료율이 영업기밀과 관련이 있다고 주장한다. 예컨대 고객이 인터넷으로 카드결제를 할 때 같은 카드사라고 하더라도 PG사별로 책정된 수수료율이 각기 다르다. PG사들은 이 수치가 곧 영업기밀이고, 공개되면 업권에 큰 혼란이 생긴다고 본다. 이런 논리로 3개 업권별 평균 수수료율을 산출해 공시하자는 의견을 낸 것으로 파악된다. 반면, 금감원은 각사 공시를 원칙으로 수수료율 공시체계 마련에 착수 중이다. 업권별 평균 수수료율을 공시하면 각사 공시의 의미가 사라진다. 업체별 비교가 불가능해진다는 뜻으로 애초에 전금업자의 수수료율 산정체계를 만드는 취지와 배치된다는 게 금감원의 판단이다. 금감원 관계자는 "전금업자별 특성을 고려해 3개 업권으로 나눠 의견을 청취 중"이라며 "기본적으로는 각사별 공시를 원칙으로 공시체계 마련에 나섰지만, 아직 정해진 건 없다"고 설명했다. 금감원은 연말까지는 전금업자 수수료율 공시체계를 완성할 계획이다. 다만, 수수료율 공개 항목 범위 외에도 공시 업체 대상 선정 등 논의해야 할 사안들이 여럿 남아있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.07.28.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>모바일 운전면허증으로 은행 계좌 개설 가능해져</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003162998?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>은행 영업점 창구 이용 시 모바일운전면허증 이용절차. 금융위원회 제공28일부터 모바일 운전면허증으로 시중은행과 인터넷전문은행의 금융거래가 가능해졌다.금융위원회는 이날 13개 시중은행(국민, 신한, 우리, 하나, 농협, 수협, 기업, 경남, 광주, 대구, 부산, 전북, 제주)의 영업점 창구와 4개 은행(신한, 우리, 농협, 카카오)의 스마트폰앱에서 모바일 운전면허증을 이용해 계좌개설 등 금융거래를 할 수 있다고 밝혔다.은행 직원이 이용자에게 QR코드를 제시하면 이용자는 스마트폰의 모바일신분증앱을 실행해 QR코드를 스캔하면 된다. 정보제공 동의와 본인확인 절차를 마치면 이용자의 신원정보가 은행에 전송되고 행정안전부의 모바일신분증 시스템을 이용한 신분증 검증 절차가 진행된다.비대면으로 금융거래를 할 때는 은행앱에서 모바일신분증앱이 자동으로 연계 호출된다.모바일 운전면허증은 올 1월부터 행정안전부와 경찰청이 시범 도입했다. 운전면허시험장이나 경찰서 민원실을 방문하면 본인 확인 후 발급받을 수 있다. 금융당국, 은행권, 유관기관 등은 모바일 운전면허증이 은행 거래에서도 사용되도록 업무 절차와 시스템을 정비해왔다.올 하반기에는 sc제일은행과 산업은행 금융거래가 모바일 운전면허증으로 가능해질 예정이다. 국민, 하나, SC제일, 수협은행, 산업, 기업, 경남, 광주, 대구, 부산, 전북, 제주, 케이뱅크, 토스뱅크는 모바일 운전면허증을 이용한 비대면거래가 가능해진다.금융위와 금융감독원은 은행 외 다른 금융사로 모바일 운전면허증 이용 가능 기관을 확대할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.07.20.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>토스, 신규 투자 3천억원 확보…기업가치 8.5조로 평가받아</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000686847?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>리드 투자자 1천억원 투자한 알토스벤처스…내달 추가 투자 유치토스 운영사 비바리퍼블리카(이하 토스)가 3천억원 규모의 투자를 유치했다고 20일 밝혔다.토스 로고. [사진=토스]투자는 이달과 내달 두 차례로 나눠 진행될 예정이다. 토스 측은 국내외 기관투자자들의 수요가 많아 2회에 나눠 진행하게 됐으며, 현재 투자 논의 중인 기관의 참여 여부가 최종 확정되면 내달 중 클로징할 예정이라고 설명했다.이번 투자의 리드 투자자는 토스의 초기 성장부터 함께한 알토스벤처스로 1천억원을 신규 투자했다. 굿워터와 그레이하운드 등 해외 주주들의 투자도 이어졌다.국내 기관투자자 중에는 KDB산업은행이 1천억원, 광주은행이 200억원의 대규모 투자를 단행했다. 토스의 초기 투자자인 다올인베스트먼트(구 KTB네트워크)와 미래에셋증권도 소규모로 투자에 참여했다.토스는 이번 투자에서 기업가치 8조5천억원으로 평가받았다. 지난해 6월 마지막 투자에서 평가받은 8조2천억원을 소폭 상회하는 규모다.토스 관계자는 "전 세계적으로 투자심리가 극도로 위축된 상황에서 타 핀테크 기업들이 기업가치를 낮춰 투자 받고 있는 점을 고려하면 이번 투자는 매우 이례적"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.07.27.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>이준석 "추잡하고 환멸감 들어…법카 한도 2000으로 장난치더니…"</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/002/0002252908?sid=100</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>윤석열-권성동 메시지 공개 전 '윤핵관' 저격 글 올렸던 이준석 대표윤석열 대통령이 국민의힘 대표권한 대행 권성동 원내대표에게 보낸 '이준석 대표 비판' 텔레그램 메시지가 공개된 후 당사자인 이 대표는 언급을 자제하고 있다.  윤 대통령이 권 원내대표에게 보낸, 이준석 대표를 겨냥한 것으로 보이는 "내부 총질이나 하던 당대표가 바뀌니 달라졌습니다" 메시지가 공개되고 50분가량 지난 후 이 대표는 자신의 SNS에 현재 방문중인 울릉도의 현안에 대한 글을 올렸다.  이 대표는 "울릉도에 온 뒤로 많은 분들이 울릉도에 필요한 것들을 가르쳐주신다. 지금까지 어업전진기지로서의 역할을 충실이 하던 저동항과 여객항의 역할을 하던 도동항에 더해 2만 톤급 선박이 접안가능한 사동항이 잘 자리잡는게 중요할 것 같다"고 했다.  이 대표는 또 울릉공항 확장, 울릉도 용출수 먹는 샘물화 등을 언급했다. 이 대표는 "최근에야 울릉도 순환도로가 완공된 것 처럼 지금까지 도서 지역에 대한 투자는 항상 더디게 진행되었고 그래서 해야할 일이 많다"고 했다.  이 대표는 앞선 글에서 '이 대표의 우크라이나 방문 비용 1억4000만 원'이라는 내용의 언론 보도를 언급하며 "법인카드 한도 2000만원 기사로 장난치더니 이제는 우크라이나 방문비용 가지고 누군가가 장난을 친다"며 "우크라이나에서 상대 정당이 초청해서 가는데 당비를 쓰는 것은 당연하고 일정은 초청일정에 맞춰 가는 것인데 정말 이런 자료나 유출시켜서 정치적으로 공격하려고 하는 모습을 보면 환멸감이 든다"고 말했다.  이 대표는 "회계내용은 엄격하게 관리되는데 이 언론사가 해킹이라도 한 것이 아니라면 지난 달에 회계보고를 받은 최고위원이 이 내용을 언론사에 토스했을 수 밖에 없는데 이런 공격을 시도하는 것 자체가 추잡하다"며 "저는 대표 되고나서 당에서 제공한다는 카니발과 운전기사도 거부하고 대중교통이나 자차 이용해서 다닙니다. 이런 걸로 공격해봐야 남는거 없다"고 했다.  이른바 '윤핵관'을 겨냥한 것으로 보이는 이 글은 윤 대통령과 권 원내대표의 메시지가 언론을 통해 공개되기 전 포스팅됐다.  ▲이준석 대표 페이스북 갈무리</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.07.19.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>협업툴의 무한 진화…영상회의는 물론, 공유문서에 피드백도</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004993143?sid=105</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>기존엔 주로 메신저 역할했지만코로나시대 기록하는 기능 확대디자인·도면·영상 콘텐츠 등클라우드에 올려 함께 공유하고요청 사항은 문서상에 남기기도카파커넥트·트로우·윕샷 대표적대통령직인수위원회 인수위원으로 활약했던 고산 대표가 창업한 에이팀벤처스가 최근 출시한 협업 툴 `카파 커넥트`. 도면 분야에서 최초로 협업툴이 나왔다. [사진 제공 = 에이팀벤처스] 지난 2년간 코로나19를 계기로 많은 직장이 메신저와 파일 공유 기능을 함께 탑재한 '협업툴'을 도입했다. 협업툴이 카카오톡 등 기존 메신저에 비해 강점을 가지는 이유는 뭘까. 비대면 상황에서 어떤 일을 어떻게 해야 하는지에 관한 기록을 '직관적'으로 디자인된 '디지털 공간'에 남길 수 있기 때문이다. 또 인수인계 없이 과거 히스토리를 검색해 스스로 업무를 익힐 수 있으며, 이를 통해 비대면 상황임에도 업무 효율성을 높일 수 있다. 덕분에 국내외 30만개사가 협업툴 '잔디'를 도입했고, 네카라쿠배당토(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)로 대변되는 신흥 정보기술(IT) 강자가 모두 '슬랙'을 사용하고 있다.주목할 점은 협업툴의 협업 범위가 기존에 사무 업무에서 디자인·도면·영상회의 등으로 무한 확장하고 있다는 점이다. 대표적인 분야가 디자인이다. 디자인 편집 솔루션을 제공하는 협업툴 피그마는 여러 이미지 파일을 동시에 올리며 작업이 가능하고, 작업본을 타 디자이너와 쉽게 공유할 수 있어 디자이너 사이에서 입소문을 타고 번졌다. 이 과정에서 피그마의 기업가치는 지난해 100억달러까지 치솟았다. 캔바 역시 다양한 디자인을 손쉽게 작업할 수 있도록 도와주는 그래픽 분야 협업 툴이다. 비전공자도 쉽게 디자인할 수 있게끔 문턱을 낮췄다.디자인뿐만 아니라 전문 영역인 '도면'에서도 협업툴이 탄생했다. 대통령직인수위원회 인수위원으로 활약했던 고산 대표가 창업한 에이팀벤처스가 최근 출시한 협업 툴 '카파 커넥트(CAPA Connect)'가 그 주인공이다. 그동안 제조업계에서는 이메일이나 사진을 통해 도면을 공유해왔다. 공유 과정에서 도면이 잘못 전달되거나 혹은 어떻게 도면을 바꿨는지에 대한 이력이 남지 않아 현장에서 혼선이 자주 발생했다.카파 커넥트는 도면을 클라우드 서버에 보관했다가 필요시 원하는 사람들과 쉽게 주고받을 수 있고, 채팅을 통해 함께 얘기를 나누다가 중요한 요청사항은 도면상에 직접 남길 수 있다. 도면 '보안'에도 각별히 신경을 썼다. 공유한 도면은 열람은 가능하지만 기본적으로 다운로드는 금지돼 있다. 도면 파일을 소유(공유)한 사람이 도면에 대한 다운로드 권한을 관리할 수 있어, 자신이 원하는 사람에게만 다운로드를 허용할 수 있다. 고산 에이팀벤처스 대표는 "도면 뷰어 기능, 도면 공유 기능, 주석 달기 기능, 도면 보안 등 각종 기능을 카파 커넥트에 담았다"며 "이를 통해 제조업의 디지털 혁신을 촉진시킬 수 있을 것"이라고 설명했다. 에이팀벤처스는 제품의 제작을 원하는 고객이 온라인에서 도면과 함께 제작을 의뢰하면, 제조업체들이 고객에게 견적을 제시하고, 고객은 이 중 원하는 제조업체를 선택해 거래를 확정 짓는 제조업체 매칭 플랫폼이다. 우주인 출신으로 유명한 고산 대표는 에이팀벤처스를 창업해 제조업체 혁신을 이룬 공로로 인수위에 발탁됐고, 스마트 산업단지 조성 등 윤석열정부의 산업정책 밑그림을 그리는 역할을 했다.영상·콘텐츠 분야로도 협업툴 범위가 확장되고 있다. 스타트업 '드랍더비트'는 슬라이드 녹화 방식의 문서형 비디오 커뮤니케이션 플랫폼 '트로우'를 서비스하고 있다. 2020년 3월에 출범해 1년 반 동안 개발을 거친 후 트로우를 출시했다. 트로우는 업무 자료를 공유하며 회의를 하면 자동으로 회의 저장 및 자막이 생성되는 서비스로, 인코딩 과정 없이 실시간으로 저장되는 회의를 통해 업무 관계자들과 편리한 커뮤니케이션이 가능하다. 트로우는 영상회의의 전달력과 이메일의 기록성을 모두 가지고 있으며, 이를 통해 더 효율적이고 전달력 있는 커뮤니케이션을 할 수 있다. 드랍더비트는 트로우 서비스를 위한 실시간 렌더링, 데이터 저감 기술 등을 확보했으며 향후 제품 고도화 단계를 거쳐 미국 시장에 서비스를 출시하는 것을 목표로 하고 있다.스타트업 '브라이튼코퍼레이션'이 개발한 비주얼 콘텐츠 제작 관리를 도와주는'윕샷'도 대표적인 협업툴 중 하나다. 이미지 등 비주얼 콘텐츠 제작 관리를 쉽고 빠르게 도와주는 업무용 툴로 동영상 또는 이미지 콘텐츠에 직접 피드백을 표시할 수 있다. 콘텐츠 수정 및 개선 작업에 필요한 업무를 간편하게 해주는 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.07.24.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>신한금융, 플랫폼 합산 MAU 2000만명 육박</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004079655?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>금융지주 디지털전환 지표 공개하나·우리, 비대면 상품 판매 ↑인터넷銀 공세 속 출구전략 모색[서울경제] 국내 4대 은행계 금융지주사가 상반기 잠정 실적을 발표하며 디지털 전환 지표를 공개했다. 특히 신한금융그룹은 플랫폼 합산 월활성이용자수(MAU)가 2000만 명에 육박하며 디지털 전환에 가속도를 붙이고 있다.24일 금융지주 실적 발표 자료에 따르면 신한금융은 올해 상반기 기준 그룹 합산 MAU가 1983만 명으로 전년 동기 대비 481만 명 증가했다. 신한금융은 뱅킹 애플리케이션 쏠(SOL)과 결제 앱 플레이(pLay)가 각각 833만 명과 709만 명으로 메가플랫폼으로서 입지를 다지는 가운데 라이프 통합 앱인 ‘신한스퀘어’ 론칭 등에 힘입어 생활 플랫폼 이용 고객 규모는 271만 명으로 수직 상승하고 있다고 설명했다. 현재 추세대로라면 연내 2000만 명을 돌파할 것으로 예상된다.하나금융지주와 우리금융지주는 뱅킹 앱 누적 가입자 수를 제시했다. 올 상반기 기준 누적 가입자 수는 하나은행의 하나원큐가 1335만 8000명, 우리은행의 우리원(WON)뱅킹이 1954만 6000명으로 집계됐다. 비대면 여수신 상품 유치 실적도 내놓았다. 하나금융은 올 상반기 취급한 신용대출 7만 978건 중 90.16%인 6만 3995건을 비대면으로 판매했다. 우리은행은 올 상반기 신규 신용대출 중 비대면 가입 비중이 69.2%에 달했다.다만 리딩금융그룹인 KB금융그룹은 구체적인 디지털 전환 성과를 공개하지 않았다. 빅데이터 플랫폼 기업 모바일인덱스 등에 따르면 KB국민은행의 KB스타뱅킹 앱 MAU는 5월 기준 1112만 명으로 추정된다. 시중은행 중 단연 선두이자 금융앱 통틀어 1위인 토스(1371만 명), 인터넷전문은행 1위인 카카오뱅크(1275만 명)를 위협하는 규모다.금융지주들이 디지털 전환 지표를 공개하는 것은 인터넷은행의 확장을 경계하고 있기 때문이다. 올 상반기 4대 시중은행 가계대출 잔액이 줄어드는 동안에도 인터넷은행 3사는 가계대출 잔액을 늘리기도 했다. 여기에 당정은 대출 상품뿐만 아니라 예금 상품도 온라인 플랫폼에서 상품을 비교·추천·판매할 수 있도록 ‘온라인 예금상품 중개업’을 3분기 중 시범 도입할 방침이다. “빅테크에 종속될 수 있다”며 금융사들이 자체 플랫폼 키우기에 팔을 걷고 나설 수밖에 없는 이유다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.07.25.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>[최보윤의 부티크] ‘좋아요’ 9000여개 넘은 박서보 화백 게시글을 보니</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003705805?sid=103</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>최보윤의 부티크 뉴스레터 구독하기 ☞https://page.stibee.com/subscriptions/177352박서보 화백 인스타그램										후배한테 메시지가 왔습니다. “선배, 이거 보셨어요? 박서보 쌤이요!” 그녀가 전송한 캡쳐 파일은 박서보 화백님의 인스타그램 포스팅이었죠. “쌤께서 선배가 쓴 기사 캡쳐해 올리셨더라고요. 인터뷰하신 글이라면 쌤도 기사 나올 거라 예상하셨겠지만, 이건 그런 것도 아닌데 쌤이 직접 올리셨다니 더 의미 있게 느껴져 보내드려요!”무려 박서보 화백님이라니! 추상 미술의 거장이자 전 세계에 단색화 열풍을 이끈 주인공이시죠. 24일 기준 4만 2700여명의 팔로워를 보유한 화백님께서 공유해주신 이 게시물엔 9000여건이 넘는 ‘좋아요’가 붙어 있었습니다. 포스팅의 내용은 지난 5월 독일 함부르크에 문을 연 몽블랑 하우스(Montblanc Haus)를 찾은 뒤 작성한 기사였습니다. 박물관 내부 모습과 니콜라 바레츠키 몽블랑 CEO 인터뷰 중에서 박서보 화백님에 관한 내용을 발췌해서 올려주셨더라고요.사실 제가 해외 출장이다 뭐다 해야할 일들이 쌓이고 쌓여서 근 몇 달간 개인 소셜 미디어까지는 돌보지 못했거든요. 그런데 구순(九旬)이 넘은 연세에도 열정적인 작업 활동을 하고 계신, 저보다 몇배는 바쁘실 화백님께서 직접 제 결과물을 올려주시다니 생각도 못했습니다. 박서보 화백과 아내 윤명숙 작가/조선영상미디어 이신영 기자 										제가 미술 담당이 아니라 화백님을 직접 뵌 적은 없지만, 제가 맡고 있는 럭셔리 브랜드 대부분이 갤러리·미술관을 운영하거나 아티스트를 발굴하고 후원하고 있어 미술 관련 이야기를 자연스레 접하게 되거든요. 어깨너머로 자주 마주한 작품의 주인공의 포스팅을 보니 왠지 ‘응답’을 얻은 것 같은 느낌이랄까요. ‘살아있는 전설’이란 게 바로 이런 것을 말하는 구나…를 실감한 순간이기도 했습니다.화백님께서 인스타그램을 통해 공유해주신 부분은 이랬습니다.&gt;&gt;그중에 한글이 눈에 띄니, 바로 ‘단색화’의 대가 박서보 화백이 아내 윤명숙 작가에게 보낸 엽서였다. 박서보 화백이 아내 윤명숙 여사에게 1961년 파리에서 보냈던 엽서와 60년 뒤인 2021년 서울에서 보낸 엽서가 나란히 전시돼 있다. 시공간을 뛰어넘어 꾹꾹 눌러쓴 손 편지가 전하는 강한 울림을 느낄 수 있었다. 일상의 안부는 곧 연서(戀書)였다.평소 몽블랑 펜을 쓰는 박서보 화백의 영상을 우연히 보게 된 몽블랑 본사 측에서 단번에 반해 이번 몽블랑 하우스에 친필 보관을 의뢰하게 됐다고. 세월이 닿아 곱게 색이 물든 피부와 작품에 혼을 쏟는 동안 솟은 핏줄이 몽블랑 산맥의 지지 않는 열정을 보는 듯했고, 박 화백의 손끝에서 말쑥한 몽블랑 펜으로 이어지는 모습이 세대를 잇는 또 다른 인연의 끈이 될 수 있다는 믿음에 다시 한번 반했다고 한다.바레츠키 사장은 “글을 쓸 수 있기 때문에, 내가 존재할 수 있다고 생각한다”면서 “박서보 화백이 아내에게 보낸 엽서에서처럼 글쓰기는 사람과 사람의 연결이고, 누군가에게 외치는 질문에 대한 대답이며 실존에 대한 반응”이라고 말했다. 그는 또 “다양한 문화의 여러 글자를 전시함으로써 다양성을 표방하고 싶었다”면서 “동시에 미국과 유럽, 한국 등 동양 예술가의 그림이나 음악 다양한 작품뿐만 아니라 글씨를 통해서도 예술성이란 공통분모를 발견하고, 전 세계 방문객들이 많은 영감을 받길 바란다”고 말했다.&gt;&gt;박서보 화백 인스타그램 박서보 화백 인스타그램										무엇보다 아흔 한살(신문 나이 기준)의 노장 중의 노장께서 꾸리시는 인스타그램 계정이라니! 젊은 ‘애들’이나, 혹은 연예인, 혹은 인플루언서를 자처하는 이들만의 매체라며 그 가치를 폄훼하던 몇몇 이들의 얼굴이 떠오르던 순간이었습니다. 물론, ‘인플루언스’의 진정한 의미를 퇴색시키는 ‘인플루언서’도 있긴 하지만, 이렇게 ‘진정성 있는’ 인플루언서를 만났을 때의 파급력과 영향력을 새삼 깨닫습니다.당시 출장은 일명 몽블랑 펜 박물관이라고 할 수 있는 ‘몽블랑 하우스’를 찾아서 발굴(?)한 내용입니다. 박서보 화백님 손 글씨가 브랜드 역사를 대표하는 서른 명 정도의 위인들 사이에서 빛을 내고 있었기 때문이죠. 그까짓 글자가 뭐...라고 할지 몰라도 글자로 그들의 습성이나 성격 같은 것을 파악하는 요즘, 기록 유산으로도 충분히 가치 있어 보였습니다.박서보 화백이 아내에게 쓴 엽서는 왜 독일 몽블랑 하우스에 전시됐을까18세기 프랑스 문호 볼테르의 정석 같은 단정한 글자는 가장 오래된 시기인데도 여전히 마르지 않는 샘 같이 펄떡였고요, 죠지 버나드 쇼, 라이너 마리아 릴케, 찰스 디킨스, 스콧 피츠제럴드, 어니스트 헤밍웨이, 토마스 만, 애거서 크리스티, 버지니아 울프 같은 철학자·대문호들과 세계적 산업 디자이너 지오 폰티, 탐험가 로널드 아문센, 스파이크 리 영화감독 등의 필체도 독일 현지에 보존돼 있었습니다.몽블랑 하우스에 전시된 오스카 와일드 손글씨 /최보윤 기자 몽블랑 하우스에 전시된 지오 폰티 손글씨 /최보윤 기자 몽블랑 하우스에 전시된 알버트 아인슈타인 손글씨 /최보윤 기자 몽블랑 하우스에 전시된 알버트 아인슈타인 손글씨 /최보윤 기자 독일 함부르크 몽블랑 하우스에 전시된 패션 디자이너 칼 라거펠트(1933~2019)의 친필. 라거펠트는 함부르크 출신이다. /최보윤 기자										또 과학자 아인슈타인의 우아하고도 빽빽한 필기체와 당대 미남으로 소문났던 소설가 오스카 와일드가 자신의 ‘콧날’을 사인으로 썼다는 흥미로운 장면도 확인할 수 있었습니다. 디자이너 칼 라커펠트는 누가 디자이너 아니랄까 봐 편지지를 꽃 모양으로 꾸며놨더군요.박서보 화백님이 2021년 아내에게 보낸 엽서엔 국립현대미술관이란 글자가 박혀있었습니다. 한글로 된 국립현대미술관이 독일 함부르크에도 남아있게 되다니 요즘 유행하는 드라마 속 타임슬립처럼 시공간을 넘어 한국과 독일을 잇는 특급 우편을 날으는 양탄자 삼아 타고 온 듯한 느낌이 들었는데요. 국립현대미술관은 한국을 대표하는 미술관이면서도 지난 2019년 ‘지칠 줄 모르는 수행자(The untiring endeavorer)’라는 제목으로 박서보 화백님의 전시회를 열기도 했죠.현장은 몽블랑 펜의 애용 116년 역사의 브랜드를 대표하는 마이스터스튁을 비롯하여 여러 필기구를 제작하는 매뉴팩처와 몽블랑 본사 바로 옆에 위치하고 있었습니다. 스페인의 유명 건축 사무소 니에토 소베하노 아키텍토스가 몽블랑의 유구한 역사를 바탕으로 브랜드의 컬러인 블랙과 흰색을 조합해 설계한 3600㎡(약 1089평) 면적의 3층 건물입니다.몽블랑 펜 가격은 여느 펜이라고 하기엔 비싼 편이지만, 왜 그렇게 비쌀 수밖에 없는 가를 박물관의 여정을 통해 꽤나 설득력 있게 조명합니다. 잉크가 새지 않는 펜을 발명하는 데서 시작해 100년 넘는 역사 속 글쓰기의 위대함을 보존하기 위해 각종 도전을 하죠. 18K 금을 재료로 펜촉(닙)을 만들면서 갈고 다듬는 모든 일일이 사람 손으로 작업하죠. 필기감을 위해 수백번 실험을 하고 수천번 닙을 굴리고 다듬는 작업은 물론입니다. 그 덕분에 몽블랑 하우스에 글씨가 보존된 인사들 뿐만 아니라 앤디 워홀 같은 세계적인 아티스트등이 마니아를 자처하고 나섰죠.몽블랑 펜의 펜촉(닙)을 디자인하는 과정 /최보윤 기자 엘리자베스 2세 영국 여왕, 미국 오바마, 구소련 고르바초프, 독일 메르켈, 인도 모디 등 전 세계 수반들이 몽블랑 펜을 사용해 사인 등을 하는 장면을 담은 전시물/ 최보윤 기자 몽블랑 하우스에 전시된 화려한 디자인의 몽블랑 펜/최보윤 기자 몽블랑 하우스 속 전시관 모습. 한정판 펜 등이 전시돼 있다. 왼쪽 벽으로 손을 형상화한 벽화를 볼 수 있다. /최보윤 기자 Inspire Writing 이란 문구를 내세운 몽블랑의 몽블랑 하우스 오픈식에서 포즈를 취했다. /최보윤 기자										몽블랑 하우스에 들어서면 글쓰기에서 영감 받은 각종 미디어 아트 작품과 함께 전 세계 정상들이 세계를 뒤흔들만한 중요한 일을 결정할 때 사용했던 몽블랑 펜과 당시 사인 모습이 눈에 띕니다. 또 형상화, 절단, 연마 등 몽블랑 펜이 제조되는 150여개 과정을 압축한 12가지 주요 단계도 자세히 설명하고 있습니다.몽블랑 하우스에선 보는 것에 이어 몽블랑 필기구를 테스트해 볼 수도 있고, 자신의 생각이 담긴 엽서를 세계 어디에나 보낼 수 있습니다. 니콜라 바레츠키 몽블랑 CEO는 “글쓰기는 사람의 발자취를 담는다”면서 “글을 통해 무언가를 전달하는 인간 고유의 유구한 문화유산을 기념하기 위해서”라고 설립 취지를 말했습니다.글쓰기는 사람의 발자취를 담는다는 바레츠키의 말씀을 되새기면서 박서보 화백님의 계정을 다시 살피게 됐습니다. 제가 미리 화백님의 발자취를 알아보지 못하고 따라잡지 못했다는 생각에 냉큼 ‘팔로우’를 눌렀죠. 일상은 물론 다양한 사람들과의 만남에 대한 짧은 소회를 엿볼 수 있었습니다.선생님의 작품뿐만 아니라 생활 태도에 ‘좋아요’를 누르고 공감하는 이들이 상당하다는 걸 알게 됐죠. 화백님을 가리켜 흔히 ‘치유의 예술 작가’ ‘지칠 줄 모르는 수행자’ 같은 수식어가 붙는 데요. ‘수행자’ 같은 화백님의 말씀과 보는 자체로 ‘치유’인 포스팅을 잠깐 보고 가실까요.박서보 화백 인스타 캡쳐										“매화가 고개를 들었다. 봄이 왔다.”“내 그림을 보고 마음이 평온해졌다는 사람이 많은데, 소통으로 평온을 전하는 오은영 선생이 기지를 찾았다. 평온이 배가 되는 오후다.“작은 아들 내외가 중정에 그늘막과 쉼터를 만들었다. 아내는 거기서 책을 읽는다. 나도 모처럼 햇볕 아래 신문을 펼쳤다. 마스크 없이 정원에 나오니 코로나 시대가 끝난 것 같은 느낌이 들었다. 곧 그리 되기를 바란다.”박서보 화백 인스타 캡쳐 박서보 화백 인스타 캡쳐										기부를 항상 실천하시는 대로 우크라이나 참상에 대해서도 기꺼이 기부를 하시면서 쓴 글이 눈에 띄었습니다.“50년대 말부터 60년대 초까지 그린 나의 원형질 시리즈는 한국전쟁의 참상을 겪으며 외친 외마디 절규였다. 전쟁은 혹독하고 비참했다. 나를 가장 어둡고 깊은 나락으로 떨구었다. 이후 70년간 전쟁이 멈춘 적은 없다. 총성은 도처에서 이어졌다. 그러나 우크라이나의 오늘은 실시간으로 내 휴대폰으로 전해지고 24시간 텔레비전 화면을 채운다. 보지 않아도 될 비극에 아이들이 그대로 노출되고 있다. 전쟁을 멈춰야 한다. 침략전쟁은 범죄다. 나는 비극적인 이 전쟁을 끝내기 위해 5천만 원을 우크라이나 정부에 지원하였다.“My &lt;Primordialis&gt; Series, drawn from the late 50s to the early 60s, was a scream while experiencing the horrors of the Korean War. The war was harsh and miserable. It plunged me into the darkest and most bottomless abyss. The war has never stopped in the next 70 years. Gunfire continued everywhere. However, today in Ukraine, it is delivered to my cell phone in real-time and fills the screen of television 24 hours a day. Children are being exposed to tragedies that should not be seen. The war must be stopped. War of aggression is a crime. I donated 50 million Won to the Ukrainian government to end this tragic war.”몽블랑 바레츠키 CEO는 지난 5월 저와의 만남에서 “글을 쓸 수 있기 때문에, 내가 존재할 수 있다고 생각한다”면서 “박서보 아내에게 보낸 엽서에서처럼 글쓰기는 사람과 사람의 연결이고, 누군가에게 외치는 질문에 대한 대답이며 실존에 대한 반응”이라고 말했는데요. 그 뜻을 박서보 화백님께서 게시물 ‘공유’를 통해 또 하나의 담론의 장을 만들어 주신 것 같습니다. 위의 게시물에서도 보셨지만 박서보 화백님께서 아내 윤명숙 작가님께 보냈던 엽서 내용을 한 번 다시 보실까요? 그의 글을 옮겨보면 이렇습니다.독일 함부르크 몽블랑 하우스에 전시된 박서보 화백과 아내 윤명숙 작가가 나눈 엽서. /최보윤 기자										“여보얼마 전에 당신 책이 출판되었지.내가 쓴 축하편지가 책의 서문으로 나왔고내가 외국에 나가기만 하면 엽서를 잔뜩 사서 거이매일 당신한테 소식 전하곤 목이 빠져라 답장을기다리던 기억이 났소.그런대 이제 내 나이가 90세, 당신이 82세편지할 새도 없이 매일 붙어 있는 처지가 되었구려.이 편지가 마지막 편지가 되려나?그럼 이 말을 꼭 해야 겠네. 오랜 세월 내 옆에있어줘서 고맙다고. 2021.8.29, 박서보가”‘최보윤의 부티크’는...전 세계 럭셔리 트렌드부터 국내 대중문화와 라이프스타일 소식 등을 이해하기 쉽고, 심도 깊게 짚어 드리는 ‘뉴스레터’입니다. 또 여러분에게 감동을 준 이들을 만나는 코너도 꾸립니다.부티크는 ‘富’(부)를 이야기하는 ‘부티크’이자, 프랑스어로 ‘당신’이란 뜻의 ‘VOUS’(부)를 모시는 공간이기도 합니다. 1920년대 전 세계를 대표하는 예술문화계 인사들과 석학들이 모였던 프랑스의 ‘살롱’이자 우리네 ‘사랑방’을 표방합니다. 직접 발로 뛴 기사들과, 기사에서 못다 전한 이야기를 부티크에서 차 한잔 마시며 대화하듯 풀어낼 계획입니다.최보윤의 부티크 뉴스레터 구독하기 ☞https://page.stibee.com/subscriptions/177352</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.07.26.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>토스뱅크, 1000억원 규모 유상증자 결의</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003162484?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>토스뱅크 제공토스뱅크가 25일 이사회를 열고 1000억원 규모의 유상증자를 추진하기로 결의했다고 밝혔다.토스뱅크는 이번 증자를 통해 총 2000만 주가 신규 발행되며, 주당 발행가는 5000원이라고 설명했다. 2000만 주 가운데 보통주는 1500만 주, 전환주는 500만 주 발행된다.증자 납입일은 이달 28일이며, 증자를 마치면 토스뱅크의 납입자본금은 총 1조500억원으로 늘어난다.토스뱅크는 지난해 10월 출범 이후 총 네 차례의 유상증자를 진행했다. 토스뱅크 관계자는 “토스뱅크의 비전과 성장을 적극적으로 지지해주는 주주사들의 지원으로 추가 자본금을 확보할 수 있게 됐다”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.07.27.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>[서지명의 메이크머니] 1원·1포인트가 어디야…고물가시대 짠테크·옷테크</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003212476?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>서지명           최근 각종 짠내 나는 ‘짠테크’가 눈길을 끈다. 각종 불황형 서비스가 주목받고 있는데 혹자는 ‘디지털 폐지줍기’라고 한다. 적게는 1원에서부터 많게는 몇천 원 단위인데 한 달씩 모으다 보면 커피 한 잔 값이나 치킨 한 마리 값은 벌 수 있다.      자정만 되면 짠테크들이 몰리는 앱이 있다. 토스뱅크에서는 자정이 되면 본인이 통장에 넣어둔 돈에 대한 하루 치의 이자가 뜨는데 이걸 누르면 일복리를 누릴 수 있다. 앱테크족의 아침 루틴은 각종 앱의 출석체크다. 매일매일 출석체크를 하면 포인트를 주거나 경품을 주기도 한다. 걸은 만큼 만보기 역할을 하며 100걸음당 1원씩 하루 최대 만보를 걸으면 100원을 주는 앱도 있고 핸드폰을 쓰지 않고 쉬는 만큼 10분마다 1캐시를 쌓아주는 앱도 있다.      광고를 보거나 앱을 다운로드받는 등의 미션을 수행하면 포인트를 주기도 하고 설문조사를 하는 앱도 다양하게 있다. 설문조사 앱은 1000원 단위 이상의 보상을 해주기도 하는데 그만큼 들이는 시간과 공이 좀 크긴 하다. 선물로 받은 커피 기프티콘을 저렴하게 사고파는 기프티콘 전문 쇼핑몰도 있다. 예컨대 4500원짜리 스타벅스 아메리카노 기프티콘을 이곳에서 팔면 3300원대 내외에서 사 가고 필요할 때는 20% 내외로 할인된 가격으로 살 수 있다. 유효기간과 물량 등에 따라서 가격이 달라진다.      안 쓰는 물건도 정리하고 소소하게 수익도 올릴 수 있는 중고물품 판매는 기본 중의 기본. 당장 자주 입지는 않지만 중고로 팔아버리기엔 아쉬운 옷이나 가방이 있다면 옷장 공유 플랫폼인 클로젯셰어를 이용해보자. 내 옷이 일을 하는 옷테크를 경험할 수 있다. 나의 경우 딱 한 번 입고 손이 잘 가지 않던 원피스를 보내 기존 원피스 구매값 이상의 수익을 내기도 했다. 내 옷장도 가볍게 비우고 수익도 내니 그야말로 일석이조. 여러 아이템이 있지만 이 같은 효자 아이템 하나면 쏠쏠한 재미를 느낄 수 있다. 반대로 친구 결혼식 등의 행사에 갈 때 가끔 필요한 옷은 이곳에서 빌려 입는 것 역시 방법이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.07.25.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>토스, 3년차 이하 개발자 최대 80명 공개채용</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013331443?sid=105</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>토스 넥스트 개발자 챌린지[비바리퍼블리카 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 임성호 기자 = 모바일 금융 서비스 '토스'를 운영하는 비바리퍼블리카는 경력 3년 이하 개발자를 공개 채용하는 '2022 토스 NEXT(넥스트) 개발자 챌린지' 지원을 접수한다고 25일 밝혔다.    채용 분야는 ▲ 안드로이드 ▲ 코어 뱅킹 ▲ 데이터 엔지니어링 ▲ 데이터 사이언스 ▲ 프론트엔드 ▲ iOS ▲ 서버 ▲ 인터널 제품용 서버 ▲ 웹 오토메이션 등 9가지다. 토스와 토스뱅크·토스증권·토스페이먼츠에서 최대 80명을 채용할 예정이다.    지원 희망자는 8월 3일까지 챌린지 홈페이지에서 간단한 인적 사항과 지원 분야, 희망 회사를 입력하면 된다. 6일에는 지원자 전원을 대상으로 온라인 코딩테스트를 진행한 뒤 결과를 10일에 발표한다.    이후 데이터 사이언스·프론트엔드·인터널 제품용 서버·웹 오토메이션 등 4개 직군은 사전과제 전형에 응시해 합격하면 면접을 진행한다. 안드로이드 직군에는 인터뷰 1시간 전에 과제를 주며, 과제 합격 여부와 관계없이 면접을 진행한다. 코어 뱅킹·데이터 엔지니어링·iOS·서버 등 나머지 4개 직군은 과제 전형 없이 면접을 보면 된다.    면접은 직무적 역량을 검증하는 1차 인터뷰와 토스 커뮤니티가 일하는 방식과 문화에 대해 깊이 있는 대화를 하는 2차 인터뷰로 구성된다.    토스는 개발자의 지원을 독려하기 위한 이벤트를 실시한다. 지원자가 접수 완료 후 받은 행운번호 이미지를 개인 SNS에 공유하면 추첨을 통해 총 50명에게 5만원 상당의 토스포인트를 준다. 또 코딩테스트를 마친 지원자 중 총 20명을 추첨해 개발 지원금 100만원을 지급한다.     전형 관련 자세한 내용은 챌린지 페이지에서 확인할 수 있다.     sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.07.23.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>금융당국, 이제 '#해시태그'도 본다…잘못달면 불법 보험영업</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004774344?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>[[이슈속으로]]금융감독원이 내년부터 법인보험대리점(GA) 불법 영업 여부를 검사하기 위해 블로그, 인스타그램 등 사회관계망서비스(SNS) 해시태그까지 들여다본다. 최근 SNS(소셜네트워크서비스)를 통한 GA 설계사들의 영업이 늘고 있는 만큼 그 과정에서 불법 행위가 있는지 파악하기 위한 조치다. 이와 함께 펀드와 대출모집인 등에 대한 감시체계도 강화할 예정이다.23일 금융업계에 따르면 금감원은 다음달부터 3년 계획의 정보 시스템 개선사업을 진행한다. 금감원 내 정보 시스템은 부서별로 각기 다른 소프트웨어를 갖고 있는데 운영관리 효율성을 위해 이를 일원화하는 내용이 골자다. 또 토스, 카카오페이 등 핀테크사처럼 하드웨어 기반도 기존 유닉스에서 리눅스 체제로 전환한다.정보 시스템 개선사업을 계기로 금감원은 금융시장에 대한 감시체계를 더욱 강화할 방침이다. 우선 GA 영업 검사지표로 SNS 게시물까지 활용할 예정이다. GA 설계사의 SNS 게시물에 관한 데이터를 수집해 불법 영업행위가 있었는지 들여다 본다는 의미로, 점검 대상에 해시태그까지 포함된다.  최근 SNS를 통한 GA 설계사의 영업이 활발해진 데 따른 대응으로 풀이된다. 실제 지난 22일 기준 인스타그램에 보험 해시태그를 달고 있는 게시물은 79만3000건에 이른다. 이를 통해 확보한 데이터는 금감원이 GA 현장검사 지표로 활용한다. 지금까지 금융당국은 GA 소속 준법감시인의 내부통제 운영실태 자료와 금감원으로 들어온 민원 등을 분석해 검사 나갈 GA를 정해왔다. 앞으로는 해시태그 내용까지 점검, SNS상에서 불법 영업 빈도가 높은 GA를 추려내는 검사지표로 쓰게 된다.금감원 관계자는 "최근에는 대면뿐 아니라 비대면 보험 영업도 활발해지고 있어 다양한 채널에서 불완전 판매 가능성이 발생할 수 있다"며 "소비자 피해를 예방하기 위해 이 같은 개선 사업을 추진하게 됐다"고 설명했다.자산운용사에 대한 상시감시 시스템도 개선한다. 기존 금감원 내 시스템 간 연계를 강화해 사모펀드 정기보고서, 특정사유발생 보고서, 피투자법인에 대한 감사의견, 상장폐지 관련 공시도 상시감시 시스템에 활용한다. 또 한국예탁결제원의 펀드별 보유자산 데이터와 금융투자협회가 제출하는 보고서 내 데이터까지 활용해 감시의 질을 높이겠다는 계획이다. 더불어 펀드자산의 부실화 가능성과 손실현황도 모니터링해 자산운용사에 대한 리스크 분석을 더 강화한다. 펀드의 설정원본 대비 순자산 비율이 급락하거나, 순자산 비율이 장기간 낮은 펀드와 관련 운용사를 모니터링한다.이와 함께 금감원은 대출모집법인 등록시스템도 새로 구축한다. 대출모집법인이 등록요건을 바꾸거나, 경영상 중요정보가 변경됐을 때 관련 내용을 빠르게 보고 받을 수 있게 하기 위해서다. 이를 통해 보고 내용에 대한 검토와 보완요청, 사실조회 등도 쉽게 처리할 수 있게 될 전망이다. 대출모집법인이란 소속 모집인이 100명 이상인 대형 모집법인 및 온라인 모집법인을 말한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.07.24.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>공주시, 주기적으로 퇴비 부숙도 검사</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/656/0000019985?sid=102</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>허가규모 농가 1년에 한 번, 신고 규모 농가 6개월에 한 번 맡아야[공주] 공주시는 관내 농업인의 올바른 퇴비 사용을 위해 관내 거주 축산 농가를 대상으로 퇴비 부숙도 검사를 무료로 제공하고 있다고 밝혔다. 가축분뇨법에 따르면, 축사 규모에 따라 허가 대상은 1년에 한 번, 신고대상은 6개월에 한번 퇴비 부숙도 검사를 의무적으로 받아야 하고, 검사 결과는 검사일로부터 3년간 개별 보관해야 한다. 퇴비 부숙도 검사를 희망하는 축산농가는 공주시농업기술센터에 방문해 시료를 접수하고 검사의뢰서를 작성하면 된다. 결과 통보에는 10~14일 정도 소요되며 검사 결과는 방문 또는 우편, 문자, 이메일 등을 통해 받아볼 수 있다. 검사시료는 퇴비더미 5~10군데를 2kg정도 채취해 원추형으로 쌓아 올린 뒤 평평하게 만드는 작업을 3회 반복하고, 쌓여진 원추를 수직으로 눌려내려 평평해진 퇴비더미를 4등분해 마주보고 있는 두 곳에서 시료를 채취한다. 앞의 과정을 3회 반복하고 최종적으로 총 500g의 시료를 채취하여 깨끗한 비닐봉지에 밀봉해 가져오면 된다. 김경희 기술보급과장은 "가축분뇨 검사를 통한 올바른 퇴비사용으로 지속가능한 저탄소농업 실천에 앞장서주길 바란다"고 말했다. 한편 시는 가축분뇨 퇴비 부숙도 검사뿐만 아니라 환경부서의 가축분뇨배출시설 자율점검 시 관내 농가를 대신해 부숙도 검사결과를 환경부서에 직접 공유하는 '가축분뇨 퇴비 부숙도 검사결과 토스(TOSS)서비스'도 함께 제공한다. 공주시는 관내 농업인의 올바른 퇴비 사용을 위해 관내 거주 축산 농가를 대상으로 퇴비 부숙도 검사를 무료로 제공하고 있다. 사진=공주시 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.07.20.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>경단녀가 아이 위해 작심하고 만든 이것…어린이용 '토스'로 부상</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004772901?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>[[스타트UP스토리]이예진 해피투씨유 대표 "습관형성 챌린지로 시작해 핀테크로 서비스 확장"]이예진 해피투씨유 대표 인터뷰 /사진=김휘선 기자 hwijpg@"저는 첫 월급을 받으면서 경제를 배웠거든요. 너무 늦은 거죠. 우리 아이들은 경제 관념을 일찍 배우고 성인이 됐을 때는 돈의 가치를 좀 더 빠르게 알았으면 좋겠다고 생각했죠"어린이용 핀테크 플랫폼 '아이쿠카'를 개발하고 있는 이예진 해피투씨유 대표(40)의 말이다. 6세 이상 14세 미만 어린이들을 위한 재능발견이나 챌린지를 통한 습관형성 플랫폼으로 시작한 해피투씨유는 최근 경제 분야에 집중하며 카드·통장, 가계부 등 금융서비스와 금융교육 기능을 더한 핀테크 플랫폼으로 도약을 준비하고 있다.━"챌린지에서 핀테크로 확장…'CEO과정' 등 콘텐츠들도 더할 것"━아이쿠카의 챌린지 기능 일부 /사진=해피투씨유현재 아이쿠카의 기본 기능은 챌린지다. '10일 연속 책 읽기' 등 아이가 스스로 도전과제와 용돈을 설정하고 실행한 뒤 부모에게 보상을 받도록 한 기능이다. 이 대표는 "아이들은 7살만 돼도 용돈을 받고 쓰면서 경제활동에 자연스럽게 재미를 붙인다"며 "챌린지 기능으로 경제개념을 익히고 성공습관을 만들도록 돕는 것"이라고 말했다.챌린지에서 시작한 아이쿠카는 최근 핀테크 플랫폼으로 변신 중이다. 금융기관과 협력해 어린이용 선불카드를 발급·연동시키는 방식이다. 앱에서 받은 용돈도 연동시켜 카드로 사용할 수 있도록 한다는 계획이다. 부모들은 전용 계정을 통해 아이와 함께 소비패턴과 지출내역 등을 관리할 수 있다.이 대표는 "일부 금융기관들도 어린이용 계좌·카드 등 핀테크 서비스를 제공하고 있다"며 "그러나 아이쿠카는 출발점이 콘텐츠란 점이 다르다"고 강조했다. 챌린지 등 어린이들이 사용하는 콘텐츠들을 바탕으로 하는 만큼 금융기능 자체에만 집중하고 있는 서비스들보다 사용자들을 쉽게 유입·유지시킬 수 있다는 설명이다.콘텐츠도 확대할 예정이다. 대표 콘텐츠는 창업을 경험해볼 수 있는 'CEO(최고경영자) 과정'이다. 어린이 사용자들이 자신의 능력으로 사업을 해보고 수익을 낼 수 있도록 돕는 콘텐츠다. 이 대표는 "예컨대 제 6살 배기 딸은 그림 구독서비스를 창업해 친척들을 소비자로 두고 매달 그림을 그려 보내고 용돈을 받는다"며 "사업 아이템을 생각하고 기초적인 경영과정을 배워보는 것"이라고 말했다. 그밖에 모의투자, 경제수업 등 콘텐츠도 준비하고 있다.━육아경험에서 우러난 사업모델…"자녀 세대 경제 능력 키우고 싶어"━이 대표가 아이쿠카의 서비스 모델을 생각한 것은 자녀 교육에서 시작했다. 무역회사와 스타트업 등에 다니던 이 대표는 2017년 아이를 출산하며 커리어를 중단했다. 하지만 아이를 키우면서 육아와 교육을 위한 다양한 서비스들이 머릿속을 맴돌았다. 이 대표는 "아이가 클수록 다양한 콘텐츠들을 접하게 된다"며 "육아·교육에 도움되는 콘텐츠들을 직접 만들어보자는 생각이 들었다"고 말했다.그렇게 이 대표는 2020년 해피투씨유를 창업한다. 초기에는 다양한 클래스를 통해 재능을 발견할 수 있는 서비스를 구상했다. 그러던 이 대표는 경제교육 분야로 사업방향을 바꾼다. 이 대표는 "자녀세대는 이제 월급만 가지고서는 풍요롭게 살기 어려운 세대가 됐다"며 "시장경제에서 살아남을 수 있는 힘을 키워줘야겠다는 생각에 어린이들이 경제를 배울 수 있는 콘텐츠를 개발하게 됐다"고 했다. 챌린지를 통한 용돈보상이라는 모델이 시작된 배경이다.아이쿠카의 챌린지 모델이 자리를 잡자 핀테크로서의 확장 가능성이 보였다. 챌린지의 용돈 보상을 실제 금융기능과 연계하면 되는 일이었다. 이 대표 배우자의 역할도 컸다. 이 대표의 남편은 코스콤 사내벤처로 스마트오더·간편결제 서비스를 개발한 '미식의시대' 방남진 대표다. 핀테크 분야 기술력과 사업성공 이력을 갖춘 방 대표는 해피투씨유의 핀테크 서비스 확장, 금융기관 제휴 등을 돕기로 결정하고 현재 두 회사의 인수합병(M&amp;A)을 추진하고 있다.방 대표가 합류하면서 해피투씨유는 본격적인 핀테크 플랫폼으로서의 역할을 넓혀가기 시작했다. KB이노베이션허브의 스타트업 육성 프로그램에도 선정돼 KB국민은행, KB증권 등과의 금융서비스 제휴도 논의하고 있다. KB 측은 선불카드 연동이나 계좌개설·관리 등에서 제휴 시 시너지 가능성이 있다고 보고있다.━"모든 어린이들의 '토스' 되겠다"━이예진 해피투씨유 대표 인터뷰 /사진=김휘선 기자 hwijpg@해피투씨유는 아이쿠카 플랫폼이 완성되면 다양한 앱 내 결제, 제휴 기능 등을 더해 수익을 낼 수 있을 것으로 보고 있다. 다만 당장 수익보다는 플랫폼 안정화와 사용자 유입에 집중한다는 계획이다.최종 목표는 '어린이들의 토스'가 되는 것이다. 어린이들이 토스처럼 아이쿠카 한 곳에서 자신의 금융·경제 상황을 관리하도록 한다는 계획이다. 토스가 콘텐츠로 소비자들을 유입시키듯 콘텐츠도 지속적으로 강화해 '그냥 자주 켜고 싶은 앱'이 되도록 만들겠다는 구상이다.이 대표는 "어린이들이 태어나서 처음 접하게 되는 핀테크 플랫폼으로 만들어가고 싶다"며 "우리 아이 뿐 아니라 모든 어린이들이 돈과 경제를 쉽고 즐겁게 배울 수 있도록 할 것"이라고 말했다.[머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>“크리에이터 시장에서 우리가 돋보이는 이유? 가장 젊으니까”</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000828866?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>[이코노미조선][Interview] ‘토스 스타트업 서바이벌 우승’ 김민준 어웨이크코퍼레이션 대표 또래가 대기업 입사를 염원할 때, 취업 대신 창업을 택한 90년대생이 늘고 있다. 이들의 나이는 현재 23세에서 32세. 20·30대 초반에 이미 CEO가 된 것이다. 지금, 90년대생은 전 세계 스타트업 생태계 주역이 되고 있다. 90년대생 창업자와 이들을 바라보는 투자업계는 90년대생에게 창업은 이미 익숙한 일이라고 입을 모은다. 국내외에서 모바일 1세대로 성공한 창업자들을 보며 자란 이들은 스마트폰 발전과 맞물리는 아이템을 찾아 창업하면 어린 나이에 큰 부를 쌓을 수 있다는 것을 자연스럽게 습득했다. 또 MZ 세대(밀레니얼+Z 세대·1981~2010년생)의 ‘낀 세대’인 이들은 트렌드를 재빨리 포착할 수 있는 능력과 환경을 갖추고 있다. 무엇보다 부모 세대보다 해외 진출에 거부감이 없으며 영어가 익숙한 점도 이들의 강점이다. 이에 ‘이코노미조선’은 90년대생 창업자를 다각도로 분석하는 ‘창업 신(新)주류 90년대생’을 기획했다. [편집자주] “난 90년대생 젊은 창업자이기에 젊은 크리에이터(creator·창작자) 시장을 선점할 수 있다고 생각한다. 국내 MCN(다중 채널 네트워크) 시장을 흔들고, 기업 가치 1조원을 달성해 상장하는 것이 목표다.”김민준 어웨이크코퍼레이션 대표동탄국제고 중퇴, 전 뷰티패스 대표, 전 대웅제약 팀장,‘포브스 아시아의 30세 이하 리더 2017’ 선정,토스 스타트업 서바이벌 ‘파운드’ 우승 사진 어웨이크코퍼레이션        크리에이터를 위한 광고주 관리 솔루션을 제공하는 ‘크리에이터리(creator.ly)’를 만든 김민준 어웨이크코퍼레이션 창업자 겸 대표는 1999년생이다. 그러나 이력은 선배 창업자들 못지않다. 고교 중퇴, 최연소 아너소사이어티 회원, 미성년자 때 이미 스타트업 창업 및 매각, ‘포브스 아시아의 30세 이하 리더 2017′ 선정, 최근에는 토스(비바리퍼블리카)에서 개최한 스타트업 서바이벌 ‘파운드(FOUND)’ 우승까지. 그리고 토스와 서울대학교기술지주 등의 기관 투자도 유치했다.6월 30일 ‘이코노미조선’이 만난 김 대표는 주관이 뚜렷하고 사업 열정을 뿜어냈다. 그는 자신의 이력을 묻는 기자의 질문에 “아너소사이어티는 최연소 기업인으로 가입했지만, 당시 분위기에 휩쓸려 가입한 것 같아 탈퇴했다. 기부가 이력이 되는 느낌이 싫었다. 창업자는 이력보다는 결국 시장과 고객이 원하는 제품을 만들고 이를 통해 세상을 바꾸는 것만 신경 써야 한다고 생각한다”고 솔직하게 말했다. 다음은 일문일답.먼저 고등학교 중퇴 이력부터 묻고 싶다. “학업으로 1등 할 자신이 없었고, 내가 더 잘할 수 있는 분야에서 빨리 승부를 보는 게 낫다고 생각했다. 내게 먼저 대학을 물어본 관계자는 없었고 오히려 중퇴 이력을 인상 깊게 본 투자자는 있었다. 창업자 이력으로 투자받을 수 있는 건 시드 단계뿐이다. 이후에는 회사의 성과와 제품, 비전으로 투자받아야 한다. 그 외 부수적인 이력은 의미가 없다. 정말 투자를 잘하는 기관은 학력을 보지 않더라. 이승건 토스 대표와 솔메 킴(Solme kim) 전 틱톡 미국 제품 총괄을 비롯해 여러 투자자가 엔젤투자자로 참여해, 우리 팀의 가능성에 베팅해줬다.”창업에 뛰어든 이유는. “어릴 때부터 늘 토이 프로젝트(규모와 수익성 상관없이 진행하는 프로젝트)를 해왔고, 소꿉놀이와 동아리 그리고 개인 사업자가 섞인 형태로 창업을 즐겼다. 정말 어렸던 초등학생 시절부터 성인이 되기 전에 마케팅 크롤링 프로그램, 카카오톡 테마 디자인 사업, 홈페이지 외주, 조립식 컴퓨터 제작, 3D 프린터 조립 판매, 의약품 OCR(문자 인식) 애플리케이션(앱) 등에 이미 도전했고, 망했다.”미성년자 때 이미 ‘뷰티패스’라는 스타트업을 세우고 매각까지 했다. 이 과정에서 어려움은 없었나.”어려움투성이였다. 뷰티패스는 서울권 피부과 정기구독 앱이었는데, 당시 내가 가진 돈과 팀, 서비스 수준이 부족했다. 초보 창업자에게 의료법 규제와 맞서 싸우는 것도 벅찼다. 내가 의사 결정해 생긴 빚과 투자금을 어떻게든 회수해야 한다는 강한 압박감과 부담감이 있었다. 결국 1년간 뷰티패스로 인한 빚과 투자금을 갚기 위해 밤낮으로 부업을 뛰며 허덕였다. 그렇게 버티던 중 뷰티패스가 대웅제약에 인수됐다. 투자자를 위해 망해가는 회사를 저렴하게라도 팔아야 했다. 그때 ‘폐업만 하지 않으면 기회는 늘 오는구나’라고 깨달았다. 또 창업을 한 이후에는 또래가 휴학하듯 시간을 멈출 수 없었다. 회사를 매각한 이후에는 인수된 회사에 곧바로 투입돼야 했기에, 책임감으로 쉴 수 없었다.”이후 어웨이크코퍼레이션을 세웠다. 회사를 소개해달라.”2020년에 설립한 어웨이크코퍼레이션은 크리에이터 유틸리티 서비스 크리에이터리를 운영하고 있다. 현재 2만여 명의 크리에이터가 매일 우리 서비스를 이용하고 있으며 월평균 29%씩 성장하고 있다. 크리에이터리는 한국, 일본, 동남아시아 7개국에 출시해 크리에이터 인사이트 지식재산권(IP)을 확보하고 콘텐츠를 분석해주는 기존의 ‘미어캣IO’를 발전시켜 만들었다. 크리에이터리는 크리에이터가 MCN 대신 광고주와 직접 소통할 수 있게 한 서비스다. 각 크리에이터는 자신의 페이지에 직접 광고 요청 질문을 만들어 놓고, 광고주는 질문 항목에 맞춰 광고 내용을 제안할 수 있다. 소셜미디어(SNS) 광고 제안을 받기 위해 크리에이터는 프로필에 크리에이터리 페이지 링크를 간단히 달아두면 된다. 또한 광고주 입장에서도 광고를 최초 제안할 때부터 예약금을 결제하고 제안을 보낼 수 있어, 크리에이터에게 더 빠른 커뮤니케이션을 요청할 수 있다. 협의 이후에는 에스크로 안전결제를 지원해, 먼저 돈을 받은 크리에이터가 콘텐츠를 대충 만드는 경우를 막아준다. 이를 통해 크리에이터가 1인 기업이 돼 효율적으로 광고주를 관리하고 계약서를 작성·보관하고, 세금 신고까지 할 수 있도록 돕는 것이 우리의 사명이다.”어떻게 이 사업을 시작하게 됐나.”크리에이터였던 당시 여자 친구를 옆에서 보며 크리에이터가 직면한 문제를 해결하기 위해 시작했다. 그때 난 뷰티패스 피인수 이후 의무근무 조항에 따라 대웅제약에 근무하고 있었는데, 어웨이크코퍼레이션을 위해 억대의 위약금을 지불하고 나왔다. 사업을 이어 가면서 최근에는 우리가 크리에이터 이코노미 2.0을 선도할 수 있다는 믿음이 생겼다. 현 MCN 매니지먼트 회사가 크리에이터에게 떼가는 수수료가 40% 정도인데, 이 간극을 기술적으로 해결한다면 크리에이터가 갖고 가는 수익을 충분히 높이면서 크리에이터 광고 시장을 선점할 수 있다고 본다.”90년대생이면 아직도 사회적으로 ‘어리다’고 보는 시각이 많다. “어리다고 보기에는 이제는 잘하는 90년대생 창업자가 이미 많다. 벌써 2000년생, 2010년생 중 더 잘하는 후배 창업자도 많이 보인다. 경험 측면에서는 나이가 많은 게 좋을 수는 있다. 그러나 이렇다 할 경험을 쌓지 못할 바에야 리스크가 적은 어린 나이가 더 창업에 적합하다. 같은 맥락으로 국내 크리에이터 시장에서 우리가 가장 잘할 수 있다고 생각한다. 우리는 가장 젊은 팀이기 때문이다. 젊어서 체력이 좋고, 밤새워서 일하더라도 그리 피곤하지 않다. 투자를 유치할 때 요즘은 제품의 리텐션(유지), 이탈률, 제품 현지화(PMF), 매출 등 결국 숫자로 증명하는 것이 더 중요한 시점이기에 나이가 이점이 됐다. 우리 팀은 엄청난 체력으로, 빠르게 숫자를 만들어내고 있다. 우리는 2만여 명의 크리에이터를 7개국에서 고객으로 두고 있는데, 매주 5명씩 국가별 사용자와 줌(Zoom)으로 미팅하고 있다. 구독자 수, 카테고리, SNS 매체별 각각 다른 크리에이터를 선정해 제품을 피드백받고 개선하고 있다. 40대 아저씨가 만든 서비스보다는 크리에이터와 동년배인 창업자의 팀이 필요한 서비스를 더 잘 만들 것이라고 자부한다.”크리에이터리 사용 예시 화면. 사진 어웨이크코퍼레이션 창업 자금은 어떻게 마련했나. “1000만원이 전 회사와 현 회사의 창업 자금이었다. 누구나 어떻게든 1000만원은 모을 수 있지 않나. 이미 스타트업 생태계에 있는 많은 창업 선배님이 후배 창업자를 돕고 있고 정부 모태펀드가 초기 투자 자금을 주고 있다.”기업 운영에서 90년대생만이 가진 강점이 있는가. “자존심 부릴 나이가 아니라는 것. 조언에 귀 기울일 수 있는 자리에 있다. 나이가 어린 창업자이니 선배들이 먼저 조언해준다. 이를 통해 다양한 선배의 조언을 스펀지처럼 흡수해 실패 리스크를 줄일 수 있다. 또 태어났을 때부터 인터넷과 친했다. 소프트웨어 제작에 드는 비용은 단 0원. 클라우드 서버 사용료도 후불 결제라, 사용자가 있어야 돈이 나간다. 제품을 구현할 개발 기술만 조금 있다면 누구나 도전할 수 있다.”기업 운영 ‘팁’이 있다면.”사업을 하려는 90년대생은 아마 본인이 똑똑하다고 생각할 것이다. 그런데 깨져봐야 현실을 안다. 나도 그랬다. 기본적인 것에 충실하되 일단 빨리 시작하자. 빨리 망해야 빨리 안다. ‘고등학교 졸업하면, 대학 졸업하면, 경력이 조금 생기면’이라면서 시작을 미루지 말자.”-더 많은 기사는 이코노미조선에서 볼 수 있습니다.&lt;관련기사&gt;Part 1. 스타트업 생태계 흔드는 90년대생①90년대생 부하 직원?…이제는 ‘창업자’다②[Infographic] 90년대생 창업자가 뜬다Part 2. 국내외서 두각을 나타내는 90년대생 CEO③[Interview] ‘포브스 30세 이하 제조 기업인 2022′레비 콘로 레트릭 이바이크 공동창업자④[Interview] 이모티콘 플랫폼 스티팝조준용·박기람 공동창업자 겸 대표⑤[Interview] ‘토스 스타트업 서바이벌 우승’김민준 어웨이크코퍼레이션 대표⑥[Interview] 코딩 교육 팀스파르타 이범규 대표·IP 보호 소프트웨어 기업 마크비전 이인섭 대표Part 3. 전문가 제언⑦[Interview] 성종현 소프트뱅크벤처스 책임심사역⑧[Interview] 마이크 김 구글 스타트업 캠퍼스아시아·태평양 및 한국 총괄</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.07.20.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>덩치 키우는 토스, 페이스북 빈자리 채웠다</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002744961?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>빈 페이스북코리아 사무실에 추가 입주사업영역 확장과 인수합병(M&amp;A) 등으로 덩치를 키우면서 직원 수도 급증하고 있는 토스가 페이스북이 비운 사무실 공간을 채웠다.20일 금융권에 따르면 토스는 최근 페이스북코리아가 입주해있던 서울 강남구 역삼동의 오피스 빌딩인 아크플레이스 22~23층에 새롭게 입주했다. 토스는 페이스북코리아가 인근 센터필드로 이전하면서 공실이 된 해당 공간을 임차해 내부 인테리어 등의 공사를 마치고 지난 18일부터 사용하기 시작했다.토스는 이전부터 이 건물의 6개층을 사용하고 있었다. 페이스북코리아가 사용하던 공간을 새롭게 임차하면서 사용공간은 8개층으로 늘었다. 토스는 아크플레이스 외에 인근 2개 빌딩에도 입주해 있다. 토스 본체라고 할 수 있는 토스코어(비바리퍼플리카)가 아크플레이스에 주로 입주해 있고, 토스페이먼츠와 토스뱅크 등은 지식재산센터에서 7개층을 사용하고 있다. 또 토스증권, 토스CX, 토스인슈어런스 등은 한국타이어빌딩 6개층을 사용 중이다.하지만 토스는 여전히 사무 공간 부족 현상을 겪고 있는 것으로 전해졌다. M&amp;A와 함께 사업영역이 지속적으로 확대되면서 직원 수도 빠르게 늘어나고 있는 까닭이다. 2016년 60여명에 불과했던 직원 수는 현재 1700여명으로 늘었다. 토스는 여전히 수시 채용을 진행하고 있어 앞으로 직원 수는 더욱 빠르게 늘어날 전망이다. 특히 토스는 취업 준비생이 가장 가고 싶은 기업으로 꼽히는 '네카라쿠배당토(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)'의 멤버로 구직자들의 관심이 크다.토스 관계자는 "강남권에 전 계열사 직원이 입주할 건물을 찾기가 쉽지 않다"며 "통합 사옥을 마련하는 것도 비용 등을 고려했을 때 아직은 때가 아닌 것 같다"고 말했다. 서울 강남구 토스뱅크 본사. 연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.07.20.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>[임현우의 Fin토크] "핀테크 돈잔치 끝났다, 벨트 꽉 매라"</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004726369?sid=110</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>임현우 기획조정실 기자‘R(경기 침체)의 공포’ 속에 어렵지 않은 업종이 없지만 ‘금융의 미래’로 촉망받던 핀테크 업계가 빠진 수렁은 더 깊어 보인다. 코로나19 사태 이후 미국 증시에 상장한 핀테크 기업 30여 곳의 주가는 올 들어 평균 50% 급락했다. 같은 기간 나스닥지수는 30% 빠졌으니 충격을 제대로 받은 셈이다. 원인은 복합적이다. 핀테크는 ‘집콕 수혜주’의 하나로 급성장했지만 그에 걸맞은 실적을 보여주지 못했다. 당분간 저축이 줄고 연체율은 높아질 가능성이 큰 데다, 금융감독 당국이 핀테크에 대한 감시를 강화하고 있는 점도 악재다.비상장 핀테크 벤처의 몸값 역시 뚝뚝 떨어지고 있다. BNPL(선구매 후결제) 시장 최강자인 스웨덴 클라르나가 대표적이다. 지난해 460억달러(약 60조6000억원)로 인정받은 기업가치가 얼마 전 투자 유치 때는 67억달러(약 8조8200억원)로 깎였다. 1년 새 85% 쪼그라든 것이다. 미국에서 가장 비싼 스타트업으로 꼽혔던 결제업체 스트라이프의 평가 가치도 28% 줄었다. 외신들은 투자를 따내기 위해 몸값을 자진 삭감하는 곳이 줄을 이을 것으로 내다봤다.“지난해 핀테크 업계가 유치한 자금은 지속 불가능할 정도로 많은 수준이었다. 이젠 벨트를 꽉 매야 할 것이다.”(비즈니스인사이더) “벨트가 조여지고 나면 핀테크 기업의 생존 가능성은 대차대조표상 현금으로 평가받을 것이다.”(파이낸셜타임스) '60兆 데카콘' 몸값조차 85% 빠져한국도 예외일 수 없다. 카카오뱅크 주가는 고점 대비 3분의 1, 카카오페이 주가는 반의반 토막이 됐다. 카뱅을 따라 올해 화려하게 상장하려던 인터넷전문은행 케이뱅크는 머리가 복잡할 것이다. 토스 창업자 이승건 대표는 임직원 간담회에서 “2~3년은 시장이 좋지 않을 것이고 상장도 그만큼 미뤄야 할 상황”이라고 털어놨다고 한다. 케이뱅크나 토스는 그래도 괜찮은 편이다. 입지가 모호한 중소 핀테크 기업들은 벤처캐피털의 투자 검토 대상에서 지워지고 있다. 몇 년 동안 “투자 못 받으면 바보” 소리가 나올 정도로 ‘쉬운 돈’이 넘쳐났던 스타트업 시장이다. 화려한 복리후생과 파격적 연봉, 나날이 치솟는 기업가치를 마음껏 즐긴 핀테크인들은 혹한기를 잘 넘길 수 있을까.물론 이런 어려움은 핀테크 기업만의 일도 아닐뿐더러 부풀 대로 부푼 거품을 걷어내는 긍정적 계기로 작동할 수 있다. 시장 원리대로 적자생존(適者生存)이다. 안타까움이 남는 점은 ‘비정상적’으로 투자금이 넘쳐났다던 그 시기에 이런저런 사정으로 마음껏 사세를 키우지 못한 스타트업도 꽤 있다는 것이다. 금융당국은 2020년 전자금융법 전면 개정을 선언했다. 핀테크 사업의 진입장벽을 낮추고 결제 송금 등 허용 업무를 대폭 넓혀주겠다고 했다. 당시 여당과 조율해 만든 이 법안은 2년째 국회에서 잠자고 있다. 적은 자본금으로 마이페이먼트(MyPayment) 등의 사업을 할 수 있으리라 기대했던 회사들만 골탕을 먹고 있다. 지난해에는 금융소비자보호법을 이유로 금지한 보험 비교·추천 서비스를 중소 스타트업에 허용하기로 했지만, 이 규제 특례 역시 감감무소식이다. 인슈어테크(보험+기술) 스타트업 중엔 해외로 무대를 옮기는 곳도 있고 폐업을 고민하는 곳도 있다. 적자생존 시기 맞은 금융 벤처들미국 정보기술(IT) 전문매체 테크크런치는 “핀테크 스타트업의 투자 유치, 유니콘 기업 탄생, 인수합병(M&amp;A), 기업공개(IPO) 등 모든 것이 위축되고 있지만 그렇게 절망적이진 않다”고 했다. 절대적 규모가 줄긴 했지만 여전히 세계 벤처 투자금의 20% 안팎을 핀테크가 차지하고 있다. 자기들은 좋다고 하는데 대중은 아직 아리송해하는 블록체인과 달리 핀테크는 실체가 있고 효용을 준다. 김주현 신임 금융위원장은 “금융에서도 방탄소년단(BTS) 같은 글로벌 플레이어를 만들겠다”고 강조했다. 당국이 약속한 정책을 그대로 지키기만 해도 핀테크 기업들이 한결 수월하게 클 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.07.29.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>넥슨게임즈 '블루 아카이브' 일본 역주행 의미는</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000163964?sid=105</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>'블루 아카이브'는 김용하 PD를 필두로 넥슨게임즈에서 제작한 서브컬처 수집형 역할수행게임이다. 사진은 대표 이미지 /넥슨게임즈 제공넥슨게임즈 서브컬처 수집형 역할수행게임 '블루 아카이브'가 서브컬처 본고장인 일본 시장에서 흥행 기록을 써가고 있다.넥슨게임즈 MX 스튜디오가 개발한 '블루 아카이브'는 지난 21일 일본 애플 앱스토어에서 매출 순위 2위를, 26일 구글 플레이 3위를 기록했다. 해당 순위는 지난해 2월 4일 '블루 아카이브' 일본 서비스를 시작한 이래 최고 성과다. 종전 일본 양대 앱 마켓 최고 매출 순위는 애플 앱스토어 8위, 구글 플레이 4위였다.'블루 아카이브'의 이번 기록은 의미를 지닌다. 우선, 일본 애플 앱스토어에 출시한 한국 게임 중 '블루 아카이브'보다 높은 매출 순위, 즉 1위를 기록한 게임은 2개가 전부다. '리니지2 레볼루션(2017년)'과 '일곱 개의 대죄(2019년)'가 그것이다. 경쟁이 치열한 일본 시장에서 특히 서브컬처 장르 본고장이자 성지에서 한국 게임 개발사가 자체 개발한 지식재산권으로 거둔 성과다.시장조사업체 센서타워에 따르면 일본 모바일게임 시장 규모는 184억5000만 달러(한화 약 24조145억 원)로 57억2000만 달러(한화 약 7조4440억 원) 규모인 한국의 3배 이상 달한다. 일본 현지에서 애플 앱스토어는 마켓 비중 가운데 약 60%를 차지해 앱스토어 매출 순위가 곧 흥행의 바로미터로 여겨진다. 넥슨게임즈 측은 "일본 애플 앱스토어 시장 규모를 감안할 때 매출 기준 10위권 이내를 기록한 것만으로도 한국 양대 마켓 최상위 수준 성과를 낸 것"이라고 설명했다.넥슨게임즈는 1.5주년 기념 업데이트가 이번 성과를 이끄는 데 기여했다고 보고 있다. '블루 아카이브'는 지난 16일 일본 출시 1.5주년을 기념해 특별 생방송을 했다. 방송을 통해 1.5주년 2D 애니메이션 프로모션 비디오를 공개하고 수영복 콘셉트 신규 캐릭터 출시, 3성 등급 캐릭터 등장 확률 상향 등 대규모 업데이트를 예고했다. 해당 1.5주년 기념 생방송은 동시 시청자 수 3만2000명 이상 기록해 일본 트위터 실시간 트렌드 1위를 차지했다.밝고 유쾌한 스토리와 캐릭터도 흥행 요인으로 꼽힌다. '블루 아카이브'는 다수 서브컬처 장르가 소위 아포칼립스로 일컬어지는 어둡고 절망적인 세계관을 채용한 데 반해 학원도시 '키보토스'에 부임한 선생님 역할 플레이어가 게임 캐릭터인 학생들을 인솔해 미션을 수행하는 구조를 지녔다. 넥슨게임즈 측은 "학원도시라는 배경에 바탕을 둔 밝고 유쾌한 이야기에 생동감을 불어넣는 캐릭터에 이용자들이 긍정적인 반응을 보이고 있다"고 했다.넥슨게임즈는 지식재산권 확장 차원에서 다양한 사업자와 협업을 통한 음원, 만화, 굿즈 출시도 활발하게 추진할 계획이다. 김용하 넥슨게임즈 MX 스튜디오 총괄 PD는 "퍼블리셔와 협업해 블루 아카이브 팬들이 즐길 방안을 다각도로 모색하고 있다"며 "앞으로도 보다 양질의 콘텐츠와 서비스로 이용자 성원에 보답할 수 있도록 노력하겠다"고 말했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>토스, 알뜰폰 사업체 인수… “가계통신비 절감 목표”</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000829058?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>모바일 금융 서비스 ‘토스’의 운영사 비바리퍼블리카는 알뜰폰 사업자(MVNO) ‘머천드코리아’의 지분 100%를 인수하는 주식매매계약을 체결했다고 밝혔다.토스는 이번 인수를 계기로 애플리케이션(앱)을 통한 알뜰폰 가입 서비스를 선보일 예정이다. 알뜰폰 요금제 탐색부터 개통까지 가입의 전 과정을 혁신하고, 가계 고정 지출 중 상당 부분을 차지하는 통신비 절감 기회를 제공할 것이라는 게 토스 측의 설명이다.토스 제공        토스에 따르면 국내 알뜰폰 시장은 지난 2011년 도입 이후, 가입자 규모가 꾸준히 늘어나 2021년 기준 1000만 명을 돌파했다. 알뜰폰 사업자 숫자는 현재 70여개다.토스 측은 “전체 이동통시시장 가입자의 약 14%만 알뜰폰 회선에 가입돼있으며, 이마저도 절반 정도는 휴대폰이 아닌 사물인터넷(lot) 회선으로 개인고객 성장 잠재력이 큰 것으로 평가된다”고 설명했다.토스는 온라인 채널을 통해 주로 가입되는 알뜰폰의 특성상 ▲편리한 가입절차 ▲사용 유형에 맞는 최적의 요금제 ▲운영 사업자의 브랜드 인지도 등 세가지 요소를 시장 확대의 관건으로 보고 있다.장민영 토스 사업전략리드(Business Strategy Lead)는 “토스가 금융 서비스를 통해 고객의 시간과 비용을 아끼고 사회적 효용을 만들어낸 것처럼, 알뜰폰 가입 고객의 불편함 해소와 토스 고객의 통신비 절감에 기여하고자 한다”고 말했다.토스는 본인확인기관과 전자서명인증 사업자 지위를 모두 보유한 사업자로서, 알뜰폰 가입 과정에서 토스인증서를 적극 활용할 계획이다.토스가 인수하는 ‘머천드코리아’는 지난 1998년 설립 이후 약 20년 간 통신사업을 운영해 왔으며, 한국알뜰폰통신사업자협회의 감사를 맡고 있다. 이 회사는 LG유플러스(032640)의 1호 알뜰폰 사업자로 선정된 바 있으며, 현재 통신 3사와 모두 계약을 맺었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.07.25.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>토스까지 나섰다…알뜰폰 사업 힘주는 금융사들</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003896871?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>금융사들이 알뜰폰 사업에 눈독을 들이며 관련 시장에 속속 진출하고 있다.금융과 통신 서비스 간 시너지 효과를 기대해볼 수 있기 때문이다. 또 알뜰폰 가입자들의 데이터를 확보해 다양한 사업에 활용하겠다는 전략이다. 토스를 운영하는 비바리퍼블리카는 최근 알뜰폰 사업자 머천드코리아의 지분 100%를 인수하는 주식매매계약에 체결했다. 머천드코리아는 LG U+의 1호 알뜰폰 사업자로 선정된 바 있다. 현재 통신 3사와 모두 계약을 맺고 다양한 고객층의 요구에 맞춘 요금제를 운영하고 있다.이번 인수를 계기로 토스는 토스 앱을 통해 알뜰폰 요금제 탐색부터 편리한 개통까지 가입의 전 과정을 서비스하고, 가계 고정 지출 중 상당 부분을 차지하는 통신비 절감 기회를 제공한다는 계획이다.토스는 알뜰폰 시장의 개인고객 잠재력에 주목했다. 국내 알뜰폰 시장은 지난 2011년 도입 이후, 가입자 규모가 꾸준히 늘어나며 2021년 기준 1000만 명을 돌파했다. 알뜰폰 사업자 숫자는 현재 70여 개에 달한다.하지만 전체 이동통시시장 가입자의 약 14%만 알뜰폰 회선에 가입돼있다. 이마저도 절반 정도는 휴대폰이 아닌 사물인터넷(lot) 회선인 상황이다. 토스는 온라인 채널을 통해 주로 가입되는 알뜰폰의 특성 상 편리한 가입절차, 사용 유형에 맞는 최적의 요금제, 운영 사업자의 브랜드 인지도 등 세가지 요소를 시장 확대의 관건으로 보고 있다.  토스는 본인확인기관과 전자서명인증 사업자 지위를 모두 보유한 사업자로서, 알뜰폰 가입 과정에서 토스인증서를 적극 활용한다는 계획이다. 금융사 중에선 KB국민은행이 알뜰폰 사업에 가장 적극적으로 나서고 있다. KB국민은행은 은행권 최초 알뜰폰 1호 사업자인 Liiv M(이하 리브모바일)을 전개하고 있다.KB국민은행은 리브모바일의 제휴 통신망을 LG U+에 이어 KT로 확대한다고 25일 밝혔다.이번 제휴 통신망 확대로 리브모바일은 KT 통신망을 통해서도 다양한 서비스를 제공해 고객의 선택권과 편의성을 높였다. OTT(왓챠, 시즌), 게임(게임박스) 등을 이용할 수 있는 패키지 요금제와 데이터 같이 쓰기·셰어링을 선보이며 서비스 라인업을 강화했다.KT망 요금제는 음성·문자를 필요한 만큼만 이용하는 LTE 실속 15GB 등 2종, 음성·문자·데이터를 무제한 사용 가능한 LTE 무제한 11GB+, 100GB+ 등 6종, 가족·지인으로부터 데이터를 받을 수 있는 데이터 같이 쓰기 120분+, 240분+ 등 4종으로 구성된다.KB국민은행 관계자는 "하반기 SKT 통신망 추가 확대를 통해 고객이 리브모바일에서 원하는 통신망을 자유롭게 선택할 수 있도록 지원하겠다"며 "앞으로도 고객의 편리한 통신 생활을 위해 다양한 요금제와 서비스를 선보일 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>[특징주] 토스 3천억원 규모 신규 투자 소식에 관련주 강세</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013324608?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>토스[비바리퍼블리카 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 홍유담 기자 = 모바일 금융 서비스 '토스'의 3천억원대 신규 투자 유치 소식에 21일 관련 종목이 강세를 보이고 있다.    이날 오전 9시 6분 코스닥시장에서 다올인베스트먼트는 전 거래일 대비 16.59% 급등한 3천725원에 거래되고 있다.    다올인베스트먼트는 토스의 초기 투자자로 지분을 보유하고 있고, 이번 신규 투자에도 소규모로 참여했다.    다올인베스트먼트의 모회사인 다올투자증권(5.14%)도 오름세다.    토스뱅크의 지분을 보유한 이월드(12.87%)와 한국전자인증(4.71%) 등도 상승하고 있다.    전날 토스를 운영하는 비바리퍼블리카는 2천958억원 규모의 신규 투자를 유치했다고 공시했다.    이번 투자는 이번 달과 다음 달에 두 차례로 나눠 진행되고, 토스뱅크와 토스증권 등 주요 계열사의 성장을 위한 추가 투자 및 신규 사업 등에 활용될 예정이다.    ydhong@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.07.24.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>"카드 썼더니 '진짜' 20만 원 주네… 이래도 괜찮을까요?" [내돈내산]</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000687801?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>새 카드 쓰면 10만 원 안팎 현금성 포인트 지급카드사 "모집비용을 소비자에게 돌려주는 구조"체리피커 논란엔 "소비자의 합리적 이윤 추구"편집자주'내 돈으로 내 가족과 내가 잘 산다!' 금융·부동산부터 절약·절세까지... 복잡한 경제 쏙쏙 풀어드립니다.지난해 10월 지인 A씨와 대화 中지인 A씨 : 네이버에서 카드 만들고 10만 원 쓰면, 페이 포인트 10만 원 준대. 너도 해봐. 기자 : 그게 말이 되나? 카드사가 땅 파서 장사하는 것도 아니고. 조건이 까다롭겠지. 귀찮아. 지인 A씨 : 모르면 너만 손해지. 새 카드만 만들면 되는데. 네 맘대로 해. 기자 : 안 그래도 등산용품 사고 싶은 게 있긴 한데…  진짜야? 집에 가서 확인해볼게.A씨의 추천을 들은 지 반 년이 훌쩍 지난 지금, 저는 신용카드만 10장 이상 보유한 '카드 부자'가 됐습니다. 그렇습니다. 지인의 말은 사실이었습니다. 정말 네이버페이를 통해 신용카드를 만들고 일정 금액 이상을 사용했더니 10만 원 안팎의 네이버페이 포인트를 지급해주더라고요. 많게는 15만 원까지 받아봤습니다. 나중에 보니 카카오페이·토스·뱅크샐러드 역시 비슷한 이벤트를 진행하고 있었습니다. 일단 '공짜 돈'을 받아서 좋긴 한데… 한편으론 궁금한 점도 많아졌습니다. 자본주의 세상에서 그것도 금융회사가 소비자에게 이런 막대한 혜택을 주는 속셈은 무엇인지, 새 카드를 많이 발급하면 신용점수가 떨어지는 건 아닌지, 발급시 주의할 점은 무엇인지 등 말이죠.아 참, 아직까지 이런 혜택이 있는지 모르시는 분도 계실 것 같네요. 저처럼 신용카드를 적극적으로 활용하고 계신 분이나, 이런 소식을 처음 듣는 분들을 위해 궁금해할 만한 내용을 쉽게 풀어 정리했습니다. "어떻게 하면 '공짜 돈' 받을 수  있나요?"네이버페이 캡처일단 네이버에 접속해봅시다. '페이' 배너를 클릭하고, '혜택·쿠폰'으로 이동해 보세요. 여기서 '카드'를 누르면 현재 이벤트가 진행 중인 카드가 쭉 보일 거예요. 이달 가장 많은 혜택을 주는 카드는 삼성카드가 발급한 THE 1 카드네요. 무려 네이버페이 포인트 24만 원을 준다고 합니다. 그외 현대·롯데·신한·삼성(taptap 카드)도 20만 원 이상 포인트를 제공해 주네요. 통상 카드사들은 한 달 주기로 이벤트를 변경하니 참고하세요. 그럼 혜택과 조건은 어떻게 될까요. 삼성카드(taptap 카드)를 예시로 들어볼게요. ①이벤트에 응모하고 ②카드를 발급받은 뒤 ③해당 카드로 이달 31일까지 네이버페이 간편결제로 15만 원을 사용하면 ④다음 달 24일에 네이버페이 포인트 14만 원을 준다고 하네요. 만약 15만 원짜리 물건을 구입하면 체감가가 1만 원이 된다는 얘기죠. 추가적으로 9월에도 5만 원을 더 쓰면 3만 원을 주고, 휴대폰요금 등을 정기결제로 등록하면 최대 3만5,000원을 받을 수 있어요. 혜택을 모두 충족하면 총 20만5,000원이나 되네요. "자격 조건이 까다롭진 않을까요?"자격 조건은 두 가지입니다. ①이벤트 시작일 기준 6개월 동안 삼성카드 결제·탈회 이력이 없고 ②최근 1년간 삼성카드의 다른 프로모션 혜택을 받지 않은 회원이면 가능합니다. 다른 카드사도 자격 조건은 비슷해요. 다만 주의할 점이 있어요. 카드 연회비가 복병이 될 수 있거든요. 현재 가장 많은 혜택을 주는 카드는 삼성카드 THE 1 카드지만 실제 혜택은 얼마 되지 않아요. 왜냐하면 카드 연회비가 국내 전용 기준 19만5,000원이거든요. 20만 원 결제시 20만 원을 주지만, 연회비가 비싸서 실질적으로 얻는 이득은 5,000원에 불과해요. 결론적으로 해당 카드가 제공하는 자체 혜택 때문에 가입하는 분이 아니라면, 통상 만 원 안팎의 연회비를 제공하는 카드를 발급받는 게 유리할 수 있어요.고수들의 활용법 기초 수업은 마쳤으니 심화 과정으로 넘어갈게요. 바로 '풍차 돌리기'입니다. 위에서 삼성카드(taptap 카드)만 예시를 들었는데, 대부분의 카드사가 비슷한 혜택을 제공하거든요. 이 말인즉슨, 여러 개의 카드를 발급받고 프로모션 혜택 기간(1년)을 기다려 신규 카드를 발급받으면 카드사별로 1년마다 똑같은 혜택을 계속해서 받아볼 수 있다는 얘기죠. 온라인 재테크 카페·블로그 등을 보면 엑셀 등을 활용해 카드 신규 발급과 해지를 반복하는 고수들의 후기를 찾아볼 수 있어요. 카드사의 입장은?게티이미지뱅크자, 이제 여기까지 따라오셨으면 궁금한 점들이 생길 거예요. 도대체 카드사는 왜 이런 이벤트를 하는지, 이런 이벤트를 해도 남는 게 있는지 등 말이죠. 복수의 카드사 관계자 대답을 문답식으로 정리해볼게요. -이런 이벤트 왜 하나요?"원래 카드사는 카드 모집인을 통해 발급 카드당 5만 원 안팎의 모집비용을 제공해 왔어요. 그런데 코로나19가 터진 이후엔 모집인 활동이 어려워졌고, 네이버·카카오 등 온라인 플랫폼을 통한 발급이 대세가 됐어요. 간단하게 말하면 모집비용을 소비자에게 직접 주는 거라고 볼 수 있죠. 플랫폼들 역시 자사의 영향력을 확대하기 위해서 이런 이벤트를 진행하고 싶은 욕구가 있어요. 게다가 최근엔 다른 카드사들도 모두 이런 이벤트를 진행하니까, 우리만 안 할 순 없잖아요. 경쟁사보다 1만 원이라도 더 줘서 신규 고객을 끌어모아야죠."-남는 게 있나요?"남는 게 있긴 하겠지만 아직까지는 지켜보는 단계인 것 같아요. 영업 담당 부서는 신규 고객이 많이 늘어났다는 점을 강조하겠지만, 마케팅 비용이 너무 올라갈 경우에는 관련 부서에서 제동을 걸 수도 있거든요. 회사별로 어느 정도 상한선을 설정해 놨을 겁니다."-저 같은 소비자가 많아도 괜찮나요?"아니요. 그러면 카드사가 손해입니다. 애초 설계 단계부터 적극적 소비자가 100%라고 가정하고 상품을 출시하지 않거든요. 또 카드 수수료가 대부분 0.5%인데요, 이미 원가 이하로 책정된 상태죠. 그래서 단순히 소비자가 카드를 사용했다는 것만으로는 돈을 못벌어요. 그래서 카드사는 △할부 △현금서비스 △카드론 △리볼빙 등을 통해 돈을 벌어야 해요. 혜택을 받고 카드를 발급받으신 분들 가운데 일부는 이런 서비스를 이용하기 때문에 이벤트를 계속 진행할 수 있는 거랍니다." 신용평가사 "카드 개수와 신용점수는 무관"신용카드를 많이 만들면 신용점수에 영향이 가는지 궁금한 분도 계실 것 같아요.  이 부분도 복수의 신용평가사 관계자에게 물어봤어요. -신용카드 많이 만들면 신용점수에 영향이 있나요?"아니요. 이제는 영향 없습니다. 신용카드 발급 개수와 신용점수는 무관합니다. 과거에는 영향이 있었어요. 카드 대란·외환위기 등을 겪으면서 '카드 돌려막기' 등이 성행했잖아요. 그때는 카드를 많이 발급받으신 분들이 연체를 하는 경우가 많았죠. 그래서 신평사 입장에서는 '카드발급이 많을수록 연체가 많다'는 사실이 통계적으로 입증됐고, 이에 따라 신용점수를 조절하긴 했어요. 하지만 지금은 카드 혜택들이 워낙 다양하잖아요. 그래서 소비자들도 하나의 카드만 쓰는 경우는 없고 다수의 카드를 이용하죠. 그러다 보니 통계상 발급 카드가 많다고 연체율이 높은 게 아니더라고요."그래픽=강준구 기자잠자는 카드 1,300만 장포인트 혜택 등이 늘면서 사용하지 않는 카드 수도 함께 늘고 있어요. 올해 1분기 기준 1년 동안 사용실적이 없는 휴면카드는 1,300만 장을 돌파했어요. 지난해 1분기와 비교하면 200만 장 넘게 늘어난 규모랍니다. 전체 발급 카드 중 휴면카드 비중도 17.5%나 됩니다. 휴면카드가 늘었다는 건 새 카드 발급 이후엔 해당 카드를 사용하지 않는 소비자도 늘었다는 의미일 수 있어요. 이는 카드사 마케팅이 단기적 효과에 그쳤다는 얘기겠죠. 한편으로 카드 발급 비용은 늘어났지만, 실적이 개선되지 않을 경우 향후 막대한 카드 발급 비용이 문제가 될 수 있겠다는 걱정이  들기도 합니다. 이 궁금증은 카드사를 감독하는 금융당국에 물어봤어요. -현금성 포인트 마케팅, 이대로 괜찮을까요?"우려되는 부분이 없지는 않습니다. 경쟁이 너무 과도하면, 비용 구조를 악화시킬 수 있거든요. 다만 현재 법상 규제할 수 있는 부분은 없답니다. 카드 발급 자체에 대해서는 연회비의 10% 이상의 혜택을 제공할 수 없지만, 이용실적에 따라 혜택을 제공하는 것은 규제가 없거든요. 제도 개선에 대해서 고민해볼 부분은 있다고 생각합니다."'체리피커'를 위한 변명게티이미지뱅크저 같은 소비자를 업계에서는 이른바 '체리피커'라고 부를 것 같아요. 케이크에 올려진 체리만 쏙 빼먹듯이, 자기 실속만 극대화하는 소비자라는 뜻이죠. 주로 적극적 소비자를 부정적으로 평가할 때 사용하는 표현이랍니다. 하지만 카드사의 재정 건전성까지 감안하면서 소비해야 하는 게 바람직한 소비자의 윤리일까요? 강형구 금융소비자연맹 금융국장 얘기를 들어볼게요."카드사의 혜택을 적극적으로 추구하는 것은 소비자의 합리적인 행위입니다. 소비자가 충분히 정보를 탐색해서 자신에게 가장 유리한 카드를 설정하는 것은 아주 올바른 행위죠. 다만 감당 가능한 수준의 소비 생활을 하는 건 잊지 말아야 합니다."</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>토스앱서 휴대폰 개통 가능해진다…알뜰폰 업계 '부글부글'</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004727400?sid=105</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>금산분리 완화로 은행·금융권 알뜰폰 진출"막강한 자본력으로 중소 사업자 고사 위기"서대문 알뜰폰 스퀘어. 사진=조아라 기자모바일 금융 서비스 '토스'를 운영하는 비바리퍼블리카가 본격적으로 통신업에 진출하자 알뜰폰 업계의 불만이 흘러나오고 있다. 비바리퍼블리카는 21일 알뜰폰 사업자(MVNO) 머천드코리아를 인수했다고 밝혔다. 앞으로 토스 애플리케이션(앱)에서 요금제 탐색부터 알뜰폰 개통까지 할 수 있도록 기능을 업데이트할 계획이다. 알뜰폰 가입 과정에서는 토스 인증서를 활용할 방침이다. 장민영 비바리퍼블리카 사업전략리드는 "알뜰폰 가입 고객의 불편함을 해소하고 통신비 절감에 기여할 것"이라고 말했다.최근 정부가 금산분리 규제를 완화하면서 은행, 금융권이 잇따라 알뜰폰 사업에 뛰어들고 있다. 앞서 KB국민은행은 2019년 10월 금융위원회 금융 규제 샌드박스 제도를 통해 알뜰폰 브랜드 ‘리브엠’을 출시하면서 통신 사업에 진출했다. 현재 약 30만명에 가까운 가입자를 확보한 것으로 알려졌다. 리브엠은 기존 LG유플러스 망에 이어 올 하반기 SK텔레콤과 KT 망을 이용하는 신규 요금제 출시를 준비 중이다.신한은행 역시 KT와 손 잡고 이달 초부터 신한은행 앱 '신한 쏠(SOL)'에서 알뜰폰 가입 서비스를 선보이고 있다. 신한은행은 알뜰폰 사업자들과 제휴를 통해 판매채널을 제공한다는 입장이지만, 알뜰폰 업계에서는 향후 신한은행의 통신업 직진출을 우려하고 있다.이처럼 은행·금융권이 통신업에 눈독을 들이는 이유는 본업과 상당한 시너지를 낼 수 있기 때문이다. 결제 및 통신 데이터를 결합한 소비자 데이터를 확보할 수 있어 훨씬 더 고도화된 서비스를 제공할 수 있다. 또한 이용자 생활 패턴을 파악하면 개별 소비자 취향 맞춤형 상품을 선제적으로 출시해 더 많은 수익을 낼 수 있다.업계에서는 윤석열 정부가 금산분리 규제를 완화함에 따라 더 많은 사업자들이 알뜰폰 시장에 진입할 것으로 예상하고 있다.기존 알뜰폰 업계는 '가성비'(가격 대비 성능)가 유인책인 시장 특성상 막강한 자본력을 갖춘 대기업이 진출할 경우 중소 알뜰폰 사업자들이 고사 위기에 처할 수 있다고 우려했다.전국이동통신유통협회(KMDA)는 지난 19일 방송통신위원회에 KB리브엠·통신자회사 등 대기업의 불공정 알뜰폰시장 교란 행위에 대한 방통위의 강력제재를 통한 기존 통신시장(MNO)과의 공정경쟁 회복을 요청한다는 내용의 공문을 발송한 상태다. 아울러 통신 3사에게는 KB리브엠에 대한 보이콧을 요구한 것으로 전해졌다.업계 관계자는 "알뜰폰 시장 특성을 감안하면 자본력을 지닌 대기업들 중심으로 재편될 것"이라며 "향후 독과점 시장 형성으로 피해는 고스란히 중소 알뜰폰 사업자들이 떠안게 될 것"이라고 우려했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.07.19.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>광주은행, 금리상승기 영업력 강화…금융취약계층 이자부담 완화</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000833895?sid=102</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>송종욱 광주은행장이 2022년 하반기 경영전략회의를 진행하고 있다/사진=광주은행 제공. 광주은행이 올 하반기 금리상승기를 맞아 영업환경 변화에 따른 영업력 강화에 힘을 쏟는 한편 최근 한국은행의 빅스텝(기준금리 0.5%포인트 인상) 단행으로 빚 상환 부담이 늘어난  저신용자 등 금융취약계층을 위한 금리인하를 실시한다.광주은행은 18일 본점에서 2022년 하반기 경영전략회의를 개최했다고 밝혔다.이번 경영전략회의는 상반기 우수한 실적을 거둔 부점과 직원에 대한 시상, PB·활동고객·전략대출·적립금예금 등 각 부분별 우수사례 발표에 이어 달빛동맹 교류 은행인 대구은행 신성우 부천지점장을 초청해 영업 우수사례를 듣고, 다른 은행의 사례를 벤치마킹하며 직원간 의견을 공유하는 특별한 시간을 가졌다.또한'토스 product의 UX 원칙'이라는 주제로 토스 정희연 Head of UX로부터 디지털금융 마인드 변화와 경쟁력 강화를 위한 특강을 들었다.하반기 중점 추진 전략으로는 ▲금리상승기 도래 영업환경 변화에 따른 영업력 강화 전략 추진 ▲채널 최적화 전략과 비용 관리 기반의 경영 효율성 제고 ▲디지털 경쟁력 강화 통한 미래 수익기반 확대 ▲자산건전성 관리 강화를 제시했다.특히 송종욱 광주은행장은 직원들에게 '지역과 상생, 지역민과 동행'을 통한 '이익 이상의 가치 추구'의 경영 이념을 각인시키며▲지역 중소기업·중서민에 대한 금융지원 강화 및 포용금융 실천▲사회공헌활동 강화 ▲ESG경영 확대 ▲지역밀착사업 강화에 더욱 힘을 기울일 것을 당부했다.이와함께 코로나19 위기대응 과정에서 가계부채 및 기업부채가 크게 늘어나고, 최근 한국은행이 빅스텝(기준금리 0.5%포인트 인상)을 단행하면서 저신용자 등 금융 취약층의 빚 상환 부담을 줄여주기 위한 구체적인 금리인하 방안을 선제적으로 내놨다. 먼저, 서민금융 지원을 위한 포용금융대출 금리 2.0%포인트 인하 ▲신용보증재단 보증서담보대출 기한연장시 최대 1.0%포인트 인하 ▲개인사업자대출 만기 연장 시 금리 7.0% 초과대출 최대 1.0%포인트 인하를 시행한다. 아울러 지역의 중서민과 소상공인 지원을 위한 다양한 추가 방안을 강구해 시행할 계획이다.송종욱 광주은행장은 "사상 첫 빅스텝과 금융의 디지털화, 침체된 경기 등 급변하는 금융환경에 직면한 새로운 도전과 기회에 적극적으로 대응해야 할 때이다. 디지털 사업의 성숙도를 높이고 다양한 리스크요인에 선제적으로 대응하는 등 지속가능한 미래성장동력을 확보하여 100년 은행으로 성장을 위한 변화와 혁신을 과감히 실행해 나가자"고 주문했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.07.27.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>하루 2%대 이자에도 외면받는 ‘증권사 CMA’</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001542512?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>예금자보호 안돼 소비자 불안 커업계 “손실 날 확률 사실상 제로”기준금리 인상에 따라 최근 금융기관들도 상품 이자율을 올리고 있다. 특히 증권사 CMA(종합자산관리계좌)는 기준금리 인상분을 곧바로 반영해 연 이자율이 웬만한 ‘파킹통장’을 뛰어넘는다. 다만 예금자보호가 안 되는 리스크 탓에 아직 빛을 보지는 못하고 있다.26일 금융권에 따르면 증권사들은 지난달 한국은행 금융통화위원회의 ‘빅스텝(기준금리 0.5% 포인트 인상)’에 맞춰 일제히 CMA 금리를 인상했다. CMA는 증권사가 고객예탁금으로 어음·단기채권 등에 초단기투자하는 대신 일단위로 이자를 돌려주는 상품이다. 입출금이 자유로우면서 비교적 높은 금리를 제공하는 은행의 파킹통장과 유사하다.현재 주요 증권사 CMA 이율은 제1금융권 파킹통장을 뛰어넘는다. 미래에셋증권(2.30%) NH투자증권(2.30%) 한국투자증권(2.34%) SK증권(2.25%) 등은 대표적 파킹통장 판매은행인 토스뱅크(2.0%) 이율을 넘었다. 최근 금리를 올린 KDB산업은행(2.25%)과 비교해도 금리가 낮지 않다.하지만 이율이 상당히 높아졌음에도 아직 CMA에 돈이 몰리지 않고 있다. 금융투자협회에 따르면 전 금융권 CMA 잔액은 지난 22일 기준 57조5900억원으로 지난달 말(57조6100억)보다 소폭 감소했다.증권사 CMA 금리가 상당한 수준까지 올랐음에도 시장 반응이 미지근한 이유는 CMA가 예금자보호 대상 상품이 아니라는 불안감이 크게 작용했기 때문으로 보인다. 증권사가 도산하거나 유동성 위기에 빠질 경우 예치금을 돌려받을 수 없다는 우려다. 반면 시중은행은 5000만원까지 원리금이 보장된다. 파킹통장과 비교해 이율이 미미하게 차이 나는 상황에서 굳이 리스크를 지려 하지 않는 것으로 분석된다.업계에서는 이 같은 우려가 과도하다고 지적한다. 한 증권사 관계자는 “CMA는 단기현금자산에 투자하는 상품으로, 이론적으로는 손실이 날 수도 있지만 확률은 사실상 제로”라고 설명했다. 또 “부도가 난다 해도 CMA와 같은 안전상품은 인수회사가 승계할 수밖에 없어 결과적으로 예치금이 보장될 확률이 높다”고 말했다.치솟는 인플레이션율을 잡기 위해 연속된 기준금리 인상이 예고된 만큼 CMA가 뒤늦게 빛을 발할 것이란 시각도 있다. 증권사와 달리 주요 시중은행은 아직도 입출금계좌 금리를 올리는 데 미적지근한 모습이다. 앞으로 기준금리가 더 올라 CMA 금리와 은행권 금리 격차가 벌어지면 단기대기성 자금이 대거 몰려들 가능성도 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.07.30.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>2Q 실적 주춤할 결제사들…"옥석 가릴 기회"</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005125657?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>거시경제 환경도 부담…빈익빈 부익부 더해질수도카카오페이 등 주요 결제 관련 기업들의 올해 2분기 실적이 다소 둔화될 것으로 전망된다. 경기둔화로 소비 회복이 지연되는 한편 금리 상승까지 지속되면서 결제대금 감소 및 대출 중개 사업 실적 악화까지 예상되고 있는 상황이다. 다만 규모의 경제를 구축한 대형 금융 플랫폼에게는 기회가 될 수 있는 상황인 만큼 '옥석 가리기' 기회로 볼 수도 있다는 분석이 나온다.2Q 주춤한 실적 전망30일 삼성증권은 결제사들의 업황 전망에 대해 이 같이 내다봤다. 카카오페이, NHN한국사이버결제, 나이스정보통신, KG모빌리언스 등 주요 결제사들의 올해 2분기 실적은 주춤할 전망이다. 삼성증권은 KG이니시스를 제외하면 모두 전년 동기 대비 영업이익이 줄어들 것으로 예상했다. KG모빌리언스의 경우 매출도 전년 동기 대비 8.5% 감소할 것으로 내다봤다.실제로 대표 업체인 카카오페이의 경우 금융정보분석업체 에프엔가이드에 2분기 실적 시장전망치(컨센서스)는 매출 1325억원, 영업손실 52억원으로 집계됐다. 전년 동기 대비 매출은 21.3% 증가할 것으로 전망됐지만 적자 규모도 6배 이상 커질 것으로 예상됐다.조아해 삼성증권 연구원은 "지난 3월에 촉발된 결제 수수료율 하락에 대한 압력이 2분기에 반영되기 때문"이라며 "다만 이달 초 카드사와 전자지급결제(PG)업계 간 수수료율 인상안을 합의한 점을 고려하면 3분기부터는 점진적인 회복세를 보일 수 있을 것"이라고 설명했다.더 큰 경쟁 예고…거시경제 상황도 부담간편결제 업체들은 더욱 큰 경쟁에 놓일 것으로 보인다. 지난 5월 금융감독원이 네이버파이낸셜, 카카오페이, 토스 등 간편결제사들의 결제 수수료율 공시 가이드라인을 내놨다. 반기 단위로 공시하고 가맹점 수수료를 결제 관련 수수료와 일반 상거래 관련 기타 수루료로 구분해 관리하는 내용이 골자였다. 지난해 9월부터 불거진 간편결제사들의 높은 결제 수수료율로 인한 가맹점 부담과 이 때문에 소비자들에게 전가되는 부작용을 해결하기 위한 조치로 판단된다. 조 연구원은 "특히 카카오페이에 있어 결제 수수료율 설정에 부담 요인"이라며 "전자금융업자로 등록된 PG사만 100개가 넘으며, 간편결제 제공 업체도 46개에 달하는 가운데 이번 조치로 가격 경쟁을 유도함에 따라 결제사들의 수수료 인하 경쟁이 보다 강화될 여지가 크기 때문"이라고 진단했다.거시경제적인 변수도 부담이다. 금리 상승으로 인한 가계들의 이자부담 가중이 가처분소득 감소 및 소비 심리 위축을 야기하면서 결제 대금 감소 우려로 이어질 수 있기 때문이다. 여기에 대출 수요마저도 위축됨에 따라 대출 중개 수수료 감소 등과 같은 금융상품 중개 사업 실적 약화 우려까지 불거질 수 있다는 분석이다.옥석가리기 진행…대형 금융 플랫폼에겐 기회결국 옥석 가리기가 더욱 진행될 것으로 보인다. 금융 플랫폼으로 도약한 결제사들은 적자를 이어가면서도 주로 대규모 유상증자를 통해 시장점유율을 높이는 방향으로 사업을 이어갔다. 카카오페이는 기업공개(IPO)로 자본을 홥고했고 토스뱅크, 토스(비바리퍼블리카) 등도 유상증자를 이어갔다. 하지만 이는 저금리 환경에서 유리한 구조인 만큼 금리 상승기에는 지속하기 힘들다는 평가가 나온다. 이미 기업 투자가 보수적으로 변화하기 시작했다. 경기 후퇴와 고물가가 겹치는 스태그플레이션 상황 아래에선 이처럼 수익성보다 외형 성장에 방점을 둔 핀테크 결제사들은 조달금리 상승으로 부도 가능성까지 제기될 수 있게 된 것이다.반면 규모의 경제를 구축한 대형 금융 플랫폼들에게는 이는 곧 기회가 될 수 있는 구조다. 이미 충분한 자금력과 방대한 고객을 기반으로 우위를 점한 대형 결제사사들은 시장 지배력이 더욱 공고히 하는 한편 인수합병(M&amp;A)를 통해 시장점유율을 높일 수 있기 때문이다. 조 연구원은 "중장기적으로 금융 환경 변화 속 금융 플랫폼들의 성장 여력은 충분한 가운데 최근의 대내외 거시경제 환경은 업체 간 옥석 가리기를 결정짓는 요인 중 하나로 접근할 필요가 있다"라며 "산업 내 통합 압력이 높아지는 과정 속에서 대형 금융 플랫폼들이 핵심적인 역할을 수행할 것"이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.07.27.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>예적금 빨아들이는 시중은행…증시 하락에 '역머니무브' 가속화</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004729633?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>한 달도 안돼 시중은행 예금 19조 늘어신한·우리銀, 12개월 예·적금 기본금리 3.25~3.30%카뱅·케뱅, 기본금리는 2.5~3%대한국은행의 빅스텝(기준금리 0.5%포인트 인상)으로 은행들의 예금금리가 오르면서 시중은행으로 자금이 몰려들고 있다. 인터넷은행의 예·적금 금리와 비교해도 상대적으로 시중은행의 예금금리가 높다는 점도 자금이 쏠린 이유로 풀이된다.27일 금융권에 따르면 지난 21일 기준 5대 은행(KB국민·신한·하나·우리·NH농협)의 정기 예금 잔액(농협은행은 20일 기준)은 704조4484억원으로 지난 6월 말보다 19조3525억원이나 늘었다. 같은 기간 정기 적금 잔액은 4991억원 증가한 39조9634억원으로 집계됐다. 5대 은행 예·적금 잔액은 이달에만 20일새 19조8516억원 증가한 셈이다. 이는 6월 전체 증가분(6조237억원)의 3배를 뛰어넘는 수준이다.한국은행의 빅스텝으로 시중은행들의 예금금리가 일제히 오르면서 '역머니무브'가 가속화된 영향으로 풀이된다. 역머니무브는 주식 등 위험자산을 매도하고 자금을 예·적금에 넣는 현상을 의미한다. 은행권에선 최근 주식시장 및 가상화폐 시장이 하락하면서, 안전한 예·적금에 대해 문의하는 고객들이 늘고 있다.하나은행은 적금 22종, 예금 8종에 대한 기본금리를 최대 0.9%포인트 올렸다. 우리은행도 21개 정기예금과 25개 적금 금리를 최대 0.8%포인트 인상했고, NH농협은행도 예·적금 금리를 최대 0.6%포인트 인상했다.이는 시중은행의 예적금 상품의 금리 인상으로 이어졌다. 신한은행은 '아름다운 용기 정기예금'의 금리를 최근 0.4%포인트 올려 연 3.25%의 기본금리를 제공하고 있다. 매월 50만원에서 최대 3000만원까지 납입할 수 있는 1년 만기 예금으로, 생활 속 ESG를 실천하면 우대금리도 제공한다. 추가로 △1회용 컵 보증금 제도 알고 실천하기 서약한 경우 △비대면 또는 무통장 신규고객, 디지털 창구 신규고객 등에 한해 최대 연 1.50%의 우대금리를 적용한다.우리은행의 WON적금은 1년 기준으로 기본금리 3.30%를 제공한다. 만기 해지 시까지 우리 오픈뱅킹 서비스에 타행계좌가 등록된 경우에 대해 0.10%포인트의 우대금리를 적용한다. 월 최대 50만원까지 납입할 수 있는 상품이다.하나은행의 도전365적금은 1년 기준으로 기본금리 2.2%를 제공하며, 최대 연 1.7%포인트 우대금리를 적용한다. 신규로 계좌를 개설한 날로부터 11개월 되는 날까지 걸음수 데이터가 350만보 이상이면 연 1.50%포인트 우대금리를 제공하고, 자동이체 등록 우대로도 0.10%포인트 우대금리를 준다.NH농협은행에선 'NH왈츠회전예금II' 상품이 대표적으로 고금리를 제공한다. 해당 상품은 1개월부터 12개월까지 월 단위로 회전주기(자동 재가입)를 고를 수 있는 만큼, 금리 인상기에 유리한 조건이다. 12개월 만기 기본금리 3.15%에 우대금리를 더해 최대 3.25%까지 이자를 제공한다. KB국민은행의 'KB Star 정기예금'은 만기 시 원금과 이자를 자동으로 재예치하고, 최대 2회 분할 인출이 가능하다. 이 상품은 12개월 기준 연 3.20%, 최대 기간인 36개월 만기로 가입 시 연 3.30%의 이율을 보장한다./사진=게티이미지뱅크상대적으로 인터넷 은행보다 금리가 높다는 점도 시중은행으로 자금이 몰린 이유로 풀이된다. 매월 최대 30만원이 입금할 수 있는 케이뱅크의 코드K정기적금은 1년 기본금리가 2.90%로 책정됐다. 3년 가입시 3.40%의 금리를 제공한다. 목표를 정해서 일정 기간 목돈을 모으는 '챌린지박스'는 기본 1.50%금리에 자동 모으기 서비스를 통해 성공 조건을 달성하면 1.50%의 우대금리를 제공한다. 카카오뱅크의 정기예금은 1년 이상 2년 미만의 기간에 대해 연 2.50%의 금리를 제공한다. 자유적금은 같은 기간에 대해 연 2.70% 금리를 부여하고, 자동이체 우대금리로 0.20%포인트를 추가로 받을 수 있다.26주 적금은 6개월 기준으로 연 2.50% 금리를 제공하며, 자동이체 납입을 연속 성공하고 만기 해지한 경우 7주 연속 성공했다면 연 0.20%포인트의 우대금리를, 26주 연속 성공 시엔 연 0.30%포인트의 우대금리를 각각 제공한다. 총 0.50%포인트의 우대금리가 적용되는 셈으로, 최종 금리는 3% 수준이 된다.토스뱅크는 1억원까지 연 2%를 제공하는 파킹통장을 제공하고 있으며, 최근 내놓은 '키워봐요 적금'의 기본금리는 1%로, 매주 자동이체로 25회 연속 저금에 성공하면 우대금리로 2%를 제공한다. 납입한도는 월 최대 100만원으로, 매주 1000원부터 20만원까지 납입할 수 있는 상품이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>[알뜰폰 메기 리브엠]②금융사들은 왜 알뜰폰에 눈독 들이나</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000039894?sid=105</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>KB국민은행의 알뜰폰 브랜드 'Liiv M(리브모바일, 이하 리브엠)'이 약 30만명의 가입자를 유치하며 알뜰폰 시장의 메기로 떠올랐다. 리브엠이 금융 및 통신 시장에 미치는 영향에 대해 진단해본다.이미지=KB국민은행 리브엠 홈페이지.주요 금융사들이 알뜰폰 시장에 진출하는 것은 금융과 통신 서비스로 창출할 수 있는 시너지 효과와 이용자들의 데이터를 노린 전략의 일환으로 풀이된다.금융사 중 알뜰폰 사업을 가장 적극적으로 하고 있는 KB국민은행은 리브엠을 내세워 기존 금융 고객을 유지하는 동시에 추가 고객을 확보하는 전략을 펼치고 있다. 리브엠 알뜰폰 요금제는 본인명의의 KB국민은행 예금계좌와 신용카드(타 카드사 포함)를 보유했다면 가입 가능하다. KB국민카드의 리브엠 신용카드나 체크카드를 이용할 경우 통신비 할인 혜택도 제공한다. 이 과정에서 KB국민은행은 기존의 금융 고객을 유지하거나 신규 고객을 유치하는 수단으로 알뜰폰 요금제를 활용할 수 있다. 리브엠이 KT엠모바일·LG헬로비전·미디어로그 등 이동통신사의 알뜰폰 자회사보다 공격적인 요금제로 무장한 이유다. KB국민은행은 중소기업과의 상생 차원에서 이통사의 자회사를 제외한 중소 알뜰폰 사업자의 요금제보다는 높은 가격대를 유지한다는 입장이다.KB국민은행은 리브엠 가입자들로부터 발생하는 데이터를 활용해 통신과 금융을 결합한 다양한 신규 서비스를 발굴할 수도 있다. 가령 특정 연령대가 주로 찾는 요금제나 금융 상품을 분석해 그들만을 위한 맞춤형 서비스를 내놓으며 타 금융사와 차별화하는 방식이다. 당장 이익을 남기기 어려운 공격적인 요금제로 가입자들을 유치하지만 궁극적으로 신규 서비스를 만들어낼 수 있는 소중한 자산인 데이터를 얻을 수 있는 셈이다. 이미지=비바리퍼블리카.금융 플랫폼 '토스'의 운영사 비바리퍼블리카는 KB국민은행보다 한 발 더 나아가 기존의 알뜰폰 사업자 '머천드코리아'를 인수하며 알뜰폰 시장에 진출한다. 회사는 토스 앱을 통한 알뜰폰 가입 서비스를 선보이며 시너지 효과를 노린다. 토스를 통한 통신요금 납부, 휴대폰 결제 관리 등의 서비스가 이미 나와 있는 가운데 알뜰폰 요금제 가입까지 추가된다면 통신 관련 서비스가 더욱 풍부해진다.회사는 본인확인기관과 전자서명인증 사업자 지위를 이미 확보했기에 토스 인증서를 알뜰폰 가입 과정에서 활용할 수도 있다. 이용자들에게 알뜰폰 가입을 앱을 통해 보다 편리하게 할 수 있는 혜택을 제공하며 차별화할 수 있다. 회사는 이처럼 자사의 플랫폼·서비스와 알뜰폰이 만나면 다양한 시너지 효과를 낼 수 있을 것으로 판단했다.비바리퍼블리카는 부가통신사업자인 머천드코리아를 인수하는 것을 과학기술정보통신부(이하 과기정통부)에 신고하는 절차를 밟고 있다. 이 절차와 남은 인수과정을 마무리한 후 본격적인 알뜰폰 요금제 서비스를 선보일 예정이다.신한은행은 KB국민은행이나 비바리퍼블리카처럼 직접 알뜰폰 사업을 하진 않지만 KT와 전략적 파트너십을 맺었다. 신한은행의 모바일 앱 '쏠'을 통해 KT 알뜰폰 서비스 소개 페이지와 가입 이벤트 페이지를 신설하고 △KT M모바일 △KT스카이라이프 △스테이지파이브 △세종텔레콤 등의 제휴 요금제 12종을 판매한다. 신한은행도 이번 파트너십을 통해 통신과 금융을 합한 융합 서비스를 선보일 계획이다.알뜰폰 활성화를 추진 중인 과기정통부는 다양한 알뜰폰 사업자의 출현을 반기는 분위기다. 과기정통부 관계자는 "좋은 사업자들이 알뜰폰 시장에 진입하는 것은 긍정적으로 받아들이고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.07.23.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>[폰SIGHT]'5400만대' 스마트폰이 대체한 다섯 가지</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000039914?sid=105</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>각양각색 휴대폰 이슈, 제품, 기능 활용법 등을 소비자 관점에서 쉽게 풀이해봅니다.지금 한국에는 스마트폰이 몇 대나 있을까요. 이동통신사에 개통된 것만 5400만대(자료=과학기술정보통신부 무선통신서비스 통계)에 이릅니다. 통계청에 따르면 2022년 한국 인구는 약 5162만명이고요. 개통된 스마트폰이 인구보다 많은 실정인데, 그럼에도 매달 7~8만 회선이 신규 개통되고 있을 만큼 스마트폰에 대한 수요는 여전히 높습니다. 그리고 이렇게 우리 일상에 파고든 스마트폰은 이제 생각보다 일상의 많은 것들을 대체하는 데 성공했습니다. 지갑이 없어도 되는 삶카카오페이 통합 멤버십 페이지(왼쪽)와 삼성페이 결제 화면. (사진=각 서비스 갈무리)가장 먼저 지갑을 꼽을 수 있겠죠. 'XX페이'로 대변되는 전자지갑·결제 서비스들은 신용카드와 현금의 역할을 훌륭히 대체하고 있습니다. 특히 삼성전자 스마트폰에 기본 탑재되는 '삼성페이'는 기존 플라스틱 카드 결제기기와 호환되는 'MST' 기술을 택해 플라스틱 카드에서 스마트폰 결제로 전환되는 과도기를 부드럽게 연결한 일등공신으로 꼽히죠. 이제는 어느 가게를 가도 결제할 때 스마트폰을 내밀 때 이상하게 쳐다보는 점주들이 없을 정도입니다. 전국민이 쓰는 카카오톡과 연동된 카카오페이도 빼놓을 수 없습니다. 삼성페이만큼의 범용성은 없어도 제휴처에서는 결제 바코드를 제시하는 것만으로 쉽고 빠른 결제가 가능하죠. 카카오페이의 장점은 이전에 지갑을 가득 메웠던 각종 포인트 카드의 포인트 적립까지 한 번에 가능하도록 해준다는 점입니다. 게다가 앱 내에서 내가 보유한 포인트들의 현황도 확인할 수 있으니 더 이상 실물 포인트 카드를 발급받을 일은 없어졌습니다.은행 앱은 어떨까요? 지문과 비밀번호만 있으면 실시간 계좌이체가 가능해진 요즘은 지갑의 최후 보루였던 현금의 지위를 흔들리게 하고 있습니다. 여전히 '현금결제'를 요구하는 일부 오프라인 매장들도 과거와 달리 실시간 계좌이체에 대해선 현금과 같은 대우를 해주는 경우가 많지요.주민등록증, 운전면허증...이젠 장롱으로 보내자모바일 주민등록증 홍보 이미지. (자료=행정안전부)주민등록증과 운전면허증으로 대표되는 '신분증'은 스마트폰이 등장한 후로도 의외로 디지털화가 더딘 영역이었습니다. 개인정보 도용, 복제에 대한 신뢰기반 마련이 우선이었기 때문인데요. 지금까지는 이동통신3사의 PASS 앱을 이용한 디지털 운전면허증 서비스 정도가 유일했지만 범용적으로 쓸 수 없다는 한계가 있었습니다.그런데 이젠 정부가 직접 공인한 디지털 신분증을 스마트폰 하나에 내장할 수 있게 됐습니다. 먼저 주민등록증부터 볼까요? 행정안전부에서는 지난 12일부터 '주민등록증 모바일확인 서비스'를 전면 시행 중입니다. 정부24 앱을 이용해 몇 가지 간단한 절차만 거치면 곧바로 플라스틱 주민등록증을 대체할 수 있는 수준의 디지털 주민증이 생성되는데요.행정안전부에 따르면 ①민원서류를 접수할 때 또는 자격을 인정하는 증서를 발급할 때 ② 편의점, 식당 등 일상생활에서 성년자 여부를 확인할 때(멤버십 등 민간서비스 영역 포함) ③ 공항, 여객터미널에서 탑승 시 신분 확인이 필요한 때 ④ 사인 간 계약이나 거래 시에 주민등록증 대신 ‘주민등록증 모바일 확인서비스’를 이용해 본인 여부를 확인할 때 이용할 수 있다고 합니다. 사실상 일상 대부분의 영역이죠.모바일 운전면허증 발급 절차. (자료=모바일 신분증 홈페이지)운전면허증도 오는 28일부터 모바일 발급이 가능합니다. 다만 주민등록증 대비 방법이 좀 더 복잡한데요. 기존 면허증 소지자들은 먼저 안전운전통합민원 홈페이지 또는 운전면허시험장∙경찰서에 방문해 기존 운전면허증을 'IC 운전면허증'으로 새로 발급받아야 합니다. 이어 행정안전부의 모바일신분증 앱을 설치 후 IC 운전면허증을 스마트폰으로 태그하면 모바일 운전면허가 발급됩니다. 이후 스마트폰을 교체했을 때는 재방문 없이 IC 운전면허증을 같은 방식으로 태그하면 손쉽게 재발급받을 수도 있고요. 이렇게 발급된 면허증도 현행 플라스틱 면허증과 동일한 법적 효력을 갖습니다. 이처럼 비록 현금이나 신용카드를 담기 위한 지갑은 필요 없어졌지만 여전히 실물 신분증 제시를 위해 카드형 케이스를 사용해야 했던 시간들도 이제 곧 과거의 이야기가 될 것 같습니다. 종이 낭비, 개인정보 유출...굿바이 지류 고지서수도세, 전기세, 지방세·국세, 범칙금, 관리비…살다 보면 정기적으로나 일시적으로나 집 우편함으로 날아드는 각종 종이 고지서들을 받아볼 수 있습니다. 이런 고지서가 쌓이면 미관상으로도 지저분하지만 환경보호 측면에서도 좋지 않고, 무엇보다 고지서를 통해 개인정보가 유출되거나 주인이 장기간 자리를 비운 빈집이란 사실이 드러나 표적 범죄를 당하는 요인을 제공하기도 하죠.하지만 여러 플랫폼 기업들이 제공하는 전자문서 서비스를 잘 이용하면 집에 불필요한 종이 고지서가 날아드는 일은 줄이고, 스마트폰으로 바로 받아 결제까지 가능한 편리를 누릴 수 있습니다.카카오톡 청구서 서비스(왼쪽), 토스의 공공 증명서 온라인 발급 서비스. (자료=각 서비스 갈무리)현재 정부의 '모바일 전자고지' 사이트에 접속해보면 총 196종류의 전자고지서가 모바일로 서비스되고 있다는 점이 확인됩니다. 아직 한 서비스로 모든 고지서를 처리할 수 없다는 점은 아쉽지만 필요에 따라 알맞은 모바일 전자고지 서비스를 제공하는 플랫폼을 찾는다면 지류 고지서를 처리하는 것보단 편리할 것입니다. 모바일 전자고지 서비스를 제공하는 곳으로는 네이버, 토스, 페이코, KT, 카카오페이, 포스트플러스 등이 꼽힙니다. 예컨대 네이버만 하더라도 앱 내 '전자문서' 서비스에서 서울특별시 지방세, 자동차세, 재산세와 국민건강보험공간, 국민연금공단 관련 고지서들을 처리할 수 있고 카카오페이는 전기세나 가스, 아파트 관리비 등의 고지서도 처리할 수 있습니다. 또 서울시 STAX, 모바일지로처럼 공공에서 운영하는 서비스들도 있고요. 이와 함께 주민등록등본, 코로나 예방접종증명서, 국가기술자격증 등 일년에 수차례 이상 발급·제출할 일들이 생기는 각종 공적 증명서들이 있는데요. 앞서 언급한 전자문서 발급 플랫폼들에서 이 같은 증명서들을 쉽고 빠르게 발급해주는 서비스들도 쉽게 찾아볼 수 있습니다. 예를 들어 토스 앱에서 '전체'-'증명서 떼기' 메뉴로 들어가서 주민등록등본을 누른 후 클릭 몇번과 생체인증 한번이면 1분 내로 디지털 주민등록등본이 발급됩니다. 예전에는 담당처에 직접 방문하거나 PC에서 공동인증서를 이용해 로그인하고 이런저런 프로그램 설치 후에야 가능한 번거로운 일이었는데 이젠 스마트폰이 그 일도 대신할 수 있게 된 세상입니다."여보, 나 차키 좀 보내줘"스마트폰으로 차 키도 대신할 수 있다는 사실, 알고 계신가요? 아직은 일부 브랜드와 차종에 그치고 있지만 삼성전자와 애플 같은 주요 스마트폰 제조사들은 최근 스마트폰 기반 디지털 키 기술 개발에 박차를 가하고 있습니다. 앞으로 수년 내에는 보급형 차종으로도 확산될 전망이죠.일례로 삼성전자는 올해 현대자동차 그룹과 협업해 초광대역(UWB·Ultra-Wideband) 기술 기반의 스마트폰 디지털 키 서비스를 제네시스 전기차 'GV60'에 선보였는데요. 차량 안내 매뉴얼에 따라 삼성페이를 통해 디지털 키를 등록하면 이후는 실물 차키 없이 스마트폰을 들고 접근하는 것만으로 차 문을 열고, 시동을 거는 등의 작업이 가능해집니다.특히 이런 디지털키의 장점은 지인 간 공유가 가능하다는 점입니다. 삼성 디지털 키의 경우 최대 3명에게 공유할 수 있고, 공유 대상의 연락처만 알면 키를 설치할 수 있는 문자 메시지 전송이 가능합니다. 차주는 키 사용 기간과 권한 범위를 설정할 수 있고요. 외출 중인데 집에서 차가 필요한 가족에게, 혹은 카셰어링을 할 때 유용할 것 같습니다.삼성 디지털 키를 지인에게 공유하는 장면. (자료=삼성전자 뉴스룸)삼성가전, LG가전, 이제 남이 아냐스마트폰은 일찍이 사물인터넷(IoT) 시대의 핵심 허브로 주목받아왔습니다. 집안 내 가전이 하나의 네트워크로 묶이고, 이들 가전의 상태 확인과 기능 작동도 하나의 스마트폰에서 확인하는 일은 이미 상당 부분 현실로 다가와 있죠. 지금도 삼성전자 스마트싱스나 LG전자 씽큐(ThinQ), 혹은 샤오미가 제공하는 IoT 앱들을 통해 집 안팎에서 스마트폰으로 자유롭게 제어하는 가전들을 경험 중인 분들이 있을 겁니다. 그들 가전에는 각각의 리모컨도 있지만 스마트폰이 기능을 대신할 수 있다면 굳이 리모컨을 찾아 헤매거나 건전지를 갈아줄 필요가 없죠.다만 지금까지 이런 라이프스타일을 통칭하는 '스마트홈'에는 한 가지 단점이 있었는데, 바로 호환성입니다. 스마트홈 기술을 각자 개발하다보니 삼성 가전은 삼성가전끼리, LG 가전은 LG 가전끼리만 연결 가능한 일이 벌어져왔던 거죠. 결국 온 집안을 하나의 가전 브랜드로 채우지 않으면 광고에서나 나오는 물흐르듯 연결되는 스마트홈 경험은 불가능했습니다. 그러나 이런 경계도 서서히 허물어지고 있습니다. 최근 삼성전자, LG전자, 애플, 구글, 아마존을 비롯한 주요 스마트홈 업체들이 하나의 스마트홈 표준 생태계 구축을 위해 뜻을 모으기 시작한 덕분인데요. 이와 관련해 일반에서는 다소 생소하겠지만 CSA라는 단체에서 이미 '매터(Matter)'라는 개방형 스마트홈 표준을 개발해 보급에 힘쓰고 있죠. 이미 500개 이상의 기업이 매터에 가입했고 지난 19일에는 LG전자가 이곳의 의장사로 취임했다는 소식도 전해졌습니다.이 같은 흐름에 따라 전세계 제조사들의 스마트홈 표준 생태계 구축에도 더욱 속도가 붙을 전망인데요. 이 과정에서 브랜드를 가리지 않고 스마트폰 하나로 제어할 수 있는 실내 가전의 종류와 수 또한 기하급수적으로 늘어날 것으로 예상됩니다.특정 브랜드 가전으로만 집안을 가득 채워야 하는 일은 이제 곧 사라질 예정이다. (사진=LG전자 소셜 매거진)이처럼 스마트폰은 단순히 그 숫자만 늘어나고 있는 게 아니라 우리 일상 곳곳 깊숙한 곳까지 점점 빠르게 파고들고 있습니다. 아마 시간이 더 흐르면 초거대 AI와 같은 고성능 AI가 휴대폰으로도 내장돼 영화 아이언맨의 '자비스' 같은 가상비서가 우리와 함께할지도 모르겠습니다.다만 우려되는 것은 역시 보안의 영역일 텐데요. 금융, 신분증, 자동차, 집에 이르기까지 모두가 스마트폰 해킹 시 적잖은 재산·생명의 피해를 입을 수 있는 것들입니다. 물론, 지금도 개발 단계에서부터 고도의 보안성과 위조방지 시스템이 함께 만들어지고 있습니다. 제조사들도 이를 강조합니다. 그러나 단 하나의 구멍이 돌이킬 수 없는 피해를 부를 수 있다는 점 또한 부인하기 어려운 만큼 서비스 제공자들은 편의성 고도화에 앞서 소비자들을 위한 보다 안전한 사용 체계 확립에 힘써야 할 것입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.07.26.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>이준석 "공격 자체가 추잡…우크라이나 방문비용 갖고 누군가 장난"</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001166775?sid=100</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>국민의힘 이준석 대표가 6월 5일(현지시간) 우크라이나 키예프주 이르핀 방문, 전쟁 피해현장을 둘러보고 있다. 사진은 국민의힘 제공. 연합뉴스당원권 정지 6개월 중징계를 받은 국민의힘 이준석 대표가 지난 6월 우크라이나 방문 당시 사용한 비용 관련 기사에 "누군가 정치적으로 공격하려고 한다"며 발끈했다.이 대표는 26일 오후 페이스북을 통해 한 매체의 기사를 공유하면서 "법인카드 '한도' 2000만원 기사로 장난치더니 이제는 우크라이나 방문비용을 가지고 누군가가 장난을 친다"고 반발했다. 인터넷 언론사인 이 매체는 국민의힘 특별대표단이 지난달 6박 7일 우크라이나 일정에 당비 1억 4458만여원을 사용했다고 보도했다. 그러면서 특별대표단에는 이 대표를 비롯해 당직자까지 총 11명이 포함돼, 우크라이나 일정에 1인당 1300여만원의 당비가 들어간 셈이라고 전했다. 다만 이 매체는 해당 일정에 외교부 관계자 3명도 동행했으나 관련 비용은 당정이 각자 처리한 것으로 확인됐다고 덧붙였다.이에 대해 이 대표는 "상대 정당이 초청해서 우크라이나에 가는데 당비를 쓰는 것은 당연하고, 일정은 초청일정에 맞춰 가는 것"이라며 "정말 이런 자료나 유출시켜 정치적으로 공격하려고 하는 모습을 보면 환멸감이 든다"고 적었다. 또 그는 "우크라이나 방문시 직항편도 없어 바르샤바까지 갈때는 이스탄불·올때는 도하 경유로 비행기값만 1인당 800만원 넘게 들었다"며 "경유로 표도 구하기 힘들어 의원들은 갈 때 그 장시간 비행을 이코노미를 타고 갔고, 바르샤바에서 우크라이나까지는 방문단 전원이 버스에 같이 타고 육로로 위험지대를 10시간 넘게 들어갔다"고 설명했다.특히 이 대표는 "회계내용은 엄격하게 관리되는데, 언론사가 해킹이라도 한 것이 아니라면 지난 달 회계보고를 받은 최고위원이 이 내용을 언론사에 토스했을 수밖에 없다"며 "이런 공격을 시도하는 것 자체가 추잡하다"고 비판했다. 그러면서 "저는 대표 되고 나서 당에서 제공한다는 카니발과 운전기사도 거부하고 대중교통이나 자차 이용해서 다닌다. 이런 걸로 공격해봐야 남는거 없다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>토스, 알뜰폰 사업 진출 소식에 관련주 '껑충'</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001044142?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>모바일 금융 서비스 '토스'의 알뜰폰 사업 진출 소식에 21일 관련 종목이 수혜를 입었다.이날 코스닥시장에서 다올인베스트먼트는 전 거래일 대비 4.07% 오른 3천325원에 거래를 마쳤다. 장 초반에는 22.07%까지 치솟기도 했다.다올인베스트먼트는 토스의 초기 투자자로 지분을 보유하고 있고, 이번 신규 투자에도 소규모로 참여했다.다올인베스트먼트의 모회사인 다올투자증권(1.75%)도 상승 마감했다.토스뱅크의 지분을 보유한 이월드(1.88%)와 하나금융지주(2.19%), 대신정보통신(2.14%) 등도 올랐다.전날 토스를 운영하는 비바리퍼블리카는 2천958억원 규모의 신규 투자를 유치했다고 공시했다.이번 투자는 이번 달과 다음 달에 두 차례로 나눠 진행되고, 토스뱅크와 토스증권 등 주요 계열사의 성장을 위한 추가 투자 및 신규 사업 등에 활용될 예정이다.비바리퍼블리카는 이날 알뜰폰 사업자(MVNO) 머천드코리아 지분 100％를 인수하는 주식매매계약을 체결하기도 했다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.07.19.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>빅테크 `선구매 후결제` 과소비 조장 논란</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002744745?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>네이버·쿠팡 등 BNPL 사업 경쟁카드사들도 '카드없이 분할 결제'사용자 대금결제시기 놓치기 일쑤72%는 개인신용도 하락까지 경험현대카드 제공    네이버, 쿠팡 등 빅테크 기업들이 선보이는 BNPL(Buy now Pay later·선구매 후결제) 사업에 카드사들도 뛰어들고 있다. 씬파일러(Thin Filer·금융이력 부족자)에 대한 금융 접근도를 높인다는 측면에서 내놓은 서비스라는 설명인데, 금융권에서는 과소비와 연체를 야기할 수 있다는 지적이 제기된다. 19일 금융권에 따르면 현대카드·신한카드·KB국민카드는 BNPL 서비스를 선보이거나 준비 중이다. 현대카드는 온라인 패션 플랫폼 무신사가 운영하는 한정판 스니커즈 중개 플랫폼인 '솔드아웃'에 '카드없이 분할결제'(사진) 기능을 선보였다. 현대카드를 신청하거나 이용한 이력이 없는 만 19세 이상의 솔드아웃 회원이 대상이다. 분할결제한 금액을 3분의 1로 나눠 세 번에 걸쳐 갚는 방식이다. 10만~50만원 이하 소액 상품에 적용되며, 이 서비스를 이용하는 중에는 다른 상품을 추가 분할결제 할 수 없다. 신한카드는 BNPL에 들어가는 신용평가모델을, KB국민카드는 BNPL 서비스 출시를 준비 중이다.BNPL은 현금 없이 물건을 먼저 구매한 후 나중에 분할해 지급하는 구매 방식이다. 신용카드와 달리 소비자의 신용등급과 무관하게 이용할 수 있으며, 분할거래 수수료도 없다. 이런 특징으로 인해 해외 핀테크 스타트업을 중심으로 급속도로 성장하고 있다. 현대카드 사례처럼 BNPL 이용 기준이 신용카드 발급이나 대출처럼 까다롭지 않아 씬파일러에 적합한 구조다. 미국 최대 전자상거래업체 아마존에 이어 애플도 진출을 선언했다. 국내에서도 지난해 네이버파이낸셜, 쿠팡을 시작으로 카카오페이, 토스 등으로 확대되는 중이다. 일종의 여신(대출) 사업이지만 금융당국의 규제 샌드박스를 통해 플랫폼 사업자의 BNPL 진출이 가능해졌다.BNPL의 한도는 소액이지만 씬파일러들의 과소비와 연체를 부추길 수 있다는 점이 큰 문제로 꼽힌다. 미국 핀테크 업체 크레딧 카르마는 BNPL 사용자의 3분의 1이 대금결제 시기를 놓쳤고, 이 중 72%는 신용도가 하락했다는 조사 결과를 내놨다. 국내 역시 사정은 마찬가지다. 윤창현 국민의힘 의원실에 따르면 네이버페이의 후불결제 서비스의 연체율은 1.26%로, 신용카드 연체율 0.54%의 두 배가 넘는 것으로 나타났다. 영국과 미국 감독당국에선 BNPL 시장 제한과 관련한 움직임도 있다. 한 금융권 관계자는 "플랫폼들이 내놓는 BNPL 서비스는 연체 채권 관리가 어려워 모럴 헤저드(도덕적 해이)를 일으킬 수 있고 '깡'(현금화) 문제에서 자유로울 수 없다"며 "경기도 좋지 않아 연체율은 더 올라갈 것"이라고 지적했다. 국내 카드업계에서 최초로 BNPL을 도입한 현대카드는 이에 대해 이 서비스를 일종의 여신 상품으로 취급하고 있으며, 플랫폼들에 비해 리스크 관리가 더욱 세밀하게 하고 있다고 밝혔다. BNPL 서비스 이용자는 자체 신용평가모델을 통해 관리되며, 연체가 발생하더라도 금융권 내 연체정보 공유를 통해 추가 채무를 막는다는 게 회사 측 설명이다. 연체 수수료는 연 9% 수준으로 알려졌다. 현대카드 관계자는 "BNPL 서비스는 대출 상품이기에 연체가 발생하면 연체이력 등재 등 일반 상품처럼 연체가 관리된다"며 "여신업자이기 때문에 플랫폼 사업자들보다는 안전하게 리스크를 관리할 수 있다고 판단한다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.07.26.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>'우크라 방문 당비 1.4억' 보도에 이준석 "이런 공격 추잡"</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005123684?sid=100</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>당비 사용 액수 보도에 "누군가 장난""자료 유출시켜 정치적 공격, 환멸감 든다"이준석 국민의힘 대표가 4일 국회에서 열린 최고위원회의에 참석, 회의 도중 심각한 표정을 짓고 있다./윤동주 기자 doso7@이준석 국민의힘 대표가 지난달 우크라이나 방문 당시 1억4000만원을 사용했다는 보도에 대해 "누군가 장난을 친다"고 비판했다.26일 이 대표는 페이스북을 통해 "법인카드 '한도' 2000만원 기사로 장난치더니 이제는 우크라이나 방문비용을 가지고 누군가가 장난을 친다"고 밝혔다.앞서 한 인터넷 언론은 국민의힘 특별대표단 11명이 지난달 6박7일로 우크라이나 방문 당시 당비 1억4458만원을 사용했다고 보도했다.이 대표는 "상대 정당이 초청해서 우크라이나에 가는데 당비를 쓰는 것은 당연하고, 일정은 초청일정에 맞춰 가는 것"이라며 "이런 자료나 유출시켜 정치적으로 공격하려고 하는 모습을 보면 환멸감이 든다"고 했다.또 "우크라이나까지 직항편도 없어 바르샤바까지 갈때는 이스탄불, 올때는 도하 경유로 비행기값만 1인당 800만원 넘게 들었다"며 "경유로도 표를 구하기 힘들어 의원들은 갈 때 그 장시간 비행을 이코노미를 타고 갔고, 바르샤바에서 우크라이나까지는 방문단 전원이 버스에 같이 타고 육로로 위험지대를 10시간 넘게 들어갔다"고 설명했다. 그는 "회계내용은 엄격하게 관리되는데, 언론사가 해킹이라도 한 것이 아니라면 지난 달 회계보고를 받은 최고위원이 이 내용을 언론사에 토스했을 수밖에 없다"며 "이런 공격을 시도하는 것 자체가 추잡하다"고 했다.이 대표는 "저는 대표 되고 나서 당에서 제공한다는 카니발과 운전기사도 거부하고 대중교통이나 자차 이용해서 다닌다"며 "이런 걸로 공격해봐야 남는거 없다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>머니투데이 오프라인 헤드라인-21일</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004773324?sid=102</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>[종합]'뚝' 떨어진 수요...반도체 '한파 주의보'부동산 덮친 '빅스텝'...매물 늘었지만 안 팔린다버팀목 전세대출 금리 동결이미경 '국제에미상' 공로상 수상..."한류 선봉장"일제가 끊은 조선의 발자취 90년만에 다시 걷는다유럽, 전기차 드라이브 '급브레이크'..."韓 치고나갈 기회"'투자위축' 경기침체 시그널...화학업계, 하반기도 먹구름안전보건공단 '중대법 안착' 총력전환율 3일째 하락...강달러 한풀 꺾이나[주택시장 新치킨게임]2%대 '고정'한 영끌족만 승자? 빠지는 호가보다 무서운 금리'50년 주담대' 나와도..."서울선 적정 매물찾기 별따기"[the300]강경했던 尹, 대우조선 공권력 투입 질문에 "더 답변 않겠다"대통령실, 우수 '국민제안' 선정..."오늘부터 온라인 투표"[오피니언]민간주도 혁신성장을 견인하는 정부의 역할서울의 밝은 내일 여는 '동행'잘못 끼워진 단추, 공매도통화스와프 카드, 미국 받을까[국제]美서머랠리 기대..."숨어있는 '곰' 조심"전설의 외교관이 본 바이든 "中이해도 낮아...재앙 초래"[산업]차값 또 올린 테슬라...물 만난 '아이오닉6' 노 못젓는 이유코오롱모빌리티그룹 출범 10년만에 車 다시 쪼갠다방역상품 다시 불티...미소 감춘 유통가'소주 대란' 재점화하나 격해진 하이트진로 시위[금융]토스, 7000억 수혈...'데카콘' 향해 질주당국 '고통분담' 압박 커질라 호실적에도 못 웃는 금융지주[바이오]정점 곧 닥친다...요양원 문닫고 병상 추가폐섬유증 신약 기대감 플라이언트 주가 '훨훨'[유니콘팩토리]육아고수가 키우는 어린이용 '토스'...금융사 잇단 러브콜"K-벤처 글로벌 진출 지원 디지털경제 톱3 국가 도약"[ICT·과학]"3高위기 韓경제, 돌파구는 '과학기술'"'코·인·공' 트리플 악재 비상 스마트폰 출하량 9% 줄었다[건설 부동산]심야 탄력요금 도입, 플랫폼 택시 늘린다올 1~5월 거래 건축물 20.9%는 '상업용 부동산'[사회]"오해할 만 vs 위협 남발" 법조계 시끌직장괴롭힘 신고하자...근로감독관 "관두는게 어때요"[정책현장을 가다]사료값 아껴주고 영양소 자동배합 "고맙소""한우, 日 와규 넘어 최고 프리미엄 성장 시킬것"[정책사회·문화]출범 못한 '국가교육위' 장기 표류 우려7.4% vs 1.7%' 격차 큰데...공무원 임금인상안 좁혀질까[스타뉴스]'차분+냉정' 박해일표 젊은 이순신이 그려낸 '뜨거운 승전''학폭 의혹' 김가람 결국 퇴출 걸그룹 르세라핌 5人 체제로[증권]하반기 'IPO 대어' 줄대기...집나간 공모자금 다시 돌아올까'돈맥경화' 앓는 리츠, 자금조달 비상돌아온 외인 대형주 싹쓸이...코스피 들썩ELS·DLS 조기 상환 '뚝'</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.07.26.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>우크라행 당비 '1억4천' 기사에 이준석 "또 누군가 장난" 버럭</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006241960?sid=100</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>"자료유출로 정치적 공격하는 모습 환멸감 들어""회계보고 받은 최고위원이 언론사에 토스…추잡하다"© 뉴스1(서울=뉴스1) 노선웅 기자 = 우크라이나를 다녀온 '한국-우크라이나 자유·평화연대 특별대표단'의 경비에 총 당비 약1억4000만원이 쓰였다는 보도가 나오자, 이를 이끌었던 이준석 국민의힘 대표가 "법인카드 한도 2000만원 기사로 장난치더니 이제는 우크라이나 방문비용 가지고 누군가가 장난을 친다"고 비판했다.이 대표는 26일 자신의 페이스북에 "우크라이나 상대 정당이 초청해서 가는데 당비를 쓰는 것은 당연하고 초청 일정에 맞춰 가는 것인데 이런 자료나 유출시켜서 정치적으로 공격하려는 모습을 보면 환멸감이 든다"며 이같이 밝혔다.그는 "이번 우크라 방문시 직항편이 없어서 바르샤바까지 갈 때는 이스탄불, 올 때는 도하 경유로 비행깃값만 1인당 800만원 넘게 든 상황"이라며 "경유로도 표 구하기가 힘들어 의원님들은 갈 때 그 장시간 비행을 이코노미를 타고 갔다"고 설명했다.이어 "회계내용은 엄격하게 관리되는데 이 언론사가 해킹이라도 한 것이 아니라면 지난달 회계보고를 받은 최고위원이 이 내용을 언론사에 토스했을 수밖에 없다"며 "이런 공격을 시도하는 것 자체가 추잡하다"고 저격했다.그러면서 "저는 대표 되고 나서 당에서 제공한다는 카니발과 운전기사도 거부하고 대중교통이나 자차를 이용해서 다닌다"며 "이런 거로 공격해봐야 남는 것이 없다"고 덧붙였다.이날 한 언론은 국민의힘 특별대표단이 지난달 6박7일간 우크라이나를 방문하는 데 당비 총 1억4458만3276원이 들었다며 총 11명으로 구성된 대표단이 1인당 약 1300만원의 당비를 쓴 것이라고 보도했다.한편 이 대표는 최근 전국을 돌며 당원과 만남을 이어가는 등 '장외정치'에 몰두하고 있다. 지난 8일 새벽 '당원권 정지 6개월' 징계 이후 잠행을 이어갔으나, 13일 광주를 시작으로 창원, 부산, 춘천, 전주, 포항, 울릉도 등 전국 각지를 순회하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>'KB리브엠' 두고 알뜰폰 업계 날선 공방</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003032120?sid=105</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>서울 종로구 알뜰폰 스퀘어(전자신문DB)KB국민은행의 알뜰폰(MVNO) 사업 'KB리브엠'을 두고 공방이 격화하고 있다. 전국이동통신유통협회(KMDA)가 즉각 사업 철수를 주장하고 있는 가운데 금융-통신 서비스 연계를 통한 소비자 후생 확대와 편의성 증대를 반기는 여론도 만만치 않다. KB국민은행에 이어 토스도 알뜰폰 진입을 확정했다. 알뜰폰 비중 확대에 대한 이통 3사의 이해관계도 엇갈림에 따라 통신 시장 내 갈등 양상이 심화할 것으로 전망된다.KB리브엠은 지난 2019년 규제 샌드박스로 출범한 이후 2년반 동안 30만명에 이르는 가입자를 유치했다. 금융 상품과 통신 서비스를 연계한 할인 혜택으로 호평을 받았다. 이와 함께 모바일 인증서 적용 등으로 가입과 개통 편의성을 높였다는 평가를 받고 있다. 하지만 원가보다 낮은 요금제로 시장 내 출혈 경쟁을 촉발, 여타 중소 알뜰폰 업체에는 사실상 '공적'으로 낙인 찍혔다. 공격적인 요금 할인과 사은품 경쟁에 뛰어들기 어려운 영세 사업자 입장에서는 고사 위기에 내몰릴 수밖에 없다는 지적을 받고 있다.이통 대리점·판매점 등으로 구성된 KMDA도 KB리브엠에 집중 공세를 펼치고 있다. 이들은 과도한 사은품 지급과 덤핑 수준의 요금 판매로 생존권을 위협받고 있다고 목소리를 높였다. 자급제 스마트폰과 더불어 알뜰폰의 급격한 성장에 위기감을 느끼는 상황에서 KB리브엠을 비롯한 금융 자본의 잇따른 참전을 우선 저지해야 한다는 판단을 내린 것으로 해석된다.알뜰폰 사업자에 망을 제공하는 이통 3사 역시 각기 다른 속내를 숨기고 있다. 무선 점유율 선두를 달리는 SK텔레콤 입장에서는 가입자 증가율이 심상치 않은 알뜰폰의 성장세가 경계 대상이다. 반면 3위 사업자인 LG유플러스는 중소 알뜰폰 파트너에 대한 지원을 늘리며 시장 판도 변화를 끌어낼 카드로 적극 활용하는 모습이다.논란의 중심의 선 KB리브엠은 올 하반기에 기존 LG유플러스 망 이외 SK텔레콤과 KT 망으로 서비스를 확대할 예정이다. KB국민은행 관계자는 “혁신금융서비스 재연장 부가 조건을 준수해서 비대면으로 업무를 추진하고 있다”면서 “중소 알뜰폰 사업자와 상생·협력 관계를 구축하기 위해 다양한 방안을 지속 논의한다는 방침”이라고 말했다.다만 이통 유통망과는 별다른 합의점을 찾지 못했다. 유통업계는 이통사가 KB리브엠에 망을 추가 제공하면 영업 중단까지 불사하겠다는 강경한 입장을 고수하고 있다. KMDA와 KB국민은행지부는 21일 정부서울청사 금융위원회 앞에서 공동 기자회견을 열고 금융위의 KB리브엠에 대한 혁신금융서비스 재인가 취소를 촉구했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.07.27.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>암호화폐 흔들리는데…스위스 부자들은 지금 투자한다 [한경 코알라]</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004729575?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>7월 27일 한국경제신문의 암호화폐 투자 뉴스레터 '코알라'에 실린 기사입니다. 주 3회 아침 발행하는 코알라를 받아보세요!무료 구독신청 hankyung.com/newsletter암호화폐 시장의 불확실성이 다시 커지고 있다. 비트코인은 지난주 2만4000달러까지 반등했지만 미국 연방공개시장위원회(FOMC)의 금리인상에 대한 불안감이 반영되며 2만1000달러까지 떨어졌다. 크립토 공포지수는 26포인트로 지난주 대비 4포인트 하락하며 공포단계에 머물러있다.지난 한 주간 암호화폐 관련 펀드로 총 3000만 달러가 유입됐다. 특히 스위스에서 유입된 금액이 전체 유입액의 절반 이상을 차지했다. 스위스에서는 최근 한 달간 3억6000만 달러, 1년간 5억8000만 달러가 유입되었는데 이는 글로벌 기준 한달간 3억9000만 달러, 1년간 4억2000만 달러 유입 대비 상당히 큰 규모다. 암호화폐에 우호적인 스위스 정부의 정책과 초고액 자산가의 자산배분에 따른 결과로 추정된다.전체 TVL(Total Value Locked)은 가상자산 시장의 약세와 함께 3.6% 감소했다. 대부분의 체인이 감소 추세를 보인 가운데 솔라나 TVL이 지난주 대비 무려 9.5% 쪼그라들었다. 솔라나 체인의 주요 탈중앙화거래소(DEX)인 세럼과 세럼기반의 앱인 아트릭스에서 집중적으로 자금이 유출된 것으로 나타났다.NFT 시장의 시가총액은 235억달러 수준으로 지난주 대비 4.5% 줄었다. 이는 전체 크립토 시가총액 9676억달러의 2.4% 수준이다. NFTGO에서 집계하는 NFT 시장 심리지수는 27p로 지난주 32p보다 5p 하락해 투자심리가 악화되고 있음을 나타냈다. 스위스 부자는 지금 투자한다지난 한주간 크립토 펀드로는 총 3000만 달러가 유입됐다. 비트코인으로만 2000만 달러 자금이 들어갔다. 지난주 2.6억달러 유입 대비 줄어든 수치다. 국가별로는 스위스에서 유입된 금액이 전체 유입액의 절반 이상을 차지했다. 스위스에서는 최근 한달간 3억6000만달러, 1년간 5억8000만 달러가 쏟아졌다. 이는 글로벌 기준 한달간 3억9000만 달러, 1년간 4억2000만 달러가 유입된 것을 고려했을 때 상당히 큰 규모다. 전체 암호화폐 펀드 및 투자상품의 운용자산(AU) 규모는 약 300억 달러로 집계됐다.스위스에서 암호화폐 펀드 투자가 활발한 이유는 암호화폐에 우호적인 정부 정책과 초고액 자산가의 자산배분에 따른 결과로 추정된다. 암호화폐 분석업체 코인쉐어스는 지난주 유입액을 1000만 달러에서 3억4000만달러로 정정했다. 이는 작년 11월 이후 최대 규모의 유입액이다. 투자상품 중에선 그레이스케일(비중 65%)이 가장 크며, 투자 대상 암호화폐로는 비트코인(64%)을 가장 많이 꼽는 것으로 나타났다.암호화폐 중에서도 USDC의 횡보는 남다르다는 평가다. 루나 사태 이후 스테이블코인에 대한 불신이 가속돼 USDT의 시가총액은 800억 달러에서 650억 달러로 감소했다. 그 동안 USDC의 시가총액은 490억달러에서 550억달러로 증가하며 점유율을 높였기 때문이다. USDC 발행사인 서클은 미국 증권거래위원회(SEC)와 상장을 논의 중이며 올 4분기 SPAC(특수 목적 인수 회사)인 콘코드 어퀴지션과의 합병을 통해 상장할 것이라 밝혔다. 서클에 따르면 2023년 1900억달러 어치의 USDC가 발행될 것으로 예상된다.NFT도 위축…BAYC 마저 두자릿수대 하락대체투자상품으로 주목받던 NFT(대체불가토큰)은 약세가 뚜렷하다. NFT 시장의 시가총액은 235억달러(전체 암호화폐 시가총액의 2.4%)로 지난주 대비 4.5% 줄어들었다. BAYC, 크립토펑크 등 블루칩 NFT 컬렉션마저도 지난주 대비 약 15~20% 정도 하락하며 암호화폐 약세장으로 타격을 받는 모습이다.출처: NFTGONFT 분석업체 NFTGO가 NFT의 거래량과 가격 변동성·구글 검색량·소셜 미디어 활동량 등을 종합 집계해 발표하는 NFT 시장 심리지수(NFT Market Sentiment, 1p~100p)는 27p로 지난주 32p보다 5p 하락했다. 투자심리가 그만큼 얼어붙었다는 지표다.출처: defillama디파이의 TVL(Total Value Locked)은 암호화폐의 약세와 함께 3.6% 감소했다. 대부분의 체인이 TVL 감소 추세를 보였다. 솔라나 TVL은 260억달러로 지난주 대비 9.5% 감소했고, 점유율도 지난주 3.3%에서 3.1%로 하락했다. 솔라나의 TVL 감소는 솔라나 체인의 주요 DEX인 세럼과 세럼기반의 AMM dApp(탈중앙화앱)인 아트릭스에서의 두자리수대 TVL 감소에서 비롯된 것으로 풀이된다. 그럼에도 VC 투자는 이어진다벤처캐피탈(VC) 투자는 여전히 견고하다. 총 30건의 VC 신규 투자가 확인된다. 섹터별로는 웹3 분야에 13건, 블록체인 인프라 6건, 디파이와 시파이(중앙화된 암호화폐 금융)가 각각 4건, NFT 3건으로 나타났다. 웹3 섹터의 성장 잠재력이 높게 평가되며 기관 투자자들의 관심과 투자가 지속되고 있다는 것이다. 블록체인 서비스가 고도화되면서 발생하는 다양한 문제(네트워크 속도, 수수료 등)와 각종 엔진(게임, 메타버스 등)에 대한 수요가 늘어나며 인프라 계열의 투자 건도 주목받고 있다.인프라 계열 투자 중 앱토스(Aptos)에 주목할만하다는 평가다. 앱토스는 FTX 벤처스의 주도로 a16z, 아폴로, 프랭클린 템플턴, 서클 벤처스 등으로부터 무려 1억5000만 달러를 끌어들였다. 앱토스는 페이스북을 운영하는 메타 플랫폼스에서 스테이블코인 프로젝트 디엠(Diem)을 담당하던 멤버들이 창업한 레이어1 프로젝트다. 앱토스는 이번에 유치한 투자금을 프로젝트 개발 및 웹3 인프라 구축에 투자할 계획이다. 앱토스가 올해 총 유치한 투자금 규모는 3억5000만 달러에 달한다.&gt;&gt; 리포트 전문 보기 마마벤처스는…2018년 설립된 암호화폐 전문 벤처캐피탈(VC)이다. 엑셀러레이터로서 40개 이상의 프로젝트에 투자했다. 백서 검토와 블록체인 생태계 활성화 등 프로젝트의 시장 진입을 돕는 역할을 하고 있다. 투자자들이 정확한 정보에 기초해 투자할 수 있도록 시장 분석 컨텐츠도 만들고 있다.▶이 글은 암호화폐 투자 뉴스레터 구독자를 대상으로 다양한 관점을 제공하기 위해 소개한 외부 필진 칼럼이며 한국경제신문의 입장이 아닙니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>[비즈&amp;] 삼성SDI, 말레이 2공장 기공식…원형배터리 증설 1조7천억원 투자 外</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000552202?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>경제계 뉴스 알아보는 비즈&amp;(앤) 시간입니다.오늘은 어떤 내용들이 있는지 확인해보시죠.▶ 삼성SDI, 말레이 2공장 기공식…원형배터리 증설 1조7천억원 투자삼성SDI가, 말레이시아 스름반에서 배터리 2공장 기공식을 열었습니다. 총 1조7천억원이 투입되는 2공장은 2024년부터 원형 배터리를 양산하게 됩니다. 원형 배터리 시장은 기존 전동공구, 마이크로 모빌리티에서 전기차, 에너지저장장치로까지 확대되고 있습니다.▶ KB국민은행, 동반성장위와 '중소기업 ESG' 지원KB국민은행이, 동반성장위원회와 중소기업의 ESG 경영 확산을 위한 업무협약을 맺었습니다. 이에 따라 KB국민은행은 동반위가 시행 중인 '협력사 ESG 지원사업'에 선정된 'ESG 우수 중소기업'에 경영진단과 ESG 컨설팅, ESG 특화대출 금리, 한도 우대 등을 제공할 예정입니다.▶ 토스, 알뜰폰 진출…머천드코리아 지분 100％ 인수모바일 금융플랫폼 '토스'를 운영하는 비바리퍼블리카가, 알뜰폰 사업자 머천드코리아 지분 100%를 인수해 알뜰폰 사업에 진출합니다.앞으로 비바리퍼블리카는 토스에서 요금제 탐색부터 알뜰폰 개통까지 할 수 있게 애플리케이션 기능을 개편할 예정입니다. 알뜰폰 가입 과정에서 토스 인증서도 활용할 계획입니다. ▶ 신세계푸드, 미국에 대체육 자회사 설립신세계푸드가, 미국에 대체육 전문 자회사를 설립합니다. 신세계푸드는 오늘(21일) 100% 현지 자회사 베러푸즈에 600만달러, 약 78억원을 출자한다고 공시했습니다. 설립과 출자 시기는 다음달 중으로 예상됩니다. 신세계푸드는 이를 통해 대체육 브랜드 '베러미트' 사업을 확장할 계획입니다.▶ 진로, 영국 전문지서 21년 연속 '세계 최다판매 증류주' 선정진로 소주가, 세계에서 가장 많이 팔리는 증류주로 꼽혔습니다. 하이트진로에 따르면 자사 소주 브랜드 진로가 영국의 주류전문매체 '드링크 인터내셔널'이 뽑은 '세계에서 가장 많이 팔리는 증류주'로 21년 연속 선정됐습니다. 하이트진로가 지난 해 전 세계에서 판 소주 제품은 9,450만상자입니다.#KB국민은행 #토스 #신세계푸드 #진로연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.07.25.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>KB국민 이어 토스까지…금융권, 알뜰폰 사업에 눈독 들이는 이유는?</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000162734?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>금융데이터 가장 잘 활용할 수 있는 분야…당국 금산분리 완화 기조에 관심↑토스의 운영사 비바리퍼블리카는 지난 21일 알뜰폰 사업자(MVNO) '머천드코리아'의 지분 100%를 인수하는 주식매매계약을 체결했다. /더팩트 DB토스가 알뜰폰 사업에 출사표를 던지는 등 금융권이 알뜰폰 사업에 눈독 들이고 있다.25일 금융권에 따르면 토스를 운영하는 비바리퍼블리카는 최근 알뜰폰 사업자(MVNO) 머천드코리아의 지분 100%를 인수하는 주식매매계약을 체결했다.머천드코리아는 약 20년간 통신사업을 운영해 왔으며, 현재 SKT·KT·LG유플러스 등 통신 3사와 모두 계약을 맺고 있다.토스는 이번 인수를 계기로, 토스앱을 통한 알뜰폰 가입 서비스를 선보일 예정이다. 알뜰폰 요금제 탐색부터 편리한 개통까지 가입의 전 과정을 혁신하고, 가계 고정 지출 중 상당 부분을 차지하는 통신비 절감 기회를 제공한다는 계획이다.토스 관계자는 "토스가 금융 서비스를 통해 고객의 시간과 비용을 아끼고 사회적 효용을 만들어낸 것처럼, 알뜰폰 가입 고객의 불편함 해소와 토스 고객의 통신비 절감에 기여하고자 한다"고 밝혔다.금융권이 알뜰폰 사업에 주목하는 이유는 통신 관련 데이터 때문아리는 해석이 나온다. /더팩트 DB토스가 알뜰폰 시장 진출을 본격화한 가운데 금융권에서도 알뜰폰 사업에 대한 관심이 높아지고 있다.금융사 중 알뜰폰 사업을 가장 적극적으로 하고 있는 곳은 KB국민은행이다.앞서 KB국민은행은 지난 2019년 4월 금융위원회로부터 알뜰폰 기반 금융·통신 융합 서비스를 혁신금융서비스로 지정받은 이후부터 알뜰폰 서비스 '리브엠'을 선보이고 있다. '리브엠'이 지난해 혁신금융서비스 재지정에 성공하면서 KB국민은행은 2023년까지 알뜰폰 사업을 이어갈 수 있다.신한은행도 최근 KT망을 사용하는 알뜰폰 요금제를 출시하는 등 알뜰폰 사업에 발을 들렸다. 신한은행은 △kt M모바일 △스카이라이프 △스테이지파이브 △세종텔레콤 등의 요금제 12개를 판매하기로 했다. 단순히 판매 플랫폼을 제공한 것이지만 업계 일각에서는 신한은행이 본격적으로 알뜰폰 시장에 진출하기 위해 채비를 하는 과정이라는 해석이 나온다.금융권이 알뜰폰 사업에 주목하는 이유는 통신 관련 데이터 때문이다. 그동안 축적해 놓은 금융데이터를 가장 잘 활용할 수 있는 분야 중 하나가 바로 통신이다.한 금융권 관계자는 "통신을 본격적으로 활용할 수 있으면 고객의 위치정보를 받아 생활패턴과 같은 데이터 등의 확보가 가능할 것"이라며 "비금융데이터를 통해 신용평가모형을 고도화할 수도 있다. 알뜰폰 사업으로 이익을 내겠다기보다는 데이터 확보 이점을 보고 진출하는 것"이라고 말했다.이어 "여기에 최근 금융당국이 금산분리 완화 기조를 보이고 있고, 알뜰폰 사업이 금융회사의 부수업무로 인정될 가능성이 있는 만큼 알뜰폰 사업에 대한 금융권 관심은 앞으로도 높아질 것"이라고 부연했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.07.19.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>해수부, '국민비서' 통해 선박용물건 형식승인 갱신 안내 문자서비스 시작</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006226338?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>유효기간이 만료 6개월·3개월 전…두 차례에 걸쳐 안내문자가 발송네이버와 카카오톡 국민비서(해양수산부 제공)© 뉴스1(세종=뉴스1) 백승철 기자 = 해양수산부(장관 조승환)는 선박용 물건 제조 및 유통업체가 제때 형식승인·검정 갱신을 할 수 있도록 '형식승인 유효기간 갱신안내 문자' 서비스를 행정안전부 '국민비서'를 통해 제공한다고 19일 밝혔다.선박에 설치되는 구명설비, 소화설비 등 선박용 물건(총 167개 품목)을 제조하거나 공급하기 위해서는 형식승인 또는 검정을 받아야 하며, 형식승인·검정을 유지해야 한다. 형식승인·검정을 유지하기 위해서는 5년에 한번 갱신하여야 하는데, 우편으로만 갱신 안내가 이뤄져 현장에서 제 때 갱신하지 못하는 경우가 발생하곤 했다.이에 해수부는 행정안전부에서 운영하고 있는 국민비서를 통한 안내서비스를 시작하게 됐다. 형식승인·검정 유효기간이 만료되기 6개월 전과 3개월 전, 두 차례에 걸쳐 안내문자가 발송되며, 형식승인·검정에 필요한 준비서류와 담당자 연락처 등도 채팅로봇을 통해 안내한다.형식승인·검정 국민비서 서비스를 이용하고자 하는 사람은 국민비서 누리집 또는 네이버앱(App) 전자문서함, 카카오톡 채널 국민비서 구삐, 토스 주민센터 내 공공 알림 등에서 서비스를 신청하면 된다.정태성 해수부 해사안전국장은 "선박용물건 제조 및 유통업체의 편의를 위해 행정안전부와 함께 국민비서를 통해 유효기간 안내 서비스를 시작하게 됐다"며 "관련 업체들이 때를 놓쳐 불편을 겪거나 추가적인 비용이 발생하는 문제가 이번 서비스를 통해 해결되기를 바란다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.07.25.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>은행 앱, 배달에 알뜰폰·음악까지…금융 '빅블러'시대</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005122512?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>토스부터 시중은행까지 비금융 서비스 확장"플랫폼 중심의 경영문화 변경도 필요"금융사들이 배달, 알뜰폰, 음원 스트리밍 등 비(非)금융 영역으로 서비스를 확장하고 있다. 생활밀착형 서비스를 무기로 고객과 접촉면적을 늘리면서 다양한 융합 효과를 노리는 전략으로 풀이된다.25일 금융권에 따르면 종합금융 플랫폼 '토스'를 운영하는 비바리퍼블리카는 최근 알뜰폰 사업자(MVNO) '머천드코리아'의 지분 100% 인수 계약을 체결했다. 인수가는 100억원대 규모로 알려졌다. 지난해 모빌리티 업체 '타다'를 인수한 데 이어 또다시 금융 분야가 아닌 영역의 사업체를 품은 것이다. 고객과의 접점을 늘리며 향후 금융 분야와의 상승작용을 노리는 것으로 보인다. 장기적으로 통신비 납부내역, 휴대폰 이용정보 등을 활용해 토스의 신용평가시스템을 더욱 정교화하는 데에도 도움이 될 것으로 전망된다.시중은행들도 비금융 영역에 힘을 기울이고 있다. KB국민은행과 신한은행이 특히 적극적이다. 국민은행은 일찌감치 알뜰폰 사업에 진출했다. 2019년 10월 알뜰폰 서비스 '리브엠'을 출시한 뒤 이미 가입자 30만명 이상을 확보했다. 리브엠 전용 상품 '더(The) 주는 리브엠' 적금 등을 내놓으며 알뜰폰 이용자를 은행 고객으로 유치하고 있다.신한은행은 지난 1월 금융사 최초로 배달주문 애플리케이션(앱) '땡겨요'를 출시했다. 현재 서울시 전역과 경기도 부천시, 부산시 4개구에서 서비스를 제공 중이다. 빅데이터플랫폼 기업 모바일인덱스에 따르면 '땡겨요' 월활성이용자수(MAU)는 공식 출시 첫달인 올해 1월 1만8400명에서 올해 6월 15만7300명을 기록했다. 관련 상품도 적극 출시했다. '땡겨요 적금'과 입점 개인사업자를 위한 '땡겨요 사업자 대출'에 땡겨요 전용 신용카드까지 내놓았다. 이어 지난 8일에는 KT와 손 잡고 알뜰폰 요금제도 출시했다. 이용자 유치 뿐만 아니라 음식점주, 소비자, 통신요금 등 다양한 데이터도 확보해 관련 금융 상품도 개발한다는 전략으로 풀이된다.그 밖에 하나은행과 우리은행도 비금융 서비스에 힘을 쏟고 있다. 하나은행은 최근 지니뮤직과 제휴를 통해 하나원큐 앱에서 무료로 음악을 들을 수 있는 음원스트리밍 서비스 '하나뮤직박스'를 출시했다. 우리은행은 편의점에 집중, 편의점 택배 예약과 편의점 상품 주문 배달 서비스 등을 내놓았다.구본성 한국금융연구원 선임연구위원은 "빅테크 등과 경쟁을 앞둔 국내 은행들은 소비와 유통, 금융을 통합하는 복합셩 서비스와 디지털 마케팅을 통한 고객 영향력 확대, 신세대 대상 서비스 확충 등 경쟁력을 높일 필요가 있다"며 "금융과 비금융을 아우르는 기능형 금융플랫폼으로 확대해나가면서 플랫폼 중심의 경영문화, 조직 구성도 전환할 필요가 있다"고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.07.28.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>모바일 운전면허증 발급 전국 확대…은행·이통사·편의점에서 쓴다</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005124463?sid=102</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>28일부터 모든 운전면허시험장·경찰서에서 발급 가능시범사업 기간 8.7만명 발급…플라스틱 면허증과 동일은행 금융거래나 이통사 신규가입, 민원업무 등IC칩이 탑재된 운전면허증 또는 QR로 발급받아야28일부터 모바일 운전면허증을 전국에서 발급받을 수 있게 된다. 연말까지 1금융권 모든 은행에서 모바일 운전면허증으로 신원 확인도 가능해진다.28일 행정안전부와 경찰청은 전국 모든 운전면허시험장과 경찰서에서 모바일 운전면허증을 발급한다고 밝혔다. 지난 1월28일부터 모바일 운전면허증 발급 시범사업을 진행한 결과 8만7205명이 발급 받았다.모바일 운전면허증은 스마트폰으로 발급받는 운전면허증으로 플라스틱 운전면허증과 동일한 법적 효력을 지닌다. 공공기관이나 은행, 렌터카 업체, 공항, 통신사, 편의점 등에서 사용할 수 있다. 신분증 사본을 보관해야하는 경우 시스템이 갖춰진 곳에서만 사용할 수 있다. 현재는 13개 은행과 이동통신사 직영점, 일부 공공기관 민원업무에만 적용된다.모바일 운전면허증을 사용할 수 있는 범위도 넓어지고 있다. 은행 방문 때 모바일 신분증 앱으로 창구에 비치된 QR코드를 촬영하면 신원 확인이 완료된다. 비대면으로 계좌를 개설할 때도 은행 앱에서 모바일 운전면허증과 연계해 신원 확인이 가능하다.  편의점에서는 성인 여부, 렌터카업체에서는 운전면허자격 정보 등 필요한 정보만 제공하는 것도 가능하다.현재 13개 은행에서 창구 방문 때 QR코드를 촬영해 금융거래가 가능하며 산업·SC제일은행은 하반기 중 도입할 예정이다. 비대면 계좌 개설 등은 카카오뱅크와 신한·우리·농협은행에서 지원되며 나머지 14개 은행은 하반기 중 도입 예정이다. 이외에 정부24 로그인, 토스 본인확인서비스 가입, 네이버페이 송금, 무인체크인(야놀자) 등도 지원된다.모바일 운전면허증은 본인 명의의 1개 단말기에서만 발급된다. 분실신고를 하면 모바일 운전면허증이 잠금 처리되기 때문에 화면에 표시되지 않는다. 모바일 운전면허증을 신청하는 방법은 두가지다. 첫번째는 IC(집적회로)칩이 탑재된 운전면허증을 발급받는 방법, 두번째는 운전면허시험장을 방문해 QR코드를 촬영해서 발급받는 방법이다. IC 운전면허증은 기존 면허증과 달라 새로 발급을 받아야하며, 1만3000원의 비용이 든다. IC운전면허증은 면허시험장을 방문하면 현장에서 바로 수령 가능하다. IC 운전면허증을 발급받은 경우, 면허증을 스마트폰 뒷편에 접촉한 후 본인인증을 거치면 모바일 운전면허증이 발급된다. 스마트폰을 교체하거나 분실한 경우 경찰서나 면허시험장을 방문하지 않아도 IC면허증으로 모바일 면허증을 다시 발급받을 수 있다. QR코드로 발급받는 경우 비용은 1000원이다. 다만 스마트폰을 교체할 경우 면허시험장을 재방문해야한다. 모바일 면허증으로 신원을 확인할 때 진위확인이 필요한 경우 '모바일 신분증 검증앱'을 이용해야 한다. 이상민 행안부 장관은 "앞으로 플라스틱 신분증을 휴대해야 하는 국민 불편 해소를 넘어 민간과 함께 다양한 혁신 서비스를 창출하고, 비대면 디지털 경제활성화를 위한 기반을 조성하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.07.25.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>예적금 20조 몰리자 쪼그라든 '월급통장'…"실적 어쩌나" 은행 한숨</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004774620?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>'월급통장'으로 대표되는 요구불예금 등 주요 은행의 저원가성 핵심예금(이하 핵심예금) 비중이 1년 만에 절반 이하로 떨어졌다. 지난 1년 동안 예·적금 이자가 오르면서 인기가 '뚝' 떨어졌다. 정부가 예·적금 금리 '현실화'를 주문했고, 인터넷전문은행은 고금리 수시입출식 통장을 내세우는 상황이라 그동안 은행권 실적 효자역할을 했던 핵심예금 비중은 앞으로 비중이 더 감소할 수 있다는 관측이다. 24일 금융권에 따르면 KB국민·신한·하나·우리은행 등 4개 주요 은행의 지난달말 기준 전체 원화예수금 중 핵심예금 비중은 49.08%로 집계됐다. 핵심예금은 요구불예금, 일부 정기예금 등 저금리성 예금과 MMDA(수시입출식 저축성예금)다. MMDA는 단기 저축성예금으로 '기업 요구불예금'으로 보면 된다.핵심예금 비중이 절반 이하로 줄어든 건 1년여 만이다. 기준금리가 오르기 시작한 지난해 하반기와 핵심예금 비중 감소가 궤를 같이 한다. 4개 주요 은행의 핵심예금 비중은 지난해 6월말 50.36%에서 지난해말 50.23%로 6개월 동안 0.13%포인트 소폭 감소했고, 이번에는 지난해말 대비 1.15%포인트 낮아졌다. 기준금리 인상과 함께 이자가 오른 예·적금에 돈이 몰린 영향이 크다. 지난달말 기준 4대 은행의 핵심예금 잔액은  지난해말 대비 0.3%(1조8000억원) 증가하는 데 그쳤다. 반면 같은 기간 예·적금 등 저축성예금 잔액은 3.75%(20조4000억원) 늘었다. 시중은행 관계자는 "요구불예금 금리는 0~1%에 머물러 있는데, 예·적금 금리는 최근 3%대가 됐다"고 말했다.마땅한 투자처가 없다는 점도 이같은 움직임을 가속화했다. 요구불예금은 고객이 원할 때 언제든 돈을 넣고 뺄 수 있어 투자성 대기자금 성격이 있다. 또다른 은행 관계자는 "주식·코인, 부동산 모두 조정 국면이 길어지자 투자처를 관망하던 돈이 서서히 예·적금 등으로 이동한 것"이라고 말했다.은행권에선 이 같은 흐름이 당장의 예대마진을 악화시키지는 않겠지만 장기화 될 경우를 우려한다. 저원가성 핵심예금이 줄면 조달비용이 높아져 결국은 예대마진이 감소할 수밖에 없기 때문이다. 일각에선 현재 소폭이라도 증가를 하고 있는 핵심예금이 하반기 들어 감소세로 돌아설 수 있다는 전망도 제기한다. 연말까지 기준금리, 예·적금 금리가 오를 예정인데다 금융당국은 오는 8월부터 은행별 예대금리차를 공시한다. 월 1회 시장금리 변동분을 예·적금 금리에도 반영해야 한다. 예·적금 금리 인상 압박이 커지는 셈이다. 핵심예금의 자금을 흡수할 가능성이 적지 않다. 이성욱 우리금융그룹 CFO(최고재무책임자)도 지난 22일 상반기 실적 발표 컨퍼런스콜에서 "기준금리 상승에 따라 핵심예금 증가가 일부 둔화될 수 있다"고 말했다. 시중은행들은 인터넷은행과 요구불예금 유치 경쟁도 부담스럽다. 이들은 고금리 수시입출식 통장을 운영 중이다. 토스뱅크의 수시입출식 통장은 최대 1억원까지 금리가 2%다. 케이뱅크의 파킹통장은 한도 3억원, 금리는 2.1%다. 은행권 관계자는 "요구불예금 규모가 시중은행은 너무 커서 금리를 섣불리 올리면 역마진이 난다"며 "금리 경쟁이 애초 성립이 안 된다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.07.20.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>제주항공 'JJ멤버스특가'…국내선·국제선 모두 할인</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011314993?sid=102</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>기사내용 요약20일 오전 10시~26일 오후 5시 회원 대상제주항공 'JJ멤버스특가' 진행 *재판매 및 DB 금지[대구=뉴시스] 박준 기자 = 제주항공은 20일 오전 10시부터 오는 26일 오후 5시까지 회원을 대상으로 항공권을 할인 판매하는 'JJ멤버스특가'를 진행한다.이번 특가 항공권은 오는 9월1일부터 10월29일까지 탑승이 가능하다. JJ멤버스특가에서 유류할증료와 공항시설사용료 등을 모두 포함한 편도 총액운임을 기준으로 최저운임은 ▲국내선의 경우 김포·청주~제주 노선은 3만2700원 ▲대구~제주 4만700원 ▲광주·부산~제주 4만3700원 ▲김포~부산 3만4700원 등이다.국제선의 경우 인천공항에서 출발하는 일본노선 최저운임은 ▲후쿠오카 11만4200원 ▲도쿄·오사카 12만6100원 등이다. 동남아 노선 최저운임은 ▲태국 방콕 16만5000원 ▲말레이시아 코타키나발루 20만8100원 ▲필리핀 마닐라·세부 19만2500원, 클락 19만7500원, 보홀 20만2500원 ▲베트남 호찌민 17만3100원, 다낭 20만2500원, 나트랑 21만3100원 ▲사이판 22만1700원 등이다. 부산 김해공항에서 출발하는 일본노선은 ▲오사카·후쿠오카 10만9200원, 도쿄 12만1100원 ▲태국 방콕 24만6000원 ▲사이판 17만6700원 ▲싱가포르 23만8100원 등이다.항공권은 예매일자와 환율변동에 따라 총액운임이 일부 변동될 수 있다. 예약상황에 따라 조기마감 될 수 있다. 구매는 제주항공 홈페이지(www.jejuair.net)와 모바일 앱 또는 모바일 웹에서만 가능하다.해당 기간 왕복 항공권 구매 고객을 대상으로 국내선 최대 4000원, 국제선 최대 4만원을 할인해 주는 프로모션 코드도 제공한다. 할인코드와 중복사용이 가능한 결제수단 할인혜택도 제공된다. 카카오페이로 항공권을 결제할 경우 결제 금액별로 최대 3만원을 할인 받을 수 있다. 토스페이로 5만원 이상 결제 시 토스머니 5000원을 돌려주는 캐시백 혜택도 제공한다.프로모션과 이벤트에 대한 자세한 내용은 제주항공 홈페이지나 모바일 앱·웹에서 확인하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.07.26.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>보고서 "아시아태평양 기반 스타트업, 블록체인 기업 약 4분의 1 차지" 등</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004996279?sid=105</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>출처 : KPMG 보고서 "아시아태평양 기반 스타트업, 블록체인 기업 약 4분의 1 차지"코인텔레그래프가 글로벌 컨설팅 그룹 KPMG 및 영국계 대형 은행 HSBC의 설문조사 보고서를 인용, 아시아태평양 기반 스타트업의 4분의 1 이상이 블록체인 관련 기업이라고 보도했다. 최근 KPMG 및 HSBC는 6472개의 아시아태평양 스타트업을 대상으로 설문조사를 진행, NFT 및 디파이가 스타트업 분야 중 가장 큰 부분을 차지했다고 밝혔다. 전기자동차 충전 인프라, 양자 컨퓨팅 및 로봇 자동화가 뒤를 이었다. 블록체인 부동산 및 DAO는 해당 순위에서 각각 14위, 15위를 차지했다. 다만 기업 규모 측면으로 블록체인 기업은 약세를 보였다. 보고서에 따르면 100대 스타트업 중 블록체인 관련 기업은 5곳에 불과했다.자오창펑 바이낸스 CEO, 블룸버그 홍콩 파트너 명예훼손 고소코인데스크에 따르면 자오창펑 바이낸스 CEO가 블룸버그 비즈니스위크의 홍콩 파트너인 모던 미디어 씨엘(Modern Media CL)을 명예훼손 혐의로 고소했다. 자오창펑은 블룸버그 비즈니스위크가 지난 6월 23일 자신을 '크립토 최고 갑부, 추위를 견딜 수 있을까?'라는 내용을 올린 건 물론, 홍콩의 모던 미디어 씨엘이 자신을 '폰지사기(Ponzi Scheme)'에 비교하는 내용의 헤드라인을 게재했다며 명예훼손 혐의로 뉴욕 남부지방법원에 고소했다. 자오창펑은 바이낸스를 스케치(Sketchy, 수상하고 미심쩍다), 쓰레기코인 카지노(Massive Shitcoin Casino)등으로 표현한 부분을 문제 삼았다. 앞서 2020년 바이낸스는 포브스를 명예훼손 혐의로 고소한 바 있다. 이후 2021년 소송을 취하했다.클레이튼 '메타콩즈 코인' MKC, 이더리움에서 재발행코인데스크코리아에 따르면 메타콩즈 운영을 맡은 멋쟁이사자처럼은 메타콩즈의 보상 가상자산(코인)인 MKC(메타콩즈)를 클레이튼 기반에서 이더리움 기반으로 전환할 계획이다. 전환 날짜는 미정이다. MKC 전환은 오지스의 오르빗 브리지를 이용한다. 지난 23일 이두희 대표는 메타콩즈 인수를 발표하며, “오픈시 등 NFT 거래소에 메타콩즈 NFT가 올라오지 않고, 개인 지갑 등에 NFT를 보유한 시간에 가중 비례해 메타콩즈 홀더들에게 새로운 MKC를 드롭할 것”이라고 말했다. 다만, 기존 클레이튼 기반 MKC는 소각 기능이 없으므로 기존 MKC는 브리지를 거쳐 이더리움 체인으로 넘긴 후 이더리움 체인에서 새롭게 발행된 가상자산으로 교환할 예정이다.블록체인 인프라 서비스 티타늄 CEO, 증권사기 유죄 인정코인데스크에 따르면 블록체인 인프라 서비스 티타늄(Titanium) CEO인 마이클 스톨러리(Michael Stollery)가 증권사기 관련 유죄를 인정했다. 그는 미국 및 해외 투자자로부터 2100만 달러 규모의 사기 프로젝트 ICO를 진행한 혐의에 대해 유죄를 인정했다. 또한 고객 자금 중 일부를 신용카드 결제 및 하와이 별장 매입에 사용했음을 인정했다. 그는 증권사기 혐의로 최대 20년 징역형에 처해질 수 있으며, 선고 기일은 11월 18일로 예정돼 있다. 앞서 지난 2018년 미국 증권거래위원회(SEC)는 티타늄 창시자 마이클 스톨러리를 수백만 달러가 연루된 ICO 관련 사기 혐의로 현지 법무 당국에 기소했다.암호화폐 기업, 미국 로비 675만 달러 지출... 지난달 대비 17% 증가더블록에 따르면 암호화폐 관련 기업 및 협회들이 올해 2분기 관련 로비에 675.15만 달러 규모를 지출한 것으로 나타났다. 전분기(577만 달러) 대비 약 17% 증가한 수준이다. 미디어는 "해당 기간 암호화폐 시가총액은 2조 달러 이상에서 9000억 달러 미만으로 떨어졌다는 점을 감안하면 로비 지출액 상승세는 주목할 만하다"며 "시장붕괴로 몇몇 기업이 채무불이행 혹은 파산에 직면했다. 그럼에도 불구하고 정치 관련 로비 지출 규모는 계속해 상승세를 유지했다"고 평가했다.미 CFTC, 암호화폐 규제 강화 위해 기술혁신 사무소 개설코인데스크에 따르면 미국 상품선물거래위원회(CFTC)가 암호화폐 규제 강화를 위해 뉴테크 이노베이션 오피스(New Tech Innovation Office)를 개설했다. 해당 기관은 CFTC 산하 핀테크 연구소인 LabCFTC가 업그레이드된 것으로, CFTC에 암호화폐 관련 정보를 제공하는 등의 역할을 하게 된다. CFTC 위원장인 로스틴 베넘(Rostin Behnam)은 "시장의 규모, 개인 투자자의 취약성, 최근 암호화폐 시장에서 발생한 피해 등을 고려할 때 규제 관련 미국의 노력이 시급하다. CFTC는 입법 권한이 없는 만큼, 기존 권한 범위 내에서 시장 및 투자자를 보호하기 위한 방안을 모색하고 있다"고 전했다.JP모건 "코인베이스·로빈후드, 주식 가치 희석 우려"코인데스크에 따르면 JP모건이 리포트를 통해 코인베이스 및 로빈후드가 직원 대상 보상 계획 중 하나인 제한조건부주식(RSU)과 관련해 리스크에 직면해 있다고 평가했다. JP모건은 두 기업 모두 암호화폐 및 주식 시장 폭락을 경험했다는 점을 고려할 때 이번 희석화(dilution) 조치가 불리하게 작용할 수 있다고 평가했다. JP모건 소속 애널리스트 케네스 워딩턴(Kenneth Worthington)은 "코인베이스와 로빈후드가 인력 유치 및 인센티브 제공을 위해 상당한 규모의 지분을 발행했다. RSU 발행에 따른 주식 가치 희석이 예상된다"고 전했다. JP모건은 코인베이스 및 로빈후드 주식에 대해 각각 중립, 비중축소 의견을 내놓았다.미 스테이블코인 규제 심의 9월로 연기월스트리트 저널이 업계 관계자 발언을 인용, 미국 스테이블코인 규제 법안 심의가 8월 휴회 이후로 연기될 것으로 보인다고 보도했다. 미디어는 의원들이 수요일로 예정된 위원회 투표 전까지 법안 초안 작성을 마무리 짓지 못한 만큼 심의가 연기될 것으로 보인다며 9월 진행될 것으로 예상된다고 설명했다.미국 제3정당 자유당 "BTC, 전통 금융 시스템 뒤흔들 힘 있다"미국의 제3정당인 자유당이 공식 트위터를 통해 비트코인에는 전통 금융 시스템을 뒤흔들 힘이 있다고 전했다. 자유당은 "비트코인이 연준 및 일반적인 화폐 제도를 무효화할 수 있다"며 "비트코인은 탈중앙화된 통화 혁명의 최전선에 있다"고 평가했다.삼성넥스트, 웹3 뮤직 스타트업 스파이더빌 투자 라운드 참여삼성전자 투자 전문 자회사 삼성넥스트(Samsung Next)가 웹3 뮤직 스타트업 스파이더빌(SpiderVille)의 투자 라운드에 참여했다. 스파이더빌 공식 트위터에 따르면 최근 해당 기업은 100만 달러 상당의 시드 투자를 유치했다. 라운드에는 삼성넥스트를 비롯해 콘텐츠 테크놀로지(Contents Technologies) 등이 참여했다. 투자금은 웹3 뮤직 아티스트 및 산업을 위한 인프라 개발 등을 위해 사용할 방침이다.외신 "코인플렉스, 로저버 포지션 청산 유예시키다 자금경색"우블록체인이 소식통을 인용, 암호화폐 거래소 코인플렉스의 자금경색이 발생한 이유와 관련해 "코인플렉스는 고액 순자산 고객인 로저버에게 포지션을 즉시 청산하지 않고 충분한 시간을 준다는 약속을 맺었다"고 전했다. 로저버는 코인플렉스에 BCH를 마진으로 순 롱 포지션을 오픈했는데, 이후 BCH 가격이 $400에서 $120까지 떨어지며 증거금이 감소했다. 또한 코인플렉스는 자체 스테이블코인 FlexUSD를 사용해 FLEX 토큰을 매수했고, 헷지를 위해 숏 포지션을 오픈했다. 그러나 해당 숏 포지션의 거래 상대방은 로저 버 였으며, 로저 버가 포지션의 마진콜을 이행하지 않으며 코인플렉스의 숏 포지션은 수익성을 잃었다. 결과적으로 코인플렉스는 FlexUSD 디페그, 스마트BCH 크로스체인 브리지 붕괴 등으로 1.2억 달러의 손실을 입었다는 설명이다.카르다노, 새 프로그래밍 언어 기반 스마트 컨트랙트 추진유투데이에 따르면 찰스 호스킨슨 카르다노 설립자는 처음으로 타입스크립트(Typescript) 프로그래밍 언어만을 사용한 Untyped Plutus Core Program을 공유했다. 이는 개발자가 곧 타입스크립트를 사용해 카르다노에서 스마트 컨트랙트를 작성할 수 있음을 시사한다. 타입스크립트는 자바스크립트의 슈퍼셋인 오픈소스 프로그래밍 언어다. 카르다노 블록체인은 그간 비교적 마이너한 하스켈(haskell) 언어를 사용해왔다. 카르다노가 하스켈 언어를 포기할지 여부는 알려지지 않았다.블록체인 스타트업 앱토스, 1.5억 달러 투자 유치더블록에 따르면, 전 메타 직원들이 설립한 블록체인 스타트업 앱토스(Aptos)가 1.5억 달러 투자를 유치했다. FTX 벤처스와 점프 크립토가 라운드를 주도했다. 앱토스는 올해 누적 3.5억 달러 투자를 유치했으며, 해당 투자금을 활용해 10억 사용자를 대상으로 높은 확장성과 편의성이 특징인 레이어1 블록체인을 개발한다는 계획이다. 앱토스는 테스트넷을 운영중이며, 올해 말 메인넷을 출시할 예정이다.테슬라, 상반기 비트코인 평가손실 1.7억 달러테슬라가 오늘 제출한 10-Q 보고서에서 2022년 상반기 비트코인 보유로 인한 평가손실액이 1.7억 달러라고 밝혔다. 해당 기간 일부 비트코인 현금화로 얻은 이익은 6400만 달러다. 6월 30일 기준 잔여 암호화폐 평가액은 2.22억 달러다. 테슬라는 7월 21일 2분기 실적발표에서 작년 매수한 15억 달러 상당의 비트코인 중 약 75%를 9.36억 달러로 현금화했다고 밝힌 바 있다.[코인니스 제공]</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.07.22.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>'금융앱 돈 갈취' 보도에 토스... "부모 동의 출금 방안 고민"</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/047/0002360727?sid=102</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>토스 "8월 중에 보완책 개발 완료할 것, 현재도 자녀 사용내역 확인 가능"        ▲  금융앱 토스.            ⓒ 오마이뉴스   돈을 자유롭게 다른 사람에게 보낼 수 있는 금융 앱이 학생들 사이에서 돈을 갈취하는 새로운 도구로 악용되고 있다는 &lt;오마이뉴스&gt; 보도와 관련 '토스(TOSS)'가 갈취 예방을 위한 안전장치 마련에 나서기로 결정했다. (관련기사 "토스 까봐" 갈취 수단 된 토스... 학폭 넘어 경찰수사도 http://omn.kr/1zxbo) 토스는 22일 &lt;오마이뉴스&gt;에 "'금융 앱을 통한 갈취' 기사와 관련, 토스 송금 기능이 악용되는 상황을 좀 더 적극적으로 막기 위해 개발팀과 대응 계획을 마련했다"면서 "(학생 간 갈취나 학교폭력) 의심 상황에서는 부모의 동의를 거쳐 (돈을) 출금할 수 있는 안전장치 등 다양한 방법을 고민 중에 있다"고 밝혔다. 그러면서 토스는 "늦어도 오는 8월 중에는 확정된 보완책에 따라 개발까지 마칠 수 있을 것"이라고 약속했다. 김진호 토스 커뮤니케이션팀장은 "&lt;오마이뉴스&gt; 보도 내용은 우리도 매우 심각한 사안으로 생각하고 있고 현재도 일부 보호조치가 이루어지고 있지만, 더욱 강화할 예정"이라면서 "현재 부모가 실시간으로 입출금 내역을 공유 받지는 않지만, 고객센터에 연락하면 자녀의 사용내역 확인이 가능하다. 실제로 최근 자녀의 학교폭력 피해를 의심한 학부모가 이런 방법으로 자녀의 입출금 내역을 확인했고, 계정차단(송금불가)을 해드린 사례도 있다"고 설명했다. 앞서, &lt;오마이뉴스&gt;는 지난 21일자에 쓴 해당 기사에서 "금융 앱 토스가 학생들 사이에서 돈을 갈취하는 도구로 악용되고 있어 상당수 학교가 골머리를 앓고 있다. 일부 학교에선 학교폭력대책심의위를 넘어 경찰 수사로 비화되기도 한 것으로 나타났다"면서 실제 광주광역시 중학교들에서 벌어진 사례를 보도한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>은행권, 예금 3%・적금 6% 시대...금리 높은 곳은?</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002623065?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>수신 금리 인상, 최고 0.7%p↑‘파킹통장’도 2%...‘갈아타기’ 검토서울 시중은행의 창구 ⓒ 연합뉴스[데일리안 = 이호연 기자] 금리상승기를 맞아 외면받던 은행권의 예・적금 상품이 각광받고 있다. 한국은행이 이달 고물가를 잡기 위해 사상 첫 ‘빅스텝(기준금리를 한 번에 0.5%p 인상)’을 밟으면서, 이에 맞춰 은행 수신금리도 일제히 올랐기 때문이다. 현재 시중은행의 예금 상품 금리는 3%대, 적금은 최고 6%대 수준이다. 당분간 수신금리는 더 상승할 전망이다. 예・적금 만기일을 앞둔 소비자들의 셈법도 빨라지고 있다.◆우대금리 없이 3%...전북銀, 최대 연 6%21일 은행권에 따르면 시중은행들은 기준금리 인상에 따라 고금리 상품을 확대하고 있다. 예적금 상품의 금리를 최고 0.7%p 이상 올리는가 하면, 특판 상품도 선보이고 있다. 주요 예금 상품(12개월 기준)의 경우 우리은행 ‘첫거래 우대 정기예금(최고 3.60%)’, 신한은행의 ‘아름다운 용기 정기예금(3.40%)’ 상품이 금리가 높다. 아름다운 용기 정기예금 상품은 신한은행의 대표 ESG상품으로 ‘1회용 컵 보증금 제도’ 서약만 해도 우대금리를 충족시킬 수 있다.하나은행의 ‘하나의 정기예금(최고 3.30%)’, IBK기업은행 ‘1석7조 통장(최고 3.33%)’은 별도 조건 없이 3%대의 금리 혜택을 제공하며 주목받고 있다. 농협은행은 특판 상품으로 ‘NH올원 e예금’ 상품을 내놓았다. 별도 우대조건 없이 비대면 가입후 만기까지 유지하면 3.4% 금리를 준다.IBK기업은행과 전북은행은 금리 5~6%대 적금상품을 선보이고 있다. 전북은행의 ‘JB카드재테크적금’은 12개월 기준 최고 6% 금리를 제공한다. 단 월 50만원 이내, JB카드 신규 발급과 일정액 이상을 사용하는 조건이 붙는다. 농협은행의 ‘NH걷고싶은 대한민국 적금’의 금리는 연 최고 6.35%다.우대 조건 충족이 부담된다면 ‘IBK썸통장’이나 케이뱅크의 ‘코드K자유적금’도 좋은 방안이다. IBK썸통장은 신규가입이고 다른 가입자와 ‘맞팔’을 맺으면 5.5% 금리를 받을 수 있다. 코드K자유적금은 통신사 KT가입자라면 별도 우대 조건없이 3.6% 금리 혜택을 준다. 단 두 상품 모두 월 한도액은 30만원 이하다. 내집 마련을 계획한다면 하나은행 ‘내집마련 더블업적금’에 가입시 최고 5.5%의 금리를 챙길 수 있다. 월 한도액은 20만원 이하다.각 사 취합 ⓒ 데일리안 이호연 기자◆“6개월 단위로 짧게...수시입출금 금리↑”은행마다 우대금리가 상이하긴 하지만 대부분 예적금 상품은 금리 3%대를 넘어섰다. 최근 주식・가상화폐 등 자산시장이 약세를 보이는 만큼, 은행 상품만 잘 굴려도 매력적인 재테크 수단이 될 수 있다는 분석이다.특히 한은이 연말까지 기준금리를 현 2.25%에서 2.75~3.00%까지 올릴 것으로 점쳐지는 가운데, 예・적금 금리도 더 올라갈 것으로 예상된다. 전문가들은 이같은 점을 고려해 납입기간이 6개월 정도로 짧은 상품을 선택하는 것이 유리하다고 당부한다. 돈을 예치하는 기간이 길수록 이자율이 높아지지만, 이자 수준이 더 높은 고금리 상품들이 쏟아져나오기 때문에 ‘갈아타기’도 해볼만하다는 설명이다.기존 상품 가입자라면 만기시 받을 이자와 고금리 상품 금리를 따져본 뒤, 갈아타는 것이 더 유리할 수 있다. 최근 은행에서도 6개월만 돈을 납입해도 금리를 주는 상품을 선보이고 있다. 앞서 언급한 하나의 정기예금은 6개월 기준 2.80%, 우리은행 첫거래 우대 정기예금은 1.90%의 금리를 제공하고 있다. KB국민은행의 ‘KBstar 정기예금’도 6개월만 돈을 납입해도 2.70% 금리를 준다.단기간 자금 운용을 위한 ‘파킹통장’도 눈에 띈다. 파킹통장은 자금 사정에 따라 자유롭게 입출금 거래를 할 수 있는 수시입출금 통장을 가리킨다. 예・적금처럼 제한이 없는데도 2%대의 금리를 받을 수 있어 인기가 높아지고 있다. SC제일은행의 경우 이달 초 최고 연 2.5%의 금리를 내세운 ‘마이런통장 5호’를 내놓았는데 일찌감치 소진된 바 있다. 최근 케이뱅크가 ‘플러스박스’ 금리를 연 1.3%에서 연 2.1%까지 올렸으며, 토스뱅크도 최대 1억원까지 연 2%의 금리를 제공중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>"토스 까봐" 갈취 수단 된 토스... 학폭 넘어 경찰수사도</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/047/0002360615?sid=102</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>광주지역 중·고교, '토스 앱' 악용에 골머리... "학부모가 자녀 거래 내역 살펴봐야"        ▲  금융앱 토스.            ⓒ 오마이뉴스   돈을 자유롭게 다른 사람에게 보낼 수 있는 금융 앱 '토스(toss)'가 학생들 사이에서 돈을 갈취하는 새로운 도구로 악용되고 있어 상당수 학교가 골머리를 앓고 있다. 일부 학교에선 학교폭력대책심의위를 넘어 경찰 수사로 비화되기도 한 것으로 나타났다. 광주광역시 A중학교에서는 토스 갈취 사건이 잇달아 일어났다. 이 학교는 가해 학생들을 학교폭력대책심의위에 넘겼고, 피해 학생 학부모는 경찰에 수사를 맡겼다. "토스 계좌 까봐... 돈 보내" 피해를 당한 B학생 쪽이 &lt;오마이뉴스&gt;에 제보한 토스 갈무리 화면 등을 살펴본 결과 B학생은 가해 학생들로부터 "토스 계좌를 까보라"는 협박을 받고 올해 5~6월에만 10여 차례에 걸쳐 돈을 갈취 당했다. 모두 토스 앱을 통해 돈 주고받기가 진행됐다. 돈을 요구한 장소는 학교 매점, 찜질방, 영화관, 노래방 등이었다. 액수는 몇천 원에서 몇만 원 정도였지만 수법이 정교하고 고약했다. 가해 학생들은 대부분 B학생에게 '돈을 내놔라'라고 한 것이 아니라 '돈을 빌려 달라'고 구두로 요구하거나 메신저 앱 등을 통해 요구했다. '갈취' 증거를 남기지 않기 위해 '돈을 빌린 것처럼' 위장하기 위한 것으로 보인다. 그런 뒤 B학생이 돈이 없다고 하면 '토스 앱' 화면을 보여 달라고 요구했다. 그 화면을 보고 돈이 있을 경우 갈취 행위가 벌어졌다. 또한 특정 모임 그룹 메신저에서는 'B학생을 돈줄로 만들겠다'는 모의를 한 정황도 확인됐다. 다음은 메신저 대화 내용이다. "가해 추정 학생: 10명 정도 모이고 B도 초대해. (B는) 우리가 커버 쳐주면 돈줄?" 같은 지역 또 다른 중학교에서도 '토스 갈취' 사건으로 시끄러운 상태다. 올해 만에도 피해 학생이 토스를 통해 돈을 뜯긴 액수가 수십만 원대에 이른다는 것이 이 학교 한 교사의 증언이다. 이 학교 한 교사는 "우리 반만 해도 갈취 사건 조사를 하다보면 거의 대부분 토스로 갈취 행위가 벌어졌다"면서 "토스 갈취는 증거가 남기 때문에 그만큼 가해 학생을 잡기도 쉽지만, 이렇게 갈취행위가 벌어지는 도구를 청소년들에게 사실상 무방비로 제공하는 것이 과연 올바른 것인가 의구심이 든다"라고 우려했다.토스 계좌 개설은 그렇게 어려운 일이 아니다. 토스 측은 만 14살 미만 청소년에겐 토스 가입 전 법정대리인의 동의를 받도록 제한을 두고 있지만 대부분의 부모가 쉽게 동의하고 있다. 용돈 등을 손쉽게 송금하기 위해서다. 놀이 문화처럼 번진 토스 갈취 이렇게 되다 보니 토스를 이용한 중고생들의 갈취 행위가 청소년들 사이에선 놀이문화처럼 번지고 있다는 게 교사들의 지적이다. 소셜미디어 프로필에서는 '친구비 1500원씩 토스로 보내' '애들아 친구비 100원씩 내' '3빌려주고 5에 받아갈 사람 편하게 연락해'라는 돈 요구 글귀를 쉽게 찾아볼 수 있다. 페이스북의 경우 프로필에 아예 토스 계좌를 적어놓은 중·고등학생들이 부지기수다.광주 지역의 또 다른 교사는 "토스 앱이 동의를 받아야 가입할 수 있는 만 14살 이하 학생 대상으로라도 부모에게 역시 거래 내역을 보내야 한다. 이것은 이미 여느 금융 앱에서 시행하는 정책"이라면서 "학부모들도 자녀의 토스 앱 사용 실태에 대해 주의 깊게 살펴봐야 토스 갈취 행위를 줄일 수 있을 것"이라고 제안했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.07.16~2022.07.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.07.16~2022.07.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.07.24.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>ICT-금융 경계 허문 전방위 협력… 메타버스 신사업 등 시너지 창출한다</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004872096?sid=105</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>SKT-하나금융 ‘테크핀 동맹’양사 인프라 공동활용 서비스 확대1월 제휴 맺은 ‘KT-신한’과 경쟁  SK텔레콤(SKT)과 하나금융그룹(하나금융)이 '테크핀(기술+금융) 융합'에 속도를 내면서 금융소비자 생활밀착형 서비스가 더욱 확대될 전망이다. 앞서 KT와 신한금융이 지난 1월 지분 맞교환 및 전략적 제휴를 한 데 이어 SKT도 테크핀 파트너사로 하나금융과 손을 잡으면서 치열한 경쟁을 예고했다.   네이버파이낸셜, 카카오뱅크, 토스뱅크 운영사인 비바리퍼블리카 등이 금융 플랫폼으로 진격하고 있는 가운데 이동통신사 중 처음으로 본인신용정보관리업(마이데이터) 본허가를 받은 SKT가 하나금융과 협력을 강화하면서 경쟁이 본격화될 전망이다. 당장 올 하반기 '인공지능(AI) 기반 재무건강진단 서비스' 등이 시작될 예정이다.   ■시너지協 구성…6대 핵심과제 추진   24일 SKT와 하나금융에 따르면 양사는 4000억원 규모 지분을 맞교환하고 정보통신기술(ICT)과 금융 전반에 걸쳐 6대 핵심과제를 실행하기 위해 '시너지 협의체'를 구성했다. 양사는 우선 금융 디지털전환 차원에서 AI 기반 금융서비스 구축을 검토키로 했다. AICC(AI 콘택트 센터)와 AI 챗봇을 도입해 고객 응대에 활용하거나 AI를 활용한 투자정보 제공 등을 논의할 예정이다.   양사는 메타버스(3차원 가상세계)와 금융을 융합한 신사업 추진에 대해서도 논의한다. SKT 메타버스 플랫폼에 하나금융 가상 지점을 구축해 아바타를 통해 고객상담을 진행하거나 하나금융이 메타버스 생태계 내 결제서비스 구축에 도움을 줄 수 있다. 양사는 가상자산 사업에 대해서도 시너지 협의체를 통해 지속적으로 논의할 예정이다.   양사는 비식별 처리된 SKT 비금융 신용정보와 하나금융 금융정보 데이터를 결합해 새로운 BM 발굴도 추진한다. 또 이종산업 간 풍부한 데이터를 결합해 보다 정교한 신용평가 모델을 개발하거나 마이데이터 사업 영역에서도 협력할 수 있다. '내 손 안의 금융비서'라 불리는 마이데이터는 소비자가 금융회사와 공공기관 등 여러 곳에 흩어진 금융상품 가입 및 자산내역 등 자신의 신용정보를 한눈에 파악해 쉽게 관리하도록 돕는 서비스다.   ■인프라 공동활용으로 시너지 창출   양사는 각사가 보유한 결제시스템과 다양한 온라인 채널, VIP 프로그램 등 인프라를 공동으로 활용해 시너지를 창출하는 방안도 검토한다.   아울러 양사 고객에게 혜택을 제공하는 공동 프로모션 추진 및 데이터 기반 광고집행 등 마케팅 영역에서 협력방안을 모색할 계획이다. ICT와 금융 융합의 시너지 창출 효과를 극대화하기 위해 SK스퀘어도 협력에 동참한다. 3사는 통신, 구독, 금융, 전자상거래(커머스), 미디어 등 다양한 서비스 간 융합을 통해 고객가치를 높일 수 있는 서비스 출시도 추진한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.07.26.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>“금리 매력 없네...”시중은행에 뒤쳐진 인터넷뱅크</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005276888?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>1년 수신금리 10권 내 이름 못 올려6개월미만 저원가성 수신상품에 치중[이데일리 전선형 기자] ‘인터넷은행 금리가 높다’는 말도 이제 옛말이 됐다. 기준금리 인상에 따라 시중은행들이 수신금리를 빠르게 올리면서 인터넷뱅크의 금리가 상대적으로 낮아졌기 때문이다. 특히 인터넷은행들은 비용부담이 적은 파킹통장 등 저원가성 수신상품에 치중하며 예대마진(예금과 대출 금리 차이 마진) 확보에만 급급한 모습이다. (사진=이미지투데이)25일 은행연합회 공시에 따르면 이날 기준 1년 정기예금 중에서 최고금리가 가장 높은 10개 상품 중 인터넷은행이 취급하는 것은 전무했다. 가장 높은 금리를 주는 상품은 3.6% 금리의 KDB산업은행 ‘KDB Hi 정기예금’이었다. 이어 DGB대구은행의 ‘DGB주거래우대예금(첫만남고객형)’이 3.56%, KDB산업은행의 ‘KDBdream 정기예금’이 3.5%, SH수협은행이 ‘Sh평생주거래우대예금’이 3.4%를 지급했다. 시중은행 중에선 신한은행의 ‘아름다운 용기 정기예금’이 3.4%로 가장 많이 지급했고, 하나은행의 ‘하나의정기예금’이 3.3%, NH농협은행이 3.25%, KB국민은행의 ‘KB Star정기예금’이 3.2%로 상위 10개 상품 반열에 이름을 올렸다. 반면 인터넷은행 상품들은 3% 이하의 금리를 주며 경쟁력이 다소 떨어졌다. 케이뱅크 ‘코드K정기예금’이 3%, 카카오뱅크의 정기예금은 2.5%를 줬다. 토스뱅크는 예금상품이 아예 없다. 1년만기 적금 상품(자유적립)에서도 기업은행 ‘IBK썸통장’이 5.05%를 지급하며 가장 높은 금리를 자랑했고, 이어 제주은행이 JBANK저금통적금이 4.80%, 기업은행 IBK D-day적금 이 4.6%를 줬다. 시중은행 중에서는 신한은행 ‘신한 안녕, 반가워 적금’은 4.60%, KB국민은행의 ‘KB마이핏적금’은 4.40%의 금리를 지급했다. 반면 케이뱅크의 코드K자유적금은 3.6%, 카카오뱅크의 자유적금은 2.9%의 금리를 줬다. 인터넷은행들의 금리가 시중은행보다 뒤처지면서 수신금 증가속도도 느려졌다. 5대 시중은행(KB국민ㆍ신한ㆍ하나ㆍ우리ㆍNH농협)의 6월말 기준 수신총액은 1821조6160억원으로 3월말과 비교해 1.9%가 증가했다. 같은 기간 인터넷은행 3사(카카오뱅크, 케이뱅크, 토스뱅크)의 6월말 수신총액은 66조3608억원으로 추정된다. 이는 3월말 보다 1.18% 증가한 수치다. 각사별로는 카카오뱅크는 6월말 33조1808억원으로 3월말보다 0.42%가 증가했고, 케이뱅크는 12조1800억원으로 5.54%가 늘었다. 토스뱅크는 6월말 수치를 공개하지 않았으나, 지난 3월말 21조45억원과 비슷한 수준의 수치를 보일 것으로 예상되고 있다. [이데일리 김정훈 기자]인터넷은행들의 수신금리 인상에 소극적일 수밖에 없는 건 예대마진 압박 때문으로 보인다. 기업금융(IB) 등을 하지 못하는 인터넷은행들의 경우 순수하게 예대마진으로 수익을 내야 하는데, 이를 위해선 수신금리는 최대한 낮게, 대출금리는 높게 유지해야 한다. 수신금리를 낮게 유지하려면 저원가성 예금, 다시 말해 금리가 없는 입출금식 통장이나 파킹통장 등을 많이 운영해 이윤을 남겨야 한다. 실제 1분기 기준 인터넷은행들의 저원가성 예금 비중을 살펴보면 카카오뱅크가 59.7%, 케이뱅크는 70%대, 토스뱅크는 수신금액의 대부분을 차지한다. 시중은행이 40~50% 수준을 유지하는 것과 차이가 있다. 업계 관계자는 “시중은행들은 고객으로부터 자금을 받아 대출뿐 아니라 IB(기업금융) 등 다양하게 사용할 수 있는데 인터넷은행은 태생적 한계로 자금활용이 한정돼 있다”며 “특히 지난해는 대출규제 강화로 일부 회사는 대출도 제대로 하지 못해 수신금을 확대할 명분이 없는 상황”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.07.20.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>토스, 3000억원 투자 실탄 확보… KDB산업은행 1000억원 투입</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000834527?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>토스가 20일 3000억원 규모의 투자를 확정했다./사진=임한별 기자 토스 운영사 비바리퍼블리카가 3000억원의 실탄을 추가로 확보했다. 토스는 20일 3000억원 규모의 투자를 확정하고 금융감독원에 이를 공시했다. 이달에 이어 다음달에도 추가 투자를 유치할 예정이다.토스 관계자는 "국내외 기관투자자들의 수요가 많아 2회에 나눠 진행한다"며 "현재 투자 논의 중인 기관의 참여 여부가 최종 확정되면 8월 중 클로징할 예정"이라고 설명했다. 이번 투자에서 토스는 기업가치 8조5000억원을 평가받았다. 이는 지난해 6월 마지막 투자에서 평가받은 8조2000억원을 소폭 상회하는 수준이다. 토스 측은 "전 세계적으로 투자심리가 극도로 위축된 상황에서 타 핀테크 기업들이 기업가치를 낮춰 투자 받고 있는 점을 고려하면 이번 투자는 매우 이례적"이라고 자부했다. 지난해 토스뱅크, 토스증권의 출범으로 토스 앱의 MAU(월간 활성 유저)는 올들어 매월 35만명씩 증가하고 있다. 지난달 토스의 MAU는 1400만명을 상회했다.토스 관계자는 "결제, 대출 중개 등의 매출이 확대되고 있어 빠르면 내년 초 흑자전환이 가능할 것으로 예상하고 있다"며 "기관투자자들은 독보적인 금융 플랫폼으로서 토스의 성장을 높게 평가했다"고 설명했다. 토스의 지난해 매출 총이익률은 70% 수준으로 글로벌 핀테크 앱의 40~50% 대비 매우 높다. 매출의 90% 이상이 금융회사로부터 받는 중개, 모집, 광고 등에서 발생하는 B2B 모델로, 탄탄한 수익구조를 가진 것이 특징이다. 이번 투자의 리드 투자자는 토스의 초기 성장부터 함께한 알토스벤처스로 1000억원을 신규 투자했다. 굿워터와 그레이하운드 등 해외 주주들의 투자도 이어졌다.국내 기관투자자 중에는 KDB산업은행이 1000억원, 광주은행이 200억원의 대규모 투자를 단행했다. 토스의 초기 투자자인 다올인베스트먼트(구 KTB네트워크)와 미래에셋증권도 소규모로 투자에 참여했다. 투자 유치 자금은 토스뱅크, 토스증권 등 주요 계열사의 성장 가속을 위한 추가 투자 및 신규 사업 등에 활용될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.07.22.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>알뜰폰 시장 진출한 토스의 승부수는 'UI·UX'</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002263216?sid=105</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>"알뜰폰 가입 규모 적어…절차 개선으로 통신비 절감에 기여"토스가 알뜰폰(MVNO) 사업 진출을 공식화하면서 토스가 어떤 방식으로 알뜰폰 사업을 현재 사업과 접목할 지 주목되고 있다. 토스는 송금·결제 과정을 간편하게 줄여온 전례가 있기 때문에 기존 알뜰폰 업체와 다르게 사용자 인터페이스(UI)와 경험(UX)으로 승부수를 띄울 것으로 관측된다.22일 토스는 '마이월드'란 이름으로 운영되는 알뜰폰 사업자 '머천드코리아'의 지분 100% 인수 계약을 이 달 중 마무리지을 계획이라고 밝혔다. 아직 주식 매매 계약(SPA)을 맺은 직후이기 때문에 구체적인 사업을 공개하진 않았지만, 토스는 다양한 그림을 그리고 있는 것으로 유추된다.일단 토스는 머천드코리아와 계약을 체결하면서 "통신비 절감에 기여하겠다"는 목표를 내세웠다. 알뜰폰 요금제가 기존 이동통신3사(MNO)에 비해 저렴한 것은 사실이다. 그렇다고 하더라도 알뜰폰 가입을 강요할 수는 없다.토스는 이를 UI와 UX로 해결한다는 전략을 세운 것으로 보인다. 고객 대응이나 가입 절차의 어려움 때문에 알뜰폰 가입을 꺼려하는 경우가 있어, 토스가 이를 얼만큼 해소하느냐는 사업의 성공과도 직결된 부분이다.토스 관계자는 "전체 이동통시시장 가입자의 약 14%만 알뜰폰 회선에 가입했다"며 "시장 규모에 비해 가입자가 적은데, 토스가 금융서비스 가입 절차를 간소화한 경험을 기반삼아 알뜰폰 가입 절차 허들을 낮춘다면 알뜰폰 가입자가 늘어날 수 있을 것"이라고 설명했다.앞서 알뜰폰 업계에 뛰어든 KB국민은행 '리브엠(Liiv M)'과 다르게 별도의 애플리케이션(앱) 구동이 아닌 '원 앱' 전략으로 알뜰폰 가입·결제를 가능하게 만들 예정이라는 점이 눈에 띈다. 토스를 원래 이용하는 2천200만 가입자가 알뜰폰의 잠재 고객이 될 수 있기 때문이다.(사진=이미지투데이)UI·UX가 좋다하더라도 얼마만큼 타 알뜰폰에 비해 합리적이고 저렴한 요금이 있는지도 관건이다. 토스가 인수한 머천드코리아가 보유한 요금제는 100개다. KB국민은행 리브엠이 요금제를 늘려나가는 것과는 대조되는 대목이다. 토스는 100개의 요금제를 모두 유지하지 않을 계획이지만, 고객이 요금제를 비교해 선택할 수 있는 경험을 만들 수는 있는 것이다.이밖에 토스는 본인 인증이 기반인 모든 모바일 서비스의 진입로인 '본인 확인 기관' 시장 점유율 확대를 노리고 있다. 토스 측은 "첫 관문인 격인 본인 인증 시장서 토스가 다양한 서비스로 드라이브를 걸고 있다"고 말했다.당연히 토스는 토스뱅크와 토스증권을 갖고 있는 만큼 토스 알뜰폰 요금제의 '결합 할인'이나 토스체크카드의 '캐시백'을 연계할 것으로 보인다. KB국민은행은 KB국민은행 결제 계좌 연결에 따라 요금제를 일부 인하해주고, 부가 기능은 제휴 업체와의 할인 쿠폰으로 대응하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.07.18.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>포스코, 친환경 철강재 개발 등 탄소감축 선도…탄소중립 통한 지속가능 미래사회 구현</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004725389?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>포스코와 고려대는 지난 6일 고려대 SK미래관 최종현홀에서 '제1회 지속가능 미래 포럼'을 열었다. 반기문 전 유엔 사무총장이 기조강연을 하고 있다. /포스코 제공포스코가 탄소 배출을 줄이는 방안을 논의하는 장을 마련했다. 이 회사는 지난 6일 고려대와 ‘제1회 지속가능 미래 포럼’을 열었다. 이번 포럼은 원자력 발전과 철강을 비롯한 소재산업의 탄소 배출 총량을 감축하기 위한 방안을 모색하기 위해 열렸다.고려대에서 열린 이날 행사에선 반기문 전 유엔 사무총장이 기조강연을 했다. ‘지속가능 미래를 위한 사회 협력 네트워크(CONET)’ 소속 박길성 고려대 사회학과 교수와 이준호 고려대 신소재공학부 학부장, 주한규 서울대 원자핵공학과 교수 등이 참석했다.토론 패널로는 이재혁 고려대 경영대학 ESG연구센터장, 최재철 전 유엔 기후대사, 정은미 산업연구원 성장동력산업 연구본부장, 신호정 한국생산기술연구원 기획평가조정실장이 참석했다.반기문 전 총장은 기조강연에서 “지속 가능한 미래를 위해 저탄소 사회로 신속하게 나아가야 한다”며 “이를 뒷받침하기 위해 사회적 합의 및 국제사회와의 전향적 협력이 중요하다”고 강조했다.주한규 교수와 이준호 교수는 주제강연을 통해 에너지와 소재산업 영역에서 탄소중립을 달성하기 위한 방안을 공유했다. 이 교수는 ‘탄소중립을 위한 철강재의 새로운 가치 발견’을 주제로 강연하며 포스코의 저탄소·친환경 철강 제품 분류 추진 방향 선제적 수립과 저탄소·친환경 철강 제품의 사회적 탄소 감축 기여도 분석 등을 업계 모범 사례로 소개했다. 이어진 토론에서는 철강 제품의 전과정평가(LCA)에 기반해 탄소 저감 기여도를 바라보는 인식 전환의 필요성을 공유했다. 사회적 합의를 도출하기 위한 민·관·학 협력 중장기 실행 방안도 논의했다.포스코는 2019년 친환경 강건재 프리미엄 브랜드 ‘이노빌트(INNOVILT)’를 론칭했고, 지난해엔 친환경차 통합브랜드 ‘e오포토스(e Autopos)’를 선보였다. 친환경에너지 소재 브랜드 ‘그린어블(Greenable)’도 내놨다.전기로 투자와 저탄소 조업 기술 개발에도 적극적이다. 수소환원제철 기술인 하이렉스(HyREX) 상용화를 통해 시장과 고객의 저탄소 제품 요구에 대한 대응력을 강화할 계획이다.엄기천 포스코 마케팅전략실장은 “생산 공정뿐만 아니라 고객 사용 관점에서 친환경성에 신경을 쓰고 있다”며 “앞으로 친환경 철강 제품의 개념을 체계화하면서 제품별 사회적 탄소 감축량 정량화 작업을 해나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.07.27.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>MP3, 오디오, 빔프로젝터… 스마트폰의 디지털 통일 다음 타깃은?</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/037/0000031202?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>‘폴더블’ 혁신으로 디스플레이 크기 제약 극복, 신분증·스피커로도 변신 삼성디스플레이가 개발한 폴더블 디스플레이 플렉스 에스(Flex S·왼쪽)와 플렉스 지(Flex G). [사진 제공 · 삼성디스플레이]스마트폰 보급으로 우리 주변에서 적잖은 수의 가전제품이 자취를 감췄다. 2000년대 집집마다 1대씩은 꼭 있던 MP3와 디지털 카메라가 스마트폰에 자리를 내준 대표적인 ‘왕년에 잘나간’ 전자기기다. 한때 휴대용 비디오플레이어 PMP가 학생과 직장인의 책상 위를 점령했지만 스마트폰 등장으로 구시대 유물이 됐다. 자동차 운전자의 필수품이던 내비게이션도 티맵, 카카오맵 등 스마트폰 애플리케이션(앱)에 고전을 면치 못하고 있다. 소형 기기로 눈을 돌려도 계산기, 시계, 녹음기, 손전등 기능이 스마트폰에 탑재된 지 오래다.이처럼 수많은 전자기기를 삼켜버린 스마트폰은 아날로그 공간으로 범위를 확장하고 있다. 현재 주요 타깃은 주머니 속 지갑이다. 신분증, 현금, 카드 자리를 대신해 스마트폰이 ‘디지털 지갑’이 되고 있다.스마트폰 앱, 주민등록증 대체 눈앞행정안전부는 7월 12일 ‘주민등록증 모바일 확인서비스’를 정식으로 시작했다. ‘정부24’ 앱을 다운로드한 후 본인인증을 거치면 관공서나 렌터카, 은행 서비스를 이용할 때 신분증처럼 사용할 수 있다. 현금이 오가지 않는 간편 결제·송금 서비스는 이보다 먼저 자리 잡았다. 네이버페이나 토스, 카카오뱅크 같은 핀테크 앱을 오프라인 가게뿐 아니라 일부 노점상에서도 사용할 수 있는 시대다.일견 진화 정점에 다다른 듯한 스마트폰의 폼 팩터(form factor)도 진일보하고 있다. 삼성디스플레이가 최근 공개한 폴더블 디스플레이 ‘플렉스 에스(Flex S)’와 ‘플렉스 지(Flex G)’가 대표적인 폼 팩터 혁신 사례다. 한 번 접을 수 있는 스마트폰이 상용화된 데 이어 두 번 접을 수 있는 디스플레이를 선보인 것이다. 일단 접으면 다른 스마트폰처럼 한 손에 들어오는 크기지만, 필요할 때 펼치면 더 큰 화면으로 이용할 수 있다. 디스플레이가 커진 것은 물론 마우스, 모니터를 연결하면 컴퓨터 작업이나 프레젠테이션이 가능할 만큼 스마트폰 자체 성능도 갈수록 좋아지고 있다. 결국 스마트폰이 컴퓨터나 노트북, 태블릿PC를 대체할 날도 머잖아 보인다. 이중 삼중으로 디지털 장비를 구매할 필요가 없어지는 것이다.스마트폰 디스플레이 크기의 한계를 극복하는 기술적 시도는 계속되고 있다. 삼성전자는 스마트폰에 빔프로젝터를 탑재한 ‘갤럭시 빔’ 시리즈를 출시한 바 있다. 그 후 일부 스타트업이 빔프로젝터 내장형 스마트폰을 선보이기도 했다. 아직 기존 빔프로젝터를 대신할 수준은 아니지만 기술 발달에 따라 스마트폰이 기존 빔프로젝터나 TV 시장의 플레이어로 뛰어들 가능성도 있다.애플의 MP3 모델 아이팟 1세대(왼쪽)와 아이리버의 IFP-100. [사진 제공 · 애플, 사진 제공 · 아이리버]스마트폰이 디지털 카메라를 대신할 정도로 카메라 성능을 높인 것처럼 최근엔 스피커 성능도 고도화되고 있다. 애플 아이폰13에는 오디오 앰프가 3개나 들어가 예전보다 입체감 넘치는 음향과 음질을 제공한다. 삼성전자와 샤오미는 오디오 앰프를 4개까지 탑재한 스마트폰 모델을 준비하고 있다. 스마트폰으로 게임, 영상통화, 화상회의를 하는 이가 늘면서 우수한 음질에 대한 요구도 커진 것이다. 지금처럼 블루투스 스피커와 연결할 필요 없이 스마트폰 자체를 고급 스피커처럼 사용할 수 있을 전망이다.VR/AR 중심 디지털 통합도 주목스마트폰 말고도 가상현실(VR), 증강현실(AR) 기술을 통한 메타버스 기술이 디지털 디바이스를 통합할 미래도 가까워지고 있다. 안경처럼 착용하는 VR/AR 기기로 가상의 컴퓨터, 노트북, 스마트폰, 스마트워치를 이용한다는 구상이다. 손짓으로 가상의 디지털 공간을 구현해 디바이스 간 장벽을 허물자는 것이다. 미래 디지털 디바이스 통합은 최근 10년 동안 온오프라인 공간을 제패한 스마트폰이 주도할까, 아니면 신흥강자로 떠오른 VR/AR 메타버스 기기가 재구성할까. 지금까지 스마트폰이 가져온 변화 이상의 파도가 디지털 시장에 불어닥칠 것으로 보인다.*유튜브와 포털에서 각각 ‘매거진동아’와 ‘투벤저스’를 검색해 팔로잉하시면 기사 외에도 동영상 등 다채로운 투자 정보를 만나보실 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.07.22.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>정부 자발적 원격수업·재택근무 독려…교육서비스株 '강세'</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000295746?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>■ 경제와이드 이슈&amp; '기업이슈' - 임선우◇ 교육서비스 관련주입니다.정부가 코로나19 재확산을 억제하기 위해 원격수업과 재택근무 실천을 독려하면서 교육 서비스 관련주들이 강세를 보였습니다.교육부는 일단 등교수업을 원칙으로 한다는 방침이지만, 확진자가 급증할 경우 교내 밀집도 조정 등을 통해 원격수업을 병행하는 격일 등교 가능성도 염두해두고 있는데요.다음 달 개학을 앞두고 전면등교 여부가 불투명해지면서 메가엠디, YBM넷 등 원격수업 관련주들이 오름세를 보였습니다.◇ 코오롱 그룹주 코오롱글로벌의 인적분할 소식에 관련주들이 급등했습니다.코오롱글로벌은 조직을 건설·상사 부문의 코오롱글로벌과 자동차 부문 신설회사 코오롱모빌리티그룹으로 인적 분할하기로 했다고 공시했는데요.이 결정에 따라 보유자산 가치를 기준으로 존속법인과 신설법인 사업을 내년 1월 1일 75대 25의 비율로 인적분할하고, 코오롱모빌리티그룹을 신설 및 재상장할 계획입니다.업계는 “최근 건설 업종의 주가 하락폭이 컸는데, 이번 인적분할을 통해 극심한 밸류에이션 디스카운트 해소가 가능할 것으로 보인다”고 평가했는데요.또 자동차 부문 가치가 재평가받으면 주가에 긍정적인 영향을 줄 것이란 기대감도 나오고 있습니다.◇ 토스관련주 모바일 금융서비스 토스의 신규 투자 유치 소식이 전해지면서 관련 종목이 수혜를 입었습니다.토스를 운영하는 비바리퍼블리카는 2천958억 원 규모의 신규 투자를 유치했다고 공시했는데요.이번 투자는 이달과 다음 달 두 차례 나눠 진행되고, 토스뱅크와 토스증권 등 주요 계열사의 성장을 위한 추가 투자 및 신규 사업 등에 활용될 예정입니다.비바리퍼블리카는 같은 날 알뜰폰 사업자 머천드코리아 지분 100%를 인수하는 주식매매계약을 체결하기도 했습니다.◇ 가상자산 관련주 비트코인 가격이 하락 전환하면서 가상자산 관련주들도 미끄러졌습니다.최근 반짝 상승세를 보이며 한 달여 만에 3천만 원 선을 회복했던 비트코인 가격은 테슬라가 보유 중인 비트코인의 75%를 처분했다는 소식에 약세로 돌아섰는데요.상승세가 꺾였다는 소식에 가상자산 거래소 업비트의 운영사인 두나무 지분을 보유하고 있는 우리기술투자와 빗썸의 최대주주인 비덴트 등이 하락 마감했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.07.28.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>지역 경제 버팀목 광주은행, 1분기 역대 최대 622억 순익</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004730328?sid=102</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>지방銀 브랜드파워 5년째 1위현장 밀착 경영으로 내실 성장금융위 기술금융 실적평가 1위스마트뱅킹 등 디지털경영 강화그린뉴딜 등 ESG경영에도 박차나눔경영·사회공헌활동 활발매년 사회복지공동모금회에 기부순익 10% 이상 지역사회에 환원광주은행(은행장 송종욱·오른쪽 7번째)은 지난 4월 한국능률협회컨설팅이 주관한 한국산업 브랜드파워 평가에서 5년 연속 지방은행 브랜드파워 1위를 차지했다. /광주은행 제공지난해 연간 당기순이익 1965억원을 기록해 사상 최대 실적을 달성한 광주은행이 올 1분기에도 역대 최대인 622억원의 당기순이익을 올리며 쾌조의 스타트를 끊었다.28일 광주은행에 따르면 이 회사는 올 상반기 한국산업의 브랜드파워(K-BPI) 지방은행 부문 5년 연속 1위 수상을 비롯해, 금융감독원 선정 2021년 관계형 금융 우수은행 중소형그룹 1위, 금융위원회·금감원 선정 2021년 지역 재투자 평가 ‘최우수’ 등급 획득, 금융위 기술 금융 실적평가(TECH 평가) 결과 소형은행 중 1위에 오르는 기염을 토했다.이 밖에도 광주광역시 금고 및 광주 광산·동·서·남·북구 5개 구 금고의 전담 은행을 맡아 ‘그랜드슬램’을 달성했고, 전남 시 지역(광양·나주·목포·순천·여수) 전체 금고를 석권했다.광주은행은 굵직한 경영 성과를 잇달아 거두며 광주·전남 대표은행으로서의 위상을 확고히 다져나가고 있다. ○지역 밀착 경영으로 내실 성장코로나19 팬데믹으로 인한 지역 경기 침체와 기준금리 인상, 핀테크·빅테크 기업과의 치열한 경쟁 속에서도 광주은행이 내실 있는 질적 성장을 이뤄낸 배경은 ‘이익 이상의 가치 추구’라는 경영 이념이 바탕이 됐다. 송종욱 광주은행장은 취임 이후 지역 밀착 경영과 고객 중심 현장경영, 포용금융을 뚝심 있게 실천해 왔다.광주은행 관계자는 “지역 대표은행으로서 지역 사회 문제에 대한 공감과 그 해결을 위한 노력에 앞장서 왔다”며 “그 과정에서 이뤄진 사회공헌 활동이나 금융 지원 등이 지역민과의 따뜻한 교류로 이어졌다”고 말했다.광주은행은 지역 경제의 선순환 구조를 일으키고 지역 사회와의 나눔을 실천하기 위해 ‘순천사랑통장, 화순사랑통장, 신안1004통장, 땅끝해남통장’ 등 지역사랑 통장의 판매실적에 따라 수익 일부를 해당 지역에 기부하고 있다. 2018년 출시한 ‘광주·전남愛사랑카드’는 수익의 일부를 매년 지역 사회복지공동모금회에 기부금으로 전달한다. 광주은행은 4년간 10억3000만원의 고향사랑기부금을 광주·전남 사회복지공동모금회에 기부했다. 5·18 광주민주화운동의 오월 정신을 기억하기 위해 출시한 ‘넋이 예·적금’ 판매 수익금 일부인 2000만원을 지난해에 이어 2년 연속 기부하기도 했다.광주은행은 지난 19일 연 하반기 경영전략 회의에서 △금리 상승기 도래 영업환경 변화에 따른 영업력 강화 전략 추진 △채널 최적화 전략과 비용 관리 기반의 경영 효율성 제고 △디지털 경쟁력 강화 통한 미래 수익 기반 확대 △자산건전성 관리 강화를 제시했다. ○디지털 플랫폼 경쟁력 확보 주력광주은행은 개인·기업 스마트뱅킹 전면 개편과 마이데이터 서비스를 전면 시행하는 등 금융의 디지털시대와 비대면 금융 활성화에 대응하기 위해 디지털 플랫폼 경쟁력 확보에 집중하고 있다. 이를 위해 금융권 최초로 토스(toss)와의 인적교류 프로그램을 진행하는 등 핀테크 기업의 일하는 방식과 조직문화 등을 공유하며 디지털 금융환경 변화에 신속히 대응하고 있다.광주은행은 ESG(환경·사회·지배구조) 팀과 ESG 추진위원회를 신설해 ESG 경영에도 공을 들이고 있다. 탈석탄·그린뉴딜 협약과 탄소 포인트 기부 은행 협약, 자영업자와 소상공인은 물론 중·저신용자를 위한 포용금융상품 판매 등 지역의 경제·사회·문화 등 다양한 분야에 관심을 갖고 ESG 경영에 동참하고 있다.ESG 인증 등급에서 최고등급을 받은 1000억원 규모의 원화 ESG 채권을 발행해 조달한 자금은 녹색금융 활성화를 위한 친환경사업과 코로나19로 어려움을 겪고 있는 지역 중소기업 및 소상공인 지원 등에 사용한다. 환경부에서 주관하는 ‘K-EV100(한국형 무공해차 전환 사업)’ 캠페인에도 노사가 동참해 2030년까지 업무용 차량을 전기·수소차로 100% 전환할 것을 선언했다.코로나19 위기 대응 과정에서 가계부채 및 기업부채가 많이 늘어나고 최근 한국은행이 빅스텝(기준금리 0.5%포인트 인상)을 단행하는 등 저신용자 와 금융 취약층의 빚 상환 부담이 증가하자 광주은행은 지역 서민과 소상공인에 대한 구체적인 금리인하 방안을 선제적으로 내놨다.광주은행은 △서민 금융 지원을 위한 포용금융 대출 금리 2.0%포인트 인하 △신용보증재단 보증서 담보대출 기한 연장 시 최대 1.0%포인트 인하 △개인사업자대출 만기 연장 시 금리 7.0% 초과 대출 최대 1.0%포인트 인하를 시행하기로 했다. ○당기순이익 10% 이상 사회 환원광주은행은 당기순이익의 10% 이상을 지역사회에 환원하는 등 다양한 사회공헌활동을 펼치고 있다. 지역인재 양성을 위한 ‘희망이 꽃피는 공부방(현재 69호점까지 선정)’과 ‘희망이 꽃피는 꿈나무(현재 6호까지 선정)’ 사업이 주력이다. 광주은행장학회 장학금을 통해 4000여 명의 지역 장학생에게 총 33억원 상당의 장학금 지원했고 코로나19 시기에는 취약계층과 의료진을 위한 긴급구호 박스 전달 및 금융 지원 등을 시행했다.최근에는 대한적십자사 10억원 기부클럽에 광주·전남 최초로 가입해 지역사회에 나눔 봉사의 아름다운 기업 문화를 전파하고 있다.내실 있는 질적 성장과 체질 개선을 통해 탄탄한 기초체력을 키워온 광주은행은 올해 광주·전남 대표은행 타이틀을 넘어 지방은행 최고의 수익성과 건전성을 갖춘 리딩뱅크로서 지속 가능한 100년 은행으로의 도약을 계획하고 있다.기존에 중점을 둔 지역 밀착경영·포용금융은 더욱 깊이 있게 강화하는 한편, 개인·기업 스마트뱅킹 전면 개편과 마이데이터 전면 시행, 비대면 전용 고객을 전담 관리하는 디지털금융센터 운영, 디지털과 정보기술(IT) 중심 내부 역량 ‘업스킬링(Up-Skilling)’ 디지털 금융 경쟁력 강화에 박차를 가할 계획이다.송종욱 광주은행장은 “사상 첫 빅스텝과 금융의 디지털화, 침체한 경기 등 급변하는 금융 환경에서도 새로운 도전 정신으로 적극적인 대응 방안을 마련해야 한다”며 “디지털 사업의 성숙도를 높이고 다양한 리스크 요인에 선제적으로 대응하는 등 지속 가능한 미래 성장동력을 확보하겠다”고 강조했다.광주=임동률 기자 exian@hankyung.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.07.20.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>'데카콘'은 아직…토스 기업가치 8.5兆로 3000억 투자 유치</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005120827?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>알토스벤처스, KDB산업은행 등으로부터 유치세계적 불황 속 기업가치 올려 투자 받아[이미지출처=연합뉴스]종합 금융플랫폼 토스가 기업가치 8조5000억원으로 인정받으며 3000억원 규모의 신규 투자를 유치했다. 당초 기업가치 100억달러(약 13조원) 이상인 '데카콘' 등극이 기대됐던 것과 달리 다소 주춤한 모습이다. 그럼에도 세계적으로 투자심리가 위축된 상황에서도 새롭게 자금을 끌어모은 것은 그만큼 기업 성장성을 인정받았다는 평가다.토스 운영사 비바리퍼블리카는 2958억원 규모의 신규 투자를 유치했다고 20일 공시했다. 이번 투자에서 책정된 토스의 기업가치는 8조5000억원이다. 지난해 6월 마지막 투자 당시 8조2000억원보다는 소폭 웃돌았지만 지난해 말부터 예상됐던 기업가치 10조원에는 못 미치는 수준이다. 토스 측은 "세계적으로 투자심리가 극도로 위축된 상황에서 타 핀테크(금융+기술) 기업들이 기업가치를 낮춰 투자 받고 있는 점을 고려하면 이번 투자는 매우 이례적"이라고 밝혔다.토스에 초기부터 투자한 벤처캐피탈(VC) 알토스벤처스가 리드 투자자로 참여해 1000억원을 내놓았다. 국내 기관투자자 중에는 KDB산업은행(1000억원), 광주은행(200억원) 등이 참여했다. 토스의 초기 투자자인 다올인베스트먼트(구 KTB네트워크)와 미래에셋증권도 소규모로 투자에 참여했다. 그 밖에 굿워터와 그레이하운드 등 해외주주들도 투자했다.이번에 확보한 자금은 토스뱅크, 토스증권 등 주요 계열사의 성장을 위한 추가 투자 및 신규 사업 등에 활용될 예정이다. 이달과 다음달 두 차례로 나눠 투자가 마무리될 예정이다. 토스 관계자는 "국내외 기관투자자들의 수요가 많아 2회에 나눠 진행하기로 했다"며 "현재 투자 논의 중인 기관의 참여 여부가 최종 확정되면 8월 중 마감할 예정"이라고 설명했다.한편 토스는 덩치를 불리고 있지만 여전히 적자를 면치 못하는 상태다. 지난해 연결 기준 매출 7808억원으로 전년(3898억원) 대비 두 배 가까이 증가했다. 하지만 같은 기간 영업손실도 1070억원에서 1796억원으로 증가했다. 세부적으로는 토스증권과 토스뱅크가 각각 780억원, 358억원의 영업손실을 기록했다.토스 관계자는 "지난해 매출 총이익률은 70% 수준으로 글로벌 핀테크 앱의 40~50% 대비 매우 높고 매출의 90% 이상이 금융회사로부터 받는 중개, 모집, 광고 등에서 발생하는 기업간 사업(B2B) 모델로, 탄탄한 수익구조를 가진 것이 특징"이라며 "결제, 대출 중개 등의 매출이 확대되고 있어 빠르면 내년 초 흑자전환이 가능할 것으로 예상하고 있고 기관투자자들은 독보적인 금융 플랫폼으로서 토스의 성장을 높게 평가했다"라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>지갑 얇은 MZ세대 잡자…불붙은 ‘디지털 외상’ 서비스</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003211130?sid=105</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>디지털 외상           글로벌 MZ(1980년대 초~2000년대 초반 태어남)세대의 뉴노멀이라는 ‘디지털 외상’ BNPL(Buy Now Pay Later·선구매 후지불)은 대세가 될 수 있을까. 현금·카드 없는 사람도 할부로 물건 사게 해준다는 BNPL의 세계에 콧대 높은 애플도 뛰어들었다.      코로나19로 급증한 온라인 쇼핑 수요 덕에 영미권·유럽에선 BNPL로 큰 유니콘들이 여럿 나왔고, 페이팔·마스터카드·씨티그룹·JP모건체이스 등 기존 금융권도 BNPL에 속속 합류 중이다.      애플은 지난달 열린 세계개발자회의(WWDC) 2022에서 ‘애플페이 레이터’를 공개, 연내 BNPL 진출을 공식화했다. 애플이 노리는 건 ▶물건을 파는 가맹점이 애플에 지급할 결제 수수료와 ▶이용자들의 결제 데이터다. 블룸버그는 “애플이 직접 대출, 리스크 관리, 신용평가 등 금융업을 주도적으로 처리하는 건 이번이 첫 사례”라며 “애플에겐 중요한 변화”라고 평가했다.      애플까지 뛰어든 이유는 소비의 주류가 된 MZ세대에게 BNPL이 신용카드 역할을 하고 있기 때문이다. 게다가 아디다스·갭·아마존 등 물건 팔 기업들도 BNPL을 반긴다. BNPL이 제품을 장바구니에 담아놓는 시간을 단축하고, 빠른 구매로 이어줘서다. 뱅크오브아메리카는 BNPL 시장이 2025년 최대 1조 달러(약 1186조원) 규모까지 성장할 것으로 전망했다.      한국은 미국·유럽에 비해 신용카드 보급률이 높고(2021년 기준 경제활동인구 1인당 4.2개, 여신금융협회) 무이자 할부도 흔하다. 또 현행법상 금융당국으로부터 2년마다 새로 ‘혁신금융서비스’로 허가를 받아야 BNPL 사업을 할 수 있다.      그래픽=김은교 kim.eungyo@joongang.co.kr           그래도 일단 국내 빅테크들은 적극적이다. 네이버파이낸셜·카카오페이·토스·쿠팡 등이 BNPL에 발을 뻗는 이유는 각자의 ‘OO페이’를 키우기 위해서다. 토스 관계자는 “올 3월부터 BNPL을 시작했는데, 토스페이 재사용률과 월 결제액이 올라가는 등 지표가 긍정적”이라고 말했다.      네이버파이낸셜 관계자는 “사회 초년생이나 씬 파일러(금융 이력이 별로 없는 사람)들이 팻 파일러(fat-filer)가 됐을 때도 네이버페이를 쓰도록 묶어두는 락인(lock-in) 효과를 기대한다”고 했다.      전통 금융사 중에선 수익성이 예전만 못한 카드사가 가장 적극적이다. 현대카드가 할부 가능한 BNPL ‘카드없이 분할결제’를 내놨고, KB국민카드도 결제대행(PG)사 다날과 함께 BNPL 서비스를 준비 중이다. 은행권에서도 신한은행이 지난해부터 NHN페이코와 BNPL 서비스를 함께 개발 중이다.      글로벌 시장에선 어펌(미국), 애프터페이(호주), 클라르나(스웨덴) 같은 핀테크 스타트업이 대표적인데, 국내에서도 새로운 사업모델을 접목한 BNPL 스타트업이 나오고 있다.      프리미엄 가구 플랫폼 로마드에서는 고가의 가구·생활용품을 BNPL로 구매할 수 있다. 누적 방문자 수 100만명, 상반기 매출 60억원을 돌파했다. 다날의 계열사 플렉스페이는 암호화폐(페이코인)로 BNPL 결제가 가능한 쇼핑몰 플렉스스토어를 운영 중이다. 페이먼스는 동대문 의류소매상들이 의류를 대량 사입할 때 돈을 먼저 대신 내주는 BNPL 서비스다. 서비스를 만든 장종욱 파이노버스랩 대표는 “소상공인들이 제출하는 매출 정보, 상품 반품률 등을 기반으로 한도 금액이 결정된다”고 설명했다.      불황에 소비 전반이 위축되면서 서비스 매력도가 급감한 것은 걸림돌이다. 미국 나스닥에 상장된 어펌의 주가도 지난해보다 80% 이상 폭락했다.      또 한국에선 신용카드를 더 선호하는 소비자 인식도 뛰어넘어야 한다. 사용자가 돈을 갚지 못하더라도 강제 회수할 근거가 없는 제도 공백도 문제다. 금융감독원 관계자는 “연체율 관리와 자금회수 방법 등에 대한 추가 논의가 필요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.07.26.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>70대 美여성, 낚시 중 ‘펄쩍’ 뛰어오른 돛새치 뿔에 사타구니 찔려</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003290056?sid=104</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>돛새치 시속 110㎞ 속도로 헤엄칠 수 있어상처 압박 후 병원 이송…생명엔 지장 없어돛새치 자료사진 - 소말리아에서 5일(현지시간) 한 어부가 모가디슈 항구 근처에서 돛새치를 옮기고 있다. 2018.01.05. 뉴스1미국 플로리다에서 낚시를 즐기던 70대 여성이 물속에서 뛰어오른 돛새치의 뿔에 찔리는 사고를 당했다.25일(현지시간) 가디언 등 외신에 따르면 지난 19일 미국 플로리다 해안에서 낚시를 하던 캐서린 퍼킨스(73)는 물속에서 갑자기 뛰어오른 45㎏ 크기의 돛새치 뿔에 찔려 사타구니 부상을 입고 병원으로 이송됐다.메릴랜드주 출신의 캐서린은 사고 당일 두 명의 남성 루이스 토스, 도미닉 벨레자와 같은 배를 타고 낚시를 즐기고 있었다.이날 가디언이 입수한 마틴 카운티 보안관 보고서에 따르면 사고 당시 루이스는 낚싯줄에 잡힌 물고기 한 마리를 배로 끌어 올리려 하고 있었다. 이들이 줄을 끌어 올릴 때 돛새치 한 마리가 갑자기 배로 돌진하기 시작했다.루이스와 도미닉이 돛새치가 물 밖으로 뛰어오른 것을 확인했을 때 돛새치는 중앙 제어반 옆에 서 있던 캐서린을 공격했다. 캐서린은 “물고기의 움직임이 너무 빨라서 미처 대응하지 못했다”고 당시를 설명했다.두 사람은 캐서린의 사타구니에 생긴 상처를 즉시 압박했고 캐서린은 곧바로 플로리다 론우드 병원으로 이송됐다. 다행히 생명에는 지장이 없는 것으로 전해졌다.캐서린을 찌른 돛새치는 플로리다 마틴 카운티 스튜어트에서 약 3㎞ 떨어진 바다에서 붙잡혔다. 이번 사건의 돛새치는 그 무게만 45㎏에 달하는 것으로 알려졌다.시속 110㎞까지 헤엄칠 수 있는 돛새치는 바다에서 가장 빠른 물고기 중 하나로 알려져 있다. 이들은 몸 크기는 최대 3.3m, 몸무게는 최대 100㎏까지 자란다. 몸이 방추형에 가깝고 위텁은 아래턱의 2배 이상 길이로 길게 튀어나와있다.2014년 영국 왕립학회 회보에 실린 연구에 따르면 돛새치는 보통 육지에서 멀리 떨어진 해수면에서 발견되며 사냥을 할 때 그들의 뿔을 사용한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.07.23.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>KB 이어 토스까지 왔다...천만 '알뜰폰' 시장 판 커진다</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004774356?sid=105</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>/그래픽=이지혜 디자이너 기자모바일 금융 서비스 토스가 알뜰폰 사업에 뛰어듦에 따라 시장에 격전이 예고된다. 터줏대감인 통신3사 자회사들은 물론 같은 금융권인 KB국민은행, 군소업체들과 경쟁이 더욱 가열될 조짐이다. 토스의 가세와 관련, 알뜰폰 업계는 "공정한 경쟁이 된다면 반대할 이유가 없다"는 입장이지만 막대한 자본을 등에 업은 금융권의 잇딴 시장 진입에 경계감을 내비치고 있다. ━토스, 머천드코리아 지분 인수...국민·신한은행과 격돌━ 앞서 지난 21일 토스의 운영사 비바리퍼블리카는 알뜰폰 사업자 머천드코리아의 지분 100%를 인수하는 주식매매계약을 체결했다고 밝혔다. 머천드코리아는 가입자 10만명 안팎의 중소 알뜰폰 업체다.토스는 토스앱에 알뜰폰 가입 서비스를 선보인다. 알뜰폰 요금제 탐색부터 원스톱 개통까지 가입의 전 과정을 혁신하고, 가계 고정 지출 중 상당 부분을 차지하는 통신비 절감 기회를 제공한다는 계획이다./사진=토스장민영 토스 사업전략리드는 "토스가 금융 서비스를 통해 고객의 시간과 비용을 아끼고 사회적 효용을 만들어낸 것처럼 알뜰폰 가입 고객의 불편함 해소와 토스 고객의 통신비 절감에 기여하고자 한다"고 말했다.토스가 알뜰폰 사업에 본격 진출하면서 기존 통신사 외에 KB국민은행과의 경쟁도 본격화할 것으로 예상된다.KB국민은행은 2019년 12월부터 KB리브엠이라는 브랜드로 알뜰폰 서비스를 제공 중이다. 막강한 자본을 등에 업은 KB국민은행은 유례없는 '저가 마케팅'으로 출시 2년 5개월 만에 30만명의 가입자를 끌어모았다. 현재 KB리브엠은 LTE 11GB 요금제를 2만원 중반대에 판매하는데 이는 망사용대가(원가)보다 1만원 낮은 수준이다. /사진=리브엠신한은행도 최근 알뜰폰 제휴 마케팅을 시작했다. 신한은행은 모바일뱅킹 앱 신한 쏠(SOL)에 알뜰폰 가입 이벤트 페이지를 열고, KT망을 사용하는 KT M모바일, 스카이라이프, 스테이지파이브, 세종텔레콤 알뜰폰 사업자의 12가지 제휴 요금제를 판매한다. 신한은행은 '단순히 판매 플랫폼을 제공할 뿐'이라는 입장이지만 업계에서는 리브엠의 금융 샌드박스 기한이 끝나는 내년 4월을 앞두고 알뜰폰 사업에 뛰어 들기 위한 준비 과정으로 보고 있다. 이 밖에 NH농협은행 역시 알뜰폰 시장 진출여부를 검토하고 있는 것으로 전해졌다.━알뜰폰 업계 "정당한 경쟁하면 OK"  ━앞서  한국알뜰통신사업자협회와  이동통신 판매업체 모임인 전국이동통신유통협회는 금융권의 알뜰폰 진출에 반대해왔다. 적정 수준 이하의 저가 요금제로 기존 중소 알뜰폰 사업자들과 이동통신 판매점의 생존을 위협한다는 이유에서다.실제 KB리브엠의 경우 가입자당 월 1만원에 달하는 손해를 보면서까지 저가 요금제 출시를 고수해왔다. 이에 따라 일부 중소 알뜰 사업자들도 울며 겨자 먹기 식으로 낮은 요금제를 출시했다. 하지만 적자가 누적되는 등 갈수록 버티기 어려운 형국이다. 반면 KB국민은행은 알뜰폰으로 고객들을 묶어두고 다양한 금융 상품을 교차판매할 수 있어 손해보는 장사는 아니다.이들이 최근 KB 리브모바일에대해 금융당국의 알뜰폰 사업중단을  요구하는 것도 이때문이다. 토스의 알뜰폰 사업 진출에대해  업계는 공정한 경쟁을 요구한다. 알뜰폰 업계 한 관계자는 "당초 머천드코리아의 경우 알뜰폰 사업을 잘 하고 있던 회사였다"며 "(토스의 인수로) 경쟁은 심해지겠지만 정당하게 경쟁해서 이익을 남긴다면 우리로서는 반대할 이유가 없다"고 말했다. /사진=뉴스1 소비자 입장에선 환영한다는 반응이 나온다. 알뜰폰 업체가 늘수록 가격 경쟁으로 가입자들에 돌아가는 이익이 커지기 때문이다. 천정부지로 치솟는 물가 탓에 통신비를 줄이기 위해 알뜰폰을 이용하는 사람들이 최근 부쩍 늘고 있다.과학기술정보통신부 무선 통신서비스 통계 현황에 따르면 알뜰폰 가입자 수는 올해 5월 기준 1130만명을 돌파했다. 지난해 11월엔 처음 1000만명을 돌파했다. 현재 알뜰폰 사업자 숫자는 70여개에 달한다. 현재  전체 이동통시시장 가입자의 약 14%만 알뜰폰 회선에 가입돼 있으며, 이 마저도 절반 정도는 휴대폰이 아닌 IoT(사물인터넷) 회선이다. 따라서 개인 알뜰폰 고객의 성장 잠재력이 높은 것으로 평가된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.07.28.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>뉴딜은 죽여도, 벤처는 살려라 [우보세]</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004776143?sid=110</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>[편집자주] 뉴스현장에는 희로애락이 있습니다. 그 가운데 기사로 쓰기에 쉽지 않은 것도 있고, 곰곰이 생각해봐야 할 일도 많습니다. '우리가 보는 세상'(우보세)은 머니투데이 시니어 기자들이 속보 기사에서 자칫 놓치기 쉬운 '뉴스 속의 뉴스' '뉴스 속의 스토리'를 전하는 코너입니다.[[우리가 보는 세상]](서울=뉴스1) 김명섭 기자 = 김주현 금융위원장이 11일 서울 종로구 정부서울청사 별관에서 열린 취임식에서 취임사를 하고 있다. 2022.7.11/뉴스1  2000년 이후 정권마다 제2 경제도약을 이끌겠다고 금융지원 사업을 해왔다. 김대중 정부가 IMF 외환위기를 디지털·IT 경제 육성으로 극복하면서부터다. 좌측 깜박이를 켰던 노무현 정부도 경제에선 한미FTA(자유무역협정)를 타결했다. 이명박은 녹색금융으로, 박근혜는 창조경제로, 문재인은 뉴딜로 포장했다. 경제정책을 해당 정부의 고유명사로 각인하기 위해 명칭을 달리했지만 본질은 같다. 혈세로 이뤄진 알토란 같은 자금을 성장기업에 주입해 벤처를 유니콘으로 키워내는 전략이다. 덕분에 '네카라쿠배당토직야(네이버 카카오 라인 쿠팡 배달의민족 당근마켓 토스 직방 야놀자)'가 탄생했다. 젊고 유능한 인재가 몰리고, 새 조직문화와 창의적 시장혁신이 이뤄졌다. 이런 벤처토양의 젖줄기는 크게 2개 상류에서 비롯된다. 중소벤처기업부 산하의 한국벤처투자가 창업초기 기업에 대한 자금을 방류한다. 십수명이 모여 만들어진 스타트업이 이 물을 먹고 백명 단위기업으로 성장한다. 두번째 급수는 금융위원회가 맡는다. 얼추 얼개가 짜여진 초기기업을 상장이나 M&amp;A(기업 인수합병)가 가능한 수준으로 키워낼 자금이다. 박근혜 정부가 만든 성장사다리펀드와 그 후신의 법인, 한국성장금융이 모체다. 지금 판교는 그 결실이라 할 수 있다. 하지만 문재인 정부에서 뭔가 이 흐름이 끊겼다. 돈이 애먼 곳으로 가서다. 취임 3년차, 그 해 예산안 잉크가 마르지도 않은 2월에 미세먼지 추가경정예산을 책정하더니 하반기부터 환경보조금을 뿌렸다. 2020년엔 코로나19가 창궐하자 보조금만 150조원을 풀었다.창업생태계를 위한 자금도 마련되기는 했다. 이른바 뉴딜펀드다. 한데 문제는 돈 푸는 기간이다. 문 정부는 지난 4월 마감했지만 계획은 그 이후인 2025년까지로 잡았다. 정권을 교체한 윤석열 정부가 이를 받아들일 리 만무하다.그 결과는 어떨까. 33조원 자금을 풀었던 성장금융은 이제 고사직전이다. 우물이 말라서다. 더구나 문 정부가 임기 말에 투자운용본부장으로 청와대 전 행정관을 앉히려 하면서 성장금융은 언제 낙하산이 날아올 지 모르는 곳이 됐다. 리더십 공백이 수개월째 이어지자 실무진 이탈은 자연스러운 수순이 됐다. 가장 핵심인 투자운용1본부장이 최근 민간으로 가겠다고 짐을 쌌다. 원년 멤버 팀장은 이보다 보름 빠르게 민간 벤처투자사 대표로 옮겼다. 최근 이탈한 핵심운용직이 전체의 과반이다. 혈세를 수십조원이나 쏟아부은 벤처투자 상류가 '뉴딜'이란 멍에로 썩어들어간다. 생태계 관계자 모두가 안타까워 하지만 그 누구도 총대를 메고 정권에 직언하는 이가 없다.  현 정부도 뉴딜이 미운 거지 벤처가 미운 것은 아닐 것이다. 관료들은 그러나 뒷짐을 지고 있다. 전쟁과 물가상승, 금리인상과 경기침체로 이른바 '퍼펙트 스톰'이 온다고 호들갑 떨지만 실제로 목숨이 왔다갔다하는 벤처들 생사고락에는 관심이 없다. 정권 눈치를 보는 전형적인 복지부동이다. 전 정권의 흔적은 뉴딜이란 이름을 없애 지워도 좋다. 새 명칭을 만들어도 상관없다. 여하튼 좌우간 아무튼, 벤처는 살려야지 않겠는가.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.07.27.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>尹 '내부총질' 문자 논란…국회서 포착된 '역대급' 메시지는?[타임라인]</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003669001?sid=100</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>핵심요약국민의힘 권성동 당대표 직무대행 겸 원내대표가 윤석열 대통령과 주고받은 문자메시지가 보도된 데 대해 사과했습니다. 해당 문자 내용이 촬영된 건 국회 본회의장에서였는데요. 국회에서 사진기자들에 포착되는 정치인들의 문자메시지는 때로 실수인 '유출' 혹은 고의로 한 '노출'인지를 두고 논란이 되기도 합니다. 그동안 국회에서 찍힌 '역대급' 문자메시지는 어떤 걸까요.2011-10-05이동관, 박지원에 '사과 메시지''이명박의 입'으로 통하는 이동관 청와대 언론특보가 민주당 박지원 의원에게 '막말 문자메시지'(왼쪽)를 보내 논란이 되자 다음날 '사과 문자'를 보냈다. 박 의원은 대검찰청 국감에서 로비스트 박태규씨가 이 특보를 비롯한 여권 실세와 자주 만났다고 주장했고, 이에 이 특보로부터 받은 문자를 공개하며 "청와대가 얼마나 국회를 경시한 것인지 보여준다"고 비난했다. 이후 이 특보는 해명자료를 내고 문자 속 '인간'은 자신을 지칭한 것이라고 해명한 바 있다. 박지원 의원실 제공·연합뉴스2013-06-27김재원 "형님 억울합니다"…김무성 발언 발설에 읍소 문자새누리당 김무성 의원이 국회 본회의장에서 같은 당 전략기획본부장이던 김재원 의원이 보낸 문자메시지를 읽고 있다. 김무성 의원의 '2007년 남북정상회담 회의록 사전입수' 발언을 발설한 사람 중 한 명으로 지목된 김재원 의원이 "맹세코 저는 아닙니다"라며 "저는 요즘 어떻게든 형님을 잘 모셔서 마음에 들어볼까 노심초사 중이었는데 이런 소문을 들으니 억울하기 짝이 없습니다"라고 호소하는 내용의 문자가 포착됐다. 연합뉴스2013-11-19김진표-노영민, '취업청탁' 주고 받았나국회 본회의장에서 대정부 질문이 열리던 중 민주당 김진표 의원이 "13년 K대 스페인어과 졸업 이름 B / 한전 남부발전 지망 / KOSPO 15XXXXX / 아버지가 삼성전자 협력업체 경영"이라는 문자메시지를 받은 뒤, 이를 같은 당 산자위 소속 노영민 의원에게 전달한 사실이 밝혀졌다. 이후 김 의원은 "사적으로 아는 분에게서 해당 기업 1차 필기시험 결과를 알아봐달란 부탁이 들어와 노 의원에게 문자를 전달한 것"이라며 "부적절했다"고 해명했다. 황진환 기자  2014-10-08국정감사장에서 권성동 의원이 본 '비키니 모델'고용노동부 국정감사 현장에서 국회 환경노동위 소속 새누리당 권성동 의원이 휴대전화로 본 사진 속 비키니 차림의 외국 여성은 플레이보이 모델인 티파니 토스다. 권 의원은 “스마트폰으로 환노위 관련기사 검색 중 잘못 눌러 비키니 여성 사진이 뜬 것”이라며 “의도적인 것이 아니었다”고 해명했다. 박종민 기자·티파니 토스 트위터 캡처2016-11-11이정현, 박지원에 '충성 문자' 논란'최순실 게이트 등 진상규명에 대한 긴급현안질문이 열리는 국회 본회의장에서 국민의당 박지원 비상대책위원장이 새누리당 이정현 대표와 주고받은 문자를 확인하고 있다. 이 대표는 박 비대위원장에게 공당의 대표인데 자꾸 '비서'라고 표현하는 것에 대해 서운함을 표한 뒤 '충성충성충성 장관님 사랑합니다 충성'이라고 답문을 보냈다. 윤창원 기자2017-10-30자유한국당 "짜놓고 짜놓은대로 안 하면?"방송통신위원회의 MBC 대주주 방송문화진흥회 보궐이사 선임에 반발해 '국감 보이콧'을 선언한 자유한국당이 복귀했다. 이날 오전 국회에서 열린 과학기술정보방송통신위원회 국정감사에서 자유한국당 민경욱 의원이 같은 당 의원들에게 "짜놓고 짜놓은대로 안 하면 이게 뭡니까?"라며 항의하는 카카오톡 메시지를 보냈다. 연합뉴스2019-09-18국회 외통위 천정배, 외교관 딸에게 "도와줄게" 취지 메시지 논란국회 외통위 전체회의에서 무소속 천정배 의원이 외교관인 딸에게 보낸 텔레그램 메시지가 포착됐다. "OO아 바쁘지? 내가 이번 국감은 구주반(유럽‧동유럽)에 속해, 프랑스, OECD, 벨기에, EU, 모로코, 이집트, 이탈리아, 아제르바이잔, 조지아(트빌리시 분관) 공관에 갈 예정이다. 혹시 너와 가까운 직원들 있으면 알려주고 내가 가서 도와줄…"이라는 내용이 담겼다. 이에 천 의원 측은 "뒤 문장이 잘린 채로 보도됐다"며 "국정감사 질의에 도움을 받기 위해 딸에게 친한 외교부 직원을 알려달라고 부탁하려 했던 것"이라고 해명했다. 박종민 기자2020-09-08"카카오 들어오라 하세요" 윤영찬, 발끈한 이유국회 본회의장에서 국민의힘 주호영 원내대표가 교섭단체 대표연설을 한 뒤 포털사이트 다음 메인뉴스로 뜨자, 더불어민주당 윤영찬 의원이 보좌진에 "이거 카카오에 강력히 항의해주세요. 카카오 너무하군요. 들어오라 (하세요)"라고 텔레그램 메시지를 적는 모습이 사진기자들에게 찍혔다. 이에 국민의힘 측은 윤 의원의 과방위 사임 등을 요구했고, 윤 의원은 논란의 메시지에 대해 "여야 대표연설의 포털 노출 과정의 형평성에 의문을 가졌던 것"이라면서도 "송구하다"고 잘못을 시인했다. 국회사진취재단2022-07-26尹 "내부총질"…이준석 징계에 尹心 개입 논란 재점화국회 본회의장에서 열린 제 398회 임시회 6차 본회의 대정부 질문도중 권성동 국민의힘 당대표 직무대행 겸 원내대표가 윤석열 대통령과 텔레그램 메시지를 주고 받았다. 권 대표의 휴대전화에는 '대통령 윤석열'이라는 발신자 명의로 "우리당도 잘하네요. 계속 이렇게 해야", "내부 총질이나 하던 당대표가 바뀌니 달라졌습니다"라는 내용의 메시지가 왔다. 권 대표는 이에 "대통령님의 뜻을 잘 받들어 당정이 하나되는 모습을 보이겠습니다"라고 답장을 보냈다. 대통령이 집권여당 대표를 비판한 내용이 담긴 메시지가 고스란히 언론사 카메라에 포착된 것은 전례를 찾아보기 힘들어 파장이 만만치 않다. 권 대표는 이날 자신의 페이스북에 글을 올려 "이유를 막론하고 당원동지들과 국민들께 심려를 끼쳐드려 죄송하다"고 밝혔다. 박종민 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.07.19.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>토스증권 차기 대표로 오창훈 CTO 내정</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000295231?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>오창훈 최고기술책임자(CTO)가 토스증권 차기 대표로 내정됐습니다.토스증권은 현 박재민 대표 임기만료에 따라 오는 22일 이사회에서 차기 대표 선임을 결정할 예정이라고 오늘(19일) 밝혔습니다.1977년생인 신임 오 대표는 지난 2017년 비바리퍼블리카에 합류했고, 토스증권 초기 멤버로 증권 매매 서비스 개발을 이끌었습니다. 토스 합류 전에는 네이버와 GS홈쇼핑 등에서 인프라 구축 및 다양한 서비스를 개발했다고 회사 측은 설명했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.07.20.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>개인정보 미래포럼 2기 출범··· 규제혁신·정책방향 논의</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002129050?sid=105</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>20일 서울중앙우체국에서 열린 개인정보 미래포럼 출범식 및 1차 회의 모습[디지털데일리 이종현기자] 개인정보보호위원회(이하 개인정보위)는 개인정보 미래포럼(이하 미래포럼) 2기를 출범했다고 20일 밝혔다.    작년 4월 출범해 1년간의 활동 후 정비기간을 거쳐 재출범한 미래포럼은 개인정보위 위원장과 민간의장의 공동의장 체제로 운영된다.    민간의장을 맡은 것은 윤종수 변호사다. 학계·법조계·산업계·시민사회계 전문가 30명과 함께 내년 7월까지 활동하게 된다. 내년 6월까지 매월 한 차례씩 활동이 계획돼 있다.   2기 미래포럼에는 김영훈 아마존웹서비스(AWS) 정책협력실장, 김지영 토스 공공사업개발실 실장, 송승재 라이프시맨틱스 대표, 오병일 진보네트워크 대표, 장준영 쿠팡 정보보호 법무 책임자, 이성엽 고려대학교 교수, 최경진 가천대학교 교수 등이 이름을 올렸다.   출범식과 함께 1차 회의를 진행한 미래포럼은 디지털플랫폼정부와 개인정보를 주제로 논의를 진행했다. 디지털플랫폼정부 출범준비단 고진 단장이 추진방향에 대해 발제하고, 최경진 위원의 발표 이후 위원간 토론이 이뤄졌다.   윤종인 개인정보위 위원장은 “디지털플랫폼정부의 성공을 위해 핵심인프라인 개인정보의 안전한 활용과 국민 개인정보 보호가 무엇보다 중요하다”며 “미래포럼에서 논의된 과제들을 개인정보 정책에 충실히 반영하여디지털플랫폼정부를 성공적으로 구축하고 디지털 시대를 선도하는데 기여하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>토스, 알뜰폰 사업체 인수…KB국민銀과 경쟁 나선다</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004727111?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>머천드코리아와 인수계약 체결토스인증서 등 기존 서비스와 시너지 기대토스가 알뜰폰 사업체를 인수했다. (사진 = 토스)토스가 알뜰폰 업체를 인수한다. 토스의 운영사 비바리퍼블리카(이하 토스)는 알뜰폰 사업자(MVNO) 머천드코리아의 지분 100%를 인수하는 주식매매계약을 체결했다고 21일 밝혔다. 금융기관 중에서는 KB국민은행이 '리브엠'이라는 브랜드로 알뜰폰 사업을 벌이고 있는 만큼, 토스는 국민은행과의 경쟁도 불가피할 전망이다. 토스는 토스앱을 통한 알뜰폰 가입 서비스를 선보일 예정이다. 알뜰폰 요금제 탐색부터 편리한 개통까지 가입의 전 과정을 혁신하고, 가계 고정 지출 중 상당 부분을 차지하는 통신비 절감 기회를 제공한다는 계획이다. 국내 알뜰폰 시장은 지난 2011년 도입 후, 가입자 규모가 꾸준히 늘어나며 2021년 기준 1000만 명을 돌파했다. 알뜰폰 사업자 숫자는 현재 70여개에 달한다.하지만 전체 이동통시시장 가입자의 약 14%만 알뜰폰 회선에 가입돼있다. 이마저도 절반 정도는 휴대폰이 아닌 사물인터넷(lot) 회선으로 개인고객 성장 잠재력이 큰 것으로 평가된다. 토스는 온라인 채널을 통해 주로 가입되는 알뜰폰의 특성 상 편리한 가입절차, 사용 유형에 맞는 최적의 요금제, 운영 사업자의 브랜드 인지도 등 세가지 요소를 시장 확대에 필요한 중요 키(KEY)로 보고 있다. 장민영 토스 사업전략리드(Business Strategy Lead)는 "토스가 금융 서비스를 통해 고객의 시간과 비용을 아끼고 사회적 효용을 만들어낸 것처럼, 알뜰폰 가입 고객의 불편함 해소와 토스 고객의 통신비 절감에 기여하고자 한다"고 강조했다. 토스는 본인확인기관과 전자서명인증 사업자 지위를 모두 보유한 사업자로서, 알뜰폰 가입 과정에서 토스인증서를 적극 활용할 계획이다.토스가 인수하는 머천드코리아는 지난 1998년 설립 이후 약 20년 간 통신사업을 운영해 왔으며, 한국알뜰폰통신사업자협회의 감사를 맡고 있다. LG 유플러스의 1호 알뜰폰 사업자로 선정된 바 있으며, 현재 통신 3사와 모두 계약을 맺고 다양한 고객층의 요구에 맞춘 요금제를 운영 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.07.31.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>예보한도 21년째 5000만원…"올릴때 됐다"</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004082307?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>['역머니무브'에 상향 목소리]인터넷은행 가파른 성장세에카뱅 미보호 예금 10조 육박전체 수신 금액의 3분의1 달해예보 "내년 8월까지 제도 개선"[서울경제] 금리 인상으로 시중 자금이 예적금으로 몰리는 역머니무브 현상이 나타나며 이제 출범 5년을 갓 넘긴 인터넷은행에도 예금자 보호 한도를 초과하는 자금이 10조 원 넘게 쌓였다. 인터넷은행의 성장과 함께 고액 자산 예치 비중도 늘어날 것으로 예상되는 만큼 예금보험공사의 예금자 보호 한도 확대 상향 논의의 속도를 올려야 한다는 목소리가 나온다.31일 금융 업계에 따르면 올해 1분기 기준 카카오뱅크에 보관된 자금 중 예금자 보호 한도인 5000만 원을 초과하는 예금 규모는 총 9조 8199억 원으로 나타났다. 전체 수신 금액의 3분의 1 수준으로 6조 5687억 원이었던 1년 전보다 3조 원이나 더 늘었다. 여기에 토스뱅크·케이뱅크의 미보호 예금까지 합산하면 규모는 10조 원을 훌쩍 넘는다.인터넷은행이 시중은행과 달리 고액 자산가만을 대상으로 한 프라이빗뱅커(PB) 상품을 갖추고 있지 않은 상황에서도 이렇게 빠르게 예적금 규모를 늘리는 점이 눈에 띈다. 카카오뱅크의 경우 10억 원 이상씩 예치된 금액도 1분기 기준 4000억 원에 육박하기 때문이다. 금리를 선제적으로 인상하거나 고금리 파킹 통장을 출시하며 간편함을 내세운 인터넷은행들의 전략에 큰손들도 움직인 것으로 풀이된다.하지만 일각에서는 금리 인상으로 인터넷은행들의 수신 금액이 지나치게 빠르게 늘어나는 데 대해 우려의 목소리가 나온다. 비교적 신생 금융사인 인터넷은행들의 수익 기반이 탄탄하게 못한 상황에서 미보호 예금 규모가 급증하고 있기 때문이다. 토스뱅크의 경우 출범 1년도 안 돼 360만 명이 넘는 고객을 유치하면서 급성장하고 있지만 아직 적자를 벗어나지 못하고 있다. 토스뱅크는 1분기 654억 원의 순손실을 나타냈다.금융권에서는 금리 인상으로 아직 초기 단계인 인터넷은행들에도 돈이 몰리는 상황에서 예금자 보호 한도 확대 논의를 다시 시작해야 한다고 주장한다. 예금자 보호 한도는 2001년 이후 21년째 제자리다. 국회에는 예금자 보호 한도를 5000만 원에서 1억 원으로 늘려야 한다는 예금자보호법 일부 개정안이 총 2개 발의된 상태다. 홍석준 국민의힘 의원은 “우리나라 1인당 국내총생산(GDP)이 2001년 대비 3배가량 증가했다”며 “은행?보험의 보호 한도를 1억 원으로 상향해 성장한 경제 규모에 상응할 수 있는 실효성 있는 예금보호 제도가 마련돼야 한다”고 말했다.보호 한도가 확대된다면 인터넷은행에도 긍정적이다. 시중은행 대비 자산 규모나 신뢰도 면에서 아직 뒤처지는 만큼 보호 한도가 늘면 증가한 금액에 비례해 신뢰도가 높아지는 효과를 기대할 수 있기 때문이다. 한 인터넷은행 관계자는 “예금 보호 한도를 초과하는 예금 규모가 늘기는 했지만 대부분의 이용자는 5000만 원 이하로 넣는 경우가 많다”며 “한도가 상향되면 1인당 예치금도 늘어날 것”이라고 전했다.연초 시중은행과 증권사 계좌에 넣어뒀던 돈 일부를 토스뱅크 파킹 통장으로 옮긴 직장인 김 모(30) 씨는 “가진 7000만여 원을 모두 옮길까 하다 혹시 모르니 이자를 포함했을 때 예금자 보호가 되는 4800만 원 정도만 옮겼다”며 “한도가 상향되면 돈을 모두 옮기고 주거래 은행을 바꿀 의향도 있다”고 했다.한편 예보는 내년 8월까지 예금보험 제도 개선안을 내놓겠다는 입장이다. 예보 측은 28일 국회에서 열린 정무위원회 전체 보고에서 “현재 금융사가 부담하는 금전의 상당 부분이 과거 구조조정 비용 상환에 충당돼 미래 예금자 보호를 위한 기금 적립이 충분치 못하기 때문에 제도 전반에 대한 정비가 필요한 상황”이라며 “특히 보호 한도 조정은 경제 규모 확대 및 금융 환경 변화, 기금 확충 방안 등을 종합적으로 검토해 고려하겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.07.26.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>이준석 "우크라이나 방문비용 갖고 장난…정치적 공격에 환멸감"</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013336009?sid=100</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>"지난달 회계보고 받은 최고위원이 유출했을것…이런 공격 시도 추잡"(서울=연합뉴스) 최덕재 기자 = 당원권 6개월 정지의 중징계를 받고 전국을 돌며 장외정치를 벌이고 있는 국민의힘 이준석 대표는 26일 지난 6월 우크라이나 방문 당시 사용한 비용에 대해 "누군가 정치적으로 공격하려고 한다"고 비판했다.    이 대표는 이날 페이스북을 통해 "법인카드 '한도' 2000만원 기사로 장난치더니 이제는 우크라이나 방문비용을 가지고 누군가가 장난을 친다"며 이같이 밝혔다.포항서 '번개모임'하는 이준석 대표(포항=연합뉴스) 24일 저녁 경북 포항 송도해변 한 통닭식당에서 국민의힘 이준석 대표가 지지자나 포항시민과 치킨을 나눠 먹으며 대화하는 '번개모임'을 하고 있다. 2022.7.24 [독자 제공. 재판매 및 DB 금지] sds123@yna.co.kr    앞서 한 인터넷 언론은 국민의힘 특별대표단이 지난달 6박 7일 우크라이나 일정에 당비 1억4천458만여원을 사용했다고 보도했다.    이 대표는 "상대 정당이 초청해서 우크라이나에 가는데 당비를 쓰는 것은 당연하고, 일정은 초청일정에 맞춰 가는 것"이라며 "정말 이런 자료나 유출시켜 정치적으로 공격하려고 하는 모습을 보면 환멸감이 든다"고 적었다.    또 "우크라이나 방문시 직항편도 없어 바르샤바까지 갈때는 이스탄불·올때는 도하 경유로 비행기값만 1인당 800만원 넘게 들었다"며 "경유로 표도 구하기 힘들어 의원들은 갈 때 그 장시간 비행을 이코노미를 타고 갔고, 바르샤바에서 우크라이나까지는 방문단 전원이 버스에 같이 타고 육로로 위험지대를 10시간 넘게 들어갔다"고 설명했다.    그는 "회계내용은 엄격하게 관리되는데, 언론사가 해킹이라도 한 것이 아니라면 지난 달 회계보고를 받은 최고위원이 이 내용을 언론사에 토스했을 수밖에 없다"며 "이런 공격을 시도하는 것 자체가 추잡하다"고 했다.    이 대표는 "저는 대표 되고 나서 당에서 제공한다는 카니발과 운전기사도 거부하고 대중교통이나 자차 이용해서 다닌다"며 "이런 걸로 공격해봐야 남는거 없다"고 덧붙였다.     DJY@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>[특징주] 3000억원 투자 받은 토스에 관련주 급등…다올인베스트먼트 15% 넘게 올라</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000828920?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>토스가 3000억원 규모의 투자 유치에 성공했다는 소식에 관련주가 강세를 보이고 있다.비바리퍼블리카 제공        21일 오전 9시 22분 기준 다올인베스트먼트는 전날보다 15.34% 급등한 3680원에 거래되고 있다. 장중 주가는 3900원까지 오르기도 했다. 다올인베스트먼트의 모회사인 다올투자증권은 2.22% 상승 중이다.토스가 3000억원 규모의 신규 투자를 받는다는 소식이 알려지자 투자 심리가 개선된 영향으로 풀이된다. 다올인베스트먼트는 토스의 초기 투자자로 지분을 보유하고 있고, 이번 신규 투자에도 소규모 참여한 것으로 알려졌다.전날 토스 운영사 비바리퍼블리카는 2958억원 규모의 신규 투자를 유치했다고 공시했다. 이번 투자는 이번 달과 다음 달 두 차례에 걸쳐 진행된다.토스는 이번 유치 자금을 토스뱅크, 토스증권 등 주요 계열사의 성장 가속을 위한 추가 투자 및 신규 사업 등에 활용할 예정이라고 밝혔다.한편, 토스는 시리즈G브릿지로 진행한 이번 투자에서 기업 가치 8조5000억원을 인정받았다. 이는 지난해 6월에 비해 3000억원 증가한 수준이다 .</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>토스, 신규 투자 3천억원 유치…“기업가치 8조5천억원”</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003717354?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>모바일 금융플랫폼 ‘토스’를 운영하는 비바리퍼블리카는 약 3000억원 규모의 신규 투자를 유치했다고 20일 밝혔다.   토스에 따르면 토스의 초기 성장부터 함께 한 밴처캐피탈(VC) 알토스벤처스가 리드 투자자로 참여해 1000억원을 투자했다. 국내 기관투자자 중에는 KDB산업은행이 1000억원, 광주은행이 2000억원을 투자했다.   또 굿워터와 그레이하운드 등 해외 주주들도 투자에 참여했고, 토스 초기 투자자인 다올인베스트먼트(구 KTB네트워크)와 미래에셋증권도 소규모로 투자에 참여했다.   투자 유치 자금은 토스뱅크, 토스증권 등 주요 계열사의 성장 가속을 위한 추가투자 및 신규 사업 등에 활용될 예정이다.   이번 투자는 이번 달과 다음 달에 두 차례로 나눠 진행된다. 토스 관계자는 “국내외 기관투자자들의 수요가 많아 투자를 2회에 나눠 진행하게 됐다”면서 “현재 투자 논의 중인 기관의 참여 여부가 최종 확정되면 다음 달 중 투자를 클로징(마감)할 예정”이라고 설명했다.   토스 측은 이번 투자에서 기업가치를 8조5000억원으로 평가받았다고 밝혔다. 이는 지난해 6월 직전 투자에서 평가받은 8조2000억원을 소폭 상회하는 수준이다.   토스 관계자는 “전 세계적으로 투자심리가 극도로 위축된 상황에서 다른 핀테크 기업들이 기업가치를 낮춰 투자받는 점을 고려하면 이번 투자는 매우 이례적”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.07.27.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>모두투어, 두근두근 하와이 숙박권 이벤트</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004873899?sid=103</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>모두투어 하와이숙박권 기획전 [파이낸셜뉴스] 모두투어는 태평양의 낙원으로 불리는 하와이 여행 활성화를 위해 10월 16일까지 약 3개월 간 "두근두근 하와이 숙박권 이벤트"를 진행한다고 27일 밝혔다.   지금 해당 이벤트를 통해 하와이를 예약하면 △하얏트 리젠시 오션뷰 2박 △카할라 호텔 시닉뷰 1박 △와이키키리조트 파셜오션뷰 3박 (조식포함) 등 총 400만원 상당의 숙박권 경품에 응모할 수 있다.   응모방법은 간단하다. 이벤트 기간 동안 모두투어 하와이 상품 신규 예약을 하면 자동으로 응모된다. 추첨은 8월 16일, 9월 16일, 10월 17일에 진행되며 당첨자는 기획전 이벤트 페이지를 통해 공지된다.   아울러 현재 모두투어에서는 "모처럼 두근두근 프로모션"을 진행하고 있으며 △신한카드 청구 할인 7%(최대 21만 원) △KB국민카드 청구 할인 5%(최대 15만 원) △토스페이 즉시 할인 5%(최대 5만 원) △생애 첫 결제 고객 5000원 캐시백 할인의 혜택을 함께 받을 수 있어 하와이 여행을 계획하고 있다면 최고의 기회이다.   모두투어 하와이 모든 상품에는 △공항-호텔 미팅 및 샌딩 서비스 △신속 항원 검사 예약 대행 및 동행 △동부 해안관광 (에어텔 제외) 이 기본으로 포함되어 있어 안심 여행을 즐길 수 있으며, 항공권만 별도로 구입하는 고객을 위해 현지 1일 투어와 호텔만 포함된 투어텔 상품 등 다양한 고객의 니즈를 충족할 수 있는 최적화된 상품을 제공하고 있다.   모두투어 관계자는 "하와이는 현재 격리, 음성확인서, 아동 백신 등의 규제가 모두 해제되어 부담 없이 떠날 수 있는 여행지이다. 풍성한 혜택이 제공되는 이번 이벤트를 통해 이름만 들어도 설레는 하와이 여행을 떠나보시기 바란다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.07.25.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>쑥쑥 크는 빅테크 '경고등'에...SKT-하나금융, 4300억짜리 혈맹 맺다</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000687909?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>①하나금융, SKT·SK스퀘어 지분 사들여②SKT, 3,000억원어치 하나금융지주 지분 매입IT와 금융 융합한 혁신 서비스 출시 계획네이버, 카카오, 토스 등 빅테크 영역 확대메타버스에 지점 내고 '통신+금융' 맞춤 마케팅SK텔레콤은 하나금융그룹과 지분을 교환하고 6대 협력 과제에 대한 전략적 파트너십을 체결했다고 24일 밝혔다. 사진은 파트너십 체결식에 참여한 유영상 SKT 사장(사진 오른쪽)과 함영주 하나금융그룹 회장의 모습. SK텔레콤 제공SK텔레콤과 하나금융그룹이 4,300억 원대의 대규모 지분을 교환하고 전략적 파트너십을 체결했다. 카카오, 네이버, 토스 등 빅테크 기업들이 정보통신기술(ICT)과 빅데이터를 결합해 영역을 확대하는 것을 견제하기 위한 목적이다. 24일 SK텔레콤은 기존 보유하고 있던 3,300억 원 규모의 하나카드 지분을 하나금융지주에 매각하고, 3,300억 원 규모의 하나금융지주 지분을 매입한다. 하나카드는 684억 원 규모의 SK텔레콤 지분과 SK텔레콤이 보유한 316억 원 상당의 SK스퀘어 지분을 매입한다.이번 협약에 대해 SK텔레콤 관계자는 "특정 회사끼리 협력을 넘어 SK ICT 패밀리와 하나금융그룹의 협력에서 중요한 출발점"이라며 "양사는 ICT와 금융 전반을 아우르는 폭넓은 영역에서 손을 잡기 위해 협력체를 꾸릴 것"이라고 밝혔다.IT 기술력으로 사업 확대하는 빅테크...혁신에 뒤처진 전통산업SKT- 하나금융 주요 협력 내용통신과 금융 업종의 대표 기업인 두 회사가 대규모 지분 교환을  단행한 이유는 플랫폼을 기반으로 하는 네이버, 카카오, 토스 등 빅테크 기업이 빠르게 영향력을 키워가고 있기 때문이다. 네이버, 카카오는 각각 포털과 메신저를 기반으로 콘텐츠, 커머스, 인터넷 은행 등 영역을 넓히고 있다. 특히 ①카카오뱅크의 경우 출범 초기 챗봇 등 IT 기술을 접목해 오프라인 매장 없이도 가입자를 빠르게 모을 수 있었다. ②핀테크 앱 토스의 경우 간편 송금 서비스를 시작으로 증권, 간편결제, 보험 등 '슈퍼 앱'으로 진화했다. 21일에는 알뜰폰 사업자(MVNO) 머천드코리아를 인수하며 통신 시장으로도 발을 넓혔다.빅테크 기업들은 다양한 분야에서 가입자를 늘리면서 '21세기 원유'로 불리는 빅데이터를 엄청나게 확보하고 있다. 이에 자신의 업종만 지키고 있다가는 뿌리까지 흔들릴 수 있다는 위협에서 두 회사는 힘을 모은 것으로 보인다. 데이터 분석 솔루션 모바일인덱스에 따르면 6월 기준 금융 앱 이용자 순위에서 토스(1,427만 명)와 카카오뱅크(1,315만 명)는 시중 은행들을 크게 앞서고 있다. KB스타뱅킹(1,150만 명), 신한은행의 신한 쏠(945만 명), NH농협은행의 NH스마트뱅킹(846만 명)이 뒤를 이었다. SK텔레콤 역시 메타버스, 전자상거래, 모빌리티 등 다양한 분야에서 빅테크 기업의 속도전에 힘겨워 하고 있다.메타버스서 고객 상담, 위치+소비 데이터 결합한 마케팅SK텔레콤의 메타버스 플랫폼 '이프랜드'. SK텔레콤두 회사는 ①금융의 디지털 전환 ②통신과 금융 데이터 결합을 통한 새로운 비즈니스 모델 발굴 ③양사 인프라 공동 활용 ④디지털 기반 공동 마케팅 ⑤양사 고객 특화 상품·서비스 융합 ⑥ESG 협력을 통한 사회적 역할 확대 등의 협력을 하기로 했다.가령 SK텔레콤의 메타버스 플랫폼 '이프랜드'에 하나금융그룹의 가상 지점을 만들어 아바타를 통해 고객 상담을 진행하거나, 이프랜드 내 결제 시스템 구축에 하나금융그룹이 힘을 보탤 수 있게 됐다. 또 양사가 확보한 빅데이터를 결합해 이용자 맞춤형 마케팅도 더해질 방침이다. SK텔레콤이 보유한 통신 데이터는 이용자의 위치 정보를 가장 구체적으로 보여준다. 하나금융은 결제 데이터를 통해 이용자들의 소비 성향을 알 수 있다.  30대 남성의 이동 경로에 맞춰 스포츠 광고나 게임 광고를 선별적으로 보여주는 것이 가능하다. 하나금융은 SK텔레콤 고객에게 우대 금리 혜택을 제공하거나 SK텔레콤이 운영하고 있는 구독 서비스 '우주패스'와 연계한 금융 상품 출시도 검토하기로 했다. 하나금융 고객이 11번가, 콘텐츠 웨이브, 원스토어 등 SK스퀘어 자회사 서비스에 가입할 경우 금융 혜택을 받는 식의 사업이 가능하다.2002년부터 혈맹 SKT-하나 "빅테크 위협 공동 대응"SK텔레콤과 하나금융지주 사옥. 각 사사실 양사가 손을 맞잡은 것은 이번이 처음은 아니다. 2002년 외국계펀드 소버린자산운용이 SK그룹 경영권을 공격했을 때 주채권은행이던 하나은행은 백기사 역할을 자처했다. SK텔레콤은 2009년 말 전략적투자자(SI)로 4,000억 원을 들여 하나은행에서 분사한 하나카드 지분 49%를 샀다. 2016년에는 SK텔레콤과 하나금융지주가 함께 출자한 합작기업 '핀크'를 설립하기도 했다. 2019년 5월에는 제3인터넷전문은행에 함께 도전했지만 예비인가 불허를 받기도 했다. 양사의 시너지가 기대에 못미치자 2019년 7월  SK텔레콤은 보유하고 있던 하나금융 지분 610만 주 전량을 매각했다. 이는 2015년 SK텔레콤이 하나카드 보유 지분 중 10.4%를 하나금융에 팔고, 그 자금으로 유상증자에 참여해 확보한 주식이다. SK텔레콤은 당시 지분 매각에 대해 "5세대(5G) 이동 통신망 투자를 위한 결정"이라고 밝혔지만, 일부에선 인터넷전문은행 탈락의 여파로 해석했다. 이후 양사는 각자의 사업에 집중하는 모습을 보여왔다.  하지만 빅테크 기업의 위협이 현실화되면서 두 기업은 서로의 약점을 보완하기 위해 다시 손을 잡은 것으로 해석된다.유영상 SK텔레콤 사장은 "SKT는 고객 가치를 높이고 ICT, 금융산업 생태계 경쟁력을 키우기 위해 협력하고, 다양한 ESG 활동에도 힘을 모아 선한 영향력을 확대할 것"이라고 밝혔다. 함영주 하나금융그룹 회장은 "앞으로도 하나금융그룹은 디지털 혁신을 통한 손님 가치 실현, 금융과 ICT 융합을 통한 혁신 가치 추구, ESG 부문의 협력을 통한 사회적 가치 확산 등 협업의 범위를 넓혀가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>수퍼앱 가는 토스, 알뜰폰 업체 인수</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005273300?sid=105</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>‘머천드코리아’와 인수계약 체결요금제 탐색부터 개통까지 편리한 사용자 경험 제공할 것알뜰폰 시장 파이 확대 및 토스인증서 등과 시너지[이데일리 김현아 기자] 이승건 비바리퍼블리카 사장. 사진=토스플랫폼 사업을 강화하는 토스가 알뜰폰 업체를 인수한다. 모바일 금융 서비스 ‘토스’의 운영사 비바리퍼블리카(이하 토스)는 알뜰폰 사업자(MVNO) ‘머천드코리아’의 지분 100%를 인수하는 주식매매계약을 체결했다고 밝혔다. 이번 인수를 계기로, 토스앱을 통한 알뜰폰 가입 서비스를 선보일 예정이다. 그야말로 수퍼앱에 한발 짝 더 다가선다. 알뜰폰 요금제 탐색부터 편리한 개통까지 가입의 전 과정을 혁신하고, 가계 고정 지출 중 상당 부분을 차지하는 통신비 절감 기회를 제공한다는 계획이다. 국내 알뜰폰 시장은 지난 2011년 도입 이후, 가입자 규모가 꾸준히 늘어나며 2021년 기준 1000만 명을 돌파했으며 알뜰폰 사업자 숫자는 현재 70여개에 달한다.하지만, 전체 이동통신시장 가입자의 약 14%만 알뜰폰 회선에 가입되어있으며, 이마저도 절반 정도는 휴대폰이 아닌 사물인터넷(lot) 회선으로 개인고객 성장 잠재력이 큰 것으로 평가된다. 토스는 온라인 채널을 통해 주로 가입되는 알뜰폰의 특성 상 편리한 가입절차, 사용 유형에 맞는 최적의 요금제, 운영 사업자의 브랜드 인지도 등 세가지 요소를 시장 확대의 관건으로 보고 있다.  장민영 토스 사업전략리드(Business Strategy Lead)는 “토스가 금융 서비스를 통해 고객의 시간과 비용을 아끼고 사회적 효용을 만들어낸 것처럼, 알뜰폰 가입 고객의 불편함 해소와 토스 고객의 통신비 절감에 기여하고자 한다“고 강조했다. 토스는 본인확인기관과 전자서명인증 사업자 지위를 모두 보유한 사업자로서, 알뜰폰 가입 과정에서 토스인증서를 적극 활용할 계획이다.토스가 인수하는 ‘머천드코리아’는 지난 1998년 설립 이후 약 20년 간 통신사업을 운영해 왔으며, 한국알뜰폰통신사업자협회의 감사를 맡고 있다. LG 유플러스의 1호 알뜰폰 사업자로 선정된 바 있으며, 현재 통신 3사와 모두 계약을 맺고 다양한 고객층의 요구에 맞춘 요금제를 운영 중이다.한편, 국내 월 평균 가계통신비는 정부의 알뜰폰사업 도입 이전인 2010년 대비 지난해 기준 10% 인하 수준에 그치며 당초 기대에 못 미쳤다는 평가를 받고 있다. (2021년 통계청 자료) 한국전자통신연구원 발표에 따르면 미국은 알뜰폰(MVNO) 제도 도입 이후, 5년 간 약 61%의 요금 인하 효과가 발생했으며, 영국은 3년간 45%, 덴마크는 4년 간 50%의 인하 효과를 본 것으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.07.30.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>이런 방법이 있었네…'무지출 챌린지'보다 쉬운 7가지 꿀팁</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004730968?sid=104</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>일상에서 실천하기 쉬운 절약 방법인터넷은행 가입하면 全은행 수수료 공짜세일은 필요없다 … 안사면 100% 할인구독서비스‧보험 다이어트도 필요신용카드 할부‧리볼빙 등 멀리해야'런치플레이션'(lunchflation, 런치와 인플레이션의 합성어)이라는 신조어까지 등장하는 등 외식 물가가 크게 오르면서 편의점의 도시락 매출과 컵라면 매출이 증가했다. 사진=연합뉴스자고 나면 뛰는 물가에 지갑 열기가 무서운 요즘 MZ세대 사이에서 ‘무(無)지출 챌린지’가 유행이다. 한 푼도 쓰지 않고 하루를 버티는 것인데, 막상 실천하기는 쉽지 않다. 도시락을 싸고 가루 커피를 마시는 것도 하루 이틀이지 매일 소비하지 않고 살아갈 수는 없다. 또한 그렇게 스트레스를 받으면서 살고 싶지도 않다면 여기 ‘무소비’보다 쉬운 절약 꿀팁이 있다.25일(현지시간) CNN은 돈을 낭비하는 7가지 습관을 소개했다. 월급이 어떻게 쓰이고 있는지 꼼꼼히 추적하고 본인이 모르게 새는 돈을 잡는 것이 중요하다고 강조했다. 불필요한 낭비를 최소화하는 것이다. 아무리 돈에 민감한 소비자라도 특정 부문에 필요 이상의 지출을 할 수 있는데 이를 ‘자금 함정’이라고 부른다. 이 비용을 절감하는 것만으로도 큰 절약 효과를 볼 수 있다. ○인터넷은행 계좌 있으면 모든 은행 수수료 무료거래 은행이 아닌 ATM기에서 돈을 인출할 때 약 1000원 이상의 수수료가 붙는다. 은행 점포가 부쩍 줄어 해당 ATM기를 찾는 것도 일이다. 급하게 결혼식 가는데 축의금을 내야할 때 유난히 ATM기가 눈에 띄지 않는다. 수수료를 물고 타은행 ATM기에서 돈을 뽑기가 부지기수. 이때 미리 만들어둔 인터넷전문은행 계좌가 도움이 된다. 카카오뱅크 케이뱅크 토스뱅크 등 인터넷은행 대부분 모든 은행 ATM기 수수료가 무료다. 주거래 계좌로 사용하지 않더라도 약간의 돈을 넣어뒀다 비상시 가까운 은행에 가서 인출하기에 유용하다. 단 횟수나 금액에는 제한이 있을 수 있다. ○30% 폭탄 세일?...안 사면 100% 할인할인은 없던 구매욕까지 불러일으키고 마음을 설레게 한다. 물건을 싼값에 살 수 있는 기회지만 소비자가 필요 없는 물건까지 담게 만들어 계획에 없던 과소비를 유발한다. 불필요한 물건을 30% 저렴하게 살 수 있지만 반대로 안 사면 100% 할인받는 셈이다. 만약 꼭 사고 싶은 물건이 있다면 24시간 기다렸다가 구매하는 것을 권한다. 흥분을 가라앉혀 충동 구매 가능성이 낮아진다. ○개인 실손 중지제도를 아시나요?보험은 지인 권유로 생각없이 가입했다 잊어버린 경우가 많다. 중구난방으로 흩어진 보험을 정리하고 저렴한 상품으로 갈아타는 것도 방법이다. 다만 기존 상품과 새 상품의 보장 내용을 꼼꼼히 따져봐야 한다. 또한 회사에서 단체 실손보험을 가입했다면 ‘개인 실손 중지제도’를 활용해 중복 납입보험료를 절감할 수 있다. 기존 개인보험을 1년 이상 유지했을 때 납입‧보장을 일시 중지할 수 있고 퇴사 이후 단체보험을 해지하게 되면 기존 개인실손 상품으로 보장을 이어갈 수 있다. 단 처음 가입한 조건이 아니라 재개 시점에 판매하는 상품을 적용받으므로 유의해야 한다. ○안 쓰는 구독서비스 해지하기온라인동영상서비스(OTT)를 중복해서 구독하는 소비자가 많지만 ‘본전을 뽑는 수준’으로 이용하는 사람은 드물다. 지난해 Chase 연구에 따르면 소비자 10명 중 7명 이상이 필요 없는 반복적 지불로 매달 50달러(약 6만원) 이상을 낭비하는 것으로 나타났다. 미국 쇼핑 전문매체 딜뉴스의 소비자 분석가인 줄리 램홀드는 “무료 체험판에 가입했다가 깜빡하고 취소하지 않은 경우가 많다”고 말했다. 이렇게 자동이체가 되면 사람들은 돈을 내고 있다는 사실을 깨닫지 못한다. 램홀드는 “그것은 돈을 창밖으로 내버리는 쉬운 방법”이라며 “신용카드 명세서를 꼼꼼히 살펴보고 사용하지 않는 서비스 요금을 취소해야 한다”고 조언했다. ○신용카드 이자 눈덩이 … 할부 보기를 돌같이 하라미국 소비자 금융보호국에 따르면 미국 가계는 비싼 이자와 신용카드 수수료로 인해 연간 평균 1000달러(약 130만원)의 손해를 보고 있다. 신용카드는 유동성을 끌어올 수 있는 유용한 도구지만 반대로 재정을 끌어내릴 수 있는 ‘비싼 짐’이 되기도 한다. 매달 정액으로 나눠내는 할부와 결제금액을 이월시키는 리볼빙 등 유용한 서비스지만 이자가 만만치 않다. 카드빚이 쌓였다면 최대한 빨리 갚는게 돈 버는 지름길이다. 전문가는 “신용카드 대신 최대한 현금이나 직불카드를 사용하는 것이 좋다”고 조언했다. ○음식물쓰레기가 우리집 ‘식비 폭탄’ 주범미국 천연자원보호위원회 조사에 따르면 미국인들은 식품 40%를 절대 먹지 않는다. 가정마다 배출하는 음식물 쓰레기 양이 늘면서 음식물처리기 시장도 커졌다. 먹을 만큼 사서 해치우기만 해도 식비를 아낄 수 있다. 장을 보러 가기 전에 냉장고를 열어보고 있는 식재료를 중심으로 메뉴를 정하면 야채·고기가 상하기 전에 사용할 수 있고 식료품을 중복 구입할 가능성도 줄어든다. 치솟는 물가에 한 때 유행이었던 냉장고 파먹기가 다시 주목받는 요즘 냉동실에 처박혀 있는 식품으로 2주는 거뜬하게 버틸 수 있을지도 모른다. ○보증기간 연장했다가 돈 아까울 수도“고객님 돈 조금만 더 내시면 보증기간 연장해드려요” 자동차 전자제품 가전기기 등을 살 때 판매처가 하는 단골 멘트다. 물론 수리비를 보상받는데 도움이 되지만 보증연장이 항상 소비자에게 유리한 것은 아니다. 한 전문가는 “이 비용이 잠재적 수리비를 초과하게 될 것”이라고 전했다. 보증기간 연장에 들어가는 돈만큼 효과를 보는 경우가 드물기 때문이다. 보증기간을 연장하는 대신 차라리 수리비를 위한 비상금을 따로 마련하는 게 낫다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.07.28.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>[특징주] 이월드, 美 전자결제 1위 월드페이 한국진출 소식에 '강세'</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005279083?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>[이데일리TV 이지은 기자] 이월드(084680)의 주가가 급등하고 있다. 세계적인 금융 IT 전문기업 피델리티 내셔널 인포메이션 서비스(FIS)의 전자결제 서비스 업체 월드페이가 토스 페이먼츠와 제휴를 맺고 한국 시장에 진출한다는 소식이 이월드 주가에 긍정적인 영향을 미친 것으로 보인다. 이월드는 계열사 이랜드를 통해 토스뱅크 지분을 보유하고 있다.  28일 오후 12시 33분 이월드는 전일 대비 5.78% 상승한 2075원에 거래 중이다.WORLDPAY FROM FIS의 페이스북과 공식 홈페이지에 따르면, 월드페이는 토스페이먼츠와 제휴를 맺고 한국 시장에 진출한다. 월드페이는 미국의 1위 전자결제 서비스 업체로, 연간 거래액은 2조 달러(한화 약 2630조원)에 이른다. 이번 한국 진출 선언은 전 세계 월드페이의 가맹점 중 한국진출을 원하는 가맹점은 월드페이와 토스페이먼츠를 통해 손쉽게 한국에 진출할 수 있다는 것을 의미한다. 월드페이와 협력하는 토스페이먼츠는 국내 업계 1위 NHN한국사이버결제에 이은 20%대 안팎의 시장점유율을 가진 국내 2위 업체다. 지난 2019년 LG유플러스 PG사업부를 인수해 2020년 8월 토스페이먼츠를 출범할 당시 8만여 개였던 가맹점 규모는 올 4월 말 기준 9만여 개로 늘었다. 글로벌 거대 공룡 기업과의 협력으로 향후 수혜가 기대된다는 점에서 투자자들의 관심이 집중되는 것으로 풀이된다. 한편 이월드는 계열사 이랜드가 토스뱅크 지분 7.5%를 보유하고 있어 토스 관련주로 알려져 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>토스, 알뜰폰 시장 뛰어든다…알뜰폰社 인수</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004871158?sid=105</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>MVNO '머천드코리아' 인수계약 체결"요금제 탐색부터 개통 아우르는 경험 제공"알뜰폰 시장 파이 확대하고기존 토스 서비스와 시너지 기대"가계통신비 절감에 기여" 토스, MVNO '머천드코리아' 인수 관련 이미지. 비바리퍼블리카 제공[파이낸셜뉴스] 토스가 알뜰폰(MVNO) 사업에 뛰어든다. 알뜰폰 업체를 인수하면서다. 토스는 기존 서비스를 접목시킨 알뜰폰 서비스를 통해 알뜰폰 사용자 편의를 높이는 한편, 가계통신비를 줄이는 데 마중물 역할을 한다는 복안이다.   토스 운영사 비바리퍼블리카는 알뜰폰 사업자 '머천드코리아' 지분 100%를 인수하는 주식매매계약을 체결했다고 21일 밝혔다.   토스가 인수하는 머천드코리아는 지난 1998년 설립 이후 약 20년 간 통신사업을 운영해 온 알뜰폰 사업체다. 한국알뜰폰통신사업자협회의 감사를 맡고 있으며, LG유플러스의 1호 알뜰폰 사업자로 선정된 바 있다. 현재 SK텔레콤, KT, LG유플러스 등 통신3사와 모두 계약을 맺고 다양한 고객층 요구에 맞는 요금제를 운영 중이라는 설명이다.   토스는 이번 인수를 계기로 토스 애플리케이션(앱)을 통한 알뜰폰 가입 서비스를 선보일 예정이다. 알뜰폰 요금제 탐색부터 편리한 개통까지 가입 전 과정을 혁신하고, 가계 고정 지출 중 큰 부분을 차지하는 통신비 절감 기회를 제공한다는 방침이다.   한국전자통신연구원 발표에 따르면 알뜰폰 제도를 도입한 국가 중 △미국 61%(5년 간) △영국 35%(3년간) △덴마크 50%(4년 간) 등 인하 효과가 발생했다. 토스도 이 같은 알뜰폰 영향력 확대를 위해 이번 인수 계약을 체결했다는 설명이다.   토스는 본인확인기관과 전자서명인증 사업자 지위를 모두 보유한 사업자로서 알뜰폰 가입 과정에서 토스인증서를 적극 활용할 계획이다.   이외 세가지 요소를 시장 확대 기회로 보고 있다. △편리한 가입절차 △사용 유형에 맞는 요금제 △운영 사업자의 브랜드 인지도 등이다.   장민영 토스 사업전략리드(Business Strategy Lead)는 "토스가 금융 서비스를 통해 고객의 시간과 비용을 아끼고 사회적 효용을 만들어낸 것처럼 알뜰폰 가입 고객의 불편함 해소와 토스 고객의 통신비 절감에 기여하고자 한다"고 전했다. #MVNO #kt #SKT #LG유플러스 #토스 #알뜰폰</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.07.19.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>광주은행 하반기 경영전략회의…"디지털화 박차"</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004077748?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>송종욱 광주은행장이 18일 광주은행 본점에서 진행된 2022년 하반기 경영전략회의에서 하반기 중점 추진전략을 발표하고 있다. 사진 제공=광주은행[서울경제] 광주은행은 18일 광주은행 본점에서 ‘2022년 하반기 경영전략회의’를 개최했다고 19일 밝혔다.광주은행은 2022년 상반기 경영실적 및 하반기 업무계획 발표를 통해 금리 상승기에 따른 영업력 강화 전략 추진, 채널 최적화 전략 및 비용 관리에 기반한 경영 효율성 제고, 디지털 경쟁력 강화를 통한 미래 수익기반 확대, 자산건전성 관리 강화 등을 하반기 중점 추진 전략으로 제시했다.송종욱 광주은행장은 직원들에게 “사상 첫 빅스텝과 금융의 디지털화, 침체된 경기 등 급변하는 금융 환경에 직면한 새로운 도전과 기회에 적극 대응해야 할 때”라며 “디지털 사업의 성숙도를 높이고 다양한 리스크 요인에 선제적으로 대응하는 등 지속 가능한 미래성장동력을 확보해 100년 은행으로 성장을 위한 변화와 혁신을 과감히 실행해 나가자”고 말했다. 이어 송 행장은 “지역 경제와 상생하기 위한 지역밀착경영과 포용금융 실천에 사명감을 갖고 임해주길 바란다”고도 당부했다.광주은행은 서민금융 지원을 위한 포용금융대출 금리를 2%포인트 인하하고 신용보증재단 보증서담보대출 기한 연장 시 최대 1%포인트를 내리기로 했다. 또, 개인사업자대출 만기 연장 시 금리 7% 초과대출에 대해 최대 1%포인트 인하를 시행한다. 아울러 지역 중서민과 소상공인 지원을 위한 다양한 추가 방안도 강구해 시행할 계획이다. 개인·기업스마트뱅킹 전면 개편 및 마이데이터 전면 시행, 비대면 전용 고객 전담 디지털금융센터 운영 등에도 박차를 가할 방침이다.한편 이번 경영전략회의에서는 상반기 우수 실적을 거둔 부점 및 직원 시상식, PB(프라이빗뱅커)·활동고객·전략대출 등 부문별 우수사례 발표 등이 이뤄졌다. 달빛동맹 교류 은행인 대구은행으로부터 영업 우수사례를 듣고 토스 정희연 사용자경험(UX) 헤드를 초청해 디지털금융 마인드 변화와 경쟁력 강화를 위한 특강을 진행하기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.07.20.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>토스, 신규 투자 3천 억원 확보…8월 추가 유치 논의 중</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002129058?sid=105</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 토스 운영사 비바리퍼블리카(이하 ‘토스’)가 대규모 투자유치에 성공했다. 이번 투자는 7월과 8월 두 차례로 나누어 진행 될 예정이며, 토스는 우선 3000억원 규모의 투자를 확정하고 20일 공시했다.토스 관계자는 “국내외 기관투자자들의 수요가 많아 2회에 나눠 진행하게 되었으며, 현재 투자 논의 중인 기관의 참여 여부가 최종 확정되면 8월 중 클로징할 예정”이라고 설명했다. 이번 투자에서 토스는 기업가치 8.5조를 평가받았다. 이는 지난해 6월 마지막 투자에서 평가받은 8.2조를 소폭 상회하는 것이다. 토스 측은 "전 세계적으로 투자심리가 극도로 위축된 상황에서 타 핀테크 기업들이 기업가치를 낮춰 투자 받고 있는 점을 고려하면 이번 투자는 매우 이례적"이라고 설명했다. 지난해 토스뱅크, 토스증권의 성공적 출범으로 토스 앱의 MAU(월간 활성 유저)는 올해 들어 매월 35만 명씩 증가하고 있다. 지난달 토스의 MAU는 1400만 명을 상회했으며, 2위 앱과 격차가 계속 확대되는 등 '수퍼앱' 효과가 실현 단계에 접어들고 있다. 토스는 "결제, 대출 중개 등의 매출이 확대되고 있어 빠르면 내년 초 흑자전환이 가능할 것으로 예상하고 있다”라며 “기관투자자들은 독보적인 금융 플랫폼으로서 토스의 성장을 높게 평가했다"라고 밝혔다. 토스의 지난해 매출 총이익률은 70% 수준으로, 글로벌 핀테크 앱의 40~50% 대비 매우 높다. 또한, 매출의 90% 이상이 금융회사로부터 받는 중개, 모집, 광고 등에서 발생하는 B2B 모델로, 탄탄한 수익구조를 가진 것이 특징이다. 이번 투자의 리드 투자자는 토스의 초기 성장부터 함께한 알토스벤처스로, 1000억 원을 신규 투자했다. 굿워터와 그레이하운드 등 해외 주주들의 투자도 이어졌다. 국내 기관투자자 중에는 KDB산업은행이 1000억 원, 광주은행이 200억 원의 대규모 투자를 단행했다. 또, 토스의 초기 투자자인 다올인베스트먼트(구 KTB네트워크)와 미래에셋증권도 소규모로 투자에 참여했다. 투자 유치 자금은 토스뱅크, 토스증권 등 주요 계열사의 성장 가속을 위한 추가 투자 및 신규 사업 등에 활용될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.07.20.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>제주항공, 9~10월 출발 항공권 할인 'JJ멤버특가' 이벤트</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000161949?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>7월 26일 오후 5시까지 회원 대상으로 제공…카카오·토스페이 결제시 할인·캐시백 진행제주항공이 회원들을 대상으로 국내선과 국제선 특가 항공권을 제공하는 'JJ멤버스특가' 이벤트를 실시한다. 또 카카오페이와 토스페이로 항공권을 결제하면 할인 혹은 캐시백을 받을 수 있는 이벤트도 병행한다. /제주항공 제공제주항공(대표이사 김이배)이 회원을 대상으로 9월 1일부터 10월 29일까지 탑승 가능한 항공권을 할인 판매하는 'JJ멤버스특가' 이벤트를 진행한다고 20일 밝혔다.이번 특가 이벤트는 7월 20일 오전 10시부터 7월 26일 오후 5시까지 일주일간 열린다.국내선의 경우 △김포·청주~제주 노선은 3만2700원 △대구~제주 4만700원 △광주·부산~제주 4만3700원, 김포~부산 3만4700원 등이다.국제선의 경우 인천공항에서 출발하는 일본노선 최저운임은 후쿠오카 11만4200원, 도쿄·오사카 12만6100원이다. 동남아 노선 최저운임은 △태국 방콕 16만5000원 △말레이시아 코타키나발루 20만8100원 △필리핀마닐라·세부 19만2500원 △클락 19만7500원 △보홀 20만2500원 △베트남 호찌민 17만3100원 △다낭 20만2500원 △나트랑 21만3100원 △사이판 22만1700원이다.부산 김해공항에서 출발하는 일본노선은 △오사카·후쿠오카 10만9200원 △도쿄 12만1100원 △태국 방콕 24만6000원 △사이판 17만6700원 △싱가포르 23만8100원부터 판매한다.이벤트 운임은 유류할증료와 공항시설사용료 등을 모두 포함한 편도 총액운임을 기준으로 한다. 항공권은 예매일자와 환율변동에 따라 총액운임이 일부 변동될 수 있으며, 예약상황에 따라 조기마감 될 수 있다. 구매는 제주항공 홈페이지와 모바일에서 할 수 있다.이와 함께 제주항공은 해당 기간 왕복 항공권 구매 고객을 대상으로 국내선 최대 4000원, 국제선 최대 4만원을 할인해 주는 프로모션 코드도 제공한다.또 할인코드와 중복사용이 가능한 결제수단 할인혜택도 지원한다. 카카오페이로 항공권을 결제할 경우 결제 금액별로 최대 3만원을 할인 받을 수 있으며, 토스페이로 5만원 이상 결제 시 토스머니 5000원을 돌려주는 캐시백 혜택도 제공한다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.07.27.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>모두투어, 하와이 예약 무료 숙박권 이벤트</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002129506?sid=105</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>[디지털데일리 변재영 기자] 모두투어가 태평양의 낙원으로 불리는 하와이 여행 활성화를 위해 10월 16일까지 약 3개월간 "두근두근 하와이 숙박권 이벤트"를 진행한다고 27일 밝혔다.   지금 해당 이벤트를 통해 하와이를 예약하면 ▲하얏트 리젠시 오션뷰 2박 ▲카할라 호텔 시닉뷰 1박 ▲와이키키리조트 파셜오션뷰 3박 (조식포함) 등 총 400만원 상당의 숙박권 경품에 응모할 수 있다.   응모방법은 간단하다. 이벤트 기간 동안 모두투어 하와이 상품 신규 예약을 하면 자동으로 응모된다. 추첨은 8월16, 9월16일, 10월17일에 진행되며 당첨자는 기획전 이벤트 페이지를 통해 공지된다.   아울러 현재 모두투어에서는 "모처럼 두근두근 프로모션"을 진행하고 있으며 ▲신한카드 청구 할인 7%(최대 21만 원) ▲KB국민카드 청구 할인 5%(최대 15만 원) ▲토스페이 즉시 할인 5%(최대 5만 원) ▲생애 첫 결제 고객 5천 원 캐시백 할인의 혜택을 함께 받을 수 있어 하와이 여행을 계획하고 있다면 최고의 기회다.   모두투어 하와이 모든 상품에는 ▲공항-호텔 미팅 및 샌딩 서비스 ▲신속 항원 검사 예약 대행 및 동행 ▲동부 해안관광 (에어텔 제외) 이 기본으로 포함되어 있어 안심 여행을 즐길 수 있으며,   항공권만 별도로 구입하는 고객을 위해 현지 1일 투어와 호텔만 포함된 [투어텔] 상품 등 다양한 고객의 니즈를 충족할 수 있는 최적화된 상품을 제공하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.07.24.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>[백년학교] 수성초·칠곡초, 교정에 울려 퍼지는 함성… 땀과 열정이 샘솟는 학교</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000767871?sid=102</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>〈4편〉 수성초·칠곡초, 배구·농구로 강인한 체력과 협동심 지닌 학생 양성 선수뿐만 아니라 일반 학생도 즐길 수 있는 다양한 프로그램 진행수성초, 매해 배구 리그전 개최·한국프로배구연맹 지원 받아 배구교실 운영칠곡초, 매년 교내 농구대회 실시·전임 코치가 지도하는 스포츠클럽 운영대구 수성초 전경. 대구시교육청 제공대구 칠곡초 전경. 대구시교육청 제공오래된 학교는 강인한 기운을 품고 있다. 긴 역사 동안 학교를 거쳐간 수많은 학생과 교사, 그리고 지역민들이 남기고 간 '에너지'가 땅 속 깊이 잠들어 있다. 100년 동안 응축된 힘이 현재 학교를 다니는 학생들에게도 전해져, 유난히 에너지가 넘쳐 흐르는 두 학교가 있다. 각각 배구와 농구 명문교로, 학생들의 열정과 기운이 남다른 수성초등학교와 칠곡초등학교를 찾았다.1976년 당시 맹호기 전국초등학교배구대회에서 우승을 차지한 수성초 배구부의 카퍼레이드 모습. 대구시교육청 제공◆지역과 동문의 사랑을 가득 받으며 자라다올해로 100주년을 맞이한 수성초교는 1921년 현재 수성구 상동에 터를 잡아 이듬해 이듬해 5월 1일 '대구수성공립보통학교'로 개교했다.지난 5월 1일엔 개교 100주년 기념식과 기념비 제막식을 열었다. 이날 행사엔 동문들과 재학생, 학부모, 교사, 지역 주민뿐만 아니라 강은희 대구시교육감, 주호영 국회의원(대구 수성구갑) 등 정재계 지역 인사까지 약 600명이 참석해 100주년을 기념했다.긴 역사를 자랑하는 만큼 수성초는 한국전쟁 때 학교 건물이 제27 육군병원 수성분동으로 사용되며, 학업이 잠시 중단되는 등 여러 시련도 겪었다.파란만장한 100년을 버틸 수 있었던 배경엔 수성구 상동·중동의 유일한 공립초등학교로, 수성초에 대한 지역사회의 애정과 관심도 컸다.상동 자치단체들과 지역 학부모 단체가 상동함장마을 백일장 행사, 상동사랑 글짓기 대회 등을 꾸준히 개최해 재학생들이 재능을 펼칠 기회를 제공하고 장학금을 전달하고 있다. 지역 유명 식당인 원철수 장원부대찌개 철판구이 대표는 경제적인 사정으로 학업에 어려움을 겪는 학생들을 격려하기 위해 십여 년간 장학금을 지원해왔다.동문들의 사랑도 남다르다. 수성초 54회 졸업생인 우리카드 프로 배구단의 신영철 감독은 2019년 명예교사로 방문해 교육 기부 수업을 하기도 했다.수성초 총동창회 역시 지난 2002년 장학회를 설립해 20년 가까이 졸업생들에게 장학금을 주고 있다. 여기엔 '어려운 상황 속에서도 학업 의지를 잃지 말라'는 후배들에 대한 동문들의 따뜻한 응원이 담겨 있다.2022 대구시 교육감배 스포츠클럽 배구대회에서 우승을 차지한 수성초 배구부 남자부 단체 사진. 수성초 제공대구 수성초 스포츠클럽 배구부 여자부 경기 모습. 수성초 제공◆ 어떤 블로킹에도 굴하지 않고 스파이크!점심시간에 수성초 운동장에 가보면 학생들이 축구 대신 배구를 하고 있는 모습을 볼 수 있다. 리시브에서 토스, 토스에서 스파이크로 응수하는 학생들 폼이 제법이다.1974년 창단 이래 50여 년간 이어져 온 수성초 배구부는 전국적으로 명성이 자자하다.창단 이듬해 제8회 전국 추계배구대회 우승을 시작으로 전국 소년체육대회, 대구시 소년체전 및 대구시장배 배구대회 등 여러 대회에서 우승을 거뒀다. 오는 28일부터 내달 2일까지 '제1회 하계 땅끝 해남기 전국초등학교 배구대회'에 참가할 예정이다.최근 수성초는 학생선수 육성뿐만 아니라 일반 학생들도 배구에 관심을 갖고 배구를 즐길 수 있도록 배구 스포츠 클럽과 동아리를 운영하고, 해마다 배구 리그전을 실시하는 등 다양한 프로그램을 진행하고 있다.5, 6학년 학생들을 대상으로 스포츠클럽 배구팀을 운영하고 연중 특별활동시간에 배구동아리 활동도 한다. 4학년 학생들은 한국프로배구연맹의 지원을 받아 유소년 배구교실에서 배구를 배우고 있다. 매년 11월엔 4~6학년 학생들을 대상으로 교내 배구리그대회를 진행해 우수 학급과 선수를 발굴해 시상하고 있다.배구부에서 학생 선수로 활약하고 있는 6학년 원세빈 학생은 "코치 선생님과 감독 선생님의 세심한 관리 덕분에 운동에 전념할 수 있다"며 "이번 소년체전을 앞두고 배구부 친구, 동생들과 합숙 훈련을 하면서 좋은 추억을 많이 쌓을 수 있어서 행복했다"고 했다.배경숙 수성초 교장. 대구시교육청 제공배경숙 수성초 교장은 "꿈이 있는 학생이라면 누구라도 스스로, 즐겁게 도전하고 이를 통해 성장할 수 있도록 다양한 교육 및 체험 활동을 운영하고 있다"며 "놀이와 배움이 함께하는 교육을 통해 우리 아이들이 인공지능시대, 4차 산업혁명시대 속에서도 미래역량을 펼칠 수 있도록 최선을 다하겠다"고 말했다.1924년 대구 칠곡초 졸업사진◆지역 유지 뜻을 머금고 저수지 위에 세워지다칠곡초교는 북구 읍내동에서 112년의 역사와 전통을 지키며 칠곡 지역 교육과 역사의 중심에 있는 학교다.칠곡초는 1909년 5월 근대식 교육을 위한 지방민의 염원이 모여 '사립거양학교'라는 이름으로 처음 문을 열었다. 당시 '팔거현'으로 불리던 지역 유지들이 후원을 통해 팔거현청 저수지를 메우고, 그 위에 학교 건물을 지었다. 이후 1912년에 이르러 '칠곡공립보통학교'로 교명을 바꿨다.오랜 세월 자리를 지켜온 칠곡초는 지역민에게 단순히 학교가 아니라 삶의 현장 그 자체였다. 5일 장터가 열리는 날엔 만남과 정보교환의 장이었고, 선거철엔 정치 유세장이었다. 때때로 출정 장병을 떠나보내는 환송장 역할도 했다. 이외에도 야외 영화관, 체육경기장, 연극과 노래 경연장 등 다양한 모습으로 지역민의 곁에서 함께했다.긴 세월 동안 정겨운 모습만 있었던 것은 아니다. 칠곡초 교정 곳곳엔 일제강점기라는 아픈 역사를 지내온 흔적이 남아있다.일제강점기 2회 졸업생이자 모교인 칠곡초에서 25년간 재직했던 류기달 선생은 일본인 교장의 감시를 피해 가며 우리 민족의 혼을 일깨우는 데 전념했다. 이러한 류 선생의 헌신을 기리기 위해 칠곡초 교정엔 교육공덕비가 세워져 있다.또한, 42회 졸업생인 이태원 소설가는 '객사'라는 작품을 통해 고향인 칠곡 향교를 중심으로 민중들의 고단한 삶을 알리기도 했다. 칠곡초 교정엔 이태원 소설가의 문학업적 시비 역시 건립돼 있다.또한, 한국전쟁이 발발한 1950년엔 국군과 미군이 연달아 학교에 주둔하며 학생들은 부락별로 수업을 받아야 했다. 어려움 속에서도 선배 교사와 학생들이 배움을 포기하지 않았기에 112년이라는 유구한 전통이 오늘날까지 이어질 수 있었다.지난해 소년체전 대구평가전 1위 우승 기념으로 찍은 칠곡초 농구부 사진. 칠곡초 제공지난 4월 열린 칠곡초 교내 농구대회에서 6학년 학생들이 경기를 펼치고 있다. 칠곡초 제공◆ 전교생이 미래를 향해 호쾌한 슬램덩크!2022년 교내 농구대회가 열렸던 지난 4월 칠곡초 체육관 공기는 봄인데도 여름만큼 후끈했다. 코트 위 선수들이 내뿜는 열기와 객석에서 터져 나오는 함성에 온 체육관이 들썩였다.1999년 창단된 칠곡초 농구부는 명실상부한 초등 농구팀의 강호다. 2004년 제33회 전국소년체전 농구대회에서 우승을 시작으로 현재까지 소년체전에서 3개의 메달을 목에 걸었다.칠곡초 농구부는 올해 3월 있었던 대구시소년체육대회에서도 우승을 거머쥐었다. 또한, 전국 유소년 HARMONY 주말 농구 리그의 권역별 예선을 당당히 통과해 내달 '전국 유소년 HARMONY 농구리그 CHAMPIONSHIP 양구대회'에 출전할 예정이다.더불어 칠곡초는 농구부 소속이 아닌 일반학생들도 농구에 흥미를 느끼고 농구를 즐길 수 있도록 다양한 프로그램을 마련했다.우선 매해 4월 교내 농구대회를 연다. 올해도 교내 농구대회가 열려 3학년부터 6학년까지 참여했으며, 학년별과 남녀별 학반 대항 토너먼트 형식으로 진행됐다. 각 학년 최종 1위를 차지한 학반과 학년별 남녀 최우수 선수에게는 농구공이 부상으로 주어졌다.또한, 농구부에서 선수로 뛰지는 않지만 농구에 관심 있는 학생들을 위해 학교 스포츠클럽 농구부를 운영하고 있다. 오전엔 지도 교사가, 점심시간엔 농구부 전임 코치가 지도를 한다. 레이업 슛(공을 링 위에 가볍게 놓고 내려온다는 느낌으로 하는 슛) 등 다양한 농구 기술을 익힌다. 현재 칠곡초 스포츠클럽 농구부에선 6학년 8명, 5학년 5명, 4학년 6명 등 모두 19명이 활동하고 있다. 점차 인원을 늘린다는 방침이다.지난 4월부터 스포츠클럽 농구부에서 '가드'로 활약 중인 5학년 장한 학생은 "다리가 얇은 게 콤플렉스였는데 꾸준히 농구를 하면서 다리가 굵어져 만족스럽고, 평소 속공이 약했는데 코치님 덕분에 잘 익힐 수 있었다"며 "무엇보다도 스포츠클럽을 계기로 선배, 친구들과 더 친해질 수 있어 학교생활 자체가 즐거워졌다"고 했다.김세환 칠곡초 교장. 대구시교육청 제공김세환 칠곡초 교장은 "농구부의 큰 성과는 모두 학부모를 비롯한 칠곡초 교육공동체가 힘을 모아 열심히 노력한 결과이자 감독과 코치, 농구부 선수들이 훈련하며 기본기에 충실한 결과"라며 "앞으로도 체계적인 훈련과 선수 관리를 통해 좋은 선수를 육성하고 투명하게 운동부를 운영해 나갈 것"이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.07.19.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>토스증권 신임대표에 오창훈 CTO 내정</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004869828?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>사진=fnDB 토스증권의 수장이 교체된다.   19일 투자은행(IB)업계에 따르면 토스증권 박재민 대표는 오는 22일 대표이사 임기를 끝으로 물러난다. 새 대표이사에는 오창훈 CTO(최고기술책임자·사진)가 내정됐다. 같은 날 이사회에서 선임될 예정이다.   토스증권 측은 "증권 인가부터 지금까지 성장을 이끌어온 박 대표의 뜻에 따라 계약을 종료하기로 했다"고 설명했다.   박 대표는 보스턴컨설팅그룹(BCG)과 쿠팡 마켓플레이스 등을 거쳤다. 증권사 경력은 없지만 덕분에 새로운 시각으로 증권업계를 바라보고 접근하며 토스증권을 키우는데 큰 도움이 된 것으로 알려졌다.   실제 토스증권은 기존의 틀을 깨는 사용자경험(UI/UX)을 앞세워 출범 1년 만에 420만계좌 달성이라는 기록을 달성했다. 같은 기간 모바일 서비스의 주요 지표로 손꼽히는 월간 활성이용자(MAU)는 230만명을 넘어 단숨에 업계 상위권에 진입했다. 지난달에는 해외주식 서비스가 출시 6개월 만에 시장점유율 12%를 돌파하며 침체된 시장에서도 독보적인 성장세를 이어가고 있다.   오 내정자는 1977년생으로 네이버와 GS홈쇼핑 등에서 인프라 구축 및 다양한 서비스 개발을 맡았다. 토스(비바리퍼블리카)에서 신용조회 및 대출 연계 서비스 개발을 주도했다. 2020년 토스증권으로 옮겨 증권 매매서비스 개발을 담당했다.   토스증권 측은 "토스증권의 사용자 경험은 압도적인 기술에서 구현돼온 만큼 CTO 출신의 오 대표를 중심으로 안정적인 IT역량 기반의 투자 서비스를 제공할 수 있을 것으로 기대한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.07.26.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>尹 `내부총질` 눈총 이준석 "우크라 1억 4천 공격 추잡"</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005277663?sid=100</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>"당 중앙회계 엄격히 관리 ... 최고위원이 토스했을 것" 환멸[이데일리 김화빈 기자] 윤석열 대통령이 이준석 국민의힘 대표에 대해 ‘내부총질’이라 비판한 문자가 공개된 가운데 이준석 대표가 지난 6월 초 우크라이나 6박 7일 방문에 당비 1억 4천이 소요됐다는 보도를 접하자 억울함을 토로했다.사진=연합뉴스앞서 아이뉴스24는 26일 “이 대표가 강력 추진한 6박7일 일정 우크라이나 방문에 당비 약 1억4천만원이 쓰였다”며 “우크라이나 방문에는 박성민·김형동·허은아·태영호·정동만 의원 등 국민의힘 관계자 11명이 동행했고 1인당 1천 300만원이 소요됐다”고 보도했다.2022년 중앙당 정기 회계보고에 따르면, 특별대표단의 우크라이나 일정 관련 지출 내역은 △방문 소요비용 위임·5천370만원(6월 1일) △방문 취재장비 대여비 위임·95만1천900원(6월 2일) △방문·1억825만원(항공비 등 추정·6월 16일) 등이다.이에 대해 이 대표는 페이스북을 통해 “누군가 정치적으로 공격하려고 한다”며 “법인카드 ‘한도’ 2000만원 기사로 장난치더니 이제는 우크라이나 방문비용을 가지고..”라며 울분을 토했다.그러면서 “상대 정당이 초청해서 우크라이나에 가는데 당비를 쓰는 것은 당연하다. 이런 자료나 유출시켜 정치적으로 공격하려고 하는 모습을 보면 환멸감이 든다”며 “회계내용은 엄격하게 관리되는데, 언론사가 해킹이라도 한 것이 아니라면 지난 달 회계보고를 받은 최고위원이 이 내용을 언론사에 토스했을 수밖에 없다”고 추측하며 추잡하다고 힐난하기도 했다.사진=연합뉴스한편 “자객의 칼에 맞았다”며 6·1 경기도지사 후보 경선에서 김은혜 후보에 패한 뒤 윤심(尹心) 의혹을 제기했던 유승민 전 의원도 인스타그램에 윤 대통령과 권성동 국민의힘 원내대표의 사적 대화 문자 사진을 게시하기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.07.18.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>예ㆍ적금만 오를쏘냐...파킹통장 금리도 오른다</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005270273?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>OKㆍSBI저축은행 등 금리 인상...연 최대 3%도 나와잠깐만 맡겨도 이자 줘...대기자금 수요 많아지며 인기[이데일리 전선형 기자] 직장인 정서윤 씨는 최근 적금이 만기되며 수령한 현금 1억원을 어떻게 활용할지를 두고 고민에 빠졌다. 예금이나 적금에 넣자니 기준금리가 줄곧 오르고 있어 왠지 손해보는 느낌이 났기 때문이다. 그렇다고 주식 등에 투자는 장이 좋지 않아 넣어둘 엄두가 나지 않았다. 결국 정씨는 돈을 쪼개서 5000만원은 6개월 단기 특판예금에, 5000만원은 2%대 파킹통장에 넣어두기로 했다. 정 씨는 “파킹통장 금리가 요즘 오르고 있어 그 중 적절한 상품을 찾아 가입했다”며 “파킹통장은 복리효과도 누릴 수 있고 나중에 다른 특판이 나왔을 때 곧바로 사용할 수 있어 효율적일 것 같다”고 말했다. 하루만 맡겨도 쏠쏠한 이자를 받을 수 있는 ‘파킹통장’ 금리가 오르고 있다. 은행은 물론 저축은행들까지 앞다퉈 금리를 올리고 있는 모양새다. 최근엔 연 3%짜리 상품까지 나왔다. 재테크 족들에게는 솔깃한 얘기다. [이데일리 김일환 기자]◆ 부동자금 잡자...금리 경쟁력 키우는 저축은행파킹통장 금리는 저축은행의 경쟁력이 높다. OK저축은행의 파킹통장인 ‘OK읏통장’은 이달부터 연 최고 3.2%의 금리를 제공하고 있다. 금융권 내 파킹통장 금리 중 가장 높은 수준이다. 물론 금리가 적용되는 구간이 있다. 1000만원 이하에 대해 연 3%의 금리를 주고, 1000만원 초과분에 대해서는 연 0.8%의 금리를 준다. 우대금리는 시중은행(저축은행 앱 제외)이나, 증권사 앱 오픈뱅킹에 계좌 등록 시 연 0.2%(세전) 우대금리를 준다. 만약 1000만원 이하를 통장에 넣고 우대금리 조건을 모두 채웠다면 3.2% 금리를 받을 수 있다. OK읏통장에 1000만원을 넣어두면 세금을 제외하고 매월 2만2560원수익을 얻을 수 있다. 특히 975만원을 1년 동안 빼지 않고 넣었을 땐, 세금을 제외하고 1001만7858원을 받을 수 있다. 이자는 매월 셋째주 토요일 다음날에 지급된다.웰컴저축은행도 5000만원 한도인 ‘웰컴 직장인사랑 보통예금’의 기본 금리를 지난달 연 0.5%에서 연 1.5%로 인상했다. 우대금리 조건을 충족한다면 최고 연 3%까지도 받을 수 있다. 우대금리 조건은 △100만원 이상 급여이체 실적이 있는 경우 연 0.5%포인트 가산 △당월 이 예금을 연결해 CMS 또는 지로 자동납부 1건 이상 실적이 있는 경우 연 0.5%포인트 가산 △당월 개인정보 수집이용(마케팅 이용목적 등) 및 멤버십 가입이용 동의하는 경우 연 0.5%포인트 가산된다. SBI저축은행은 지난달부터 모바일 금융플랫폼 사이다뱅크에서 판매하고 있는 파킹통장(보통예금)상품의 금리를 연 1.6%에서 연 2.2%로 올렸다. 파킹통장 예치금액은 1억원까지다. ◆ 금리 낮지만 한도 높은 인터넷은행금리는 저축은행보다 낮지만 한도가 많은 인터넷은행 상품도 주목할 만하다. 케이뱅크는 파킹통장 ‘플러스박스’의 연 1.3% 금리를 15일부터 연 2.1%로 0.8%포인트 대폭 인상했다. 플러스박스는 하루만 맡겨도 연 2.1%의 금리 이자가 적용되고 매월 넷째주 토요일 쌓인 이자를 받을 수 있으며 최대 3억원까지 적용된다. 토스뱅크는 수시입출금식 통장에 연 2.0%의 금리를 적용하고 있다. 최근 상대적으로 금리의 매력은 떨어졌지만 1억원까지 연 2%의 금리를 제공하고 있다. 특히 토스뱅크는 은행권에서 처음으로 ‘일복리’를 준다. 토스뱅크의 ‘지금 이자받기’ 서비스는 고객이 매일 통장에 들어있는 금액에 대해 이자를 지급받을 수 있다. 카카오뱅크 파킹통장 ‘세이프박스’는 연 1.20% 금리를 적용한다. 세이프박스의 최대 보관 한도는 1억원이다. 한 은행권 관계자는 “주식시장이나 가상자산 등 투자시장 거품이 꺼진 상태라 자리를 잡지 못한 대기자금들이 은행으로 몰리는 중”이라며 “특히 최근 금리가 하루가 다르게 오르는 상황이기 때문에 파킹통장에 잠시 대기해두고 이자까지 챙기는 사람들이 늘어나고 있다”고 말했다. 한국은행에 따르면 6월 중 은행 수신액 증가 규모는 4월 6조6000억원에서 5월 27조8000억원, 6월 23억3000억원 등으로 증가했다. 특히 수시입출금식예금 증가액은 5월 1조7000억원에서 6월 15조5000억원으로 급증했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.07.27.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>`우크라이나行에 당비 1.4억` 보도에 이준석 "이런 장난, 언론 해킹했나…유출 공격 추잡"</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002746175?sid=100</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>6박7일간 우크라 특별대표단 방문 총지출액 1억4400여만원 보도 나오자李대표, 중징계 후 '월 2000만원 한도 법인카드 사용 정지' 신문보도와 묶어 "장난쳐"취재보도에 "최고위원이 토스, 추잡한 공격" 핏대…당 일각서 "내역공개" 촉구국민의힘 이준석 당 대표를 비롯한 정동만 의원, 김형동 수석대변인, 허은아 수석대변인, 박성민 당 대표 비서실장, 태영호 국회 외교통일위원회 위원, 김철근 당 대표 특별보좌역 등으로 구성된 한-우크라이나 자유.평화 연대 특별 대표단이 지난 6월3일 밤 인천공항으로 출국해 4일 폴란드 바르샤바 공항에 도착했다. 대표단은 이후 버스를 이용해 폴란드 국경을 넘어 우크라이나 르비우 지역에 도착했다.&lt;국민의힘 홈페이지&gt;    이준석 국민의힘 대표가 지난 6·1 지방선거 직후 강행한 '대통령실·정부와의 엇박자 논란' 우크라이나 방문에 당비 1억4000여만원이 쓰였다는 보도가 나오자 '자료 유출', '해킹', '장난', '환멸감' 등 거친 표현을 써가면서 '정치적인 공격'이라고 규정했다. 이른바 '간장(안철수·장제원 의원 비하표현) 한사발' 등 언어유희로 응수하며 SNS 공유를 반복하던, 일부 매체의 '익명 관계자 인터뷰' 보도들과는 사뭇 다른 날선 대응이다.27일 정치권에 따르면 아이뉴스24는 전날(26일) 보도에서 이 대표를 단장으로 지난달 3~9일 전시(戰時) 우크라이나를 다녀온 '한국-우크라이나 자유·평화연대 특별대표단'이 6박7일간 일정 경비로 당비 1억4458만3276원을 썼다고 밝혔다. 매체는 국민의힘이 이달 1일자로 중앙선거관리위원회에 제출한 '2022년 중앙당 정기 회계보고'를 근거로 들었다.이 회계보고에서 당 특별대표단의 우크라이나 일정 관련 지출 내역은 △방문 소요비용 위임 5370만원(6월1일) △방문 취재장비 대여비 위임 95만1900원(6월2일) △방문·1억825만원(항공비 등 추정·6월16일) 등 3가지로 나타났다. 여기에 △방문 소요비용 위임 '반납금' 1831만8624원(6월17일)을 감산하면 1억4458만3276원이 도출된다는 것이다.당 특별대표단은 이 대표와 박성민·김형동·허은아·태영호·정동만 의원, 김철근 당 대표 정무실장, 당 대표실·국제국 등 소속 당직자 4명을 포함해 총 11명으로 구성됐다. 외교부 관계자 3명도 동행했으나 당·정이 각자 별도로 비용을 처리했다고 매체는 전했다. 당 특별대표단 11명 기준으로 1인당 약 1300만원의 당비가 소요된 것으로 분석됐다.특별대표단이 우크라이나를 방문할 땐 인천→터키 이스탄불→폴란드 바르샤바를 통했고, 귀국할 땐  바르샤바로 이동해 카타르 도하를 경유한 것으로 전해졌다. 또 매체는 "이 대표는 출국·귀국편 모두 비즈니스석을, 의원 5명은 출국 때 이코노미석·입국 때 비즈니스석을 이용한 것으로 파악됐다"고 보도했다. 이에 같은날 이 대표는 해당 보도를 페이스북에 공유하면서 "법인카드(당원권 6개월 정지와 함께 정지된 당 대표 법인카드) 한도 2000만원 기사로 장난치더니 이제는 우크라이나 방문 비용 가지고 누군가 장난을 친다"고 불쾌감을 드러내며 "우크라이나 상대 정당이 초청해서 가는데 당비를 쓰는 것은 당연하고 일정은 초청일정에 맞춰 가는 것"이라고 주장했다.지난 12일 '동아일보'에서 이 대표가 사용해온 당 대표 법인카드가 윤리위원회의 중징계(지난 8일)로 인해 주중 사용 정지된다고 보도한 것과 이번 보도를 "장난"으로 묶어 대응한 셈이다. 법인카드의 경우 월 2000만원 한도라고 보도됐지만 여당 측이 뚜렷하게 긍정도 부정도 하지 않았고, 우크라이나 방문의 경우 지출 출처가 불명확한 상황으로 보인다.이 대표는 또 "이번 우크라이나 방문 시 직항편도 비행기편이 모두 없어서 바르샤바까지 갈 때는 이스탄불, 올 때는 도하 경유로 비행기값만 1인당 800만원 넘게 든 상황"이라며 "경유로도 표도 구하기 힘들어서 의원님들은 갈 때 그 장시간 비행을 이코노미 타고 갔다"고 주장했다.그는 "회계내용은 엄격하게 관리되는데 이 언론사가 해킹이라도 한 것이 아니라면  지난 달에 회계보고를 받은 최고위원이 이 내용을 언론사에 토스했을 수 밖에 없다"고 짐작하며 "이런 공격을 시도하는 것 자체가 추잡하다", "이런 걸로 공격해봐야 남는 거 없다"고 반발했다.한편 국민의힘 대구시당 윤리위원장인 신봉기 경북대 법학전문대학원 교수는 이날 페이스북으로 "당비는 정당에 대한 국고지원금이다. 당비를 방만하게 사용해서는 안 된다"며 "무리 항공권을 구하기 힘들었어도 1인당 (항공비) 800만원은 과하다"고 의심했다. 그러면서 "'누군가가 자료를 유출했다'고 말로만 주장할 것이 아니라 여행사의 여행계획 및 집행내역을 공개하면 깔끔하게 의혹이 해소된다"고 주장했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.07.26.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>美 해변서 낚시 중 45㎏ 돛새치에 중요 부위 찔린 70대…생명에 지장 없어</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003719009?sid=104</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>게티이미지뱅크     미국 플로리다에 한 해변에서 낚시 중이던 70대 여성이 물속에서 뛰어오른 돛새치의 뿔에 찔리는 사고를 당했다.    지난 25일(현지시각) 가디언 등 외신에 따르면 지난 19일 미국 플로리다 해안에서 낚시하던 메릴랜드 주 출신의 캐서린 퍼킨스(73)는 물속에서 갑자기 뛰어오른 45㎏ 크기의 돛새치 뿔에 의해 사타구니를 찔려 병원으로 이송됐다.   가디언이 입수한 마틴 카운티 보안관실 보고서에 따르면 캐서린은 사고 당일 두 명의 남성 루이스 토스, 도미닉 벨레자와 함께 보트를 타고 낚시 중이었다.    이때 루이스가 낚싯줄에 잡힌 물고기를 배로 끌어 올리려 하자, 돛새치 한 마리가 갑자기 배로 돌진했다.   두 남성이 이를 인지했을 때, 돛새치는 금세 보트 중앙 제어반 옆에 서 있던 캐서린을 공격했다.   캐서린은 외신에 “물고기의 움직임이 너무 빨라서 미처 대응하지 못했다”고 전했다.   두 남성은 캐서린의 사타구니에 생긴 상처를 즉시 압박했고, 캐서린은 구급대원들에 의해  플로리다 론우드 병원으로 이송됐다.   그는 병원에서 치료 중이며, 생명에는 지장이 없는 것으로 알려졌다.   한편 돛새치는 시속 109㎞까지 헤엄칠 수 있는 물고기 중 하나로 몸 크기는 최대 3.3m, 몸무게는 100㎏까지 자란다.   2014년 독일 생태학자 등 국제 연구진의 과학저널 ‘왕립학회보 비(B)’의 논문에 따르면 돛새치는 보통 육지에서 멀리 떨어진 해수면에서 발견되며 사냥을 할 때 그들의 뿔을 사용하기도 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.07.17.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>"디도스 꼼짝마"…KISA 디도스 사이버 대피소, 中企 사이버 수호천사로 주목</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011309205?sid=105</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>기사내용 요약KISA 디도스 사이버대피소 서비스 이용기업 누적 7000곳 넘었다160G 대규모 트래픽 수용량…24시간 모니터링이 특징디도스 공격 감지되면 비정상 트래픽 대피소로 분산해 대응KISA “대피소 역할 늘려 다른 사이버 공격에도 대비할 것” 한국인터넷진흥원(KISA)은 중소·영세기업을 대상으로 디도스 사이버대피소를 무료로 운영하고 있다. KISA에 따르면 디도스 사이버대피소 접수 기업은 2010년 서비스 첫 해 52곳에서 2021년 현재 누적 7271개 기업으로 약 40배 늘었다. (사진=한국인터넷진흥원 제공) *재판매 및 DB 금지[서울=뉴시스]송종호 기자 = # 경기도에서 중소기업을 운영하는 A씨는 최근 회사 홈페이지가 마비되는 피해를 당했다. 이 일로 문의전화가 폭주하면서 사무실 직원들도 진땀을 흘려야 했다. A씨는 “당시 디도스(DDos·분산형서비스 거부) 공격을 처음 접했다”라며 "규모가 작은 회사라 사이버 공격 대상이 될 지는 꿈에도 몰랐다"고 토로했다. 최근 무분별한 사이버 공격으로 인해 중소·영세 기업들의 피해도 늘고 있다. 이런 상황에서 한국인터넷진흥원(KISA)이 운영하는 '디도스 사이버 대피소'가 중소기업들의 '사이버 수호천사'로 주목받고 있다. 17일 KISA에 따르면 디도스 사이버대피소 신청 기업 수가 2010년 서비스 첫 해 52곳에서 2021년 현재 누적 7271개 기업으로 약 140배 늘었다.KISA '디도스 사이버대피소' 7271개 기업이 신청 KISA는 2010년 KISA는 디도스 사이버대피소를 선보였다. 홈페이지나 서버 등에 비정상 트래픽을 유발해 서비스를 마비시키는 디도스(DDoS)  사이버 공격을 막기 위해선 이중 백업망 등이 필요한데 자금 사정 등으로 대응시스템을 갖추기 어려운 중소 기업들을 보호하자는 취지에서다. 대피소는 트래픽이 특정 홈페이지에 가기 전에 검문을 하는 원리다. 인터넷 주소로 들어오는 트래픽을 분석한 뒤 정상적인 트래픽은 해당 사이트로 연결하고 공격으로 의심되는 트래픽은 대피소 내 공간으로 분산한다. 여기서 공격으로 의심되는 경우는 단시간에 급증한 트래픽 등이다. 가령 A사 홈페이지를 노린 공격자가 대규모 트래픽을 보내면 이를 탐지한 KISA가 해당 트래픽을 대피소로 전환해 분산시킨다. 디도스로 홈페이지 이용이나 서비스가 중단되는 것을 막는 것이다. 이는 디도스 사이버대피소의 대규모 트래픽 수용량과 모니터링 시스템 때문에 가능하다. 우선 디도스 사이버대피소는 트래픽 수용량이 160G다. 지난달 발생한 모바일 금융플랫폼 업체 토스(비바리퍼블리카)가 받은 디도스 공격 트래픽 규모가 30G임을 고려하면 디도스 사이버대피소가 얼마나 큰 용량을 갖췄는지 알 수 있다. 또 디도스 사이버대피소는 24시간 이상 트래픽을 감지하는 모니터링 시스템을 갖추고 있다. 가령 관리하고 있는 중소기업에서 트래픽이 평소보다 많을 경우 이를 감지하고 대피소에서 트래픽 분산 기능이 작동하게 된다. 이에 대해 KISA 관계자는 “평소보다 네트워크를 확장하고, 모니터링 역할을 갖춘 것”이라며 “1차선 보다 3차선 도로가 교통이 원활하고, 24시간 쉬지 않고 관찰해 이상 징후를 찾아내는 것이 장점”이라고 설명했다."디도스 외 다른 공격도 보호할 수 있도록 역할 늘리겠다"사이버 공격 조직은 왜 디도스 공격을 감행하는 것일까. KISA는 가장 큰 이유로 금전적인 목적을 꼽았다. KISA 관계자는 “기업의 경우 서버 등이 해킹되면 계약이나 사업에 차질이 발생한다”라며 “이를 빌미로 돈을 요구하는 경우가 많다”고 설명했다. 특히 중소 기업들의 상대적으로 대비가 부족해 피해를 입는 경우가 많다는 것이 KISA의 설명이다. 이를 예방하기 위해 중소기업들은 사전에 디도스 사이버대피소에 사전 등록 신청을 해두는 것이 좋다. 이후 실제로 디도스 공격을 받을 경우 언제든지 대피소를 이용할 수 있다. 지원 대상은 국내에서 정상으로 운영되는 중소기업이라면 모두 가능하다. 다만, 일부 유흥 업종 등의 경우 이용이 제한된다.KISA는 디도스 사이버대피소의 역할을 늘려간다는 계획이다. 김은성 KISA 탐지대응팀 팀장은 “사이버 대피소는 약 12년간 KISA 대표 서비스로 자리잡았다”며 “디도스 공격 외에 다른 공격들도 보호할 수 있도록 역할을 늘려가면서, 중소기업들이 사이버 공격에 시름하지 않도록 하겠다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>코스피 2400 회복…의무휴업 폐지될까? 대형마트주 강세[오늘의 증시경향]</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003161417?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>코스피 17거래일만에 2400선 회복대형마트 의무휴업 폐지 가능성에 이마트·롯데쇼핑 강세토스 3000억원 신규 투자 유치…초기 투자자 다올투자증권 상승21일 코스피는 22.31포인트(0.93%) 오른 2,409.16으로 마감했다. 연합뉴스21일 코스피는 전 거래일보다 22.31포인트(0.93%) 오른 2409.16에 장을 마쳤다. 코스피가 종가 기준 2400선을 회복한 것은 지난달 28일(2422.09) 이후 17거래일 만이다. 이날 코스피시장에서는 외국인이 4397억원을 순매수했고, 개인과 기관은 각각 3330억원, 1099억원을 순매도했다.코스닥은 전 거래일보다 4.43포인트(0.56%) 오른 795.15에 마감했다. 코스닥시장에서는 개인과 기관이 각각 456억원, 348억원을 순매수했다. 외국인은 716억원을 순매도했다.김석환 미래에셋증권 연구원은 “전날 미국 증시가 반도체 및 소프트웨어 중심 기술주 위주 상승했다”며 “특히 미국의 반도체 지원 법안이 미 상원에서 통과되면서 반도체 업종이 강세를 나타낸 점이 국내 주가 상승에 긍정적으로 작용했다“고 밝혔다.코스피 시가총액 상위권에서는 삼성전자(2.15%), LG에너지솔루션(1.69%), SK하이닉스(0.49%), 삼성전자우(0.89%), NAVER(1.83%), LG화학(5.37%), 삼성SDI(1.43%), 기아(0.49%) 등이 상승 마감했다. 삼성바이오로직스(-0.73%)는 하락했고, 현대차(0.00%)는 하락 마감했다.‘대형마트 의무휴업’ 폐지될까…이마트·롯데쇼핑 강세20일 서울 시내 대형마트에서 시민들이 장을 보고 있다. 연합뉴스대형마트 의무휴업 폐지될 가능성이 제기되면서 대형마트주들이 이틀째 강세를 보이고 있다.이날 코스피에서 이마트는 전날보다 3.17% 오른 11만4000원에 거래를 마쳤다. 이마트는 전날에도 8.33% 상승해 거래를 마쳤다. 롯데쇼핑도 전날보다 1.50% 오른 9만4600원에 거래를 마쳤다. 롯데쇼핑은 전날에도 4.13% 올랐다.전날 대통령실 국민제안심사위원회는 대형마트 의무휴업 폐지 등 10대 국민제안을 우수 제안으로 뽑았다. 대통령실은 온라인 투표를 거쳐 3개 우수 제안을 추린 뒤 국정에 반영하도록 적극 추진한다는 방침이다.대형마트 의무휴업은 2012년부터 시행됐다. 유통산업발전법에 따라 자치단체장은 0시부터 오전 8시까지의 영업시간을 제한하고 매월 둘째·넷째 주 일요일을 의무휴업일로 지정해야 한다.토스 3000억원대 신규 투자 유치…관련사 주가 강세토스가 3000억원대 신규 투자를 유치했다는 소식에 토스에 투자한 기업들의 주가가 강세를 보였다.이날 코스닥에서 다올인베스트먼트는 전날보다 4.07% 오른 3325원에 거래를 마쳤다.다올인베스트먼트는 토스의 초기 투자자로 지분을 보유하고 있으며 이번 신규 투자에도 참여한 것으로 알려졌다.다올인베스트먼트의 모회사인 다올투자증권(1.75%)도 상승 마감했다. 토스뱅크의 지분을 보유한 이월드(1.88%)와 하나금융지주(2.19%), 대신정보통신(2.14%) 등도 올랐다.토스 운영사 비바리퍼블리카는 전날 3000억원 규모의 대규모 투자유치에 성공했다고 밝혔다. 투자 유치 자금은 토스뱅크, 토스증권 등 주요 계열사의 성장 가속을 위한 추가 투자 및 신규 사업 등에 활용될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.07.22.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>알뜰폰 시장 진출 선언한 토스… 긴장하는 KB, 눈치싸움 신한</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001541598?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>토스 운영사 비바리퍼블리카, 알뜰폰 시장 본격 진출은행·증권업에 진출한 토스가 이번엔 알뜰폰 시장에 진출하겠다고 선언했다. ‘비금융 빅데이터’의 중요성이 커지고 있다는 점을 고려해 통신 데이터를 직접 확보하고 사업구조를 다각화하려는 시도로 풀이된다. 은행권 중 유일하게 알뜰폰 사업을 펼치고 있는 KB국민은행은 경쟁자 등장에 긴장하는 분위기다. 최근 알뜰폰 전용 요금제를 다수 출시하며 시장 진출 염두에 두고 있는 신한은행도 숨죽여 지켜볼 것으로 전망된다.22일 금융권에 따르면 토스 운영사 비바리퍼블리카는 전날 알뜰폰 사업자(MVNO) ‘머천드코리아’ 지분 100%를 인수하는 주식매매계약을 체결했다. 알뜰폰 시장에 첫발을 내딛는 셈이다.토스가 노리는 특화점은 온라인 접근성이다. 알뜰폰은 통상 100% 온라인 채널로 가입·홍보가 이뤄지는 만큼 토스가 타 사업자에 비해 이점이 있다는 분석이다. 특히 간편송금·인증서 기능과 결합하면 손쉽게 가입할 수 있는 만큼 고객 편의 측면에서 강점을 가질 것으로 보인다.토스의 이 같은 사업진출은 수익 다각화를 위한 포석으로 풀이된다. 토스는 지난해 말부터 각각 토스뱅크와 토스증권을 런칭하며 금융업에 본격적으로 뛰어들었다. 하지만 은행의 경우 대출 총량규제에 막혀 지난해 연말까지는 이렇다 할 수익을 내지 못했다. 증권은 지난 5월 기준 시장점유율 10%를 돌파하는 등 호조세지만 시장이 얼어붙어 거래대금 자체가 쪼그라든 만큼 기대했던 수익성을 달성했을지 미지수다.금융사가 비대면 빅데이터를 이용해 고객 확보에 나서고 있다는 점도 알뜰폰 사업을 시작하는 데 있어 주요 고려 요소였을 것으로 보인다. 토스뱅크·카카오뱅크 등 인터넷전문은행은 기성 은행들이 사용하는 금융데이터뿐 아니라 통신·납세실적 등 비대면 정보를 이용해 신용등급을 산출하는 CSS(신용평가체계)를 활용하고 있다. 이를 통해 시중은행에서 중·저신용자로 분류돼 대출이 거절됐던 이들을 끌어와 잠재적 고객으로 만드는 방식으로 수익을 창출하고 있다. 직접 통신사업에 진출해 비금융 데이터를 확보하면 CSS를 더 정밀하게 발전시킬 수 있을 것으로 기대된다.다만 토스의 승부수가 ‘가성비(비용 대비 효과)’ 측면에서 좋은 성과를 안겨다줄지에 대해서는 회의적 시각도 적지 않다. KB국민은행은 전국 시중은행 중 유일하게 알뜰폰 서비스 ‘Liiv M’을 서비스하는 등 공격적인 마케팅에 나서고 있지만 시장점유율은 여전히 미미하다. 이미 ‘레드오션’에서 고군분투하고 있는 국민은행은 새로운 경쟁자 등장에 긴장하는 분위기다.신한은행 내부 분위기도 술렁이고 있다. 신한은행은 최근 알뜰폰 사업자 4개사와 업무협약(MOU)을 맺고 신한 SOL 이용고객을 대상으로 알뜰폰 요금제 4종을 출시했다. 신한은행 측은 아직 뚜렷한 알뜰폰 사업 계획이 없다는 입장이지만 업계에서는 사실상 시장 진입 검토가 이뤄지고 있다고 보고 있다. 신한은행이 실제로 알뜰폰 시장에 뛰어들 경우 갑작스럽게 유력 경쟁자가 늘어나 ‘파이 싸움’이 치열해질 것이라는 점을 고심하게 될 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.07.20.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>BC카드, 대행업무 ‘터줏대감’ 옛말…발목잡는 ‘본업’</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005272951?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>카드사 독자 결제망 구축 행보에…BC카드 의존도 낮아져연내 우리카드까지 결제망 구축하면 수익 악화 ‘현실화’해외 카드프로세싱 사업 확대하지만…고객기반 축소 불가피[이데일리 정두리 기자] BC카드가 제공하는 ‘카드 프로세싱’ 사업에서 주력 회원사들이 속속 이탈하고 있다. 은행 및 카드사들이 신용카드 비즈니스 플랫폼을 새롭게 구축하기 위한 변화를 모색하면서 BC카드와 결별에 나선 것이다. 회원사에게 결제망을 제공하며 받는 수수료 매입업무가 전체 수익의 80%가 넘는 BC카드 입장에서는 발등에 불이 떨어졌다. BC카드 본사 전경. (사진=BC카드)20일 금융권에 따르면 전업카드사들이 독자 결제망을 통해 새로운 제휴 형태가 늘어남에 따라 카드 프로세싱 서비스 시장에서 BC카드 의존도가 점차 낮아지고 있다. 전북은행은 신용카드 프로세싱 업무 제공사를 BC카드에서 KB국민카드로 교체하기로 하고 올 3분기 내 서비스 개시를 목표로 두고 있다. 2008년부터 매입대행 업무에 나선 KB국민카드는 2017년 하반기부터 본격적인 카드 프로세싱 사업에 나서고 있다. KB국민카드 관계자는 “3분기 안으로 서비스를 오픈할 예정”이라면서 “현재 내부직원 대상으로 프로세스 테스트 단계”라고 했다. SC제일은행은 오는 11월부터 SC제일은행 BC카드의 신규 발급을 중단하기로 했다. 비씨카드 결제망을 사용하는 SC은행 일부 카드는 11월 이후 새로 발급받거나 추가·갱신·전환 발급을 받을 수 없게 된다. SC은행은 대신 현대카드와 지난 4월 전략적 파트너십을 체결하고 새로운 제휴카드를 선보일 예정이다. SC은행 측은 “보다 나은 서비스를 위해 현대카드와 협업하기로 했다”고 설명했다. 하나카드도 카드 프로세싱 사업을 강화하는 추세다. 하나카드는 토스뱅크와 파트너십을 맺고 지난해 10월부터 매입·정산업무의 업무위탁을 맡고 있다. 가맹점 정산·카드 디자인·카드상품 기획·개발 관련 하나카드 인력이 토스뱅크에 투입됐고, 토스뱅크가 확보 못한 가맹점은 하나카드 가맹점을 공유하는 방식으로 업무 제휴가 이뤄지고 있다. 하나카드 관계자는 “앞으로 금융사는 물론 지자체까지 카드 프로세싱 사업을 확장해나갈 계획”이라고 밝혔다.특히 우리카드가 자체 결제망 구축에 나선다는 소식은 BC카드 입장에선 뼈아프다. 전업 카드사 중 유일하게 자체 결제망이 없었던 우리카드는 올해 말까지 독자 결제망 시스템을 완성하고 250만개의 가맹점을 유치할 계획이다. BC카드 고객사에서 우리카드가 차지하는 비중은 37%에 달하는 것으로 알려진 만큼, 시장의 ‘큰 손’이 떨어져 나가는 셈이다. BC카드의 회원사 이탈 행보는 향후 막대한 수익성 저하로 직결될 전망이다, 실제 올해 1분기 BC카드의 전체 영업수익 가운데 매입업무 관련 수익은 7428억원으로  82.3%를 차지했다. 반면 자체카드 수수료 수익은 43억5300만원으로 0.5%에 불과했다. 이외 서비스수수료 413억3200만원(4.7%), 부가사업수수료 154억1600만원(1.7%), 회원서비스수수료 138억1100만원(1.6%), 금융수익 111억5000만원(1.2%) 등으로 나타났다.  하지만 매입업무에 편중된 사업구조를 단번에 바꾸긴 쉽지 않은 상황이다. 이에 BC카드는 네이버파이낸셜, 핀트 등 핀테크 기업을 고객사로 유치해 업무영역을 확대하는 전략을 펼치고 있다. 핀트와는 지난해 인공지능(AI) 간편투자 ‘핀트카드’를 출시했고, 네이버파이낸셜과는 오프라인 결제 서비스를 시작했다. 카드 결제 프로세싱 기술을 수출하는 방식으로 해외시장도 공략하고 있다. 지난해 베트남 판매시점정보관리(POS) 점유율 1위사인 와이어카드 베트남(Wirecard Vietnam) 지분 100%를 인수한 데 이어 올해 5월에는 인도네시아 디지털 결제 국책사업(QRIS) ‘해외 QR결제 제휴사’로 선정됐다. 카드사 관계자는 “BC카드의 본업인 결제망 사업에서 덩치가 큰 고객사가 온전히 독립하게 되는 시기가 되면 수익성 악화는 불가피하다”면서 “임기 반환점을 지난 최원석 대표 입장에선 수익 다각화 성과가 절실한 시점”이라고 봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.07.17.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>디도스 피해 '대피소' 입주하는 中企…개소 이후 '52곳→7천271곳' [데이터링]</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000686018?sid=105</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>"지난해까지 1천351건 방어…시스템 고도화 추진"매년 분산서비스거부(디도스‧DDoS) 공격이 증가하면서 한국인터넷진흥원(KISA)이 제공하는 '사이버대피소'에 입주하는 중소기업도 늘어나고 있다. 사이버대피소는 2009년 '7‧7 디도스 사태'를 계기로 도입됐다. 당초 디도스 공격을 방어하기 위해 구축됐지만 최근 사이버 위협이 지능화되면서 KISA는 다양한 공격 유형에 대응할 수 있도록 시스템을 고도화한다는 방침이다.사이버대피소 이용현황 [사진=KISA]17일 KISA에 따르면 사이버대피소 서비스를 신청한 국내 중소기업은 2010년 개소 당시 52개에 불과했지만 지난해에는 7천271개로 급증했다. ▲2016년 1천12개 ▲2018년 2천854개 ▲2019년 3천839개 ▲2020년 4천590개 등으로 증가 추세다. 개소 이후 연평균 56.7%의 증가율을 보이고 있다.지난 2009년 7월 7일 주요 정부기관과 포털, 금융기관 사이트를 겨냥한 디도스 공격이 발생해 서비스가 마비된 사태가 벌어졌다. 디도스란 정보통신서비스에 장애, 마비 등을 유발시키기 위해 대량의 비정상적인 트래픽을 일으키는 공격이다.공격자는 여러 대의 IT 기기를 감염시켜 공격에 동원하며, 최근에는 비정상 트래픽을 유발하는 기기가 다양해지고 있다는 점이 특징이다. 대표적인 유형은 '봇넷(Botnet)' 공격으로, 봇넷은 소프트웨어 로봇(robot)의 집합을 뜻한다. 공격자는 악성파일을 유포해 불특정 다수의 PC나 기기를 감염시켜 이른바 '좀비 PC'로 만들고, 복수의 감염된 기기들이 네트워크로 연결돼 하나의 봇넷이 되는 구조다.해당 사건을 계기로 국내에서는 디도스 대응 장비 도입이 활성화되고, 통신사에서 제공하는 '클린존 서비스' 등이 등장했다. 다만 중소기업은 이같은 서비스에 비용을 부담할 수 있는 여력이 되지 않았다. KISA가 디도스 사이버대피소를 구축해 무료 지원하게 된 이유다.해당 서비스는 디도스 트래픽을 대피소로 우회해 분석‧차단함으로써 해당 웹사이트가 정상 운영될 수 있도록 지원한다. 기업 도메인 네임 시스템(DNS)의 웹서버 IP 정보를 대피소 IP로 교체해 방어하는 방식이다. KISA는 통신사의 회선을 임차해 시스템을 직접 구축한다. 인터넷 대역폭을 확보하고, 일부가 공격을 받더라도 나머지 시스템에서 정상적인 서비스가 제공될 수 있도록 시스템을 분산‧배치하는 방식으로 대응하고 있다.디도스 사이버대피소 이용 대상과 절차 [사진=KISA]대피소 입주 기준은 중소기업이면 누구나 가능하다. 다만 불법적인 서비스를 제공하는 곳은 제외된다. 해당 서비스를 지원받는 업체들은 입주 기업과 대기 기업으로 나뉜다. 디도스 공격이 발생하기 전 입주하는 경우와 공격 발생 후 긴급 입주하는 방식이다. 7천271개사의 대부분은 사전에 등록한 기업이다. 지난해까지 총 1천351건의 디도스 공격을 방어함으로써 중소기업 피해 최소화했다고 KISA는 설명했다.디도스 공격 국내외 사례 [사진=KISA]김은성 KISA 탐지대응팀장은 "2009년 디도스 사태 이후에도 금융권과 대형 포털 등을 겨냥한 디도스 공격이 지속 발생하고 있지만 서비스 마비로는 이어지지 않고 있다"고 설명했다. 최근 국외에서 가장 규모가 컸던 사례는 지난해 11월 마이크로소프트(MS) 애저(Azure)를 대상으로 한 공격이다. 초당 트래픽 유발량이 3.47테라바이트(Tb)로 집계된 바 있다.디도스 공격 국내외 사례 [사진=KISA]최근 국내 사례는 지난달 토스에 대한 디도스 공격으로 초당 트래픽 유발량은 30기가바이트(Gb)였다. 실제 피해는 발생하지 않은 것으로 알려졌다.김 팀장은 "통상 국내에서 개별 중소기업을 대상으로 한 디도스 공격 규모는 1Gb 미만 수준에 그친다"며 "사이버대피소는 160Gb까지 수용할 수 있어 아직까지는 여유가 있는 상황이지만 만일의 사태에 대비할 수 있도록 통신사와의 업무협약을 통해 순간 트래픽에 대응할 수 있도록 조치할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.07.16.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>[인터뷰] 이혜민 핀다 대표 “대부업 이용했는데 알고 보니 1금융권도 가능… 돈도 잘 알고 빌려야”</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000827901?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>“급하게 대출이 필요했던 한 고객분이 주거래 은행에서 거절을 당하자 대부업체에서 1400만원을 빌리셨다. 그렇게 이자만 700만원을 냈는데, 핀다 서비스를 통해 확인해보니 1금융권 대출이 가능한 고객이었다. 그동안 잘 알지 못하고 관성적으로 대부업체를 찾아 많은 이자를 내왔던 셈이다.”한국은행이 사상 첫 ‘빅스텝(기준금리 0.5%포인트 인상)’에 나서는 등 대출 금리가 가파르게 오르면서 ‘대출 갈아타기’ 등으로 이자를 한 푼이라도 아끼려는 금융소비자가 늘고 있다. 지난 5일 서울 본사에서 만난 대출 비교 플랫폼 핀다의 이혜민(38) 대표는 ‘잘’ 알고 대출받는 것이 중요하다고 강조했다.이혜민 핀다 대표가 5일 서울 강남구 핀다 본사에서 조선비즈와 인터뷰하고 있다. /핀다 제공        이 대표가 핀다를 창업하게 된 계기도 이런 상황과 크게 다르지 않다. 과거 500글로벌에서 프리랜서로 근무했던 이 대표는 은행에서 전세자금 대출을 받으려다 연이은 거절을 당했다. 각종 복잡한 과정을 거쳐도 결국 최근 3개월간 직장가입자로서 4대 보험에 가입한 이력이 없으니 대출을 해줄 수 없다는 이유였다.이 대표는 “그동안 은행서 대출해준다고 하니까 받은 거지, 이것이 내게 가장 유리한 조건인지 아무것도 모르고 있더라”면서 “몇십 년 전 어머니가 대출받던 과정과 지금이 하나도 바뀐 게 없다는 생각이 들었다”고 말했다. 이 대표는 ‘대출의 주도권을 소비자에게 줄 순 없을까’라는 고민 끝에 박홍민(42) 대표와 함께 2015년 핀다를 설립했다.현재 핀테크 기업(fintech·금융과 기술의 합성어) 핀다는 업계 최대 수준인 총 62개의 제휴 금융사를 보유하고 있다. 토스(52개)나 카카오페이(54개)를 웃도는 수치다. 2019년 애플리케이션(앱) 출시 이후 현재까지 대출 승인된 금액은 900조원을 넘었다. 핀다는 지난해엔 기아(000270)와 트랜스링크 등으로부터 115억원 규모의 시리즈B 투자를 유치하기도 했다.핀다 2021년 결산 리포트 인포그래픽. /핀다 제공 핀테크 기업 중 드물게 2020년부터 흑자를 내고 있다.“핀다를 찾는 고객들은 목적이 뚜렷하다. 처음부터 대출이 필요한 고객들이 핀다 앱에 들어오기에 대출상품을 선택해 신청하고 받기까지 과정을 물 흐르듯이 할 수 있게 했다.대출을 원하는 이용자는 핀다 앱에 개인의 직장 및 소득 정보와 받고자 하는 대출 금액을 입력한 뒤 공동인증서 연계 작업을 거치면 된다. 핀다 엔진이 금융사 개인신용평가모델에 즉시 접속해 가심사를 받아오는 구조다. 추천 결과는 금리·한도 순으로 정렬해 고객에게 더 이득이 되는 상품을 선택할 수 있게 했다.또 편리하고 빨라야 하는 건 당연하기 때문에 정확한 정보 제공에 초점을 맞추고 있다. 더 많은 금융기관과 제휴하고, 대출에 필요한 심사 정보를 안전하게 수집하는 등 핀다에서만 얻을 수 있는 고객 경험을 만들기 위해 노력을 기울이고 있다. 이런 점들이 효과를 보고 있는 것 같다.”경쟁업체들과 달리 유일하게 대출만 다루는 이유는.“고객들이 핀다에 원하는 것은 현금흐름에 대한 해결이다. 대출은 미래의 현금흐름을 당겨쓰는 구조로, 저렴한 비용으로 최적의 대출 포트폴리오를 만들어주는 데 집중하고 있다.다만 앞으로도 대출만 하고 싶냐고 물으면, 그렇진 않다. 현재는 ‘캐시아웃(현금인출·Cash-out)’ 중 대표적인 대출을 다루고 있지만 카스, 리스, 렌트 등으로 확장할 계획이다.”여태까지 받은 투자 규모는 어떻게 되나.“174억원 규모 시리즈B 투자를 유치했다. 현재는 시리즈C 라운드를 진행하고 있다. 회사의 사업 운영자금이 필요해서라기보단 인수합병(M&amp;A) 등 다양한 사업 전략을 고려하기 위해서다. 스타트업이다 보니 인재를 유치할 때 시리즈 라운드 몇 단계인지를 많이 보는데, 기업 가치를 증명받으면서 회사 체급을 높이기 위한 목적도 있다.”핀다 제공 대출 비교 플랫폼을 보면 신용대출 상품은 많은데, 주택담보대출(주담대) 상품은 거의 없더라.“일단 금융사에 주담대 비대면 전용 상품이 사실상 없다. 카카오가 최근 관련 상품을 출시했지만, 초기라 지역 등 제한이 많았다. 주담대는 기본적으로 주택을 담보로 하는데, 앱으로 상품을 봐도 결국 은행에 가야 한다면 즉시성과 편리성 면에서 큰 효용을 주기가 어렵다.그래서 핀다의 경우 대신 정부 정책 상품 등 주담대를 받는 과정에서 필요한 정보를 제공하고 있다. 또 금융기관에서도 비대면화 노력을 하고 있기에 이 상품을 중심으로 이달 중 일부 담보대출을 오픈할 계획이다.”핀다만의 강점을 꼽자면.“업계에서 제휴 금융사가 가장 많다. 금융기관과 핀다는 공생 관계다. 금융기관들의 전략을 잘 파악해 더 많은 고객을 유치하는 것이 플랫폼 서비스로써 성과를 만드는 방법이라고 생각한다.금융기관마다 신용평가모델(CSS)이 계속 바뀌기에 이에 맞는 전략을 분석해 작성한 보고서를 전달해준다. 예를 들면 전날 유치한 고객을 유지하는 방법이나 지난달 성과가 안 좋은데 어떤 CSS 모델로 발전시켜야 하는지 같이 논의하는 식이다.또 대출 상품 광고 플랫폼을 지양하고, 매출 플랫폼을 지향하고 있다. 현재 신용평가 회사와 CSS 모델을 개발하고 있다. 서민금융정책인 햇살론 통합 CSS 모델 개발에도 참여했고, 현대·기아차의 모빌리티 데이터를 토대로 오토론을 만들기도 했다.”핀다는 더 낮은 금리로 대출 갈아타기를 보장하는 '대환보장제' 서비스를 시작한다고 30일 밝혔다.(핀다 제공)/ⓒ 뉴스1 금리 인상기 채무 부담을 줄일 수 있는 방안은 무엇인가.“마이너스통장, 카드론 등 편리해서 쓰는 경우가 많은데, 편리성 뒤엔 높은 이자가 있다. 필요한 만큼, 정확하게 대출을 받는 게 비용 측면에서 가장 중요하다. 대출을 잘 받고, 잘 갚으면 신용점수가 올라가 다음번에 더욱 유리한 조건으로 대출이 가능하다. 내가 몸이 더 편하다고 관성적으로 하는 행위들이 현금흐름이나 신용에 좋지 않은 셈이다.대환대출도 좋은 방법이다. 핀다에서 진행하고 있는 캠페인 중에 ‘대환보장제’가 있다. 금리 10% 이상의 대출을 실행한 고객이 금리를 낮추지 못하면 5만원을 보상해 주는 제도다. 일반적으로 대환대출을 하기까지 과정이 길고 복잡해 고객들은 거부감을 느낀다. 그러나 지난해 핀다에서 대환대출 서비스를 이용한 고객들은 연 52만원의 이자를 아꼈다. 대환대출에 성공하면 신용점수도 올라간다.”상장 등 향후 사업 계획은 어떻게 되나.“내년 이후 상장할 준비를 하고 있다. 핀다의 미국 투자자는 해외에서 상장하는 것을 목표로 하고 있는데, 그전에 투자유치를 두세 번 정도 추가로 할 수 있는 여지도 있다. 시장이나 회사 상황에 따라 유연하게 하려 한다. 또 현재 우리나라 대출자가 2000만명 정도 되는데, 이들 모두가 핀다를 이용하는 것을 목표로 하고 있다.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.07.21.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>쏘카, 다큐멘터리 ‘시티 딜레마’ 공개</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002263045?sid=105</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>50분 분량 자체 제작 다큐멘터리…유튜브·전용 웹페이지에 공개쏘카는 ‘주차 전쟁’ 등 자가용 중심의 이동 문화로 발생하는 도시의 딜레마 상황과 이에 도전하는 회사 구성원들의 여정을 담은 오리지널 다큐멘터리 ‘시티 딜레마’를 전용 웹페이지와 공식 유튜브에 공개했다고 21일 밝혔다.다큐멘터리는 10여년 전 제주도에서 5명으로 시작한 쏘카가 전국 4천200여개 쏘카존을 확보하고, 2만여대 카셰어링 서비스를 운영하는 국내 최초의 모빌리티 ‘유니콘’ 기업으로 성장해온 과정을 조명했다.성장 단계의 스타트업이 비대면 무인 서비스로 수많은 주차장과 차량을 관리하는 과정에서 부딪히는 문제와 어떤 기술을 개발해 이를 해결해왔는지도 그려진다.(사진=쏘카)이번 다큐멘터리엔 쏘카 성장 과정을 지켜봐 온 김한준 알토스벤처스 대표, 이준표 소프트뱅크벤처스 대표, 마크 무어 쓰론트리캐피탈파트너스 최고투자책임자(CIO)와 이승건 비바리퍼블리카(토스) 대표 등도 참여했다. 이진우 삼프로TV 대표, 조현용 MBC 소비더머니 MC도 다큐 제작에 함께했다.박재욱 쏘카 대표는 “회사 과거, 현재, 그리고 미래를 엿볼 수 있는 다큐멘터리를 모두에게 선보일 수 있게 돼 기쁘다”며 “매해가 도전이고 힘든 과정이었지만, 꿋꿋이 이겨냈고 향후 도전도 언제나 그래왔듯 이겨내며 더 멋진 회사를 만들어 나갈 것”이라고 말했다.약 50분 분량의 다큐멘터리 영상은 쏘카 공식 유튜브 채널에 접속하거나, 다큐멘터리 전용 웹페이지를 들어가면 누구나 볼 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.07.18.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>“경쟁사보다 0.1%p 더”… 케이뱅크, IPO 앞두고 “신규 고객 잡아라”</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000828255?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 케이뱅크가 잇달아 고금리 예·적금 상품을 선보이며 경쟁사 토스뱅크와 카카오뱅크와 격차를 벌리고 있다. 은행권에선 케이뱅크가 기업공개(IPO)를 앞두고 더 많은 고객 확보를 위해 파격적인 상품을 내놓고 있다는 분석이 나왔다.18일 은행권에 따르면 최근 케이뱅크는 수시입출금통장(파킹통장) 상품인 ‘플러스박스’ 금리를 기존 연 1.3%에서 0.8%포인트 오른 연 2.1%로 인상했다. 이는 은행권에서 가장 높은 연 2% 금리의 파킹통장을 선보였던 토스뱅크보다 0.1%포인트(p) 높은 수치다. 플러스박스는 매월 넷째 주 토요일에 쌓인 이자를 받을 수 있으며, 한도는 최대 3억원이다.그래픽=이은현        파킹통장은 차를 넣고 빼는 주차(parking)처럼 언제든 돈을 넣었다 뺄 수 있는 수시입출금식 통장이다.한 은행권 관계자는 “주요 시중은행의 파킹통장 금리가 대부분 1%대 초반 수준임을 고려하면, 인터넷전문은행이 이를 고객 확장을 위한 틈새 상품으로 공략하는 것으로 보인다”면서 “불안한 금리 상승기에 목돈을 잠시 넣어 놓기 좋아 저축은행들도 (파킹통장) 금리를 올리는 추세”라고 설명했다.파킹통장 금리 경쟁에 불을 붙인 곳은 토스뱅크다. 이 은행은 지난해 10월 1억원까지 연 2% 금리를 주는 ‘토스뱅크 통장’을 출시했는데, 출시 9개월 만에 지난달 기준 가입고객이 360만명을 넘어섰다. 3월부터 시행 중인 ‘지금 이자받기 서비스’를 이용하면 일복리 효과를 얻을 수 있어 더 인기를 끈 것으로 보인다. 여신 규모도 증가했다. 올해 1분기 말 토스뱅크의 예수금(수신 잔액)은 21조45억원으로, 지난해 말 대비 34.3% 증가했다.다만, 토스뱅크는 지난해 8월부터 다섯 차례 기준금리 인상에도 금리를 조정하지 않았다. 그러다 최근 경쟁사들이 잇달아 금리를 올리자 토스뱅크 역시 금리 인상을 검토한다는 입장을 보였다. 홍민택 토스뱅크 대표는 지난달 기자간담회에서 “아직 정해진 건 없지만, 고객에게 더 줄 수 있는 사업적 여건 마련된다면 (2% 통장 금리 인상을) 긍정적 검토해야 할 것”이라고 말했다.케이뱅크의 파킹통장 '플러스박스'. /케이뱅크 앱 캡처        은행권에선 케이뱅크가 플러스박스 금리를 올린 이유가 기준금리 인상에 따른 것뿐만 아니라 IPO를 앞두고 신규 고객을 끌어오기 위함이라고 분석했다.케이뱅크는 지난달 30일 한국거래소에 상장 예비심사를 신청했다. 통상 거래소의 상장 심사 기간이 2개월 정도인 점을 감안하면, 케이뱅크는 오는 9~10월 중 예비 심사를 통과하고 11월쯤 상장할 것으로 전망된다. 이 과정에서 기업 가치를 최대한 키우기 위해선 고객 규모 확대가 중요한 것이다.케이뱅크를 특판도 진행하고 있다. 케이뱅크가 지난 11일에 선보인 ‘100일 정기예금’은 오픈 10분 만에 당일 한도 1000억원이 선착순 마감됐다. 이 상품은 가입 기간 100일에 한정해 최고 연 3% 금리 혜택을 제공한다.지난달 진행한 3년 만기의 ‘코드K 자유적금’에 연 5% 금리를 제공하는 이벤트도 두 차례 모두 완판됐다.카카오뱅크 역시 ‘세이프박스’라는 파킹통장을 운영 중이다. 세이프박스 금리는 연 1.2%, 최대한도는 1억원으로 금리와 한도 면에서 케이뱅크나 토스뱅크에 못 미친다는 평이다.금융권 관계자는 “파킹통장을 이용하면 금리가 더 오르더라도 돈이 묶이지 않아 옮길 수 있다는 장점이 있다”면서 “예금자보호제도 등을 활용하는 것도 목돈을 더 안전하게 보관할 수 있는 방법”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.07.23.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>‘금산분리 완화’ 첫 격전지는 알뜰폰… “은행 안 가도 휴대폰은 쓴다”</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000829457?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>정부가 금산분리 완화를 추진하기로 한 가운데 금융권의 비금융 사업 확장 움직임이 속도를 내고 있다. 금융사들은 알뜰폰 시장에 잇달아 진출하는 등 활용도 높은 비금융 데이터를 확보할 수 있는 통신업부터 선점한다는 계획이다.23일 금융권에 따르면 모바일 금융 서비스 기업 토스는 오는 9월 중 알뜰폰 서비스를 선보일 예정이다.토스 운영사 비바리퍼블리카는 이를 위해 최근 중소 알뜰폰 업체인 가상이동통신사업자(MVNO) ‘머천드코리아’의 지분 100%를 인수하는 주식매매계약을 체결했다. 1998년 설립된 머천드코리아는 SK텔레콤·KT·LG유플러스 등 통신 3사와 계약을 맺었고, 가입자 수는 10만명 수준이다.토스(왼쪽)와 KB국민은행 알뜰폰 서비스. /각 사 제공        토스에 앞서 금융권서 가장 먼저 알뜰폰 시장에 진출한 곳은 KB금융그룹이다. KB국민은행은 2019년 규제 샌드박스를 통해 직접 ‘리브엠’을 출시했고, 2년 반 만에 가입자 30만명을 확보했다.최근엔 리브엠의 비공식 커뮤니티인 ‘알뜰폰 리브엠 친구결합 및 정보공유’ 네이버 카페를 인수했다. KB국민은행 직원이 운영해온 해당 카페는 지난 2020년 개설돼 현재 2만여명의 회원을 보유하고 있다. 리브엠은 오는 3분기 중 SK텔레콤과 KT 통신망을 쓰는 새 요금제 출시를 준비하고 있다.신한·하나은행과 NH농협 역시 알뜰폰 시장에 발을 담그려 하고 있다. 신한은행은 KT망을 이용하는 중소 사업자 네 곳, 하나은행은 SK텔레콤 산하 SK텔링크와 손을 잡고 알뜰폰 요금제를 출시했다. 지난해 9월 농협중앙회에서도 모바일뱅크 ‘NH콕뱅크’ 전용 알뜰폰 요금제를 출시했다. 이 중 신한은행은 직접 진출 계획이 없다는 입장이지만, 업계에선 사실상 시장 진입 검토가 이뤄지고 있다고 보고 있다.알뜰폰은 중소사업자들이 통신 3사의 통신망을 도매가로 빌려 소비자에게 저렴하게 되팔고 통신 서비스를 제공하는 구조다.국내 알뜰폰 시장은 2011년 도입 이후 꾸준히 증가해 2021년 기준 1000만명을 넘겼으며, 사업자 수는 70여개다. 그러나 금융권에선 전체 이동통신시장 가입자의 약 14%만 알뜰폰 회선에 가입돼 있고, 이마저도 절반 정도는 휴대폰이 아닌 사물인터넷(lot) 회선이라 개인고객 성장 잠재력이 큰 것으로 보고 있다.무엇보다 금융사는 알뜰폰 등 통신 사업을 통해 비금융 데이터를 확보할 수 있다. 금융권 관계자는 “금융 거래 이력이 부족한 ‘신 파일러(Thin Filer)’도 모두 휴대전화를 사용한다”면서 “요금제 종류·통신비 연체 여부 등을 대안 정보로 활용할 수 있게 돼 더 정확한 신용 평가가 가능하고, 나아가 잠재적인 고객을 확보할 수 있는 것”이라고 기대했다.21일 서울 시내에 위치한 알뜰폰 스퀘어 매장 모습. /뉴스1        통신업은 또 금융상품과 연계해 시너지 효과를 기대할 수 있다. 실제로 KB국민은행의 알뜰폰 서비스 리브엠은 체크·신용카드 사용 실적에 따라 통신비 할인(월 최대 1만7000원)을 제공하고 있다. 은행과 거래 실적까지 감안해 최대 월 4400원 추가 할인도 가능하다. 금융·통신 서비스를 다양하게 결합한 상품 제공은 고객을 묶어두는 ‘락인(Lock-in)’ 효과도 극대화할 수 있다.반면 금융사들의 알뜰폰 사업 확장에 이동통신업계는 생존권을 위협받고 있다며 이를 반대하고 있다. 알뜰폰 가입자가 급증하면서 기존 이동통신 가입 중심의 판매점들이 설 자리를 잃는다는 지적이다.이동통신 대리점·판매점 등으로 구성된 전국이동통신유통협회(KMDA)는 지난 21일 정부서울청사 금융위 앞에서 기자회견을 열고 “부가조건 위반과 금권 마케팅으로 시장 질서를 교란하는 KB국민은행의 알뜰폰 사업은 당장 중단돼야 한다”고 주장했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.07.25.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>토스·카카오페이증권 따라 MTS 개편 나선 전통 증권사들, 투자자들은 시큰둥</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000829795?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>미래에셋증권·키움증권 등 잇달아 MTS 개편투자자들 “오히려 불편해져…다른 증권사 쓸 것”코스피서 MTS 차지 비중 절반 달해        국내 전통 증권사들이 모바일트레이딩시스템(MTS)를 전면 개편하며 서비스 경쟁에 들어갔지만 투자자들의 반응은 시큰둥하다.일러스트=정다운        25일 증권 업계에 따르면, 미래에셋증권은 지난 달 30일 통합 MTS인 ‘M-Stock(엠스톡)’을 출시했다. 기존에 국내 주식 어플리케이션(앱) ‘엠스톡’, 해외 주식 앱 ‘엠글로벌’, 연금 등 자산관리 앱 ‘엠올’ 등 3개로 나뉘어 있던 것을 하나의 앱으로 묶은 것이다.키움증권도 이달 말 출시를 목표로 계좌개설·국내주식·해외주식 기능을 하나도 모은 통합 앱 ‘영웅문S#’을 준비 중이다. 키움증권은 매 달 300만명 이상이 이용하는 MTS 이용자 수 1위 증권사다. 키움증권은 지난 4월 사전 체험단을 모집한 후 베타 테스트를 마친 상태다. 현재는 이용자의 의견을 받아 앱 성능 개선, 메뉴 체계 개편 등을 준비 중이다.이 밖에 한국투자증권과 NH투자증권도 MTS 새단장에 나서고 있다. 증권사들이 MTS를 개편하는 이유는 기존 고객이 토스와 카카오페이증권 등 핀테크를 기반으로 한 신규 증권사로 이탈하고 있기 때문으로 풀이된다.플랫폼 업체인 토스와 카카오는 증권업에 진출하면서 간편 버전 MTS를 선보였다. 특히 토스증권은 지난 5월 해외주식 서비스를 선보인 지 6개월 만에 거래금액 기준 해외주식 거래시장 점유율 12.5%를 기록했다.토스증권과 카카오페이증권은 기존 플랫폼 기업을 기반으로 만든 증권사로, 간단 명료한 사용자 인터페이스(UI)와 사용자경험(UX) 구현한 것이 특징이다. 기존 증권사 MTS가 이용이 어렵고 난잡하다는 인식을 지우기 위해 두 증권사는 최대한 사용하기 간편하게 배치했다. 주식에 입문하는 사람들이나 젊은 층이 쉽게 접근할 수 있도록 했다.문제는 기존 증권사들도 토스증권과 카카오페이증권처럼 MTS를 새롭게 개편하고 있으나, 기존 이용객들의 불만도 커지고 있다는 점이다.10년 넘게 미래에셋증권 MTS를 사용했다는 30대 투자자 김모 씨는 “주식 초보자나 보기 편하게 만들었지 나처럼 MTS만으로 거래를 많이 하는 사람들은 하루 아침에 너무 불편해졌다”면서 “UI만 그럴듯해졌고, 정작 사용하려는 메뉴를 찾으려면 숨은 그림 찾기를 해야되는 수준”이라고 말했다. 그는 새롭게 바뀐 MTS가 직관적이지 못하고, 사용성이 떨어진다며 다른 증권사 MTS를 사용하겠다고 불만을 터트렸다.또 다른 투자자 A씨는 “바뀐 미래에셋증권 MTS는 사용하기에 익숙하지 않아 너무 불편하다”면서 “메인에 블록 모양으로 여러 개 보였던 것이 가독성이 좋아서 사용했던건데 바뀌고 나서는 그런 게 없어져서 쓸 이유가 사라졌다”고 했다.NH투자증권을 꾸준히 이용했다는 박 모씨는 “지난 달 NH투자증권 MTS인 나무증권이 업데이트 되면서 네이버 종목 토론방이 사라졌는데 그 이후로는 나무증권 어플을 안 쓰게 된다”고 말했다.그래픽=이은현        한편, 주식 거래에서 MTS가 차지하는 비중은 계속해서 커지고 있다. 한국거래소에 따르면 주문 매체별 주식체결량을 분석한 결과 이날 기준 유가증권시장에서 MTS가 차지하는 비중은 42%로 절반에 가까운 것으로 나타났다. 코스닥시장에서는 같은날 MTS 비중이 47%를 차지했다.2017년까지만 해도 유가증권시장에서 MTS가 차지하는 비중은 34%에 그쳤지만, 2018년(35.6%), 2019년(40.7%), 2020년(46.8%) 등 해마다 증가 추세를 보였다. 지난해에는 한 해 동안 주식체결량에서 MTS가 차지했던 평균 비중이 47.9%에 달했다.반면, 홈트레이딩시스템(HTS)이 차지하는 비중은 해마다 줄고 있다. 2017년 42.7%에 달했던 HTS 비중은 2018년(39.7%), 2019년(38.9%), 2020년(36.6%)으로 감소하고 있다. 이날 기준으로는 32.1%로 최근 몇 년 동안 가장 낮은 비율을 보였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.07.26.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>이준석 “우크라이나 가는데 당비 쓰는 건 당연, 정치적 공격에 환멸감”</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003719140?sid=100</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>우크라이나 방문에 당비 약 1억4000만원 보도에…이준석 “누군가 장난을 친다”    이준석 국민의힘 대표. 연합뉴스     지역 당원·지지자들과의 만남으로 ‘장외전’ 중인 이준석 국민의힘 대표가 26일 우크라이나 방문 당시 당비로 약 1억4000만원이 들어갔다는 보도에 “이제는 우크라이나 방문 비용 가지고 누군가가 장난을 친다”면서 불편한 속내를 드러냈다.   이 대표는 이날 오후 자신의 사회관계망서비스(SNS)에 글을 올려 “법인카드 ‘한도’ 2000만원 기사로 장난치더니”라며 이같이 밝히고, “우크라이나에서 상대 정당이 초청해 가는데 당비를 쓰는 것은 당연하다”고 강조했다. 이어 “초청 일정에 맞춰서 가는데 이런 자료나 유출시켜서 정치적으로 공격하려고 하는 모습을 보면 환멸감이 든다”고 토로했다.   앞서 한 매체는 같은 날 이 대표 등 국민의힘 특별대표단의 지난달 우크라이나 방문 일정에 당비로 약 1억4000만원이 들어갔으며, 총 11명이 방문했던 만큼 1인당 약 1300만원의 당비가 들어간 셈이라고 보도했다.   이 대표 등의 우크라이나 방문 당시 국민의힘 내에서는 갑론을박이 거셌다. 이 대표가 ‘성 상납 의혹 관련 증거인멸 교사’ 의혹에 대한 윤리위원회 징계 논의와 그에 따른 거취 논란 상황을 회피하려는 것 아니냐는 의구심이 제기됐고, 다른 쪽에서는 여당 대표가 우크라이나를 방문하는 게 뭐가 잘못됐느냐는 반박이 나왔다.   특히 5선 중진인 정진석 의원이 이 대표를 공개 저격했고, 이 대표도 “어차피 기차는 간다”는 정 의원을 겨냥한 것으로 해석되는 글을 자신의 SNS에 올리기도 했다.   이 대표는 “회계 내용은 엄격하게 관리되는데 이 언론사가 해킹이라도 한 게 아니라면 지난달 회계보고를 받은 최고위원이 이 내용을 언론사에 토스했을 수밖에 없다”며 “이런 공격을 시도하는 것 자체가 추잡하다”고 비난했다.   계속해서 “저는 대표가 된 후 당에서 제공하는 카니발과 운전기사도 거부하고 대중교통이나 자차로 다닌다”며 “이런 걸로 공격해봐야 남는 게 없다”고 경고했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.07.26.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>우크라行 '1억 지출' 보도에…이준석 "환멸감 든다"</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000042193?sid=100</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>"초청해서 가는데 당비 쓰는 것 당연""이런 공격 시도하는 것 자체가 추잡스러워"이준석 국민의힘 대표가 5일 오후 국회 당대표실에서 열린 비공개회의에 참석하기 위해 대표실로 이동하고 있다. Ⓒ연합뉴스한 언론사가 '이준석 대표가 추진한 우크라이나 방문에 당비 약 1억4000만원이 쓰였다'고 보도한 것과 관련, 이 대표는 "회계자료를 유출시켜 정치적으로 공격하려고 하는 모습을 보면 환멸감이 든다"고 강도높게 비난했다.이 대표는 26일 자신의 페이스북을 통해 "법인카드 한도 2000만원 기사로 장난치더니 이제는 우크라이나 방문비용 가지고 누군가가 장난을 친다"며 "우크라이나에서 상대 정당이 초청해서 가는데 당비를 쓰는 것은 당연하고 일정은 초청일정에 맞춰 가는 것"이라고 밝혔다.이 대표는 "우크라이나 방문시 직항편도 비행기편이 모두 없어서 바르샤바까지 갈 때는 이스탄불, 올 때는 도하 경유로 비행기값만 1인당 800만원 넘게 든 상황"이라며 "경유로도 표도 구하기 힘들어서 의원님들은 갈 때 그 장시간 비행을 이코노미 타고 갔다"고 했다. 이어 "당연히 바르샤바에서 우크라이나까지는 방문단 전원이 버스에 같이 타고 육로로 위험지대를 10시간 넘게 들어갔다"고 덧붙였다.이 대표는 언론 보도 배후에 당내 인사가 있을 수 있다고 의심했다. 이 대표는 "회계내용은 엄격하게 관리되는데 이 언론사가 해킹이라도 한 것이 아니라면 지난 달에 회계보고를 받은 최고위원이 이 내용을 언론사에 토스했을 수 밖에 없다"며 "이런 공격을 시도하는 것 자체가 추잡하다"고 비판했다.이 대표는 이어 "저는 대표 되고 나서 당에서 제공한다는 카니발과 운전기사도 거부하고 대중교통이나 자차 이용해서 다닌다"며 "이런 걸로 공격해봐야 남는 거 없다"고 강조했다.한편, 이날 아이뉴스24는 이 대표를 포함한 국민의힘 특별대표단이 지난달 6박7일 우크라이나 일정에 당비 1억4458만3276원을 사용했다고 보도했다. 당 특별대표단은 이 대표와 박성민·김형동·허은아·태영호·정동만 의원, 김철근 당대표 정무실장, 당대표실·국제국 등에 근무하는 당직자 4명을 포함해 총 11명으로 구성됐다. 외교부 관계자 3명도 동행했다. 관련 비용은 당정이 각자 별도로 처리한 것으로 확인됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.07.28.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>편의점 맥주 사다가 "아차! 신분증"…이제 폰 내미세요</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004776218?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>[집적회로(IC) 운전면허증으로 교체하거나 면허시험장서 QR코드로 발급…휴대폰 개통 등에도 사용]플라스틱 신분증을 별도로 지니고 다닐 필요 없이 국민 누구나 스마트폰으로 운전면허증 사용이 가능해진다.행정안전부와 경찰청은 오늘(28일)부터 전국 모든 운전면허시험장 및 경찰서에서 모바일 운전면허증을 발급한다고 밝혔다. 앞서 정부는 지난 6개월간 서울서부 및 대전 운전면허시험장에서 8만7000여명에게 모바일 운전면허증을 시범 발급해 안전성과 편의성 점검을 완료했다.모바일 운전면허증은 도로교통법령에 따라 개인 스마트폰에 발급하는 운전면허증이다. 현행 플라스틱 운전면허증과 똑같은 법적 효력을 가진다. 이에 따라 공공기관은 물론 은행, 렌터카 업체, 공항, 병원, 편의점, 여객터미널, 통신사, 선거 등 현행 운전면허증이 사용되는 모든 곳에서 모바일 운전면허증 사용이 가능하다. 다만 이동통신 가입 등 신분증 사본 보관이 필요한 경우에는 별도의 시스템 준비가 갖춰진 곳에서만 사용할 수 있다. 특히 모바일 운전면허증은 현장에서는 물론 비대면 계좌개설, 온라인 민원신청 등 온라인·비대면 환경에서도 사용이 가능하다. 또 필요한 정보만 제공이 가능해 불필요한 개인정보 노출을 방지할 수 있다. 예를 들어 편의점 이용시엔 성인 여부나 렌터카 대여시엔 면허자격 여부 등만 제공하는 식이다.  안전성 확보를 위해 블록체인과 암호화 등 다양한 보안기술이 적용됐고, 본인명의 1개만 단말기에만 발급 받을 수 있다. 분실신고 시에는 모바일 운전면허증이 잠김 처리된다. 모바일 운전면허증은 운전면허시험장 또는 경찰서 민원실을 방문해 대면 신원확인을 거쳐야 발급이 가능하다.발급방법은 모바일 신분증(운전면허증) 앱을 내려받아 설치하고, 집적회로(IC) 운전면허증으로 발급받거나 운전면허시험장을 방문해 정보무늬(QR)로 발급받는 방법 중 선택할 수 있다.IC운전면허증으로 모바일 운전면허증을 발급받기 위해서는 현행 운전면허증을 IC운전면허증으로 교체해야 한다. 수령한 IC운전면허증을 스마트폰 뒷면에 접촉한 후, 본인인증을 거치면 모바일 운전면허증을 발급받을 수 있다.IC운전면허증은 도로교통공단의 안전운전통합민원 웹사이트에서 신청해 지정한 운전면허시험장이나 경찰서 민원실에서 곧바로 현장 수령할 수 있다. 또 운전면허시험장이나 경찰서를 방문해 신청할 수 있다. 이 경우 1~2주가 걸린다. IC운전면허증 발급비용은 1만3000원이다. 스마트폰 교체나 분실시 기관 재방문 없이 IC운전면허증으로 모바일 운전면허증을 다시 발급받으면 된다.운전면허시험장 창구에 설치된 QR코드를 모바일 신분증 앱으로 촬영해 발급받는 방식도 있다. 비용은 1000원이다. 스마트폰 교체나 분실 등으로 모바일 운전면허증을 다시 발급받아야 할 경우 운전면허시험장을 재방문해야 한다. ━토스·야놀자 서비스도 이용 가능━신원 확인시엔 제시된 모바일 운전면허증을 육안으로 확인하거나 신원정보에 대한 진위확인이 필요한 경우 '모바일 신분증 검증앱'을 통해 확인하면 된다. 검증앱은 앱 마켓에서 내려 받을 수 있으며 검증앱으로 모바일 운전면허증의 QR 코드를 촬영하면 진위가 검증된 정보를 확인할 수 있다.사용처별로 특화된 신원확인 방식도 다양하게 제공된다. 시스템 연계를 완료해 모바일 운전면허증을 사용할 수 있는 13개 은행에서는 창구 방문 시 은행직원이 제시한 QR 코드를 모바일 신분증 앱으로 촬영해 금융거래를 할 수 있다. 4개 은행에서는 비대면 계좌개설시에도 모바일 운전면허증을 이용할 수 있다.이밖에 휴대폰 개통이나 편의점 성인인증, 정부24 회원 로그인, 토스 본인확인서비스, 야놀자 등 숙박시설 무인 체크인, 네이버페이 송금 등 사용처별로 특화된 다양한 온라인 및 현장(오프라인) 편의 서비스가 제공된다.행안부는 앞으로 민간기업과 긴밀히 협력해 모바일 운전면허증을 활용한 다양한 혁신 서비스를 지속 발굴·확산해 나갈 계획이다. 내년에는 국민이 자주 사용하는 민간 앱에서도 모바일 운전면허증을 발급받아 이용할 수 있도록 모바일 신분증을 민간에 개방하고, 국가유공자증에 이어 전 국민 대상의 주민등록증 등으로 모바일 신분증을 확대할 방침이다. 이상민 행안부 장관은 "모바일 운전면허증 정식 발급은 본격적인 모바일 신분증 시대의 개막과 디지털플랫폼정부로의 전환을 알리는 계기"라며 "앞으로 플라스틱 신분증을 휴대해야 하는 국민 불편 해소를 넘어 민간과 함께 다양한 혁신 서비스를 창출하고, 비대면 디지털 경제 활성화를 위한 기반을 조성해 나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
